--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1479F-3434-4FA7-8160-1E28AC0D9A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E6854-6BD3-476E-8E93-8D2DB8FA8A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>mesh0</t>
   </si>
@@ -898,6 +898,12 @@
   </si>
   <si>
     <t>mesh99</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Quadric Cost</t>
   </si>
 </sst>
 </file>
@@ -1216,2340 +1222,3226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>27.215900000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>27.341000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>26.022200000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>26.1479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>25.112300000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>25.2638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>4.5122999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4.4989299999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2.8965100000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2.91221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2.2713000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2.3242400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1.60144</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1.6282300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3.4844200000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3.5157699999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3.9344600000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3.9782000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2.0273400000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2.06819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3.70044</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3.7271200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1.5811299999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1.6012500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>4.5939699999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>4.6410600000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>41.426400000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>41.622199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>4.4047900000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4.3907699999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>2.1208399999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2.1508799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>2.0523699999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2.0928599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>1.9863299999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2.0119699999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>2.27976</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2.2934199999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3.7825799999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3.83094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>3.0498500000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>3.0955499999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1.48481</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1.49905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>2.7496200000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2.7807599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>3.4541900000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3.4969999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>45.0672</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>45.306399999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>2.9533999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>2.9416199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>4.3700200000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>4.4091100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>1.7091000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1.7259500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>2.1833999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>2.2028500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>2.3942999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2.4250400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>3.3857300000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>3.4330699999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>3.00617</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>3.03328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>2.1888899999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>2.2122700000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>1.7928299999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1.8293999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>4.8481399999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>4.8842400000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>24.5063</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>24.6294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>4.0158899999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>4.03531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>3.4408400000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>3.4533299999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1.7941499999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1.81301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>3.3994399999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>3.4657499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>2.37094</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>2.3990399999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>2.63476</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2.6660400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>2.48292</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>2.5222600000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>2.5722800000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2.6183700000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1.6706000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1.6916599999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>2.6267399999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>2.6644000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>27.106400000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>27.2684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>2.4879099999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>2.47838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>2.95302</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2.9704899999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1.83142</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1.8615900000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>3.3930400000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>3.4366599999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>4.1769100000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>4.2097499999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>3.0760399999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>3.1334399999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>1.8160799999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1.8411299999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>2.82193</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>2.8344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>3.1507800000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>3.1980400000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>2.4495499999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>2.5007899999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>24.381599999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>24.5228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>3.7875899999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3.7992699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>1.8358699999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1.86252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>1.80582</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>1.8154999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>3.6055600000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>3.60676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>3.28267</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>3.3229099999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>6.1345000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>6.1877399999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>12.475300000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>12.547599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>2.5842900000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>2.6048900000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>2.3145799999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>2.3258100000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>27.106000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>27.287199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>2.6927500000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>2.6869299999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>1.6455200000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1.65059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>1.8526899999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1.8659399999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>3.2944</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>3.3409399999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>1.6407</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1.6601600000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>3.4082300000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>3.4276300000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>3.0719400000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>3.0886800000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>3.1608200000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>3.2032400000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>2.1177600000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>2.1478199999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>3.2932199999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>3.3278799999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>24.3062</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>24.4602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>2.3995799999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>2.39303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>2.0947800000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>2.1016300000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>2.8866000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>2.9187500000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>5.6408800000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>5.7110099999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>3.5914799999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>3.6299000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>2.7286899999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>2.74987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>2.99552</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>3.0342500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>2.9758</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>2.9996700000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>1.69689</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1.71532</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>2.97776</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>3.0198100000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>26.992899999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>27.1386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>2.5743399999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>2.5838100000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>1.9112199999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>1.91476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>1.76783</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>1.7865899999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>3.6696200000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>3.6932999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>3.0689199999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>3.1090499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>3.2063600000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>3.2303000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>3.1523500000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>3.1639599999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>4.7416900000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>4.7826199999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>1.9480900000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>1.9790399999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>24.585100000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>24.730599999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>5.1393500000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>5.1507500000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104">
         <v>2.5600999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>2.57701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>2.4390000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>2.47228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>1.8128200000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>1.8265899999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>2.3561800000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>2.3859300000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108">
         <v>3.0137900000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>3.0500600000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>1.53996</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>1.5558799999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>1.91832</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>1.9497899999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>3.1042700000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>3.1234999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112">
         <v>2.9725100000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>2.98902</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>24.355499999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>24.482199999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>25.3323</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>25.466100000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>3.7374499999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>3.74254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>2.7069800000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>2.7274799999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117">
         <v>3.1574900000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>3.1853600000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>2.3795700000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>2.4050699999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>1.9434100000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>1.96166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>1.7889900000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>1.8119799999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>3.5104600000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>3.5432600000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>5.4843599999999997</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>5.5486700000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>10.227600000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>10.2347</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>3.27027</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>3.3008799999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>27.177199999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>27.3444</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>8.6597000000000008</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>8.6627500000000008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>3.3874900000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>3.40367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>3.6586500000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>3.6835</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>3.4963199999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>3.5421299999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>1.91499</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>1.9408300000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
         <v>13.277699999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>13.351100000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>2.9003399999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>2.9127299999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>4.37608</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>4.4101100000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>5.5914000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>5.6444700000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>6.6447099999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>6.7019399999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>15.048500000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>15.0465</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>11.483499999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>11.532299999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>6.2254899999999997</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>6.2545500000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>35.256100000000004</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>35.404499999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>33.131999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>33.280700000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141">
         <v>4.5465099999999996</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>4.5665399999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>6.6468699999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>6.6790599999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>6.2716700000000003</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>6.30884</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
         <v>2.2215500000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>2.2394099999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>6.7700500000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>6.7274000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>2.7890999999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>2.8215300000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147">
         <v>27.059100000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>27.223500000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>9.2796000000000003</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>9.3256399999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>7.7884799999999998</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>7.8295000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>12.4732</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>12.5533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>18.953099999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>19.029499999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>2.77284</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>2.77908</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>5.7994700000000003</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>5.75122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>5.2078800000000003</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>5.2527299999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>6.3548400000000003</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>6.4020400000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>8.48264</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>8.5414600000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157">
         <v>19.8779</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>19.991399999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>27.5519</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>27.712399999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>6.2606000000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>6.2848300000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>2.8626200000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>2.8815400000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>3.8485399999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>3.8851499999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>8.8039299999999994</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>8.8733199999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>7.819</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>7.8735600000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164">
         <v>2.4981200000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>2.5117699999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>5.2138799999999996</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>5.2784500000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>5.7625400000000004</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>5.8090299999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>6.7390600000000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>6.7922200000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>5.6802400000000004</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>5.7172599999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>41.929200000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>42.147599999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>8.5341000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>8.5601299999999991</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>4.1989700000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>4.20967</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>2.33873</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>2.3732099999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>2.88435</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>2.9239000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>4.4378000000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>4.4337099999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>2.3673299999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>2.3983699999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>5.0789600000000004</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>5.1530500000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177">
         <v>5.18431</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>5.2321499999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>4.1674699999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>4.2180299999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>6.1261999999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>6.1894799999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>27.235700000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>27.413699999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>4.0109399999999997</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>4.0226899999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>8.7278099999999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>8.7779900000000008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>3.0750700000000002</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>3.0983800000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184">
         <v>3.45994</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>3.4877199999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>2.5719400000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>2.6038199999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>5.1542000000000003</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>5.2218299999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187">
         <v>2.1342400000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>2.1627999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188">
         <v>6.0988600000000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>6.1683399999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189">
         <v>1.6348499999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>1.66215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190">
         <v>1.98959</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>2.0270899999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191">
         <v>27.073799999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>27.2408</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192">
         <v>7.2218499999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>7.2452100000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193">
         <v>3.6161799999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>3.6432500000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194">
         <v>2.5678100000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>2.5868899999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195">
         <v>2.9864999999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>2.9933999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196">
         <v>3.64073</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>3.6890299999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197">
         <v>3.3748100000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>3.4126799999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198">
         <v>2.20634</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>2.2292000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199">
         <v>7.4351399999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>7.5115299999999996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200">
         <v>3.38985</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>3.41608</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201">
         <v>2.80579</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>2.8449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202">
         <v>24.517900000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>24.673999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203">
         <v>2.7571400000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>2.7590300000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204">
         <v>3.7901199999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>3.8268200000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205">
         <v>1.9601999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>1.9801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206">
         <v>3.61469</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>3.6562999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207">
         <v>2.10473</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>2.1384799999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208">
         <v>2.0142199999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>2.0411800000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209">
         <v>3.1586699999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>3.1840099999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210">
         <v>1.64225</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>1.6666799999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211">
         <v>7.3113999999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>7.3806900000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212">
         <v>1.7731600000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>1.7861100000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213">
         <v>25.141400000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>25.298999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214">
         <v>959.10900000000004</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>946.98299999999995</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215">
         <v>66.887100000000004</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>67.205500000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216">
         <v>25.985399999999998</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>26.1327</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217">
         <v>26.050999999999998</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>26.182500000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218">
         <v>46.251100000000001</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>46.428699999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219">
         <v>13.9938</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>14.053900000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220">
         <v>24.866199999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>24.988299999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221">
         <v>23.099299999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>23.224799999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222">
         <v>23.028099999999998</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>23.155999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223">
         <v>27.906400000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>28.0624</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224">
         <v>25.302700000000002</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>25.4422</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225">
         <v>38.781100000000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>38.914200000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226">
         <v>25.436800000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>25.558800000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227">
         <v>25.699200000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>25.967600000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228">
         <v>27.356999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>27.3094</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229">
         <v>13.630699999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>13.677099999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230">
         <v>55.479500000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>55.325299999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231">
         <v>56.558799999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>56.467500000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232">
         <v>26.384</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>26.5258</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233">
         <v>6.8027300000000004</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>6.8350200000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234">
         <v>1.8293299999999999</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>1.8347800000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235">
         <v>1.55002</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>1.5651600000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236">
         <v>5.1170600000000004</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>5.16927</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237">
         <v>24.500299999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>24.651399999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238">
         <v>3.16214</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>3.1613899999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239">
         <v>3.5686599999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>3.6173099999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240">
         <v>3.3932799999999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>3.4849700000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241">
         <v>1.91679</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>1.90147</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242">
         <v>1.8483400000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>1.83883</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243">
         <v>3.7843300000000002</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>3.7158099999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244">
         <v>5.0748199999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>5.2947899999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245">
         <v>5.2193100000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>5.2603</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246">
         <v>3.3891</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>3.3912399999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247">
         <v>2.9984199999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>3.0268299999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248">
         <v>24.491</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>24.558299999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249">
         <v>5.8204599999999997</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>5.8661500000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250">
         <v>1.87287</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>1.8889</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251">
         <v>7.0893800000000002</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>7.4298200000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252">
         <v>1.86416</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>1.9285699999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253">
         <v>3.3181500000000002</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>3.3304299999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254">
         <v>32.8538</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>32.994999999999997</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255">
         <v>6.1629399999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>5.5341199999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256">
         <v>2.5968300000000002</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>2.6537500000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257">
         <v>2.7067299999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>2.7566199999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258">
         <v>7.0576800000000004</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>7.2299199999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259">
         <v>49.8401</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>50.202800000000003</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260">
         <v>5.7149200000000002</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>5.6497999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261">
         <v>2.8565399999999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>2.8104</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262">
         <v>2.5353599999999998</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>2.54637</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263">
         <v>1.7426900000000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>1.75559</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264">
         <v>4.9228199999999998</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>4.9632699999999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265">
         <v>3.2227600000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>3.19049</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266">
         <v>2.87636</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>2.8988999999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
       <c r="B267">
         <v>1.9670000000000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>1.9989699999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268">
         <v>3.38184</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>3.4180899999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269">
         <v>5.8918499999999998</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>5.9312899999999997</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270">
         <v>24.513000000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>24.663900000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271">
         <v>6.6050800000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>6.6098600000000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272">
         <v>2.9343699999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>2.97241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273">
         <v>2.8984000000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>2.9401700000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274">
         <v>2.44848</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>2.4914700000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275">
         <v>3.01362</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>3.07254</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276">
         <v>4.1275599999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>4.1697499999999996</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277">
         <v>3.3182800000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>3.3603499999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278">
         <v>2.9005100000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>2.9581</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279">
         <v>4.1069300000000002</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>4.1511199999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280">
         <v>2.8139599999999998</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>2.8483499999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281">
         <v>24.4057</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>24.573</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282">
         <v>3.2282000000000002</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>3.22898</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283">
         <v>3.22512</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>3.24865</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284">
         <v>2.4815800000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>2.51912</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285">
         <v>2.3947799999999999</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>2.4266899999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286">
         <v>3.4372699999999998</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>3.4679899999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287">
         <v>2.1542699999999999</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>2.1819500000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288">
         <v>3.0560700000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>3.09354</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289">
         <v>2.6498400000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>2.67252</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290">
         <v>4.2347799999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>4.2746599999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291">
         <v>2.5173399999999999</v>
+      </c>
+      <c r="C291">
+        <v>2.5573700000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>291</v>
+      </c>
+      <c r="C292" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E6854-6BD3-476E-8E93-8D2DB8FA8A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFA83ED-124C-4FDC-BEEE-977F0CB98569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>mesh0</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>Quadric Cost</t>
+  </si>
+  <si>
+    <t>Optimize "remove" parts</t>
   </si>
 </sst>
 </file>
@@ -1222,20 +1225,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,8 +1248,11 @@
       <c r="C1">
         <v>27.341000000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>26.645099999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1256,8 +1262,11 @@
       <c r="C2">
         <v>26.1479</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>25.4816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1267,8 +1276,11 @@
       <c r="C3">
         <v>25.2638</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>24.590599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1278,8 +1290,11 @@
       <c r="C4">
         <v>4.4989299999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>4.5028199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1289,8 +1304,11 @@
       <c r="C5">
         <v>2.91221</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2.8674400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1300,8 +1318,11 @@
       <c r="C6">
         <v>2.3242400000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2.2815799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1311,8 +1332,11 @@
       <c r="C7">
         <v>1.6282300000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1.6057399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1322,8 +1346,11 @@
       <c r="C8">
         <v>3.5157699999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3.4923999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1333,8 +1360,11 @@
       <c r="C9">
         <v>3.9782000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3.9348299999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1344,8 +1374,11 @@
       <c r="C10">
         <v>2.06819</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2.0288900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1355,8 +1388,11 @@
       <c r="C11">
         <v>3.7271200000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3.6890800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1402,11 @@
       <c r="C12">
         <v>1.6012500000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1.59019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1377,8 +1416,11 @@
       <c r="C13">
         <v>4.6410600000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>4.6019100000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1388,8 +1430,11 @@
       <c r="C14">
         <v>41.622199999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>40.738300000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="C15">
         <v>4.3907699999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>4.4015899999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1410,8 +1458,11 @@
       <c r="C16">
         <v>2.1508799999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2.1289899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1421,8 +1472,11 @@
       <c r="C17">
         <v>2.0928599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2.0671599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1432,8 +1486,11 @@
       <c r="C18">
         <v>2.0119699999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1.98336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1443,8 +1500,11 @@
       <c r="C19">
         <v>2.2934199999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2.26986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1454,8 +1514,11 @@
       <c r="C20">
         <v>3.83094</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>3.79569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1465,8 +1528,11 @@
       <c r="C21">
         <v>3.0955499999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>3.0679400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1476,8 +1542,11 @@
       <c r="C22">
         <v>1.49905</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1.4947299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1487,8 +1556,11 @@
       <c r="C23">
         <v>2.7807599999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2.7608700000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1498,8 +1570,11 @@
       <c r="C24">
         <v>3.4969999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>3.4636399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1509,8 +1584,11 @@
       <c r="C25">
         <v>45.306399999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>44.277799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1520,8 +1598,11 @@
       <c r="C26">
         <v>2.9416199999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2.9484900000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1531,8 +1612,11 @@
       <c r="C27">
         <v>4.4091100000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>4.3599399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1542,8 +1626,11 @@
       <c r="C28">
         <v>1.7259500000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1.7057599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1553,8 +1640,11 @@
       <c r="C29">
         <v>2.2028500000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>2.1858200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1564,8 +1654,11 @@
       <c r="C30">
         <v>2.4250400000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2.39106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1575,8 +1668,11 @@
       <c r="C31">
         <v>3.4330699999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>3.40544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1586,8 +1682,11 @@
       <c r="C32">
         <v>3.03328</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>3.0025499999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1597,8 +1696,11 @@
       <c r="C33">
         <v>2.2122700000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2.18641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1608,8 +1710,11 @@
       <c r="C34">
         <v>1.8293999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1.8025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1619,8 +1724,11 @@
       <c r="C35">
         <v>4.8842400000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>4.85677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1630,8 +1738,11 @@
       <c r="C36">
         <v>24.6294</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>24.041899999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1641,8 +1752,11 @@
       <c r="C37">
         <v>4.03531</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>4.0254200000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1652,8 +1766,11 @@
       <c r="C38">
         <v>3.4533299999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>3.4244699999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1663,8 +1780,11 @@
       <c r="C39">
         <v>1.81301</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1.7976399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1674,8 +1794,11 @@
       <c r="C40">
         <v>3.4657499999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>3.41994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1685,8 +1808,11 @@
       <c r="C41">
         <v>2.3990399999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2.3686199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1696,8 +1822,11 @@
       <c r="C42">
         <v>2.6660400000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>2.6386400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1707,8 +1836,11 @@
       <c r="C43">
         <v>2.5222600000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2.47743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1718,8 +1850,11 @@
       <c r="C44">
         <v>2.6183700000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>2.5812499999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1729,8 +1864,11 @@
       <c r="C45">
         <v>1.6916599999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1.6752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1740,8 +1878,11 @@
       <c r="C46">
         <v>2.6644000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>2.6452100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1751,8 +1892,11 @@
       <c r="C47">
         <v>27.2684</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>26.5763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1762,8 +1906,11 @@
       <c r="C48">
         <v>2.47838</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2.4791699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1773,8 +1920,11 @@
       <c r="C49">
         <v>2.9704899999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>2.9527999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1784,8 +1934,11 @@
       <c r="C50">
         <v>1.8615900000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1.8435699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1795,8 +1948,11 @@
       <c r="C51">
         <v>3.4366599999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>3.4011300000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1806,8 +1962,11 @@
       <c r="C52">
         <v>4.2097499999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>4.1747399999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1817,8 +1976,11 @@
       <c r="C53">
         <v>3.1334399999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>3.0841599999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1828,8 +1990,11 @@
       <c r="C54">
         <v>1.8411299999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1.8150999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1839,8 +2004,11 @@
       <c r="C55">
         <v>2.8344</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>2.7978700000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1850,8 +2018,11 @@
       <c r="C56">
         <v>3.1980400000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>3.1404100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1861,8 +2032,11 @@
       <c r="C57">
         <v>2.5007899999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>2.4623900000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1872,8 +2046,11 @@
       <c r="C58">
         <v>24.5228</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>23.8401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1883,8 +2060,11 @@
       <c r="C59">
         <v>3.7992699999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>3.7914400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1894,8 +2074,11 @@
       <c r="C60">
         <v>1.86252</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1.8464799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1905,8 +2088,11 @@
       <c r="C61">
         <v>1.8154999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1.81006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1916,8 +2102,11 @@
       <c r="C62">
         <v>3.60676</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>3.5753699999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1927,8 +2116,11 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1938,8 +2130,11 @@
       <c r="C64">
         <v>3.3229099999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>3.2844199999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1949,8 +2144,11 @@
       <c r="C65">
         <v>6.1877399999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>6.1429099999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1960,8 +2158,11 @@
       <c r="C66">
         <v>12.547599999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>12.4376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1971,8 +2172,11 @@
       <c r="C67">
         <v>2.6048900000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>2.58833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1982,8 +2186,11 @@
       <c r="C68">
         <v>2.3258100000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2.31487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1993,8 +2200,11 @@
       <c r="C69">
         <v>27.287199999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>26.574300000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2004,8 +2214,11 @@
       <c r="C70">
         <v>2.6869299999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2.6963499999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2015,8 +2228,11 @@
       <c r="C71">
         <v>1.65059</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1.6382699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2026,8 +2242,11 @@
       <c r="C72">
         <v>1.8659399999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1.8500300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2037,8 +2256,11 @@
       <c r="C73">
         <v>3.3409399999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>3.3079999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2048,8 +2270,11 @@
       <c r="C74">
         <v>1.6601600000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1.6420600000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2059,8 +2284,11 @@
       <c r="C75">
         <v>3.4276300000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>3.3986999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2070,8 +2298,11 @@
       <c r="C76">
         <v>3.0886800000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>3.0680999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2081,8 +2312,11 @@
       <c r="C77">
         <v>3.2032400000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>3.1776499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2092,8 +2326,11 @@
       <c r="C78">
         <v>2.1478199999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>2.1153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2103,8 +2340,11 @@
       <c r="C79">
         <v>3.3278799999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>3.28227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2114,8 +2354,11 @@
       <c r="C80">
         <v>24.4602</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>23.785799999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2125,8 +2368,11 @@
       <c r="C81">
         <v>2.39303</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>2.4056500000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2136,8 +2382,11 @@
       <c r="C82">
         <v>2.1016300000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>2.0845600000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2147,8 +2396,11 @@
       <c r="C83">
         <v>2.9187500000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>2.8949099999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2158,8 +2410,11 @@
       <c r="C84">
         <v>5.7110099999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>5.68546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2169,8 +2424,11 @@
       <c r="C85">
         <v>3.6299000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>3.5775800000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2180,8 +2438,11 @@
       <c r="C86">
         <v>2.74987</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>2.7273999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2191,8 +2452,11 @@
       <c r="C87">
         <v>3.0342500000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>3.0183300000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2202,8 +2466,11 @@
       <c r="C88">
         <v>2.9996700000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>2.9729899999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2213,8 +2480,11 @@
       <c r="C89">
         <v>1.71532</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>1.69614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2224,8 +2494,11 @@
       <c r="C90">
         <v>3.0198100000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>3.0073500000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2235,8 +2508,11 @@
       <c r="C91">
         <v>27.1386</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>26.446200000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2246,8 +2522,11 @@
       <c r="C92">
         <v>2.5838100000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>2.5889000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2257,8 +2536,11 @@
       <c r="C93">
         <v>1.91476</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>1.9086399999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2268,8 +2550,11 @@
       <c r="C94">
         <v>1.7865899999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>1.77345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2279,8 +2564,11 @@
       <c r="C95">
         <v>3.6932999999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>3.6530999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2290,8 +2578,11 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2301,8 +2592,11 @@
       <c r="C97">
         <v>3.1090499999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>3.0809600000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2312,8 +2606,11 @@
       <c r="C98">
         <v>3.2303000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>3.2081599999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2323,8 +2620,11 @@
       <c r="C99">
         <v>3.1639599999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>3.1449400000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2334,8 +2634,11 @@
       <c r="C100">
         <v>4.7826199999999996</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>4.7814100000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2345,8 +2648,11 @@
       <c r="C101">
         <v>1.9790399999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>1.9599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2356,8 +2662,11 @@
       <c r="C102">
         <v>24.730599999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>24.073399999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2367,8 +2676,11 @@
       <c r="C103">
         <v>5.1507500000000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>5.1394900000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2378,8 +2690,11 @@
       <c r="C104">
         <v>2.57701</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>2.5534300000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2389,8 +2704,11 @@
       <c r="C105">
         <v>2.47228</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2.4323899999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2400,8 +2718,11 @@
       <c r="C106">
         <v>1.8265899999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>1.8106500000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2411,8 +2732,11 @@
       <c r="C107">
         <v>2.3859300000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>2.35406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2422,8 +2746,11 @@
       <c r="C108">
         <v>3.0500600000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>3.0243500000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2433,8 +2760,11 @@
       <c r="C109">
         <v>1.5558799999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>1.5483100000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2444,8 +2774,11 @@
       <c r="C110">
         <v>1.9497899999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>1.9303399999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2455,8 +2788,11 @@
       <c r="C111">
         <v>3.1234999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>3.1055100000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2466,8 +2802,11 @@
       <c r="C112">
         <v>2.98902</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>2.97994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2477,8 +2816,11 @@
       <c r="C113">
         <v>24.482199999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>23.845199999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2488,8 +2830,11 @@
       <c r="C114">
         <v>25.466100000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>24.825399999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2499,8 +2844,11 @@
       <c r="C115">
         <v>3.74254</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>3.7283499999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2510,8 +2858,11 @@
       <c r="C116">
         <v>2.7274799999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>2.7207499999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2521,8 +2872,11 @@
       <c r="C117">
         <v>3.1853600000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>3.1663899999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2532,8 +2886,11 @@
       <c r="C118">
         <v>2.4050699999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>2.3652600000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2543,8 +2900,11 @@
       <c r="C119">
         <v>1.96166</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>1.93303</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2554,8 +2914,11 @@
       <c r="C120">
         <v>1.8119799999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>1.7952300000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2565,8 +2928,11 @@
       <c r="C121">
         <v>3.5432600000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>3.5342099999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2576,8 +2942,11 @@
       <c r="C122">
         <v>5.5486700000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>5.4940199999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2587,8 +2956,11 @@
       <c r="C123">
         <v>10.2347</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>10.1309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2598,8 +2970,11 @@
       <c r="C124">
         <v>3.3008799999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>3.2804600000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2609,8 +2984,11 @@
       <c r="C125">
         <v>27.3444</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>26.666399999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2620,8 +2998,11 @@
       <c r="C126">
         <v>8.6627500000000008</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>8.5622900000000008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2631,8 +3012,11 @@
       <c r="C127">
         <v>3.40367</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>3.3925299999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2642,8 +3026,11 @@
       <c r="C128">
         <v>3.6835</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>3.6659600000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2653,8 +3040,11 @@
       <c r="C129">
         <v>3.5421299999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>3.5186700000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2664,8 +3054,11 @@
       <c r="C130">
         <v>1.9408300000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>1.91648</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2675,8 +3068,11 @@
       <c r="C131">
         <v>13.351100000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>13.2486</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2686,8 +3082,11 @@
       <c r="C132">
         <v>2.9127299999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>2.8814000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2697,8 +3096,11 @@
       <c r="C133">
         <v>4.4101100000000004</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>4.3886099999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2708,8 +3110,11 @@
       <c r="C134">
         <v>5.6444700000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>5.5784500000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -2719,8 +3124,11 @@
       <c r="C135">
         <v>6.7019399999999996</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>6.6763300000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2730,8 +3138,11 @@
       <c r="C136">
         <v>15.0465</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>14.668900000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -2741,8 +3152,11 @@
       <c r="C137">
         <v>11.532299999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>11.4376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -2752,8 +3166,11 @@
       <c r="C138">
         <v>6.2545500000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>6.2072900000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -2763,8 +3180,11 @@
       <c r="C139">
         <v>35.404499999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>35.215000000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -2774,8 +3194,11 @@
       <c r="C140">
         <v>33.280700000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>33.198300000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -2785,8 +3208,11 @@
       <c r="C141">
         <v>4.5665399999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>4.5459500000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -2796,8 +3222,11 @@
       <c r="C142">
         <v>6.6790599999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>6.6336500000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -2807,8 +3236,11 @@
       <c r="C143">
         <v>6.30884</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>6.25122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -2818,8 +3250,11 @@
       <c r="C144">
         <v>2.2394099999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>2.22126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -2829,8 +3264,11 @@
       <c r="C145">
         <v>6.7274000000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>6.6275000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -2840,8 +3278,11 @@
       <c r="C146">
         <v>2.8215300000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>2.7867600000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -2851,8 +3292,11 @@
       <c r="C147">
         <v>27.223500000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>26.515799999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -2862,8 +3306,11 @@
       <c r="C148">
         <v>9.3256399999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>9.28613</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -2873,8 +3320,11 @@
       <c r="C149">
         <v>7.8295000000000003</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>7.7919499999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -2884,8 +3334,11 @@
       <c r="C150">
         <v>12.5533</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>12.491899999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -2895,8 +3348,11 @@
       <c r="C151">
         <v>19.029499999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>18.878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -2906,8 +3362,11 @@
       <c r="C152">
         <v>2.77908</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>2.7795399999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -2917,8 +3376,11 @@
       <c r="C153">
         <v>5.75122</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>5.6460800000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -2928,8 +3390,11 @@
       <c r="C154">
         <v>5.2527299999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>5.2243500000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -2939,8 +3404,11 @@
       <c r="C155">
         <v>6.4020400000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>6.3710500000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -2950,8 +3418,11 @@
       <c r="C156">
         <v>8.5414600000000007</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>8.5020299999999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -2961,8 +3432,11 @@
       <c r="C157">
         <v>19.991399999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>19.9206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -2972,8 +3446,11 @@
       <c r="C158">
         <v>27.712399999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>27.0181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -2983,8 +3460,11 @@
       <c r="C159">
         <v>6.2848300000000004</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>6.2792700000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -2994,8 +3474,11 @@
       <c r="C160">
         <v>2.8815400000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>2.85866</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3005,8 +3488,11 @@
       <c r="C161">
         <v>3.8851499999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>3.8473000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3016,8 +3502,11 @@
       <c r="C162">
         <v>8.8733199999999997</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>8.8353000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3027,8 +3516,11 @@
       <c r="C163">
         <v>7.8735600000000003</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>7.7979099999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3038,8 +3530,11 @@
       <c r="C164">
         <v>2.5117699999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>2.5000399999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3049,8 +3544,11 @@
       <c r="C165">
         <v>5.2784500000000003</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>5.2278799999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3060,8 +3558,11 @@
       <c r="C166">
         <v>5.8090299999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>5.7481900000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3071,8 +3572,11 @@
       <c r="C167">
         <v>6.7922200000000004</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>6.7116899999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3082,8 +3586,11 @@
       <c r="C168">
         <v>5.7172599999999996</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>5.6660300000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3093,8 +3600,11 @@
       <c r="C169">
         <v>42.147599999999997</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>40.985700000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3104,8 +3614,11 @@
       <c r="C170">
         <v>8.5601299999999991</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>8.5641800000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3115,8 +3628,11 @@
       <c r="C171">
         <v>4.20967</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>4.1753299999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3126,8 +3642,11 @@
       <c r="C172">
         <v>2.3732099999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>2.3434200000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3137,8 +3656,11 @@
       <c r="C173">
         <v>2.9239000000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>2.8887200000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3148,8 +3670,11 @@
       <c r="C174">
         <v>4.4337099999999996</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>4.3646099999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3159,8 +3684,11 @@
       <c r="C175">
         <v>2.3983699999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>2.371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3170,8 +3698,11 @@
       <c r="C176">
         <v>5.1530500000000004</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>5.1053300000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3181,8 +3712,11 @@
       <c r="C177">
         <v>5.2321499999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>5.1746100000000004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3192,8 +3726,11 @@
       <c r="C178">
         <v>4.2180299999999997</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>4.1764099999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3203,8 +3740,11 @@
       <c r="C179">
         <v>6.1894799999999996</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>6.1577500000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3214,8 +3754,11 @@
       <c r="C180">
         <v>27.413699999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>26.677900000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3225,8 +3768,11 @@
       <c r="C181">
         <v>4.0226899999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>4.0160200000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3236,8 +3782,11 @@
       <c r="C182">
         <v>8.7779900000000008</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>8.7148900000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3247,8 +3796,11 @@
       <c r="C183">
         <v>3.0983800000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>3.0794299999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3258,8 +3810,11 @@
       <c r="C184">
         <v>3.4877199999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>3.4619300000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3269,8 +3824,11 @@
       <c r="C185">
         <v>2.6038199999999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>2.5861000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3280,8 +3838,11 @@
       <c r="C186">
         <v>5.2218299999999997</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>5.1710900000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3291,8 +3852,11 @@
       <c r="C187">
         <v>2.1627999999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>2.12765</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3302,8 +3866,11 @@
       <c r="C188">
         <v>6.1683399999999997</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>6.1364999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3313,8 +3880,11 @@
       <c r="C189">
         <v>1.66215</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>1.6454500000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3324,8 +3894,11 @@
       <c r="C190">
         <v>2.0270899999999998</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>1.99495</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3335,8 +3908,11 @@
       <c r="C191">
         <v>27.2408</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>26.515799999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3346,8 +3922,11 @@
       <c r="C192">
         <v>7.2452100000000002</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>7.24681</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3357,8 +3936,11 @@
       <c r="C193">
         <v>3.6432500000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>3.60426</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3368,8 +3950,11 @@
       <c r="C194">
         <v>2.5868899999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>2.5520200000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3379,8 +3964,11 @@
       <c r="C195">
         <v>2.9933999999999998</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>2.9545699999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3390,8 +3978,11 @@
       <c r="C196">
         <v>3.6890299999999998</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>3.65951</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3401,8 +3992,11 @@
       <c r="C197">
         <v>3.4126799999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>3.36572</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3412,8 +4006,11 @@
       <c r="C198">
         <v>2.2292000000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>2.2051799999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3423,8 +4020,11 @@
       <c r="C199">
         <v>7.5115299999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>7.4545000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3434,8 +4034,11 @@
       <c r="C200">
         <v>3.41608</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>3.39208</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3445,8 +4048,11 @@
       <c r="C201">
         <v>2.8449</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>2.8134100000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3456,8 +4062,11 @@
       <c r="C202">
         <v>24.673999999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>24.0059</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3467,8 +4076,11 @@
       <c r="C203">
         <v>2.7590300000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>2.7611400000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3478,8 +4090,11 @@
       <c r="C204">
         <v>3.8268200000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>3.7993800000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3489,8 +4104,11 @@
       <c r="C205">
         <v>1.9801</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>1.95902</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3500,8 +4118,11 @@
       <c r="C206">
         <v>3.6562999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>3.6311399999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3511,8 +4132,11 @@
       <c r="C207">
         <v>2.1384799999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>2.1124900000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3522,8 +4146,11 @@
       <c r="C208">
         <v>2.0411800000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>2.0237400000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3533,8 +4160,11 @@
       <c r="C209">
         <v>3.1840099999999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>3.1656300000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3544,8 +4174,11 @@
       <c r="C210">
         <v>1.6666799999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>1.6426499999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3555,8 +4188,11 @@
       <c r="C211">
         <v>7.3806900000000004</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>7.3364799999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3566,8 +4202,11 @@
       <c r="C212">
         <v>1.7861100000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>1.76657</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3577,8 +4216,11 @@
       <c r="C213">
         <v>25.298999999999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>24.5654</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3588,8 +4230,11 @@
       <c r="C214">
         <v>946.98299999999995</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>937.77099999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3599,8 +4244,11 @@
       <c r="C215">
         <v>67.205500000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>66.577100000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3610,8 +4258,11 @@
       <c r="C216">
         <v>26.1327</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>25.4023</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3621,8 +4272,11 @@
       <c r="C217">
         <v>26.182500000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>25.433399999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3632,8 +4286,11 @@
       <c r="C218">
         <v>46.428699999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>44.950099999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3643,8 +4300,11 @@
       <c r="C219">
         <v>14.053900000000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>13.7075</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3654,8 +4314,11 @@
       <c r="C220">
         <v>24.988299999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>24.323899999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3665,8 +4328,11 @@
       <c r="C221">
         <v>23.224799999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>22.655000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3676,8 +4342,11 @@
       <c r="C222">
         <v>23.155999999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>22.593499999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3687,8 +4356,11 @@
       <c r="C223">
         <v>28.0624</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>27.274799999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3698,8 +4370,11 @@
       <c r="C224">
         <v>25.4422</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>24.745999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3709,8 +4384,11 @@
       <c r="C225">
         <v>38.914200000000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>37.972000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3720,8 +4398,11 @@
       <c r="C226">
         <v>25.558800000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>24.8551</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3731,8 +4412,11 @@
       <c r="C227">
         <v>25.967600000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>24.6341</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3742,8 +4426,11 @@
       <c r="C228">
         <v>27.3094</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>26.354500000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3753,8 +4440,11 @@
       <c r="C229">
         <v>13.677099999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>13.8241</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3764,8 +4454,11 @@
       <c r="C230">
         <v>55.325299999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>55.357599999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3775,8 +4468,11 @@
       <c r="C231">
         <v>56.467500000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>55.8504</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3786,8 +4482,11 @@
       <c r="C232">
         <v>26.5258</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>26.183800000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3797,8 +4496,11 @@
       <c r="C233">
         <v>6.8350200000000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>6.8863799999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3808,8 +4510,11 @@
       <c r="C234">
         <v>1.8347800000000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>1.83087</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3819,8 +4524,11 @@
       <c r="C235">
         <v>1.5651600000000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>1.56477</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3830,8 +4538,11 @@
       <c r="C236">
         <v>5.16927</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>5.2576499999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3841,8 +4552,11 @@
       <c r="C237">
         <v>24.651399999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>24.492000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3852,8 +4566,11 @@
       <c r="C238">
         <v>3.1613899999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>3.2837299999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3863,8 +4580,11 @@
       <c r="C239">
         <v>3.6173099999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>3.7015699999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3874,8 +4594,11 @@
       <c r="C240">
         <v>3.4849700000000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>3.46041</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3885,8 +4608,11 @@
       <c r="C241">
         <v>1.90147</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>1.867</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3896,8 +4622,11 @@
       <c r="C242">
         <v>1.83883</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>1.7947200000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3907,8 +4636,11 @@
       <c r="C243">
         <v>3.7158099999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>3.5498799999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3918,8 +4650,11 @@
       <c r="C244">
         <v>5.2947899999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>4.9204600000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3929,8 +4664,11 @@
       <c r="C245">
         <v>5.2603</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>4.9609399999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -3940,8 +4678,11 @@
       <c r="C246">
         <v>3.3912399999999998</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>3.2684000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -3951,8 +4692,11 @@
       <c r="C247">
         <v>3.0268299999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>3.0028199999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -3962,8 +4706,11 @@
       <c r="C248">
         <v>24.558299999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>23.942699999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -3973,8 +4720,11 @@
       <c r="C249">
         <v>5.8661500000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>5.9501900000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -3984,8 +4734,11 @@
       <c r="C250">
         <v>1.8889</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>1.88375</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -3995,8 +4748,11 @@
       <c r="C251">
         <v>7.4298200000000003</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>7.03512</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4006,8 +4762,11 @@
       <c r="C252">
         <v>1.9285699999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>1.86273</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4017,8 +4776,11 @@
       <c r="C253">
         <v>3.3304299999999998</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>3.1762800000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4028,8 +4790,11 @@
       <c r="C254">
         <v>32.994999999999997</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>31.100200000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4039,8 +4804,11 @@
       <c r="C255">
         <v>5.5341199999999997</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>3.9602499999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4050,8 +4818,11 @@
       <c r="C256">
         <v>2.6537500000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>2.7768000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4061,8 +4832,11 @@
       <c r="C257">
         <v>2.7566199999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>3.0318000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4072,8 +4846,11 @@
       <c r="C258">
         <v>7.2299199999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>7.2246199999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4083,8 +4860,11 @@
       <c r="C259">
         <v>50.202800000000003</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>46.543300000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4094,8 +4874,11 @@
       <c r="C260">
         <v>5.6497999999999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>5.5282299999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4105,8 +4888,11 @@
       <c r="C261">
         <v>2.8104</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>2.7486799999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4116,8 +4902,11 @@
       <c r="C262">
         <v>2.54637</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>2.4890099999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4127,8 +4916,11 @@
       <c r="C263">
         <v>1.75559</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>1.7404999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4138,8 +4930,11 @@
       <c r="C264">
         <v>4.9632699999999996</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>4.9089099999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4149,8 +4944,11 @@
       <c r="C265">
         <v>3.19049</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>3.1505100000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4160,8 +4958,11 @@
       <c r="C266">
         <v>2.8988999999999998</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>2.8910999999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4171,8 +4972,11 @@
       <c r="C267">
         <v>1.9989699999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>1.97611</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4182,8 +4986,11 @@
       <c r="C268">
         <v>3.4180899999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>3.3940299999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4193,8 +5000,11 @@
       <c r="C269">
         <v>5.9312899999999997</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>5.9146799999999997</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4204,8 +5014,11 @@
       <c r="C270">
         <v>24.663900000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>24.3279</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -4215,8 +5028,11 @@
       <c r="C271">
         <v>6.6098600000000003</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>7.11822</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -4226,8 +5042,11 @@
       <c r="C272">
         <v>2.97241</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>3.30782</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -4237,8 +5056,11 @@
       <c r="C273">
         <v>2.9401700000000002</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>3.5026700000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -4248,8 +5070,11 @@
       <c r="C274">
         <v>2.4914700000000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>3.1831399999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -4259,8 +5084,11 @@
       <c r="C275">
         <v>3.07254</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>3.4848499999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -4270,8 +5098,11 @@
       <c r="C276">
         <v>4.1697499999999996</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>4.8930499999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -4281,8 +5112,11 @@
       <c r="C277">
         <v>3.3603499999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>3.7515900000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -4292,8 +5126,11 @@
       <c r="C278">
         <v>2.9581</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>3.3631099999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -4303,8 +5140,11 @@
       <c r="C279">
         <v>4.1511199999999997</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>4.4611999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -4314,8 +5154,11 @@
       <c r="C280">
         <v>2.8483499999999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>2.83826</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -4325,8 +5168,11 @@
       <c r="C281">
         <v>24.573</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>24.2654</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -4336,8 +5182,11 @@
       <c r="C282">
         <v>3.22898</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>3.2206999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -4347,8 +5196,11 @@
       <c r="C283">
         <v>3.24865</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>3.2284600000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -4358,8 +5210,11 @@
       <c r="C284">
         <v>2.51912</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>2.5009899999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -4369,8 +5224,11 @@
       <c r="C285">
         <v>2.4266899999999998</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>2.3863799999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -4380,8 +5238,11 @@
       <c r="C286">
         <v>3.4679899999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>3.4406300000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -4391,8 +5252,11 @@
       <c r="C287">
         <v>2.1819500000000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>2.1699799999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -4402,8 +5266,11 @@
       <c r="C288">
         <v>3.09354</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>3.0616099999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -4413,8 +5280,11 @@
       <c r="C289">
         <v>2.67252</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>2.6474000000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -4424,8 +5294,11 @@
       <c r="C290">
         <v>4.2746599999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>4.2421300000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -4435,13 +5308,19 @@
       <c r="C291">
         <v>2.5573700000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>2.5208499999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
       <c r="C292" t="s">
         <v>292</v>
+      </c>
+      <c r="D292" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QOC_Src\MeshSimplication.Android\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E134FDF7-2DA9-4CD0-A730-282000249F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFE42E-A760-4993-96A1-FAACA03E10B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -10280,874 +10278,874 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="290"/>
                 <c:pt idx="0">
-                  <c:v>-12.2605</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.542400000000004</c:v>
+                  <c:v>2.0548000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.496300000000002</c:v>
+                  <c:v>2.3684000000000012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.3714400000000007</c:v>
+                  <c:v>-16.280239999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.08724</c:v>
+                  <c:v>-1.1764000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.75814</c:v>
+                  <c:v>-0.29556000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4674799999999999</c:v>
+                  <c:v>-0.50960000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.1686799999999997</c:v>
+                  <c:v>1.9600899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3845199999999998</c:v>
+                  <c:v>0.47725000000000017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.7067700000000001</c:v>
+                  <c:v>-1.4341300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.2133700000000003</c:v>
+                  <c:v>1.8059099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5395700000000001</c:v>
+                  <c:v>-1.9119699999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.6461200000000007</c:v>
+                  <c:v>2.8206000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-19.571999999999996</c:v>
+                  <c:v>33.601380000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.0716999999999999</c:v>
+                  <c:v>-30.329040000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.79223</c:v>
+                  <c:v>-1.6325499999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.7337600000000002</c:v>
+                  <c:v>2.6759999999999895E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.7326699999999997</c:v>
+                  <c:v>2.418000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.8094300000000003</c:v>
+                  <c:v>0.34041999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.5086200000000001</c:v>
+                  <c:v>1.5531699999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.0479500000000002</c:v>
+                  <c:v>-0.36956000000000033</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.5016499999999999</c:v>
+                  <c:v>-1.4985099999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.0303199999999997</c:v>
+                  <c:v>1.1836900000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.3271399999999995</c:v>
+                  <c:v>0.81109000000000009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-21.087600000000002</c:v>
+                  <c:v>38.333440000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.6444899999999998</c:v>
+                  <c:v>-36.130310000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.6240299999999994</c:v>
+                  <c:v>1.9931200000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.5188400000000002</c:v>
+                  <c:v>-2.3835500000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.8125100000000001</c:v>
+                  <c:v>0.54465000000000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.8696600000000005</c:v>
+                  <c:v>0.27438999999999991</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.16622</c:v>
+                  <c:v>1.1834600000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.2177600000000002</c:v>
+                  <c:v>-0.35155000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.7604299999999999</c:v>
+                  <c:v>-0.65576999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.6432699999999998</c:v>
+                  <c:v>-0.23904000000000014</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.1914600000000011</c:v>
+                  <c:v>2.9967199999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-11.443300000000004</c:v>
+                  <c:v>17.734589999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.3184199999999997</c:v>
+                  <c:v>-16.730730000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.2847400000000002</c:v>
+                  <c:v>-5.2729999999999944E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.6294600000000001</c:v>
+                  <c:v>-1.29382</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.2239099999999996</c:v>
+                  <c:v>1.5987100000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.8700700000000001</c:v>
+                  <c:v>-0.72014000000000022</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.9884899999999996</c:v>
+                  <c:v>0.37415999999999983</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.9194900000000001</c:v>
+                  <c:v>1.4590000000000103E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.9212100000000003</c:v>
+                  <c:v>0.21363000000000021</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.5830800000000003</c:v>
+                  <c:v>-0.68597000000000019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.9983499999999998</c:v>
+                  <c:v>0.9645999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-12.7182</c:v>
+                  <c:v>22.476409999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.53457</c:v>
+                  <c:v>-20.446259999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.2052799999999997</c:v>
+                  <c:v>0.8709699999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.66401</c:v>
+                  <c:v>-0.89690999999999987</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.1476699999999997</c:v>
+                  <c:v>1.6518600000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.5821899999999998</c:v>
+                  <c:v>0.7185400000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.1764600000000001</c:v>
+                  <c:v>-0.71126000000000023</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.6181100000000002</c:v>
+                  <c:v>-0.97041000000000022</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.9276400000000002</c:v>
+                  <c:v>1.0513400000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-2.2225400000000004</c:v>
+                  <c:v>0.55459999999999976</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.9514400000000003</c:v>
+                  <c:v>-0.49968999999999975</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-11.373900000000003</c:v>
+                  <c:v>20.020609999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3.1311</c:v>
+                  <c:v>-16.567080000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.7100599999999999</c:v>
+                  <c:v>-1.5703999999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.6337200000000003</c:v>
+                  <c:v>4.569999999999963E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.9614999999999996</c:v>
+                  <c:v>1.6671200000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-9.5999899999999995E-5</c:v>
+                  <c:v>-3.52793</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.2394000000000003</c:v>
+                  <c:v>3.1677300000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.2690299999999999</c:v>
+                  <c:v>2.8737500000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-5.6658000000000008</c:v>
+                  <c:v>6.4564300000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.8523899999999998</c:v>
+                  <c:v>-7.9293000000000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.8730300000000004</c:v>
+                  <c:v>-3.595999999999977E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-12.576499999999999</c:v>
+                  <c:v>22.72636</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.7486199999999998</c:v>
+                  <c:v>-20.18956</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.6135400000000002</c:v>
+                  <c:v>-0.60098000000000007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.6848099999999999</c:v>
+                  <c:v>0.23001000000000005</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-3.0890899999999997</c:v>
+                  <c:v>1.5259400000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.5485000000000002</c:v>
+                  <c:v>-1.5552999999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-3.1968900000000002</c:v>
+                  <c:v>1.8121700000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-3.0616000000000003</c:v>
+                  <c:v>-0.23055000000000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.1361900000000005</c:v>
+                  <c:v>9.7239999999999771E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.7422400000000002</c:v>
+                  <c:v>-0.77306000000000008</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-3.1694299999999997</c:v>
+                  <c:v>1.31325</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-11.311499999999995</c:v>
+                  <c:v>19.051900000000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.5994099999999998</c:v>
+                  <c:v>-17.954080000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.7585999999999999</c:v>
+                  <c:v>6.5320000000000267E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.1102300000000001</c:v>
+                  <c:v>0.82407000000000008</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-3.2682000000000002</c:v>
+                  <c:v>2.8195599999999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.2512999999999996</c:v>
+                  <c:v>-1.63</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.4396300000000002</c:v>
+                  <c:v>-0.53022999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.0413599999999996</c:v>
+                  <c:v>0.34596999999999989</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.9919499999999997</c:v>
+                  <c:v>1.3939999999999841E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.5662399999999999</c:v>
+                  <c:v>-1.2615300000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-3.00339</c:v>
+                  <c:v>1.3602099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-12.595100000000002</c:v>
+                  <c:v>21.885059999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.6881900000000001</c:v>
+                  <c:v>-20.265740000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.7270099999999999</c:v>
+                  <c:v>-0.26413999999999982</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.6291</c:v>
+                  <c:v>-5.3260000000000085E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-3.4589999999999996</c:v>
+                  <c:v>1.93251</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.8400000000000002E-4</c:v>
+                  <c:v>-3.5795599999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-3.04887</c:v>
+                  <c:v>3.0894300000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-3.09219</c:v>
+                  <c:v>0.16466000000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-3.0400999999999998</c:v>
+                  <c:v>2.5980000000000114E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.8494200000000003</c:v>
+                  <c:v>1.4916699999999996</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.6732800000000001</c:v>
+                  <c:v>-2.34334</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-11.404500000000002</c:v>
+                  <c:v>20.743069999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-2.8921999999999999</c:v>
+                  <c:v>-15.70904</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.9340000000000006</c:v>
+                  <c:v>-1.8805999999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-1.9206599999999998</c:v>
+                  <c:v>4.9840000000000106E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.5372600000000001</c:v>
+                  <c:v>-0.45728000000000013</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-1.8539599999999998</c:v>
+                  <c:v>0.65164</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-3.0215400000000003</c:v>
+                  <c:v>0.83178999999999981</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-1.51712</c:v>
+                  <c:v>-1.4219299999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-1.6595500000000001</c:v>
+                  <c:v>0.37544</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-3.0514800000000002</c:v>
+                  <c:v>1.2729699999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-2.9895699999999996</c:v>
+                  <c:v>-5.1559999999999828E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-11.3718</c:v>
+                  <c:v>19.365649999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-11.388300000000001</c:v>
+                  <c:v>2.8886000000000003</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-3.1211300000000004</c:v>
+                  <c:v>-17.250070000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-2.0548600000000001</c:v>
+                  <c:v>-0.70782000000000034</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-3.0612900000000005</c:v>
+                  <c:v>0.66432999999999964</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-1.8996400000000002</c:v>
+                  <c:v>-0.74655000000000005</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-1.61256</c:v>
+                  <c:v>-0.29796</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-1.6500600000000001</c:v>
+                  <c:v>1.5359999999999818E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-2.5104500000000001</c:v>
+                  <c:v>1.66669</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-2.9805300000000008</c:v>
+                  <c:v>1.9407100000000002</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-8.0991000000000017</c:v>
+                  <c:v>4.7205300000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-2.4297799999999996</c:v>
+                  <c:v>-7.0439100000000003</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-12.4998</c:v>
+                  <c:v>21.901040000000002</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-4.0825700000000005</c:v>
+                  <c:v>-14.728069999999999</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-3.1741299999999995</c:v>
+                  <c:v>-3.8103099999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-2.6057199999999994</c:v>
+                  <c:v>0.3094800000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-2.4980199999999999</c:v>
+                  <c:v>-3.2160000000000188E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-1.6538199999999998</c:v>
+                  <c:v>-1.3594199999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-5.9436999999999998</c:v>
+                  <c:v>10.69692</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.9690000000000003</c:v>
+                  <c:v>-8.3348699999999987</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-2.6631600000000004</c:v>
+                  <c:v>1.6761499999999998</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-2.9913999999999996</c:v>
+                  <c:v>1.4731200000000002</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-3.6827399999999999</c:v>
+                  <c:v>1.5194599999999996</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-7.3308999999999997</c:v>
+                  <c:v>7.9178499999999996</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-5.2889999999999997</c:v>
+                  <c:v>-1.7996999999999996</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-3.3939199999999996</c:v>
+                  <c:v>-3.7521699999999996</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-14.197499999999998</c:v>
+                  <c:v>27.896719999999998</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-13.486900000000002</c:v>
+                  <c:v>2.0074000000000005</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-2.37188</c:v>
+                  <c:v>-23.88862</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-3.6246300000000007</c:v>
+                  <c:v>2.5423799999999996</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-3.53721</c:v>
+                  <c:v>8.4220000000000184E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.7505799999999998</c:v>
+                  <c:v>-3.3523399999999994</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-1.6791600000000004</c:v>
+                  <c:v>4.5434999999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-2.0146599999999997</c:v>
+                  <c:v>-1.96963</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-12.628200000000003</c:v>
+                  <c:v>22.314549999999997</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-4.2955299999999994</c:v>
+                  <c:v>-14.303729999999998</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-3.7813400000000001</c:v>
+                  <c:v>-0.35388999999999982</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-5.7569000000000017</c:v>
+                  <c:v>5.1505599999999996</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-8.4513999999999996</c:v>
+                  <c:v>7.2654000000000014</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-1.8677400000000004</c:v>
+                  <c:v>-13.323910000000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-1.6239599999999994</c:v>
+                  <c:v>3.2379600000000002</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-2.8736200000000007</c:v>
+                  <c:v>0.92713000000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-3.6228000000000007</c:v>
+                  <c:v>1.4932600000000003</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-4.3186900000000001</c:v>
+                  <c:v>2.3582900000000002</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-8.7636000000000003</c:v>
+                  <c:v>11.39518</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-12.691399999999998</c:v>
+                  <c:v>8.2218000000000018</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-3.1696399999999993</c:v>
+                  <c:v>-17.183480000000003</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.0992899999999999</c:v>
+                  <c:v>-2.4704100000000002</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2.5875300000000001</c:v>
+                  <c:v>1.0742800000000003</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-4.4473200000000013</c:v>
+                  <c:v>4.8384699999999992</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-4.1579400000000009</c:v>
+                  <c:v>-0.28446000000000016</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-1.94692</c:v>
+                  <c:v>-4.3615999999999993</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-3.1571399999999992</c:v>
+                  <c:v>2.7065100000000002</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-3.4906999999999995</c:v>
+                  <c:v>0.82882000000000033</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-3.7393900000000002</c:v>
+                  <c:v>1.1992500000000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-3.054380000000001</c:v>
+                  <c:v>-0.55003000000000046</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-19.634100000000004</c:v>
+                  <c:v>33.404429999999998</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-3.7064599999999999</c:v>
+                  <c:v>-26.737960000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-3.5003000000000002</c:v>
+                  <c:v>-2.9020400000000004</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-1.8795200000000003</c:v>
+                  <c:v>-1.6309900000000002</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.0923200000000004</c:v>
+                  <c:v>0.60826000000000002</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-1.4677599999999993</c:v>
+                  <c:v>1.6965600000000003</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-1.8454200000000003</c:v>
+                  <c:v>-0.84797000000000011</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-3.0745399999999998</c:v>
+                  <c:v>2.6539800000000002</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-2.8217699999999999</c:v>
+                  <c:v>0.3361200000000002</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-2.5914299999999999</c:v>
+                  <c:v>-0.4156500000000003</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-3.4071200000000008</c:v>
+                  <c:v>2.1017000000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-12.785799999999998</c:v>
+                  <c:v>19.716619999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-2.2716799999999995</c:v>
+                  <c:v>-19.206600000000002</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-4.6192899999999995</c:v>
+                  <c:v>4.9640699999999995</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-2.1411899999999995</c:v>
+                  <c:v>-4.7736199999999993</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-3.2172399999999999</c:v>
+                  <c:v>0.67405000000000026</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.9872899999999998</c:v>
+                  <c:v>-0.80123000000000033</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-2.8455700000000004</c:v>
+                  <c:v>2.5590999999999995</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1.7582399999999998</c:v>
+                  <c:v>-2.3729800000000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-3.404869999999999</c:v>
+                  <c:v>3.8765500000000004</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.5750499999999998</c:v>
+                  <c:v>-3.7830500000000002</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1.7139400000000002</c:v>
+                  <c:v>0.3948799999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-12.663499999999999</c:v>
+                  <c:v>23.000520000000002</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-3.5686600000000004</c:v>
+                  <c:v>-16.039060000000003</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-2.2976299999999998</c:v>
+                  <c:v>-2.5852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.8878099999999995</c:v>
+                  <c:v>-0.6535599999999997</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-1.5463099999999996</c:v>
+                  <c:v>0.61341000000000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-2.5771900000000003</c:v>
+                  <c:v>1.19285</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-2.1293999999999995</c:v>
+                  <c:v>-0.15843000000000007</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.7371300000000001</c:v>
+                  <c:v>-0.80732000000000026</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-4.1503599999999992</c:v>
+                  <c:v>5.0069599999999994</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-2.1781699999999997</c:v>
+                  <c:v>-3.3855300000000002</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-2.0395699999999994</c:v>
+                  <c:v>-0.25681999999999983</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-11.4923</c:v>
+                  <c:v>19.927479999999999</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-1.71584</c:v>
+                  <c:v>-17.98096</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-2.4519599999999997</c:v>
+                  <c:v>1.3630800000000001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-1.6651699999999998</c:v>
+                  <c:v>-1.4218600000000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-2.58934</c:v>
+                  <c:v>1.6507999999999998</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1.71617</c:v>
+                  <c:v>-1.3201100000000001</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.7538900000000002</c:v>
+                  <c:v>5.031999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-2.2628700000000004</c:v>
+                  <c:v>1.1325099999999999</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.5559099999999999</c:v>
+                  <c:v>-1.2932100000000002</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-3.7153799999999997</c:v>
+                  <c:v>5.4058399999999995</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-1.60745</c:v>
+                  <c:v>-4.5746500000000001</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-11.712999999999997</c:v>
+                  <c:v>21.358440000000002</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>8.7862000000000009</c:v>
+                  <c:v>-613.02289999999994</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-11.755499999999998</c:v>
+                  <c:v>-15.675800000000002</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-11.866300000000003</c:v>
+                  <c:v>2.1876999999999995</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-21.205799999999996</c:v>
+                  <c:v>21.0593</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-5.8208000000000002</c:v>
+                  <c:v>-28.351800000000004</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-11.418300000000002</c:v>
+                  <c:v>11.6005</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-10.200399999999998</c:v>
+                  <c:v>0.56759999999999877</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-10.151</c:v>
+                  <c:v>2.1952999999999996</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-12.6709</c:v>
+                  <c:v>6.7188000000000017</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-11.366399999999999</c:v>
+                  <c:v>-0.10709999999999908</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-17.293200000000006</c:v>
+                  <c:v>14.871699999999997</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-12.186</c:v>
+                  <c:v>-9.205600000000004</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-11.917400000000001</c:v>
+                  <c:v>2.0852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-11.967700000000001</c:v>
+                  <c:v>3.1442000000000014</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-5.5031000000000017</c:v>
+                  <c:v>-8.1397999999999993</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-24.168000000000006</c:v>
+                  <c:v>40.2194</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-24.357199999999992</c:v>
+                  <c:v>4.6662000000000035</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-11.427</c:v>
+                  <c:v>-22.377299999999998</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-3.7117699999999996</c:v>
+                  <c:v>-15.105070000000001</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-1.6912200000000002</c:v>
+                  <c:v>-3.8953100000000003</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-1.5723600000000002</c:v>
+                  <c:v>-0.16729000000000016</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-2.9824400000000004</c:v>
+                  <c:v>3.4210500000000001</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-11.4879</c:v>
+                  <c:v>17.9312</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-2.1677300000000002</c:v>
+                  <c:v>-17.419240000000002</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-2.4069599999999998</c:v>
+                  <c:v>0.80331000000000019</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-2.1915800000000001</c:v>
+                  <c:v>3.1379999999999963E-2</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-1.6288100000000001</c:v>
+                  <c:v>-1.1745999999999999</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1.4907699999999999</c:v>
+                  <c:v>8.3539999999999948E-2</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-3.1726099999999997</c:v>
+                  <c:v>2.0220400000000001</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-2.5785499999999999</c:v>
+                  <c:v>1.5250900000000001</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-3.0664299999999995</c:v>
+                  <c:v>0.53222000000000058</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-3.1712600000000002</c:v>
+                  <c:v>-1.1220300000000005</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-3.0068299999999999</c:v>
+                  <c:v>-0.13507000000000025</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-11.176899999999996</c:v>
+                  <c:v>19.59948</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-2.7531299999999996</c:v>
+                  <c:v>-15.005269999999999</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1.7109800000000002</c:v>
+                  <c:v>-2.7992500000000002</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-5.4868800000000002</c:v>
+                  <c:v>4.8289100000000005</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-1.6454599999999997</c:v>
+                  <c:v>-4.8752999999999993</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-2.1607500000000002</c:v>
+                  <c:v>1.25702</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-25.177300000000002</c:v>
+                  <c:v>25.69359</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-2.4772200000000004</c:v>
+                  <c:v>-28.972230000000003</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-1.9710100000000002</c:v>
+                  <c:v>-0.80760999999999994</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-2.0144199999999999</c:v>
+                  <c:v>0.25283999999999995</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-3.5626300000000004</c:v>
+                  <c:v>4.1839899999999997</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-18.7622</c:v>
+                  <c:v>41.464820000000003</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-2.4424299999999999</c:v>
+                  <c:v>-35.68891</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-2.0821499999999995</c:v>
+                  <c:v>-1.7237799999999996</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-1.9379599999999995</c:v>
+                  <c:v>-6.5350000000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-1.5503199999999999</c:v>
+                  <c:v>-0.58945000000000003</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-2.8686099999999994</c:v>
+                  <c:v>3.0945100000000001</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-2.6705800000000002</c:v>
+                  <c:v>-1.2746000000000004</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-2.2230099999999995</c:v>
+                  <c:v>-0.28600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-1.6572</c:v>
+                  <c:v>-0.77214999999999989</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-2.2760300000000004</c:v>
+                  <c:v>1.4432400000000001</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-3.1824899999999987</c:v>
+                  <c:v>2.5365300000000004</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-11.376200000000004</c:v>
+                  <c:v>17.355439999999998</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-4.1614400000000007</c:v>
+                  <c:v>-14.096540000000001</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-2.1661300000000003</c:v>
+                  <c:v>-2.8291800000000005</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-2.0526199999999997</c:v>
+                  <c:v>8.5710000000000175E-2</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-1.8865299999999996</c:v>
+                  <c:v>-0.23107999999999995</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-3.0633399999999997</c:v>
+                  <c:v>0.78250999999999982</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-3.5538299999999996</c:v>
+                  <c:v>1.0920500000000004</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-2.2581500000000005</c:v>
+                  <c:v>-0.74595000000000011</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-2.2189000000000001</c:v>
+                  <c:v>-0.17717999999999989</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-2.5028800000000002</c:v>
+                  <c:v>1.2109799999999997</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-1.9761199999999999</c:v>
+                  <c:v>-0.86981999999999982</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-11.330099999999998</c:v>
+                  <c:v>19.829910000000002</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-1.9424199999999998</c:v>
+                  <c:v>-17.240099999999998</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-3.1766999999999999</c:v>
+                  <c:v>0.55832000000000015</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-1.8688099999999994</c:v>
+                  <c:v>-0.70921999999999974</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-1.8535200000000001</c:v>
+                  <c:v>7.1070000000000189E-2</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-3.17909</c:v>
+                  <c:v>1.1997299999999997</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>-1.7923300000000002</c:v>
+                  <c:v>-1.1238700000000001</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>-3.00867</c:v>
+                  <c:v>1.0113300000000001</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>-1.8498099999999997</c:v>
+                  <c:v>-0.2950999999999997</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>-3.8564500000000006</c:v>
+                  <c:v>1.7114099999999994</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>-1.7724099999999998</c:v>
+                  <c:v>-1.5468999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16945,8 +16943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="I271" sqref="I271"/>
+    <sheetView tabSelected="1" topLeftCell="E274" workbookViewId="0">
+      <selection activeCell="J292" sqref="J292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16959,7 +16957,7 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="34.140625" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
-    <col min="10" max="10" width="55" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16991,7 +16989,7 @@
         <v>25.4544</v>
       </c>
       <c r="J1">
-        <v>37.7149</v>
+        <v>22.903099999999998</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -17023,7 +17021,7 @@
         <v>24.957899999999999</v>
       </c>
       <c r="J2">
-        <v>35.500300000000003</v>
+        <v>21.5303</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -17055,7 +17053,7 @@
         <v>23.898700000000002</v>
       </c>
       <c r="J3">
-        <v>34.395000000000003</v>
+        <v>20.774100000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -17087,7 +17085,7 @@
         <v>4.4938599999999997</v>
       </c>
       <c r="J4">
-        <v>7.8653000000000004</v>
+        <v>3.9870399999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -17119,7 +17117,7 @@
         <v>2.8106399999999998</v>
       </c>
       <c r="J5">
-        <v>4.8978799999999998</v>
+        <v>2.6473300000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -17151,7 +17149,7 @@
         <v>2.3517700000000001</v>
       </c>
       <c r="J6">
-        <v>4.1099100000000002</v>
+        <v>2.15774</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -17183,7 +17181,7 @@
         <v>1.6481399999999999</v>
       </c>
       <c r="J7">
-        <v>3.1156199999999998</v>
+        <v>1.5304</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -17215,7 +17213,7 @@
         <v>3.4904899999999999</v>
       </c>
       <c r="J8">
-        <v>6.6591699999999996</v>
+        <v>3.3335499999999998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -17247,7 +17245,7 @@
         <v>3.8108</v>
       </c>
       <c r="J9">
-        <v>6.1953199999999997</v>
+        <v>3.4539</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -17279,7 +17277,7 @@
         <v>2.0197699999999998</v>
       </c>
       <c r="J10">
-        <v>3.72654</v>
+        <v>1.8912100000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -17311,7 +17309,7 @@
         <v>3.69712</v>
       </c>
       <c r="J11">
-        <v>6.9104900000000002</v>
+        <v>3.4938099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -17343,7 +17341,7 @@
         <v>1.5818399999999999</v>
       </c>
       <c r="J12">
-        <v>3.12141</v>
+        <v>1.53504</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -17375,7 +17373,7 @@
         <v>4.3556400000000002</v>
       </c>
       <c r="J13">
-        <v>8.0017600000000009</v>
+        <v>4.4552199999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -17407,7 +17405,7 @@
         <v>38.056600000000003</v>
       </c>
       <c r="J14">
-        <v>57.628599999999999</v>
+        <v>34.720300000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -17439,7 +17437,7 @@
         <v>4.3912599999999999</v>
       </c>
       <c r="J15">
-        <v>7.4629599999999998</v>
+        <v>3.7196899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -17471,7 +17469,7 @@
         <v>2.0871400000000002</v>
       </c>
       <c r="J16">
-        <v>3.8793700000000002</v>
+        <v>1.9955799999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -17503,7 +17501,7 @@
         <v>2.0223399999999998</v>
       </c>
       <c r="J17">
-        <v>3.7561</v>
+        <v>1.93055</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -17535,7 +17533,7 @@
         <v>1.9547300000000001</v>
       </c>
       <c r="J18">
-        <v>3.6873999999999998</v>
+        <v>1.88592</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -17567,7 +17565,7 @@
         <v>2.22634</v>
       </c>
       <c r="J19">
-        <v>4.0357700000000003</v>
+        <v>2.0956100000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -17599,7 +17597,7 @@
         <v>3.6487799999999999</v>
       </c>
       <c r="J20">
-        <v>6.1574</v>
+        <v>3.4390800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -17631,7 +17629,7 @@
         <v>3.0695199999999998</v>
       </c>
       <c r="J21">
-        <v>6.11747</v>
+        <v>2.9995599999999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -17663,7 +17661,7 @@
         <v>1.50105</v>
       </c>
       <c r="J22">
-        <v>3.0026999999999999</v>
+        <v>1.48309</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -17695,7 +17693,7 @@
         <v>2.6667800000000002</v>
       </c>
       <c r="J23">
-        <v>4.6970999999999998</v>
+        <v>2.52467</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -17727,7 +17725,7 @@
         <v>3.3357600000000001</v>
       </c>
       <c r="J24">
-        <v>5.6628999999999996</v>
+        <v>3.12636</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -17759,7 +17757,7 @@
         <v>41.459800000000001</v>
       </c>
       <c r="J25">
-        <v>62.547400000000003</v>
+        <v>39.038499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -17791,7 +17789,7 @@
         <v>2.9081899999999998</v>
       </c>
       <c r="J26">
-        <v>4.5526799999999996</v>
+        <v>2.3164600000000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -17823,7 +17821,7 @@
         <v>4.3095800000000004</v>
       </c>
       <c r="J27">
-        <v>7.9336099999999998</v>
+        <v>4.0933700000000002</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -17855,7 +17853,7 @@
         <v>1.7098199999999999</v>
       </c>
       <c r="J28">
-        <v>3.2286600000000001</v>
+        <v>1.5865199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -17887,7 +17885,7 @@
         <v>2.13117</v>
       </c>
       <c r="J29">
-        <v>3.9436800000000001</v>
+        <v>2.0625599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -17919,7 +17917,7 @@
         <v>2.3369499999999999</v>
       </c>
       <c r="J30">
-        <v>4.2066100000000004</v>
+        <v>2.2044199999999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -17951,7 +17949,7 @@
         <v>3.38788</v>
       </c>
       <c r="J31">
-        <v>6.5541</v>
+        <v>3.2708400000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -17983,7 +17981,7 @@
         <v>2.9192900000000002</v>
       </c>
       <c r="J32">
-        <v>5.1370500000000003</v>
+        <v>2.8001100000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -18015,7 +18013,7 @@
         <v>2.1443400000000001</v>
       </c>
       <c r="J33">
-        <v>3.9047700000000001</v>
+        <v>2.0231400000000002</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -18047,7 +18045,7 @@
         <v>1.7841</v>
       </c>
       <c r="J34">
-        <v>3.4273699999999998</v>
+        <v>1.7119500000000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -18079,7 +18077,7 @@
         <v>4.7086699999999997</v>
       </c>
       <c r="J35">
-        <v>8.9001300000000008</v>
+        <v>4.7246100000000002</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -18111,7 +18109,7 @@
         <v>22.459199999999999</v>
       </c>
       <c r="J36">
-        <v>33.902500000000003</v>
+        <v>20.629100000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -18143,7 +18141,7 @@
         <v>3.8983699999999999</v>
       </c>
       <c r="J37">
-        <v>6.2167899999999996</v>
+        <v>3.3704100000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -18175,7 +18173,7 @@
         <v>3.3176800000000002</v>
       </c>
       <c r="J38">
-        <v>5.6024200000000004</v>
+        <v>3.0716399999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -18207,7 +18205,7 @@
         <v>1.77782</v>
       </c>
       <c r="J39">
-        <v>3.4072800000000001</v>
+        <v>1.7138899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -18239,7 +18237,7 @@
         <v>3.3126000000000002</v>
       </c>
       <c r="J40">
-        <v>5.5365099999999998</v>
+        <v>3.0398200000000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -18271,7 +18269,7 @@
         <v>2.31968</v>
       </c>
       <c r="J41">
-        <v>4.1897500000000001</v>
+        <v>2.1851500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -18303,7 +18301,7 @@
         <v>2.55931</v>
       </c>
       <c r="J42">
-        <v>4.5477999999999996</v>
+        <v>2.4020199999999998</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -18335,7 +18333,7 @@
         <v>2.4166099999999999</v>
       </c>
       <c r="J43">
-        <v>4.3361000000000001</v>
+        <v>2.3109799999999998</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -18367,7 +18365,7 @@
         <v>2.52461</v>
       </c>
       <c r="J44">
-        <v>4.4458200000000003</v>
+        <v>2.3554300000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -18399,7 +18397,7 @@
         <v>1.6694599999999999</v>
       </c>
       <c r="J45">
-        <v>3.2525400000000002</v>
+        <v>1.60338</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -18431,7 +18429,7 @@
         <v>2.5679799999999999</v>
       </c>
       <c r="J46">
-        <v>4.5663299999999998</v>
+        <v>2.4525899999999998</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -18463,7 +18461,7 @@
         <v>24.928999999999998</v>
       </c>
       <c r="J47">
-        <v>37.647199999999998</v>
+        <v>22.918399999999998</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -18495,7 +18493,7 @@
         <v>2.47214</v>
       </c>
       <c r="J48">
-        <v>4.00671</v>
+        <v>1.9878100000000001</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -18527,7 +18525,7 @@
         <v>2.8587799999999999</v>
       </c>
       <c r="J49">
-        <v>5.0640599999999996</v>
+        <v>2.7185199999999998</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -18559,7 +18557,7 @@
         <v>1.82161</v>
       </c>
       <c r="J50">
-        <v>3.4856199999999999</v>
+        <v>1.74899</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -18591,7 +18589,7 @@
         <v>3.4008500000000002</v>
       </c>
       <c r="J51">
-        <v>6.5485199999999999</v>
+        <v>3.2837299999999998</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -18623,7 +18621,7 @@
         <v>4.0022700000000002</v>
       </c>
       <c r="J52">
-        <v>6.58446</v>
+        <v>3.6968200000000002</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -18655,7 +18653,7 @@
         <v>2.98556</v>
       </c>
       <c r="J53">
-        <v>5.1620200000000001</v>
+        <v>2.7743000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -18687,7 +18685,7 @@
         <v>1.80389</v>
       </c>
       <c r="J54">
-        <v>3.4220000000000002</v>
+        <v>1.7044299999999999</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -18719,7 +18717,7 @@
         <v>2.7557700000000001</v>
       </c>
       <c r="J55">
-        <v>4.6834100000000003</v>
+        <v>2.4958200000000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -18751,7 +18749,7 @@
         <v>3.0504199999999999</v>
       </c>
       <c r="J56">
-        <v>5.2729600000000003</v>
+        <v>2.8936799999999998</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -18783,7 +18781,7 @@
         <v>2.3939900000000001</v>
       </c>
       <c r="J57">
-        <v>4.3454300000000003</v>
+        <v>2.2724899999999999</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -18815,7 +18813,7 @@
         <v>22.293099999999999</v>
       </c>
       <c r="J58">
-        <v>33.667000000000002</v>
+        <v>20.357600000000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -18847,7 +18845,7 @@
         <v>3.7905199999999999</v>
       </c>
       <c r="J59">
-        <v>6.9216199999999999</v>
+        <v>3.3997899999999999</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -18879,7 +18877,7 @@
         <v>1.8293900000000001</v>
       </c>
       <c r="J60">
-        <v>3.53945</v>
+        <v>1.77755</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -18911,7 +18909,7 @@
         <v>1.7821199999999999</v>
       </c>
       <c r="J61">
-        <v>3.4158400000000002</v>
+        <v>1.7129799999999999</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -18943,7 +18941,7 @@
         <v>3.3801000000000001</v>
       </c>
       <c r="J62">
-        <v>6.3415999999999997</v>
+        <v>3.52793</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -18974,8 +18972,8 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="1">
-        <v>9.5999899999999995E-5</v>
+      <c r="J63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -19007,7 +19005,7 @@
         <v>3.1677300000000002</v>
       </c>
       <c r="J64">
-        <v>5.4071300000000004</v>
+        <v>2.9793500000000002</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -19039,7 +19037,7 @@
         <v>5.8531000000000004</v>
       </c>
       <c r="J65">
-        <v>9.1221300000000003</v>
+        <v>5.2951699999999997</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -19071,7 +19069,7 @@
         <v>11.7516</v>
       </c>
       <c r="J66">
-        <v>17.417400000000001</v>
+        <v>10.4739</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -19103,7 +19101,7 @@
         <v>2.5446</v>
       </c>
       <c r="J67">
-        <v>4.3969899999999997</v>
+        <v>2.2924699999999998</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -19135,7 +19133,7 @@
         <v>2.25651</v>
       </c>
       <c r="J68">
-        <v>4.1295400000000004</v>
+        <v>2.1791399999999999</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -19167,7 +19165,7 @@
         <v>24.9055</v>
       </c>
       <c r="J69">
-        <v>37.481999999999999</v>
+        <v>22.848700000000001</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -19199,7 +19197,7 @@
         <v>2.6591399999999998</v>
       </c>
       <c r="J70">
-        <v>4.4077599999999997</v>
+        <v>2.22729</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -19231,7 +19229,7 @@
         <v>1.6263099999999999</v>
       </c>
       <c r="J71">
-        <v>3.2398500000000001</v>
+        <v>1.5916699999999999</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -19263,7 +19261,7 @@
         <v>1.82168</v>
       </c>
       <c r="J72">
-        <v>3.5064899999999999</v>
+        <v>1.77661</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -19295,7 +19293,7 @@
         <v>3.3025500000000001</v>
       </c>
       <c r="J73">
-        <v>6.3916399999999998</v>
+        <v>3.1890399999999999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -19327,7 +19325,7 @@
         <v>1.63374</v>
       </c>
       <c r="J74">
-        <v>3.1822400000000002</v>
+        <v>1.5869599999999999</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -19359,7 +19357,7 @@
         <v>3.39913</v>
       </c>
       <c r="J75">
-        <v>6.5960200000000002</v>
+        <v>3.3017799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -19391,7 +19389,7 @@
         <v>3.0712299999999999</v>
       </c>
       <c r="J76">
-        <v>6.1328300000000002</v>
+        <v>2.9981900000000001</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -19423,7 +19421,7 @@
         <v>3.0954299999999999</v>
       </c>
       <c r="J77">
-        <v>5.2316200000000004</v>
+        <v>2.86808</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -19455,7 +19453,7 @@
         <v>2.0950199999999999</v>
       </c>
       <c r="J78">
-        <v>3.8372600000000001</v>
+        <v>1.9749300000000001</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -19487,7 +19485,7 @@
         <v>3.2881800000000001</v>
       </c>
       <c r="J79">
-        <v>6.4576099999999999</v>
+        <v>3.2141999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -19519,7 +19517,7 @@
         <v>22.266100000000002</v>
       </c>
       <c r="J80">
-        <v>33.577599999999997</v>
+        <v>20.3337</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -19551,7 +19549,7 @@
         <v>2.3796200000000001</v>
       </c>
       <c r="J81">
-        <v>3.9790299999999998</v>
+        <v>1.9876499999999999</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -19583,7 +19581,7 @@
         <v>2.0529700000000002</v>
       </c>
       <c r="J82">
-        <v>3.8115700000000001</v>
+        <v>1.9545600000000001</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -19615,7 +19613,7 @@
         <v>2.7786300000000002</v>
       </c>
       <c r="J83">
-        <v>4.8888600000000002</v>
+        <v>2.60439</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -19647,7 +19645,7 @@
         <v>5.4239499999999996</v>
       </c>
       <c r="J84">
-        <v>8.6921499999999998</v>
+        <v>5.0983000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -19679,7 +19677,7 @@
         <v>3.4683000000000002</v>
       </c>
       <c r="J85">
-        <v>5.7195999999999998</v>
+        <v>3.15333</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -19711,7 +19709,7 @@
         <v>2.6231</v>
       </c>
       <c r="J86">
-        <v>5.0627300000000002</v>
+        <v>2.6836700000000002</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -19743,7 +19741,7 @@
         <v>3.0296400000000001</v>
       </c>
       <c r="J87">
-        <v>6.0709999999999997</v>
+        <v>2.9748800000000002</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -19775,7 +19773,7 @@
         <v>2.98882</v>
       </c>
       <c r="J88">
-        <v>5.9807699999999997</v>
+        <v>2.9502100000000002</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -19807,7 +19805,7 @@
         <v>1.68868</v>
       </c>
       <c r="J89">
-        <v>3.2549199999999998</v>
+        <v>1.6476200000000001</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -19839,7 +19837,7 @@
         <v>3.0078299999999998</v>
       </c>
       <c r="J90">
-        <v>6.0112199999999998</v>
+        <v>2.9353400000000001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -19871,7 +19869,7 @@
         <v>24.820399999999999</v>
       </c>
       <c r="J91">
-        <v>37.415500000000002</v>
+        <v>22.808900000000001</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -19903,7 +19901,7 @@
         <v>2.5431599999999999</v>
       </c>
       <c r="J92">
-        <v>4.2313499999999999</v>
+        <v>2.1431399999999998</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -19935,7 +19933,7 @@
         <v>1.879</v>
       </c>
       <c r="J93">
-        <v>3.6060099999999999</v>
+        <v>1.8098700000000001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -19967,7 +19965,7 @@
         <v>1.75661</v>
       </c>
       <c r="J94">
-        <v>3.38571</v>
+        <v>1.68923</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -19999,7 +19997,7 @@
         <v>3.62174</v>
       </c>
       <c r="J95">
-        <v>7.0807399999999996</v>
+        <v>3.5795599999999999</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -20031,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>2.8400000000000002E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -20063,7 +20061,7 @@
         <v>3.0894300000000001</v>
       </c>
       <c r="J97">
-        <v>6.1383000000000001</v>
+        <v>3.0306899999999999</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -20095,7 +20093,7 @@
         <v>3.1953499999999999</v>
       </c>
       <c r="J98">
-        <v>6.2875399999999999</v>
+        <v>3.1135199999999998</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -20127,7 +20125,7 @@
         <v>3.1395</v>
       </c>
       <c r="J99">
-        <v>6.1795999999999998</v>
+        <v>3.0573700000000001</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -20159,7 +20157,7 @@
         <v>4.5490399999999998</v>
       </c>
       <c r="J100">
-        <v>7.39846</v>
+        <v>4.2721</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -20191,7 +20189,7 @@
         <v>1.92876</v>
       </c>
       <c r="J101">
-        <v>3.6020400000000001</v>
+        <v>1.8195300000000001</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -20223,7 +20221,7 @@
         <v>22.5626</v>
       </c>
       <c r="J102">
-        <v>33.967100000000002</v>
+        <v>20.6388</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -20255,7 +20253,7 @@
         <v>4.9297599999999999</v>
       </c>
       <c r="J103">
-        <v>7.8219599999999998</v>
+        <v>4.3678299999999997</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -20287,7 +20285,7 @@
         <v>2.4872299999999998</v>
       </c>
       <c r="J104">
-        <v>4.4212300000000004</v>
+        <v>2.3363299999999998</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -20319,7 +20317,7 @@
         <v>2.3861699999999999</v>
       </c>
       <c r="J105">
-        <v>4.3068299999999997</v>
+        <v>2.2722500000000001</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -20351,7 +20349,7 @@
         <v>1.81497</v>
       </c>
       <c r="J106">
-        <v>3.35223</v>
+        <v>1.64514</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -20383,7 +20381,7 @@
         <v>2.29678</v>
       </c>
       <c r="J107">
-        <v>4.1507399999999999</v>
+        <v>2.1961400000000002</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -20415,7 +20413,7 @@
         <v>3.02793</v>
       </c>
       <c r="J108">
-        <v>6.0494700000000003</v>
+        <v>2.96394</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -20447,7 +20445,7 @@
         <v>1.5420100000000001</v>
       </c>
       <c r="J109">
-        <v>3.0591300000000001</v>
+        <v>1.5206200000000001</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -20479,7 +20477,7 @@
         <v>1.8960600000000001</v>
       </c>
       <c r="J110">
-        <v>3.5556100000000002</v>
+        <v>1.8230900000000001</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -20511,7 +20509,7 @@
         <v>3.09606</v>
       </c>
       <c r="J111">
-        <v>6.1475400000000002</v>
+        <v>3.0301399999999998</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -20543,7 +20541,7 @@
         <v>2.97858</v>
       </c>
       <c r="J112">
-        <v>5.9681499999999996</v>
+        <v>2.9393500000000001</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -20575,7 +20573,7 @@
         <v>22.305</v>
       </c>
       <c r="J113">
-        <v>33.6768</v>
+        <v>20.400099999999998</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -20607,7 +20605,7 @@
         <v>23.288699999999999</v>
       </c>
       <c r="J114">
-        <v>34.677</v>
+        <v>20.984200000000001</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -20639,7 +20637,7 @@
         <v>3.7341299999999999</v>
       </c>
       <c r="J115">
-        <v>6.8552600000000004</v>
+        <v>3.3426900000000002</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -20671,7 +20669,7 @@
         <v>2.6348699999999998</v>
       </c>
       <c r="J116">
-        <v>4.68973</v>
+        <v>2.4991500000000002</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -20703,7 +20701,7 @@
         <v>3.1634799999999998</v>
       </c>
       <c r="J117">
-        <v>6.2247700000000004</v>
+        <v>3.0764200000000002</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -20735,7 +20733,7 @@
         <v>2.3298700000000001</v>
       </c>
       <c r="J118">
-        <v>4.2295100000000003</v>
+        <v>2.2170700000000001</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -20767,7 +20765,7 @@
         <v>1.9191100000000001</v>
       </c>
       <c r="J119">
-        <v>3.5316700000000001</v>
+        <v>1.7604200000000001</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -20799,7 +20797,7 @@
         <v>1.7757799999999999</v>
       </c>
       <c r="J120">
-        <v>3.42584</v>
+        <v>1.7207300000000001</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -20831,7 +20829,7 @@
         <v>3.3874200000000001</v>
       </c>
       <c r="J121">
-        <v>5.8978700000000002</v>
+        <v>3.2890899999999998</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -20863,7 +20861,7 @@
         <v>5.2298</v>
       </c>
       <c r="J122">
-        <v>8.2103300000000008</v>
+        <v>4.7116699999999998</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -20895,7 +20893,7 @@
         <v>9.4321999999999999</v>
       </c>
       <c r="J123">
-        <v>17.531300000000002</v>
+        <v>10.226800000000001</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -20927,7 +20925,7 @@
         <v>3.18289</v>
       </c>
       <c r="J124">
-        <v>5.6126699999999996</v>
+        <v>3.1094599999999999</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -20959,7 +20957,7 @@
         <v>25.0105</v>
       </c>
       <c r="J125">
-        <v>37.510300000000001</v>
+        <v>22.998899999999999</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -20991,7 +20989,7 @@
         <v>8.2708300000000001</v>
       </c>
       <c r="J126">
-        <v>12.353400000000001</v>
+        <v>7.20099</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -21023,7 +21021,7 @@
         <v>3.3906800000000001</v>
       </c>
       <c r="J127">
-        <v>6.5648099999999996</v>
+        <v>3.20892</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -21055,7 +21053,7 @@
         <v>3.5184000000000002</v>
       </c>
       <c r="J128">
-        <v>6.1241199999999996</v>
+        <v>3.4167000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -21087,7 +21085,7 @@
         <v>3.3845399999999999</v>
       </c>
       <c r="J129">
-        <v>5.8825599999999998</v>
+        <v>3.2679999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -21119,7 +21117,7 @@
         <v>1.9085799999999999</v>
       </c>
       <c r="J130">
-        <v>3.5623999999999998</v>
+        <v>1.79098</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -21151,7 +21149,7 @@
         <v>12.4879</v>
       </c>
       <c r="J131">
-        <v>18.4316</v>
+        <v>11.1694</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -21183,7 +21181,7 @@
         <v>2.83453</v>
       </c>
       <c r="J132">
-        <v>4.8035300000000003</v>
+        <v>2.5257399999999999</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -21215,7 +21213,7 @@
         <v>4.2018899999999997</v>
       </c>
       <c r="J133">
-        <v>6.8650500000000001</v>
+        <v>3.8764699999999999</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -21247,7 +21245,7 @@
         <v>5.3495900000000001</v>
       </c>
       <c r="J134">
-        <v>8.3409899999999997</v>
+        <v>4.8429000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -21279,7 +21277,7 @@
         <v>6.3623599999999998</v>
       </c>
       <c r="J135">
-        <v>10.0451</v>
+        <v>5.8382500000000004</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -21311,7 +21309,7 @@
         <v>13.7561</v>
       </c>
       <c r="J136">
-        <v>21.087</v>
+        <v>12.6981</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -21343,7 +21341,7 @@
         <v>10.898400000000001</v>
       </c>
       <c r="J137">
-        <v>16.1874</v>
+        <v>9.6651799999999994</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -21375,7 +21373,7 @@
         <v>5.9130099999999999</v>
       </c>
       <c r="J138">
-        <v>9.3069299999999995</v>
+        <v>5.3187800000000003</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -21407,7 +21405,7 @@
         <v>33.215499999999999</v>
       </c>
       <c r="J139">
-        <v>47.412999999999997</v>
+        <v>29.388500000000001</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -21439,7 +21437,7 @@
         <v>31.395900000000001</v>
       </c>
       <c r="J140">
-        <v>44.882800000000003</v>
+        <v>28.281199999999998</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -21471,7 +21469,7 @@
         <v>4.3925799999999997</v>
       </c>
       <c r="J141">
-        <v>6.7644599999999997</v>
+        <v>3.7696800000000001</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -21503,7 +21501,7 @@
         <v>6.3120599999999998</v>
       </c>
       <c r="J142">
-        <v>9.9366900000000005</v>
+        <v>5.8776799999999998</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -21535,7 +21533,7 @@
         <v>5.9619</v>
       </c>
       <c r="J143">
-        <v>9.4991099999999999</v>
+        <v>5.5304399999999996</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -21567,7 +21565,7 @@
         <v>2.1781000000000001</v>
       </c>
       <c r="J144">
-        <v>3.9286799999999999</v>
+        <v>2.0321199999999999</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -21599,7 +21597,7 @@
         <v>6.5756199999999998</v>
       </c>
       <c r="J145">
-        <v>8.2547800000000002</v>
+        <v>4.6803400000000002</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -21631,7 +21629,7 @@
         <v>2.7107100000000002</v>
       </c>
       <c r="J146">
-        <v>4.7253699999999998</v>
+        <v>2.55965</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -21663,7 +21661,7 @@
         <v>24.874199999999998</v>
       </c>
       <c r="J147">
-        <v>37.502400000000002</v>
+        <v>23.140999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -21695,7 +21693,7 @@
         <v>8.8372700000000002</v>
       </c>
       <c r="J148">
-        <v>13.1328</v>
+        <v>7.7584499999999998</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -21727,7 +21725,7 @@
         <v>7.40456</v>
       </c>
       <c r="J149">
-        <v>11.1859</v>
+        <v>6.6238400000000004</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -21759,7 +21757,7 @@
         <v>11.7744</v>
       </c>
       <c r="J150">
-        <v>17.531300000000002</v>
+        <v>10.584899999999999</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -21791,7 +21789,7 @@
         <v>17.850300000000001</v>
       </c>
       <c r="J151">
-        <v>26.3017</v>
+        <v>16.039400000000001</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -21823,7 +21821,7 @@
         <v>2.71549</v>
       </c>
       <c r="J152">
-        <v>4.5832300000000004</v>
+        <v>2.38375</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -21855,7 +21853,7 @@
         <v>5.6217100000000002</v>
       </c>
       <c r="J153">
-        <v>7.2456699999999996</v>
+        <v>4.0537099999999997</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -21887,7 +21885,7 @@
         <v>4.9808399999999997</v>
       </c>
       <c r="J154">
-        <v>7.8544600000000004</v>
+        <v>4.5722199999999997</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -21919,7 +21917,7 @@
         <v>6.06548</v>
       </c>
       <c r="J155">
-        <v>9.6882800000000007</v>
+        <v>5.6781199999999998</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -21951,7 +21949,7 @@
         <v>8.0364100000000001</v>
       </c>
       <c r="J156">
-        <v>12.3551</v>
+        <v>7.4033199999999999</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -21983,7 +21981,7 @@
         <v>18.798500000000001</v>
       </c>
       <c r="J157">
-        <v>27.562100000000001</v>
+        <v>17.129799999999999</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -22015,7 +22013,7 @@
         <v>25.351600000000001</v>
       </c>
       <c r="J158">
-        <v>38.042999999999999</v>
+        <v>23.177700000000002</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -22047,7 +22045,7 @@
         <v>5.9942200000000003</v>
       </c>
       <c r="J159">
-        <v>9.1638599999999997</v>
+        <v>5.2473200000000002</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -22079,7 +22077,7 @@
         <v>2.77691</v>
       </c>
       <c r="J160">
-        <v>4.8761999999999999</v>
+        <v>2.6317499999999998</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -22111,7 +22109,7 @@
         <v>3.7060300000000002</v>
       </c>
       <c r="J161">
-        <v>6.2935600000000003</v>
+        <v>3.5478100000000001</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -22143,7 +22141,7 @@
         <v>8.3862799999999993</v>
       </c>
       <c r="J162">
-        <v>12.833600000000001</v>
+        <v>7.6993200000000002</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -22175,7 +22173,7 @@
         <v>7.41486</v>
       </c>
       <c r="J163">
-        <v>11.572800000000001</v>
+        <v>6.8056999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -22207,7 +22205,7 @@
         <v>2.4441000000000002</v>
       </c>
       <c r="J164">
-        <v>4.3910200000000001</v>
+        <v>2.2846899999999999</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -22239,7 +22237,7 @@
         <v>4.9912000000000001</v>
       </c>
       <c r="J165">
-        <v>8.1483399999999993</v>
+        <v>4.6991699999999996</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -22271,7 +22269,7 @@
         <v>5.52799</v>
       </c>
       <c r="J166">
-        <v>9.0186899999999994</v>
+        <v>5.2349600000000001</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -22303,7 +22301,7 @@
         <v>6.4342100000000002</v>
       </c>
       <c r="J167">
-        <v>10.1736</v>
+        <v>5.96828</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -22335,7 +22333,7 @@
         <v>5.4182499999999996</v>
       </c>
       <c r="J168">
-        <v>8.4726300000000005</v>
+        <v>4.8857699999999999</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -22367,7 +22365,7 @@
         <v>38.290199999999999</v>
       </c>
       <c r="J169">
-        <v>57.924300000000002</v>
+        <v>34.916400000000003</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -22399,7 +22397,7 @@
         <v>8.1784400000000002</v>
       </c>
       <c r="J170">
-        <v>11.8849</v>
+        <v>7.0361700000000003</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -22431,7 +22429,7 @@
         <v>4.1341299999999999</v>
       </c>
       <c r="J171">
-        <v>7.63443</v>
+        <v>3.9330500000000002</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -22463,7 +22461,7 @@
         <v>2.30206</v>
       </c>
       <c r="J172">
-        <v>4.1815800000000003</v>
+        <v>2.1946099999999999</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -22495,7 +22493,7 @@
         <v>2.80287</v>
       </c>
       <c r="J173">
-        <v>4.8951900000000004</v>
+        <v>2.6269800000000001</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -22527,7 +22525,7 @@
         <v>4.3235400000000004</v>
       </c>
       <c r="J174">
-        <v>5.7912999999999997</v>
+        <v>3.1795300000000002</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -22559,7 +22557,7 @@
         <v>2.3315600000000001</v>
       </c>
       <c r="J175">
-        <v>4.1769800000000004</v>
+        <v>2.20736</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -22591,7 +22589,7 @@
         <v>4.8613400000000002</v>
       </c>
       <c r="J176">
-        <v>7.93588</v>
+        <v>4.6085500000000001</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -22623,7 +22621,7 @@
         <v>4.9446700000000003</v>
       </c>
       <c r="J177">
-        <v>7.7664400000000002</v>
+        <v>4.4226900000000002</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -22655,7 +22653,7 @@
         <v>4.0070399999999999</v>
       </c>
       <c r="J178">
-        <v>6.5984699999999998</v>
+        <v>3.7037599999999999</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -22687,7 +22685,7 @@
         <v>5.8054600000000001</v>
       </c>
       <c r="J179">
-        <v>9.2125800000000009</v>
+        <v>5.3288799999999998</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -22719,7 +22717,7 @@
         <v>25.045500000000001</v>
       </c>
       <c r="J180">
-        <v>37.831299999999999</v>
+        <v>23.1004</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -22751,7 +22749,7 @@
         <v>3.8938000000000001</v>
       </c>
       <c r="J181">
-        <v>6.1654799999999996</v>
+        <v>3.3377400000000002</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -22783,7 +22781,7 @@
         <v>8.3018099999999997</v>
       </c>
       <c r="J182">
-        <v>12.921099999999999</v>
+        <v>7.7591299999999999</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -22815,7 +22813,7 @@
         <v>2.9855100000000001</v>
       </c>
       <c r="J183">
-        <v>5.1266999999999996</v>
+        <v>2.77155</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -22847,7 +22845,7 @@
         <v>3.4456000000000002</v>
       </c>
       <c r="J184">
-        <v>6.6628400000000001</v>
+        <v>3.3117200000000002</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -22879,7 +22877,7 @@
         <v>2.5104899999999999</v>
       </c>
       <c r="J185">
-        <v>4.4977799999999997</v>
+        <v>2.4035600000000001</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -22911,7 +22909,7 @@
         <v>4.9626599999999996</v>
       </c>
       <c r="J186">
-        <v>7.80823</v>
+        <v>4.4783200000000001</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -22943,7 +22941,7 @@
         <v>2.10534</v>
       </c>
       <c r="J187">
-        <v>3.8635799999999998</v>
+        <v>1.9632000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -22975,7 +22973,7 @@
         <v>5.8397500000000004</v>
       </c>
       <c r="J188">
-        <v>9.2446199999999994</v>
+        <v>5.4181100000000004</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -23007,7 +23005,7 @@
         <v>1.63506</v>
       </c>
       <c r="J189">
-        <v>3.2101099999999998</v>
+        <v>1.5684</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -23039,7 +23037,7 @@
         <v>1.9632799999999999</v>
       </c>
       <c r="J190">
-        <v>3.6772200000000002</v>
+        <v>1.87748</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -23071,7 +23069,7 @@
         <v>24.878</v>
       </c>
       <c r="J191">
-        <v>37.541499999999999</v>
+        <v>22.936800000000002</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -23103,7 +23101,7 @@
         <v>6.8977399999999998</v>
       </c>
       <c r="J192">
-        <v>10.4664</v>
+        <v>6.0627500000000003</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -23135,7 +23133,7 @@
         <v>3.4775499999999999</v>
       </c>
       <c r="J193">
-        <v>5.7751799999999998</v>
+        <v>3.1605599999999998</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -23167,7 +23165,7 @@
         <v>2.5070000000000001</v>
       </c>
       <c r="J194">
-        <v>4.3948099999999997</v>
+        <v>2.32213</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -23199,7 +23197,7 @@
         <v>2.93554</v>
       </c>
       <c r="J195">
-        <v>4.4818499999999997</v>
+        <v>2.33081</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -23231,7 +23229,7 @@
         <v>3.52366</v>
       </c>
       <c r="J196">
-        <v>6.1008500000000003</v>
+        <v>3.4249200000000002</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -23263,7 +23261,7 @@
         <v>3.2664900000000001</v>
       </c>
       <c r="J197">
-        <v>5.3958899999999996</v>
+        <v>2.9705400000000002</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -23295,7 +23293,7 @@
         <v>2.1632199999999999</v>
       </c>
       <c r="J198">
-        <v>3.90035</v>
+        <v>2.0312800000000002</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -23327,7 +23325,7 @@
         <v>7.0382400000000001</v>
       </c>
       <c r="J199">
-        <v>11.188599999999999</v>
+        <v>6.6601600000000003</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -23359,7 +23357,7 @@
         <v>3.2746300000000002</v>
       </c>
       <c r="J200">
-        <v>5.4527999999999999</v>
+        <v>2.96726</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -23391,7 +23389,7 @@
         <v>2.7104400000000002</v>
       </c>
       <c r="J201">
-        <v>4.7500099999999996</v>
+        <v>2.5440200000000002</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -23423,7 +23421,7 @@
         <v>22.471499999999999</v>
       </c>
       <c r="J202">
-        <v>33.963799999999999</v>
+        <v>20.6968</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -23455,7 +23453,7 @@
         <v>2.71584</v>
       </c>
       <c r="J203">
-        <v>4.4316800000000001</v>
+        <v>2.2702499999999999</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -23487,7 +23485,7 @@
         <v>3.6333299999999999</v>
       </c>
       <c r="J204">
-        <v>6.0852899999999996</v>
+        <v>3.3690600000000002</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -23519,7 +23517,7 @@
         <v>1.9472</v>
       </c>
       <c r="J205">
-        <v>3.6123699999999999</v>
+        <v>1.8457300000000001</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -23551,7 +23549,7 @@
         <v>3.4965299999999999</v>
       </c>
       <c r="J206">
-        <v>6.0858699999999999</v>
+        <v>3.3963700000000001</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -23583,7 +23581,7 @@
         <v>2.07626</v>
       </c>
       <c r="J207">
-        <v>3.79243</v>
+        <v>1.93971</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -23615,7 +23613,7 @@
         <v>1.99003</v>
       </c>
       <c r="J208">
-        <v>3.7439200000000001</v>
+        <v>1.92441</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -23647,7 +23645,7 @@
         <v>3.0569199999999999</v>
       </c>
       <c r="J209">
-        <v>5.3197900000000002</v>
+        <v>2.9342100000000002</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -23679,7 +23677,7 @@
         <v>1.641</v>
       </c>
       <c r="J210">
-        <v>3.1969099999999999</v>
+        <v>1.5802799999999999</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -23711,7 +23709,7 @@
         <v>6.9861199999999997</v>
       </c>
       <c r="J211">
-        <v>10.701499999999999</v>
+        <v>6.3374499999999996</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -23743,7 +23741,7 @@
         <v>1.7627999999999999</v>
       </c>
       <c r="J212">
-        <v>3.37025</v>
+        <v>1.65326</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -23775,7 +23773,7 @@
         <v>23.011700000000001</v>
       </c>
       <c r="J213">
-        <v>34.724699999999999</v>
+        <v>21.0777</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -23807,7 +23805,7 @@
         <v>922.58900000000006</v>
       </c>
       <c r="J214">
-        <v>1018.2</v>
+        <v>677.529</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -23839,7 +23837,7 @@
         <v>64.506100000000004</v>
       </c>
       <c r="J215">
-        <v>55.719900000000003</v>
+        <v>39.480600000000003</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -23871,7 +23869,7 @@
         <v>23.8048</v>
       </c>
       <c r="J216">
-        <v>35.560299999999998</v>
+        <v>21.6723</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -23903,7 +23901,7 @@
         <v>23.86</v>
       </c>
       <c r="J217">
-        <v>35.726300000000002</v>
+        <v>21.4863</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -23935,7 +23933,7 @@
         <v>42.5456</v>
       </c>
       <c r="J218">
-        <v>63.751399999999997</v>
+        <v>41.289700000000003</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -23967,7 +23965,7 @@
         <v>12.937900000000001</v>
       </c>
       <c r="J219">
-        <v>18.758700000000001</v>
+        <v>11.2103</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -23999,7 +23997,7 @@
         <v>22.8108</v>
       </c>
       <c r="J220">
-        <v>34.229100000000003</v>
+        <v>20.679400000000001</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -24031,7 +24029,7 @@
         <v>21.247</v>
       </c>
       <c r="J221">
-        <v>31.447399999999998</v>
+        <v>18.987300000000001</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -24063,7 +24061,7 @@
         <v>21.182600000000001</v>
       </c>
       <c r="J222">
-        <v>31.333600000000001</v>
+        <v>18.897099999999998</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -24095,7 +24093,7 @@
         <v>25.6159</v>
       </c>
       <c r="J223">
-        <v>38.286799999999999</v>
+        <v>23.3276</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -24127,7 +24125,7 @@
         <v>23.220500000000001</v>
       </c>
       <c r="J224">
-        <v>34.5869</v>
+        <v>20.984999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -24159,7 +24157,7 @@
         <v>35.856699999999996</v>
       </c>
       <c r="J225">
-        <v>53.149900000000002</v>
+        <v>32.545900000000003</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -24191,7 +24189,7 @@
         <v>23.340299999999999</v>
       </c>
       <c r="J226">
-        <v>35.526299999999999</v>
+        <v>20.994599999999998</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -24223,7 +24221,7 @@
         <v>23.079799999999999</v>
       </c>
       <c r="J227">
-        <v>34.997199999999999</v>
+        <v>20.863499999999998</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -24255,7 +24253,7 @@
         <v>24.0077</v>
       </c>
       <c r="J228">
-        <v>35.9754</v>
+        <v>21.443899999999999</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -24287,7 +24285,7 @@
         <v>13.3041</v>
       </c>
       <c r="J229">
-        <v>18.807200000000002</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -24319,7 +24317,7 @@
         <v>51.229399999999998</v>
       </c>
       <c r="J230">
-        <v>75.397400000000005</v>
+        <v>46.931899999999999</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -24351,7 +24349,7 @@
         <v>51.598100000000002</v>
       </c>
       <c r="J231">
-        <v>75.955299999999994</v>
+        <v>47.316699999999997</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -24383,7 +24381,7 @@
         <v>24.939399999999999</v>
       </c>
       <c r="J232">
-        <v>36.366399999999999</v>
+        <v>21.770800000000001</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -24415,7 +24413,7 @@
         <v>6.6657299999999999</v>
       </c>
       <c r="J233">
-        <v>10.3775</v>
+        <v>5.7976700000000001</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -24447,7 +24445,7 @@
         <v>1.9023600000000001</v>
       </c>
       <c r="J234">
-        <v>3.5935800000000002</v>
+        <v>1.7282200000000001</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -24479,7 +24477,7 @@
         <v>1.5609299999999999</v>
       </c>
       <c r="J235">
-        <v>3.1332900000000001</v>
+        <v>1.5587500000000001</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -24511,7 +24509,7 @@
         <v>4.9798</v>
       </c>
       <c r="J236">
-        <v>7.9622400000000004</v>
+        <v>4.6238999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -24543,7 +24541,7 @@
         <v>22.555099999999999</v>
       </c>
       <c r="J237">
-        <v>34.042999999999999</v>
+        <v>20.516400000000001</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -24575,7 +24573,7 @@
         <v>3.0971600000000001</v>
       </c>
       <c r="J238">
-        <v>5.2648900000000003</v>
+        <v>2.69326</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -24607,7 +24605,7 @@
         <v>3.4965700000000002</v>
       </c>
       <c r="J239">
-        <v>5.9035299999999999</v>
+        <v>3.2661799999999999</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -24639,7 +24637,7 @@
         <v>3.2975599999999998</v>
       </c>
       <c r="J240">
-        <v>5.4891399999999999</v>
+        <v>3.0331299999999999</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -24671,7 +24669,7 @@
         <v>1.85853</v>
       </c>
       <c r="J241">
-        <v>3.4873400000000001</v>
+        <v>1.74332</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -24703,7 +24701,7 @@
         <v>1.8268599999999999</v>
       </c>
       <c r="J242">
-        <v>3.3176299999999999</v>
+        <v>1.63557</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -24735,7 +24733,7 @@
         <v>3.65761</v>
       </c>
       <c r="J243">
-        <v>6.8302199999999997</v>
+        <v>3.4525700000000001</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -24767,7 +24765,7 @@
         <v>4.9776600000000002</v>
       </c>
       <c r="J244">
-        <v>7.5562100000000001</v>
+        <v>4.3432199999999996</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -24799,7 +24797,7 @@
         <v>4.8754400000000002</v>
       </c>
       <c r="J245">
-        <v>7.9418699999999998</v>
+        <v>4.4784300000000004</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -24831,7 +24829,7 @@
         <v>3.3563999999999998</v>
       </c>
       <c r="J246">
-        <v>6.52766</v>
+        <v>3.1629200000000002</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -24863,7 +24861,7 @@
         <v>3.0278499999999999</v>
       </c>
       <c r="J247">
-        <v>6.0346799999999998</v>
+        <v>2.9553199999999999</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -24895,7 +24893,7 @@
         <v>22.5548</v>
       </c>
       <c r="J248">
-        <v>33.731699999999996</v>
+        <v>20.541</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -24927,7 +24925,7 @@
         <v>5.53573</v>
       </c>
       <c r="J249">
-        <v>8.2888599999999997</v>
+        <v>4.6502400000000002</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -24959,7 +24957,7 @@
         <v>1.8509899999999999</v>
       </c>
       <c r="J250">
-        <v>3.5619700000000001</v>
+        <v>1.7793099999999999</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -24991,7 +24989,7 @@
         <v>6.6082200000000002</v>
       </c>
       <c r="J251">
-        <v>12.0951</v>
+        <v>6.6745599999999996</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -25023,7 +25021,7 @@
         <v>1.7992600000000001</v>
       </c>
       <c r="J252">
-        <v>3.4447199999999998</v>
+        <v>1.7195400000000001</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -25055,7 +25053,7 @@
         <v>2.9765600000000001</v>
       </c>
       <c r="J253">
-        <v>5.1373100000000003</v>
+        <v>2.78261</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -25087,7 +25085,7 @@
         <v>28.476199999999999</v>
       </c>
       <c r="J254">
-        <v>53.653500000000001</v>
+        <v>32.455800000000004</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -25119,7 +25117,7 @@
         <v>3.4835699999999998</v>
       </c>
       <c r="J255">
-        <v>5.9607900000000003</v>
+        <v>3.3360599999999998</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -25151,7 +25149,7 @@
         <v>2.5284499999999999</v>
       </c>
       <c r="J256">
-        <v>4.49946</v>
+        <v>2.37466</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -25183,7 +25181,7 @@
         <v>2.6274999999999999</v>
       </c>
       <c r="J257">
-        <v>4.6419199999999998</v>
+        <v>2.4772799999999999</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -25215,7 +25213,7 @@
         <v>6.66127</v>
       </c>
       <c r="J258">
-        <v>10.2239</v>
+        <v>6.0666799999999999</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -25247,7 +25245,7 @@
         <v>47.531500000000001</v>
       </c>
       <c r="J259">
-        <v>66.293700000000001</v>
+        <v>41.096699999999998</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -25279,7 +25277,7 @@
         <v>5.4077900000000003</v>
       </c>
       <c r="J260">
-        <v>7.8502200000000002</v>
+        <v>4.4063499999999998</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -25311,7 +25309,7 @@
         <v>2.6825700000000001</v>
       </c>
       <c r="J261">
-        <v>4.7647199999999996</v>
+        <v>2.5310000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -25343,7 +25341,7 @@
         <v>2.4656500000000001</v>
       </c>
       <c r="J262">
-        <v>4.4036099999999996</v>
+        <v>2.3185899999999999</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -25375,7 +25373,7 @@
         <v>1.7291399999999999</v>
       </c>
       <c r="J263">
-        <v>3.2794599999999998</v>
+        <v>1.6065</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -25407,7 +25405,7 @@
         <v>4.7010100000000001</v>
       </c>
       <c r="J264">
-        <v>7.5696199999999996</v>
+        <v>4.3063900000000004</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -25439,7 +25437,7 @@
         <v>3.03179</v>
       </c>
       <c r="J265">
-        <v>5.7023700000000002</v>
+        <v>3.0709300000000002</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -25471,7 +25469,7 @@
         <v>2.7849300000000001</v>
       </c>
       <c r="J266">
-        <v>5.0079399999999996</v>
+        <v>2.72437</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -25503,7 +25501,7 @@
         <v>1.9522200000000001</v>
       </c>
       <c r="J267">
-        <v>3.6094200000000001</v>
+        <v>1.8183499999999999</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -25535,7 +25533,7 @@
         <v>3.26159</v>
       </c>
       <c r="J268">
-        <v>5.5376200000000004</v>
+        <v>3.07389</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -25567,7 +25565,7 @@
         <v>5.6104200000000004</v>
       </c>
       <c r="J269">
-        <v>8.7929099999999991</v>
+        <v>5.1132600000000004</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -25599,7 +25597,7 @@
         <v>22.468699999999998</v>
       </c>
       <c r="J270">
-        <v>33.844900000000003</v>
+        <v>20.540900000000001</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -25631,7 +25629,7 @@
         <v>6.4443599999999996</v>
       </c>
       <c r="J271">
-        <v>10.6058</v>
+        <v>5.6938700000000004</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -25663,7 +25661,7 @@
         <v>2.86469</v>
       </c>
       <c r="J272">
-        <v>5.0308200000000003</v>
+        <v>2.74552</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -25695,7 +25693,7 @@
         <v>2.8312300000000001</v>
       </c>
       <c r="J273">
-        <v>4.8838499999999998</v>
+        <v>2.6255299999999999</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -25727,7 +25725,7 @@
         <v>2.39445</v>
       </c>
       <c r="J274">
-        <v>4.2809799999999996</v>
+        <v>2.24702</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -25759,7 +25757,7 @@
         <v>3.0295299999999998</v>
       </c>
       <c r="J275">
-        <v>6.0928699999999996</v>
+        <v>2.9795699999999998</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -25791,7 +25789,7 @@
         <v>4.0716200000000002</v>
       </c>
       <c r="J276">
-        <v>7.6254499999999998</v>
+        <v>3.9557899999999999</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -25823,7 +25821,7 @@
         <v>3.2098399999999998</v>
       </c>
       <c r="J277">
-        <v>5.4679900000000004</v>
+        <v>3.00271</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -25855,7 +25853,7 @@
         <v>2.8255300000000001</v>
       </c>
       <c r="J278">
-        <v>5.0444300000000002</v>
+        <v>2.7281900000000001</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -25887,7 +25885,7 @@
         <v>3.9391699999999998</v>
       </c>
       <c r="J279">
-        <v>6.4420500000000001</v>
+        <v>3.6131099999999998</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -25919,7 +25917,7 @@
         <v>2.74329</v>
       </c>
       <c r="J280">
-        <v>4.7194099999999999</v>
+        <v>2.5308899999999999</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -25951,7 +25949,7 @@
         <v>22.360800000000001</v>
       </c>
       <c r="J281">
-        <v>33.690899999999999</v>
+        <v>20.395099999999999</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -25983,7 +25981,7 @@
         <v>3.1549999999999998</v>
       </c>
       <c r="J282">
-        <v>5.0974199999999996</v>
+        <v>2.67238</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -26015,7 +26013,7 @@
         <v>3.2307000000000001</v>
       </c>
       <c r="J283">
-        <v>6.4074</v>
+        <v>3.16092</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -26047,7 +26045,7 @@
         <v>2.4517000000000002</v>
       </c>
       <c r="J284">
-        <v>4.3205099999999996</v>
+        <v>2.2763</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -26079,7 +26077,7 @@
         <v>2.3473700000000002</v>
       </c>
       <c r="J285">
-        <v>4.2008900000000002</v>
+        <v>2.2169500000000002</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -26111,7 +26109,7 @@
         <v>3.4166799999999999</v>
       </c>
       <c r="J286">
-        <v>6.5957699999999999</v>
+        <v>3.28159</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -26143,7 +26141,7 @@
         <v>2.1577199999999999</v>
       </c>
       <c r="J287">
-        <v>3.9500500000000001</v>
+        <v>2.07626</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -26175,7 +26173,7 @@
         <v>3.0875900000000001</v>
       </c>
       <c r="J288">
-        <v>6.09626</v>
+        <v>2.9772699999999999</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -26207,7 +26205,7 @@
         <v>2.6821700000000002</v>
       </c>
       <c r="J289">
-        <v>4.5319799999999999</v>
+        <v>2.4485100000000002</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -26239,7 +26237,7 @@
         <v>4.1599199999999996</v>
       </c>
       <c r="J290">
-        <v>8.0163700000000002</v>
+        <v>4.1437499999999998</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -26271,7 +26269,7 @@
         <v>2.5968499999999999</v>
       </c>
       <c r="J291">
-        <v>4.3692599999999997</v>
+        <v>2.3097400000000001</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -26367,9 +26365,9 @@
         <f xml:space="preserve"> Sheet1!B1 - Sheet1!I1</f>
         <v>1.7615000000000016</v>
       </c>
-      <c r="J1">
-        <f xml:space="preserve"> Sheet1!I1 - Sheet1!J1</f>
-        <v>-12.2605</v>
+      <c r="J1" t="e">
+        <f xml:space="preserve"> Sheet1!I1 - Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -26410,8 +26408,8 @@
         <v>1.0643000000000029</v>
       </c>
       <c r="J2">
-        <f xml:space="preserve"> Sheet1!I2 - Sheet1!J2</f>
-        <v>-10.542400000000004</v>
+        <f xml:space="preserve"> Sheet1!I2 - Sheet1!J1</f>
+        <v>2.0548000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -26452,8 +26450,8 @@
         <v>1.2135999999999996</v>
       </c>
       <c r="J3">
-        <f xml:space="preserve"> Sheet1!I3 - Sheet1!J3</f>
-        <v>-10.496300000000002</v>
+        <f xml:space="preserve"> Sheet1!I3 - Sheet1!J2</f>
+        <v>2.3684000000000012</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -26494,8 +26492,8 @@
         <v>1.8440000000000012E-2</v>
       </c>
       <c r="J4">
-        <f xml:space="preserve"> Sheet1!I4 - Sheet1!J4</f>
-        <v>-3.3714400000000007</v>
+        <f xml:space="preserve"> Sheet1!I4 - Sheet1!J3</f>
+        <v>-16.280239999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -26536,8 +26534,8 @@
         <v>8.5870000000000335E-2</v>
       </c>
       <c r="J5">
-        <f xml:space="preserve"> Sheet1!I5 - Sheet1!J5</f>
-        <v>-2.08724</v>
+        <f xml:space="preserve"> Sheet1!I5 - Sheet1!J4</f>
+        <v>-1.1764000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -26578,8 +26576,8 @@
         <v>-8.0470000000000041E-2</v>
       </c>
       <c r="J6">
-        <f xml:space="preserve"> Sheet1!I6 - Sheet1!J6</f>
-        <v>-1.75814</v>
+        <f xml:space="preserve"> Sheet1!I6 - Sheet1!J5</f>
+        <v>-0.29556000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -26620,8 +26618,8 @@
         <v>-4.6699999999999964E-2</v>
       </c>
       <c r="J7">
-        <f xml:space="preserve"> Sheet1!I7 - Sheet1!J7</f>
-        <v>-1.4674799999999999</v>
+        <f xml:space="preserve"> Sheet1!I7 - Sheet1!J6</f>
+        <v>-0.50960000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -26662,8 +26660,8 @@
         <v>-6.0699999999997978E-3</v>
       </c>
       <c r="J8">
-        <f xml:space="preserve"> Sheet1!I8 - Sheet1!J8</f>
-        <v>-3.1686799999999997</v>
+        <f xml:space="preserve"> Sheet1!I8 - Sheet1!J7</f>
+        <v>1.9600899999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -26704,8 +26702,8 @@
         <v>0.1236600000000001</v>
       </c>
       <c r="J9">
-        <f xml:space="preserve"> Sheet1!I9 - Sheet1!J9</f>
-        <v>-2.3845199999999998</v>
+        <f xml:space="preserve"> Sheet1!I9 - Sheet1!J8</f>
+        <v>0.47725000000000017</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -26746,8 +26744,8 @@
         <v>7.5700000000002987E-3</v>
       </c>
       <c r="J10">
-        <f xml:space="preserve"> Sheet1!I10 - Sheet1!J10</f>
-        <v>-1.7067700000000001</v>
+        <f xml:space="preserve"> Sheet1!I10 - Sheet1!J9</f>
+        <v>-1.4341300000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -26788,8 +26786,8 @@
         <v>3.3199999999999896E-3</v>
       </c>
       <c r="J11">
-        <f xml:space="preserve"> Sheet1!I11 - Sheet1!J11</f>
-        <v>-3.2133700000000003</v>
+        <f xml:space="preserve"> Sheet1!I11 - Sheet1!J10</f>
+        <v>1.8059099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -26830,8 +26828,8 @@
         <v>-7.0999999999998842E-4</v>
       </c>
       <c r="J12">
-        <f xml:space="preserve"> Sheet1!I12 - Sheet1!J12</f>
-        <v>-1.5395700000000001</v>
+        <f xml:space="preserve"> Sheet1!I12 - Sheet1!J11</f>
+        <v>-1.9119699999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -26872,8 +26870,8 @@
         <v>0.23832999999999949</v>
       </c>
       <c r="J13">
-        <f xml:space="preserve"> Sheet1!I13 - Sheet1!J13</f>
-        <v>-3.6461200000000007</v>
+        <f xml:space="preserve"> Sheet1!I13 - Sheet1!J12</f>
+        <v>2.8206000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -26914,8 +26912,8 @@
         <v>3.3697999999999979</v>
       </c>
       <c r="J14">
-        <f xml:space="preserve"> Sheet1!I14 - Sheet1!J14</f>
-        <v>-19.571999999999996</v>
+        <f xml:space="preserve"> Sheet1!I14 - Sheet1!J13</f>
+        <v>33.601380000000006</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -26956,8 +26954,8 @@
         <v>1.3530000000000264E-2</v>
       </c>
       <c r="J15">
-        <f xml:space="preserve"> Sheet1!I15 - Sheet1!J15</f>
-        <v>-3.0716999999999999</v>
+        <f xml:space="preserve"> Sheet1!I15 - Sheet1!J14</f>
+        <v>-30.329040000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -26998,8 +26996,8 @@
         <v>3.3699999999999619E-2</v>
       </c>
       <c r="J16">
-        <f xml:space="preserve"> Sheet1!I16 - Sheet1!J16</f>
-        <v>-1.79223</v>
+        <f xml:space="preserve"> Sheet1!I16 - Sheet1!J15</f>
+        <v>-1.6325499999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -27040,8 +27038,8 @@
         <v>3.0030000000000001E-2</v>
       </c>
       <c r="J17">
-        <f xml:space="preserve"> Sheet1!I17 - Sheet1!J17</f>
-        <v>-1.7337600000000002</v>
+        <f xml:space="preserve"> Sheet1!I17 - Sheet1!J16</f>
+        <v>2.6759999999999895E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -27082,8 +27080,8 @@
         <v>3.159999999999985E-2</v>
       </c>
       <c r="J18">
-        <f xml:space="preserve"> Sheet1!I18 - Sheet1!J18</f>
-        <v>-1.7326699999999997</v>
+        <f xml:space="preserve"> Sheet1!I18 - Sheet1!J17</f>
+        <v>2.418000000000009E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -27124,8 +27122,8 @@
         <v>5.3420000000000023E-2</v>
       </c>
       <c r="J19">
-        <f xml:space="preserve"> Sheet1!I19 - Sheet1!J19</f>
-        <v>-1.8094300000000003</v>
+        <f xml:space="preserve"> Sheet1!I19 - Sheet1!J18</f>
+        <v>0.34041999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -27166,8 +27164,8 @@
         <v>0.13379999999999992</v>
       </c>
       <c r="J20">
-        <f xml:space="preserve"> Sheet1!I20 - Sheet1!J20</f>
-        <v>-2.5086200000000001</v>
+        <f xml:space="preserve"> Sheet1!I20 - Sheet1!J19</f>
+        <v>1.5531699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -27208,8 +27206,8 @@
         <v>-1.9669999999999632E-2</v>
       </c>
       <c r="J21">
-        <f xml:space="preserve"> Sheet1!I21 - Sheet1!J21</f>
-        <v>-3.0479500000000002</v>
+        <f xml:space="preserve"> Sheet1!I21 - Sheet1!J20</f>
+        <v>-0.36956000000000033</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -27250,8 +27248,8 @@
         <v>-1.6240000000000032E-2</v>
       </c>
       <c r="J22">
-        <f xml:space="preserve"> Sheet1!I22 - Sheet1!J22</f>
-        <v>-1.5016499999999999</v>
+        <f xml:space="preserve"> Sheet1!I22 - Sheet1!J21</f>
+        <v>-1.4985099999999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -27292,8 +27290,8 @@
         <v>8.2840000000000025E-2</v>
       </c>
       <c r="J23">
-        <f xml:space="preserve"> Sheet1!I23 - Sheet1!J23</f>
-        <v>-2.0303199999999997</v>
+        <f xml:space="preserve"> Sheet1!I23 - Sheet1!J22</f>
+        <v>1.1836900000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -27334,8 +27332,8 @@
         <v>0.11843000000000004</v>
       </c>
       <c r="J24">
-        <f xml:space="preserve"> Sheet1!I24 - Sheet1!J24</f>
-        <v>-2.3271399999999995</v>
+        <f xml:space="preserve"> Sheet1!I24 - Sheet1!J23</f>
+        <v>0.81109000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -27376,8 +27374,8 @@
         <v>3.6073999999999984</v>
       </c>
       <c r="J25">
-        <f xml:space="preserve"> Sheet1!I25 - Sheet1!J25</f>
-        <v>-21.087600000000002</v>
+        <f xml:space="preserve"> Sheet1!I25 - Sheet1!J24</f>
+        <v>38.333440000000003</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -27418,8 +27416,8 @@
         <v>4.5209999999999972E-2</v>
       </c>
       <c r="J26">
-        <f xml:space="preserve"> Sheet1!I26 - Sheet1!J26</f>
-        <v>-1.6444899999999998</v>
+        <f xml:space="preserve"> Sheet1!I26 - Sheet1!J25</f>
+        <v>-36.130310000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -27460,8 +27458,8 @@
         <v>6.0439999999999827E-2</v>
       </c>
       <c r="J27">
-        <f xml:space="preserve"> Sheet1!I27 - Sheet1!J27</f>
-        <v>-3.6240299999999994</v>
+        <f xml:space="preserve"> Sheet1!I27 - Sheet1!J26</f>
+        <v>1.9931200000000002</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -27502,8 +27500,8 @@
         <v>-7.1999999999983189E-4</v>
       </c>
       <c r="J28">
-        <f xml:space="preserve"> Sheet1!I28 - Sheet1!J28</f>
-        <v>-1.5188400000000002</v>
+        <f xml:space="preserve"> Sheet1!I28 - Sheet1!J27</f>
+        <v>-2.3835500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -27544,8 +27542,8 @@
         <v>5.2229999999999777E-2</v>
       </c>
       <c r="J29">
-        <f xml:space="preserve"> Sheet1!I29 - Sheet1!J29</f>
-        <v>-1.8125100000000001</v>
+        <f xml:space="preserve"> Sheet1!I29 - Sheet1!J28</f>
+        <v>0.54465000000000008</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -27586,8 +27584,8 @@
         <v>5.7350000000000012E-2</v>
       </c>
       <c r="J30">
-        <f xml:space="preserve"> Sheet1!I30 - Sheet1!J30</f>
-        <v>-1.8696600000000005</v>
+        <f xml:space="preserve"> Sheet1!I30 - Sheet1!J29</f>
+        <v>0.27438999999999991</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -27628,8 +27626,8 @@
         <v>-2.1499999999998742E-3</v>
       </c>
       <c r="J31">
-        <f xml:space="preserve"> Sheet1!I31 - Sheet1!J31</f>
-        <v>-3.16622</v>
+        <f xml:space="preserve"> Sheet1!I31 - Sheet1!J30</f>
+        <v>1.1834600000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -27670,8 +27668,8 @@
         <v>8.6879999999999846E-2</v>
       </c>
       <c r="J32">
-        <f xml:space="preserve"> Sheet1!I32 - Sheet1!J32</f>
-        <v>-2.2177600000000002</v>
+        <f xml:space="preserve"> Sheet1!I32 - Sheet1!J31</f>
+        <v>-0.35155000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -27712,8 +27710,8 @@
         <v>4.4549999999999645E-2</v>
       </c>
       <c r="J33">
-        <f xml:space="preserve"> Sheet1!I33 - Sheet1!J33</f>
-        <v>-1.7604299999999999</v>
+        <f xml:space="preserve"> Sheet1!I33 - Sheet1!J32</f>
+        <v>-0.65576999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -27754,8 +27752,8 @@
         <v>8.7299999999999045E-3</v>
       </c>
       <c r="J34">
-        <f xml:space="preserve"> Sheet1!I34 - Sheet1!J34</f>
-        <v>-1.6432699999999998</v>
+        <f xml:space="preserve"> Sheet1!I34 - Sheet1!J33</f>
+        <v>-0.23904000000000014</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -27796,8 +27794,8 @@
         <v>0.1394700000000002</v>
       </c>
       <c r="J35">
-        <f xml:space="preserve"> Sheet1!I35 - Sheet1!J35</f>
-        <v>-4.1914600000000011</v>
+        <f xml:space="preserve"> Sheet1!I35 - Sheet1!J34</f>
+        <v>2.9967199999999998</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -27838,8 +27836,8 @@
         <v>2.0471000000000004</v>
       </c>
       <c r="J36">
-        <f xml:space="preserve"> Sheet1!I36 - Sheet1!J36</f>
-        <v>-11.443300000000004</v>
+        <f xml:space="preserve"> Sheet1!I36 - Sheet1!J35</f>
+        <v>17.734589999999997</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -27880,8 +27878,8 @@
         <v>0.11751999999999985</v>
       </c>
       <c r="J37">
-        <f xml:space="preserve"> Sheet1!I37 - Sheet1!J37</f>
-        <v>-2.3184199999999997</v>
+        <f xml:space="preserve"> Sheet1!I37 - Sheet1!J36</f>
+        <v>-16.730730000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -27922,8 +27920,8 @@
         <v>0.12315999999999994</v>
       </c>
       <c r="J38">
-        <f xml:space="preserve"> Sheet1!I38 - Sheet1!J38</f>
-        <v>-2.2847400000000002</v>
+        <f xml:space="preserve"> Sheet1!I38 - Sheet1!J37</f>
+        <v>-5.2729999999999944E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -27964,8 +27962,8 @@
         <v>1.6329999999999956E-2</v>
       </c>
       <c r="J39">
-        <f xml:space="preserve"> Sheet1!I39 - Sheet1!J39</f>
-        <v>-1.6294600000000001</v>
+        <f xml:space="preserve"> Sheet1!I39 - Sheet1!J38</f>
+        <v>-1.29382</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -28006,8 +28004,8 @@
         <v>8.6839999999999584E-2</v>
       </c>
       <c r="J40">
-        <f xml:space="preserve"> Sheet1!I40 - Sheet1!J40</f>
-        <v>-2.2239099999999996</v>
+        <f xml:space="preserve"> Sheet1!I40 - Sheet1!J39</f>
+        <v>1.5987100000000003</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -28048,8 +28046,8 @@
         <v>5.1260000000000083E-2</v>
       </c>
       <c r="J41">
-        <f xml:space="preserve"> Sheet1!I41 - Sheet1!J41</f>
-        <v>-1.8700700000000001</v>
+        <f xml:space="preserve"> Sheet1!I41 - Sheet1!J40</f>
+        <v>-0.72014000000000022</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -28090,8 +28088,8 @@
         <v>7.5450000000000017E-2</v>
       </c>
       <c r="J42">
-        <f xml:space="preserve"> Sheet1!I42 - Sheet1!J42</f>
-        <v>-1.9884899999999996</v>
+        <f xml:space="preserve"> Sheet1!I42 - Sheet1!J41</f>
+        <v>0.37415999999999983</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -28132,8 +28130,8 @@
         <v>6.6310000000000091E-2</v>
       </c>
       <c r="J43">
-        <f xml:space="preserve"> Sheet1!I43 - Sheet1!J43</f>
-        <v>-1.9194900000000001</v>
+        <f xml:space="preserve"> Sheet1!I43 - Sheet1!J42</f>
+        <v>1.4590000000000103E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -28174,8 +28172,8 @@
         <v>4.7670000000000101E-2</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> Sheet1!I44 - Sheet1!J44</f>
-        <v>-1.9212100000000003</v>
+        <f xml:space="preserve"> Sheet1!I44 - Sheet1!J43</f>
+        <v>0.21363000000000021</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -28216,8 +28214,8 @@
         <v>1.1400000000001409E-3</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> Sheet1!I45 - Sheet1!J45</f>
-        <v>-1.5830800000000003</v>
+        <f xml:space="preserve"> Sheet1!I45 - Sheet1!J44</f>
+        <v>-0.68597000000000019</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -28258,8 +28256,8 @@
         <v>5.8759999999999923E-2</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> Sheet1!I46 - Sheet1!J46</f>
-        <v>-1.9983499999999998</v>
+        <f xml:space="preserve"> Sheet1!I46 - Sheet1!J45</f>
+        <v>0.9645999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -28300,8 +28298,8 @@
         <v>2.1774000000000022</v>
       </c>
       <c r="J47">
-        <f xml:space="preserve"> Sheet1!I47 - Sheet1!J47</f>
-        <v>-12.7182</v>
+        <f xml:space="preserve"> Sheet1!I47 - Sheet1!J46</f>
+        <v>22.476409999999998</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -28342,8 +28340,8 @@
         <v>1.576999999999984E-2</v>
       </c>
       <c r="J48">
-        <f xml:space="preserve"> Sheet1!I48 - Sheet1!J48</f>
-        <v>-1.53457</v>
+        <f xml:space="preserve"> Sheet1!I48 - Sheet1!J47</f>
+        <v>-20.446259999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -28384,8 +28382,8 @@
         <v>9.4240000000000101E-2</v>
       </c>
       <c r="J49">
-        <f xml:space="preserve"> Sheet1!I49 - Sheet1!J49</f>
-        <v>-2.2052799999999997</v>
+        <f xml:space="preserve"> Sheet1!I49 - Sheet1!J48</f>
+        <v>0.8709699999999998</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -28426,8 +28424,8 @@
         <v>9.8100000000000964E-3</v>
       </c>
       <c r="J50">
-        <f xml:space="preserve"> Sheet1!I50 - Sheet1!J50</f>
-        <v>-1.66401</v>
+        <f xml:space="preserve"> Sheet1!I50 - Sheet1!J49</f>
+        <v>-0.89690999999999987</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -28468,8 +28466,8 @@
         <v>-7.8100000000000946E-3</v>
       </c>
       <c r="J51">
-        <f xml:space="preserve"> Sheet1!I51 - Sheet1!J51</f>
-        <v>-3.1476699999999997</v>
+        <f xml:space="preserve"> Sheet1!I51 - Sheet1!J50</f>
+        <v>1.6518600000000001</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -28510,8 +28508,8 @@
         <v>0.17464000000000013</v>
       </c>
       <c r="J52">
-        <f xml:space="preserve"> Sheet1!I52 - Sheet1!J52</f>
-        <v>-2.5821899999999998</v>
+        <f xml:space="preserve"> Sheet1!I52 - Sheet1!J51</f>
+        <v>0.7185400000000004</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -28552,8 +28550,8 @@
         <v>9.0479999999999894E-2</v>
       </c>
       <c r="J53">
-        <f xml:space="preserve"> Sheet1!I53 - Sheet1!J53</f>
-        <v>-2.1764600000000001</v>
+        <f xml:space="preserve"> Sheet1!I53 - Sheet1!J52</f>
+        <v>-0.71126000000000023</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -28594,8 +28592,8 @@
         <v>1.2189999999999923E-2</v>
       </c>
       <c r="J54">
-        <f xml:space="preserve"> Sheet1!I54 - Sheet1!J54</f>
-        <v>-1.6181100000000002</v>
+        <f xml:space="preserve"> Sheet1!I54 - Sheet1!J53</f>
+        <v>-0.97041000000000022</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -28636,8 +28634,8 @@
         <v>6.6159999999999997E-2</v>
       </c>
       <c r="J55">
-        <f xml:space="preserve"> Sheet1!I55 - Sheet1!J55</f>
-        <v>-1.9276400000000002</v>
+        <f xml:space="preserve"> Sheet1!I55 - Sheet1!J54</f>
+        <v>1.0513400000000002</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -28678,8 +28676,8 @@
         <v>0.10036000000000023</v>
       </c>
       <c r="J56">
-        <f xml:space="preserve"> Sheet1!I56 - Sheet1!J56</f>
-        <v>-2.2225400000000004</v>
+        <f xml:space="preserve"> Sheet1!I56 - Sheet1!J55</f>
+        <v>0.55459999999999976</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -28720,8 +28718,8 @@
         <v>5.5559999999999832E-2</v>
       </c>
       <c r="J57">
-        <f xml:space="preserve"> Sheet1!I57 - Sheet1!J57</f>
-        <v>-1.9514400000000003</v>
+        <f xml:space="preserve"> Sheet1!I57 - Sheet1!J56</f>
+        <v>-0.49968999999999975</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -28762,8 +28760,8 @@
         <v>2.0884999999999998</v>
       </c>
       <c r="J58">
-        <f xml:space="preserve"> Sheet1!I58 - Sheet1!J58</f>
-        <v>-11.373900000000003</v>
+        <f xml:space="preserve"> Sheet1!I58 - Sheet1!J57</f>
+        <v>20.020609999999998</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -28804,8 +28802,8 @@
         <v>-2.9300000000000992E-3</v>
       </c>
       <c r="J59">
-        <f xml:space="preserve"> Sheet1!I59 - Sheet1!J59</f>
-        <v>-3.1311</v>
+        <f xml:space="preserve"> Sheet1!I59 - Sheet1!J58</f>
+        <v>-16.567080000000001</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -28846,8 +28844,8 @@
         <v>6.4799999999998192E-3</v>
       </c>
       <c r="J60">
-        <f xml:space="preserve"> Sheet1!I60 - Sheet1!J60</f>
-        <v>-1.7100599999999999</v>
+        <f xml:space="preserve"> Sheet1!I60 - Sheet1!J59</f>
+        <v>-1.5703999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -28888,8 +28886,8 @@
         <v>2.3700000000000054E-2</v>
       </c>
       <c r="J61">
-        <f xml:space="preserve"> Sheet1!I61 - Sheet1!J61</f>
-        <v>-1.6337200000000003</v>
+        <f xml:space="preserve"> Sheet1!I61 - Sheet1!J60</f>
+        <v>4.569999999999963E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -28930,8 +28928,8 @@
         <v>0.22545999999999999</v>
       </c>
       <c r="J62">
-        <f xml:space="preserve"> Sheet1!I62 - Sheet1!J62</f>
-        <v>-2.9614999999999996</v>
+        <f xml:space="preserve"> Sheet1!I62 - Sheet1!J61</f>
+        <v>1.6671200000000002</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -28972,8 +28970,8 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <f xml:space="preserve"> Sheet1!I63 - Sheet1!J63</f>
-        <v>-9.5999899999999995E-5</v>
+        <f xml:space="preserve"> Sheet1!I63 - Sheet1!J62</f>
+        <v>-3.52793</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -29014,8 +29012,8 @@
         <v>0.11493999999999982</v>
       </c>
       <c r="J64">
-        <f xml:space="preserve"> Sheet1!I64 - Sheet1!J64</f>
-        <v>-2.2394000000000003</v>
+        <f xml:space="preserve"> Sheet1!I64 - Sheet1!J63</f>
+        <v>3.1677300000000002</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -29056,8 +29054,8 @@
         <v>0.28139999999999965</v>
       </c>
       <c r="J65">
-        <f xml:space="preserve"> Sheet1!I65 - Sheet1!J65</f>
-        <v>-3.2690299999999999</v>
+        <f xml:space="preserve"> Sheet1!I65 - Sheet1!J64</f>
+        <v>2.8737500000000002</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -29098,8 +29096,8 @@
         <v>0.7237000000000009</v>
       </c>
       <c r="J66">
-        <f xml:space="preserve"> Sheet1!I66 - Sheet1!J66</f>
-        <v>-5.6658000000000008</v>
+        <f xml:space="preserve"> Sheet1!I66 - Sheet1!J65</f>
+        <v>6.4564300000000001</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -29140,8 +29138,8 @@
         <v>3.9690000000000225E-2</v>
       </c>
       <c r="J67">
-        <f xml:space="preserve"> Sheet1!I67 - Sheet1!J67</f>
-        <v>-1.8523899999999998</v>
+        <f xml:space="preserve"> Sheet1!I67 - Sheet1!J66</f>
+        <v>-7.9293000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -29182,8 +29180,8 @@
         <v>5.8069999999999844E-2</v>
       </c>
       <c r="J68">
-        <f xml:space="preserve"> Sheet1!I68 - Sheet1!J68</f>
-        <v>-1.8730300000000004</v>
+        <f xml:space="preserve"> Sheet1!I68 - Sheet1!J67</f>
+        <v>-3.595999999999977E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -29224,8 +29222,8 @@
         <v>2.2005000000000017</v>
       </c>
       <c r="J69">
-        <f xml:space="preserve"> Sheet1!I69 - Sheet1!J69</f>
-        <v>-12.576499999999999</v>
+        <f xml:space="preserve"> Sheet1!I69 - Sheet1!J68</f>
+        <v>22.72636</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -29266,8 +29264,8 @@
         <v>3.3610000000000362E-2</v>
       </c>
       <c r="J70">
-        <f xml:space="preserve"> Sheet1!I70 - Sheet1!J70</f>
-        <v>-1.7486199999999998</v>
+        <f xml:space="preserve"> Sheet1!I70 - Sheet1!J69</f>
+        <v>-20.18956</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -29308,8 +29306,8 @@
         <v>1.9210000000000171E-2</v>
       </c>
       <c r="J71">
-        <f xml:space="preserve"> Sheet1!I71 - Sheet1!J71</f>
-        <v>-1.6135400000000002</v>
+        <f xml:space="preserve"> Sheet1!I71 - Sheet1!J70</f>
+        <v>-0.60098000000000007</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -29350,8 +29348,8 @@
         <v>3.1009999999999982E-2</v>
       </c>
       <c r="J72">
-        <f xml:space="preserve"> Sheet1!I72 - Sheet1!J72</f>
-        <v>-1.6848099999999999</v>
+        <f xml:space="preserve"> Sheet1!I72 - Sheet1!J71</f>
+        <v>0.23001000000000005</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -29392,8 +29390,8 @@
         <v>-8.1500000000001016E-3</v>
       </c>
       <c r="J73">
-        <f xml:space="preserve"> Sheet1!I73 - Sheet1!J73</f>
-        <v>-3.0890899999999997</v>
+        <f xml:space="preserve"> Sheet1!I73 - Sheet1!J72</f>
+        <v>1.5259400000000001</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -29434,8 +29432,8 @@
         <v>6.9600000000000772E-3</v>
       </c>
       <c r="J74">
-        <f xml:space="preserve"> Sheet1!I74 - Sheet1!J74</f>
-        <v>-1.5485000000000002</v>
+        <f xml:space="preserve"> Sheet1!I74 - Sheet1!J73</f>
+        <v>-1.5552999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -29476,8 +29474,8 @@
         <v>9.100000000000108E-3</v>
       </c>
       <c r="J75">
-        <f xml:space="preserve"> Sheet1!I75 - Sheet1!J75</f>
-        <v>-3.1968900000000002</v>
+        <f xml:space="preserve"> Sheet1!I75 - Sheet1!J74</f>
+        <v>1.8121700000000001</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -29518,8 +29516,8 @@
         <v>7.1000000000021046E-4</v>
       </c>
       <c r="J76">
-        <f xml:space="preserve"> Sheet1!I76 - Sheet1!J76</f>
-        <v>-3.0616000000000003</v>
+        <f xml:space="preserve"> Sheet1!I76 - Sheet1!J75</f>
+        <v>-0.23055000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -29560,8 +29558,8 @@
         <v>6.5390000000000281E-2</v>
       </c>
       <c r="J77">
-        <f xml:space="preserve"> Sheet1!I77 - Sheet1!J77</f>
-        <v>-2.1361900000000005</v>
+        <f xml:space="preserve"> Sheet1!I77 - Sheet1!J76</f>
+        <v>9.7239999999999771E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -29602,8 +29600,8 @@
         <v>2.2740000000000204E-2</v>
       </c>
       <c r="J78">
-        <f xml:space="preserve"> Sheet1!I78 - Sheet1!J78</f>
-        <v>-1.7422400000000002</v>
+        <f xml:space="preserve"> Sheet1!I78 - Sheet1!J77</f>
+        <v>-0.77306000000000008</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -29644,8 +29642,8 @@
         <v>5.0399999999997114E-3</v>
       </c>
       <c r="J79">
-        <f xml:space="preserve"> Sheet1!I79 - Sheet1!J79</f>
-        <v>-3.1694299999999997</v>
+        <f xml:space="preserve"> Sheet1!I79 - Sheet1!J78</f>
+        <v>1.31325</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -29686,8 +29684,8 @@
         <v>2.0400999999999989</v>
       </c>
       <c r="J80">
-        <f xml:space="preserve"> Sheet1!I80 - Sheet1!J80</f>
-        <v>-11.311499999999995</v>
+        <f xml:space="preserve"> Sheet1!I80 - Sheet1!J79</f>
+        <v>19.051900000000003</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -29728,8 +29726,8 @@
         <v>1.9959999999999756E-2</v>
       </c>
       <c r="J81">
-        <f xml:space="preserve"> Sheet1!I81 - Sheet1!J81</f>
-        <v>-1.5994099999999998</v>
+        <f xml:space="preserve"> Sheet1!I81 - Sheet1!J80</f>
+        <v>-17.954080000000001</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -29770,8 +29768,8 @@
         <v>4.1809999999999903E-2</v>
       </c>
       <c r="J82">
-        <f xml:space="preserve"> Sheet1!I82 - Sheet1!J82</f>
-        <v>-1.7585999999999999</v>
+        <f xml:space="preserve"> Sheet1!I82 - Sheet1!J81</f>
+        <v>6.5320000000000267E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -29812,8 +29810,8 @@
         <v>0.1079699999999999</v>
       </c>
       <c r="J83">
-        <f xml:space="preserve"> Sheet1!I83 - Sheet1!J83</f>
-        <v>-2.1102300000000001</v>
+        <f xml:space="preserve"> Sheet1!I83 - Sheet1!J82</f>
+        <v>0.82407000000000008</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -29854,8 +29852,8 @@
         <v>0.21693000000000051</v>
       </c>
       <c r="J84">
-        <f xml:space="preserve"> Sheet1!I84 - Sheet1!J84</f>
-        <v>-3.2682000000000002</v>
+        <f xml:space="preserve"> Sheet1!I84 - Sheet1!J83</f>
+        <v>2.8195599999999996</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -29896,8 +29894,8 @@
         <v>0.12317999999999962</v>
       </c>
       <c r="J85">
-        <f xml:space="preserve"> Sheet1!I85 - Sheet1!J85</f>
-        <v>-2.2512999999999996</v>
+        <f xml:space="preserve"> Sheet1!I85 - Sheet1!J84</f>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -29938,8 +29936,8 @@
         <v>0.10558999999999985</v>
       </c>
       <c r="J86">
-        <f xml:space="preserve"> Sheet1!I86 - Sheet1!J86</f>
-        <v>-2.4396300000000002</v>
+        <f xml:space="preserve"> Sheet1!I86 - Sheet1!J85</f>
+        <v>-0.53022999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -29980,8 +29978,8 @@
         <v>-3.412000000000015E-2</v>
       </c>
       <c r="J87">
-        <f xml:space="preserve"> Sheet1!I87 - Sheet1!J87</f>
-        <v>-3.0413599999999996</v>
+        <f xml:space="preserve"> Sheet1!I87 - Sheet1!J86</f>
+        <v>0.34596999999999989</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -30022,8 +30020,8 @@
         <v>-1.3020000000000032E-2</v>
       </c>
       <c r="J88">
-        <f xml:space="preserve"> Sheet1!I88 - Sheet1!J88</f>
-        <v>-2.9919499999999997</v>
+        <f xml:space="preserve"> Sheet1!I88 - Sheet1!J87</f>
+        <v>1.3939999999999841E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -30064,8 +30062,8 @@
         <v>8.2100000000000506E-3</v>
       </c>
       <c r="J89">
-        <f xml:space="preserve"> Sheet1!I89 - Sheet1!J89</f>
-        <v>-1.5662399999999999</v>
+        <f xml:space="preserve"> Sheet1!I89 - Sheet1!J88</f>
+        <v>-1.2615300000000003</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -30106,8 +30104,8 @@
         <v>-3.0069999999999819E-2</v>
       </c>
       <c r="J90">
-        <f xml:space="preserve"> Sheet1!I90 - Sheet1!J90</f>
-        <v>-3.00339</v>
+        <f xml:space="preserve"> Sheet1!I90 - Sheet1!J89</f>
+        <v>1.3602099999999997</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -30148,8 +30146,8 @@
         <v>2.1724999999999994</v>
       </c>
       <c r="J91">
-        <f xml:space="preserve"> Sheet1!I91 - Sheet1!J91</f>
-        <v>-12.595100000000002</v>
+        <f xml:space="preserve"> Sheet1!I91 - Sheet1!J90</f>
+        <v>21.885059999999999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -30190,8 +30188,8 @@
         <v>3.1179999999999986E-2</v>
       </c>
       <c r="J92">
-        <f xml:space="preserve"> Sheet1!I92 - Sheet1!J92</f>
-        <v>-1.6881900000000001</v>
+        <f xml:space="preserve"> Sheet1!I92 - Sheet1!J91</f>
+        <v>-20.265740000000001</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -30232,8 +30230,8 @@
         <v>3.2219999999999915E-2</v>
       </c>
       <c r="J93">
-        <f xml:space="preserve"> Sheet1!I93 - Sheet1!J93</f>
-        <v>-1.7270099999999999</v>
+        <f xml:space="preserve"> Sheet1!I93 - Sheet1!J92</f>
+        <v>-0.26413999999999982</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -30274,8 +30272,8 @@
         <v>1.1220000000000008E-2</v>
       </c>
       <c r="J94">
-        <f xml:space="preserve"> Sheet1!I94 - Sheet1!J94</f>
-        <v>-1.6291</v>
+        <f xml:space="preserve"> Sheet1!I94 - Sheet1!J93</f>
+        <v>-5.3260000000000085E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -30316,8 +30314,8 @@
         <v>4.7880000000000145E-2</v>
       </c>
       <c r="J95">
-        <f xml:space="preserve"> Sheet1!I95 - Sheet1!J95</f>
-        <v>-3.4589999999999996</v>
+        <f xml:space="preserve"> Sheet1!I95 - Sheet1!J94</f>
+        <v>1.93251</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -30358,8 +30356,8 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="J96">
-        <f xml:space="preserve"> Sheet1!I96 - Sheet1!J96</f>
-        <v>-2.8400000000000002E-4</v>
+        <f xml:space="preserve"> Sheet1!I96 - Sheet1!J95</f>
+        <v>-3.5795599999999999</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -30400,8 +30398,8 @@
         <v>-2.051000000000025E-2</v>
       </c>
       <c r="J97">
-        <f xml:space="preserve"> Sheet1!I97 - Sheet1!J97</f>
-        <v>-3.04887</v>
+        <f xml:space="preserve"> Sheet1!I97 - Sheet1!J96</f>
+        <v>3.0894300000000001</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -30442,8 +30440,8 @@
         <v>1.1010000000000186E-2</v>
       </c>
       <c r="J98">
-        <f xml:space="preserve"> Sheet1!I98 - Sheet1!J98</f>
-        <v>-3.09219</v>
+        <f xml:space="preserve"> Sheet1!I98 - Sheet1!J97</f>
+        <v>0.16466000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -30484,8 +30482,8 @@
         <v>1.285000000000025E-2</v>
       </c>
       <c r="J99">
-        <f xml:space="preserve"> Sheet1!I99 - Sheet1!J99</f>
-        <v>-3.0400999999999998</v>
+        <f xml:space="preserve"> Sheet1!I99 - Sheet1!J98</f>
+        <v>2.5980000000000114E-2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -30526,8 +30524,8 @@
         <v>0.19265000000000043</v>
       </c>
       <c r="J100">
-        <f xml:space="preserve"> Sheet1!I100 - Sheet1!J100</f>
-        <v>-2.8494200000000003</v>
+        <f xml:space="preserve"> Sheet1!I100 - Sheet1!J99</f>
+        <v>1.4916699999999996</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -30568,8 +30566,8 @@
         <v>1.9330000000000069E-2</v>
       </c>
       <c r="J101">
-        <f xml:space="preserve"> Sheet1!I101 - Sheet1!J101</f>
-        <v>-1.6732800000000001</v>
+        <f xml:space="preserve"> Sheet1!I101 - Sheet1!J100</f>
+        <v>-2.34334</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -30610,8 +30608,8 @@
         <v>2.0225000000000009</v>
       </c>
       <c r="J102">
-        <f xml:space="preserve"> Sheet1!I102 - Sheet1!J102</f>
-        <v>-11.404500000000002</v>
+        <f xml:space="preserve"> Sheet1!I102 - Sheet1!J101</f>
+        <v>20.743069999999999</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -30652,8 +30650,8 @@
         <v>0.20959000000000039</v>
       </c>
       <c r="J103">
-        <f xml:space="preserve"> Sheet1!I103 - Sheet1!J103</f>
-        <v>-2.8921999999999999</v>
+        <f xml:space="preserve"> Sheet1!I103 - Sheet1!J102</f>
+        <v>-15.70904</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -30694,8 +30692,8 @@
         <v>7.286999999999999E-2</v>
       </c>
       <c r="J104">
-        <f xml:space="preserve"> Sheet1!I104 - Sheet1!J104</f>
-        <v>-1.9340000000000006</v>
+        <f xml:space="preserve"> Sheet1!I104 - Sheet1!J103</f>
+        <v>-1.8805999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -30736,8 +30734,8 @@
         <v>5.2830000000000155E-2</v>
       </c>
       <c r="J105">
-        <f xml:space="preserve"> Sheet1!I105 - Sheet1!J105</f>
-        <v>-1.9206599999999998</v>
+        <f xml:space="preserve"> Sheet1!I105 - Sheet1!J104</f>
+        <v>4.9840000000000106E-2</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -30778,8 +30776,8 @@
         <v>-2.1499999999998742E-3</v>
       </c>
       <c r="J106">
-        <f xml:space="preserve"> Sheet1!I106 - Sheet1!J106</f>
-        <v>-1.5372600000000001</v>
+        <f xml:space="preserve"> Sheet1!I106 - Sheet1!J105</f>
+        <v>-0.45728000000000013</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -30820,8 +30818,8 @@
         <v>5.9400000000000119E-2</v>
       </c>
       <c r="J107">
-        <f xml:space="preserve"> Sheet1!I107 - Sheet1!J107</f>
-        <v>-1.8539599999999998</v>
+        <f xml:space="preserve"> Sheet1!I107 - Sheet1!J106</f>
+        <v>0.65164</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -30862,8 +30860,8 @@
         <v>-1.4139999999999819E-2</v>
       </c>
       <c r="J108">
-        <f xml:space="preserve"> Sheet1!I108 - Sheet1!J108</f>
-        <v>-3.0215400000000003</v>
+        <f xml:space="preserve"> Sheet1!I108 - Sheet1!J107</f>
+        <v>0.83178999999999981</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -30904,8 +30902,8 @@
         <v>-2.0500000000001073E-3</v>
       </c>
       <c r="J109">
-        <f xml:space="preserve"> Sheet1!I109 - Sheet1!J109</f>
-        <v>-1.51712</v>
+        <f xml:space="preserve"> Sheet1!I109 - Sheet1!J108</f>
+        <v>-1.4219299999999999</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -30946,8 +30944,8 @@
         <v>2.2259999999999946E-2</v>
       </c>
       <c r="J110">
-        <f xml:space="preserve"> Sheet1!I110 - Sheet1!J110</f>
-        <v>-1.6595500000000001</v>
+        <f xml:space="preserve"> Sheet1!I110 - Sheet1!J109</f>
+        <v>0.37544</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -30988,8 +30986,8 @@
         <v>8.2100000000000506E-3</v>
       </c>
       <c r="J111">
-        <f xml:space="preserve"> Sheet1!I111 - Sheet1!J111</f>
-        <v>-3.0514800000000002</v>
+        <f xml:space="preserve"> Sheet1!I111 - Sheet1!J110</f>
+        <v>1.2729699999999999</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -31030,8 +31028,8 @@
         <v>-6.0699999999997978E-3</v>
       </c>
       <c r="J112">
-        <f xml:space="preserve"> Sheet1!I112 - Sheet1!J112</f>
-        <v>-2.9895699999999996</v>
+        <f xml:space="preserve"> Sheet1!I112 - Sheet1!J111</f>
+        <v>-5.1559999999999828E-2</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -31072,8 +31070,8 @@
         <v>2.0504999999999995</v>
       </c>
       <c r="J113">
-        <f xml:space="preserve"> Sheet1!I113 - Sheet1!J113</f>
-        <v>-11.3718</v>
+        <f xml:space="preserve"> Sheet1!I113 - Sheet1!J112</f>
+        <v>19.365649999999999</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -31114,8 +31112,8 @@
         <v>2.0436000000000014</v>
       </c>
       <c r="J114">
-        <f xml:space="preserve"> Sheet1!I114 - Sheet1!J114</f>
-        <v>-11.388300000000001</v>
+        <f xml:space="preserve"> Sheet1!I114 - Sheet1!J113</f>
+        <v>2.8886000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -31156,8 +31154,8 @@
         <v>3.3199999999999896E-3</v>
       </c>
       <c r="J115">
-        <f xml:space="preserve"> Sheet1!I115 - Sheet1!J115</f>
-        <v>-3.1211300000000004</v>
+        <f xml:space="preserve"> Sheet1!I115 - Sheet1!J114</f>
+        <v>-17.250070000000001</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -31198,8 +31196,8 @@
         <v>7.211000000000034E-2</v>
       </c>
       <c r="J116">
-        <f xml:space="preserve"> Sheet1!I116 - Sheet1!J116</f>
-        <v>-2.0548600000000001</v>
+        <f xml:space="preserve"> Sheet1!I116 - Sheet1!J115</f>
+        <v>-0.70782000000000034</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -31240,8 +31238,8 @@
         <v>-5.9899999999997178E-3</v>
       </c>
       <c r="J117">
-        <f xml:space="preserve"> Sheet1!I117 - Sheet1!J117</f>
-        <v>-3.0612900000000005</v>
+        <f xml:space="preserve"> Sheet1!I117 - Sheet1!J116</f>
+        <v>0.66432999999999964</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -31282,8 +31280,8 @@
         <v>4.9700000000000077E-2</v>
       </c>
       <c r="J118">
-        <f xml:space="preserve"> Sheet1!I118 - Sheet1!J118</f>
-        <v>-1.8996400000000002</v>
+        <f xml:space="preserve"> Sheet1!I118 - Sheet1!J117</f>
+        <v>-0.74655000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -31324,8 +31322,8 @@
         <v>2.4299999999999988E-2</v>
       </c>
       <c r="J119">
-        <f xml:space="preserve"> Sheet1!I119 - Sheet1!J119</f>
-        <v>-1.61256</v>
+        <f xml:space="preserve"> Sheet1!I119 - Sheet1!J118</f>
+        <v>-0.29796</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -31366,8 +31364,8 @@
         <v>1.3210000000000166E-2</v>
       </c>
       <c r="J120">
-        <f xml:space="preserve"> Sheet1!I120 - Sheet1!J120</f>
-        <v>-1.6500600000000001</v>
+        <f xml:space="preserve"> Sheet1!I120 - Sheet1!J119</f>
+        <v>1.5359999999999818E-2</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -31408,8 +31406,8 @@
         <v>0.12304000000000004</v>
       </c>
       <c r="J121">
-        <f xml:space="preserve"> Sheet1!I121 - Sheet1!J121</f>
-        <v>-2.5104500000000001</v>
+        <f xml:space="preserve"> Sheet1!I121 - Sheet1!J120</f>
+        <v>1.66669</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -31450,8 +31448,8 @@
         <v>0.25455999999999968</v>
       </c>
       <c r="J122">
-        <f xml:space="preserve"> Sheet1!I122 - Sheet1!J122</f>
-        <v>-2.9805300000000008</v>
+        <f xml:space="preserve"> Sheet1!I122 - Sheet1!J121</f>
+        <v>1.9407100000000002</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -31492,8 +31490,8 @@
         <v>0.79540000000000077</v>
       </c>
       <c r="J123">
-        <f xml:space="preserve"> Sheet1!I123 - Sheet1!J123</f>
-        <v>-8.0991000000000017</v>
+        <f xml:space="preserve"> Sheet1!I123 - Sheet1!J122</f>
+        <v>4.7205300000000001</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -31534,8 +31532,8 @@
         <v>8.7380000000000013E-2</v>
       </c>
       <c r="J124">
-        <f xml:space="preserve"> Sheet1!I124 - Sheet1!J124</f>
-        <v>-2.4297799999999996</v>
+        <f xml:space="preserve"> Sheet1!I124 - Sheet1!J123</f>
+        <v>-7.0439100000000003</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -31576,8 +31574,8 @@
         <v>2.1666999999999987</v>
       </c>
       <c r="J125">
-        <f xml:space="preserve"> Sheet1!I125 - Sheet1!J125</f>
-        <v>-12.4998</v>
+        <f xml:space="preserve"> Sheet1!I125 - Sheet1!J124</f>
+        <v>21.901040000000002</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -31618,8 +31616,8 @@
         <v>0.38887000000000072</v>
       </c>
       <c r="J126">
-        <f xml:space="preserve"> Sheet1!I126 - Sheet1!J126</f>
-        <v>-4.0825700000000005</v>
+        <f xml:space="preserve"> Sheet1!I126 - Sheet1!J125</f>
+        <v>-14.728069999999999</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -31660,8 +31658,8 @@
         <v>-3.1900000000000261E-3</v>
       </c>
       <c r="J127">
-        <f xml:space="preserve"> Sheet1!I127 - Sheet1!J127</f>
-        <v>-3.1741299999999995</v>
+        <f xml:space="preserve"> Sheet1!I127 - Sheet1!J126</f>
+        <v>-3.8103099999999999</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -31702,8 +31700,8 @@
         <v>0.14024999999999999</v>
       </c>
       <c r="J128">
-        <f xml:space="preserve"> Sheet1!I128 - Sheet1!J128</f>
-        <v>-2.6057199999999994</v>
+        <f xml:space="preserve"> Sheet1!I128 - Sheet1!J127</f>
+        <v>0.3094800000000002</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -31744,8 +31742,8 @@
         <v>0.11177999999999999</v>
       </c>
       <c r="J129">
-        <f xml:space="preserve"> Sheet1!I129 - Sheet1!J129</f>
-        <v>-2.4980199999999999</v>
+        <f xml:space="preserve"> Sheet1!I129 - Sheet1!J128</f>
+        <v>-3.2160000000000188E-2</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -31786,8 +31784,8 @@
         <v>6.4100000000000268E-3</v>
       </c>
       <c r="J130">
-        <f xml:space="preserve"> Sheet1!I130 - Sheet1!J130</f>
-        <v>-1.6538199999999998</v>
+        <f xml:space="preserve"> Sheet1!I130 - Sheet1!J129</f>
+        <v>-1.3594199999999999</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -31828,8 +31826,8 @@
         <v>0.78979999999999961</v>
       </c>
       <c r="J131">
-        <f xml:space="preserve"> Sheet1!I131 - Sheet1!J131</f>
-        <v>-5.9436999999999998</v>
+        <f xml:space="preserve"> Sheet1!I131 - Sheet1!J130</f>
+        <v>10.69692</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -31870,8 +31868,8 @@
         <v>6.5809999999999924E-2</v>
       </c>
       <c r="J132">
-        <f xml:space="preserve"> Sheet1!I132 - Sheet1!J132</f>
-        <v>-1.9690000000000003</v>
+        <f xml:space="preserve"> Sheet1!I132 - Sheet1!J131</f>
+        <v>-8.3348699999999987</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -31912,8 +31910,8 @@
         <v>0.17419000000000029</v>
       </c>
       <c r="J133">
-        <f xml:space="preserve"> Sheet1!I133 - Sheet1!J133</f>
-        <v>-2.6631600000000004</v>
+        <f xml:space="preserve"> Sheet1!I133 - Sheet1!J132</f>
+        <v>1.6761499999999998</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -31954,8 +31952,8 @@
         <v>0.24181000000000008</v>
       </c>
       <c r="J134">
-        <f xml:space="preserve"> Sheet1!I134 - Sheet1!J134</f>
-        <v>-2.9913999999999996</v>
+        <f xml:space="preserve"> Sheet1!I134 - Sheet1!J133</f>
+        <v>1.4731200000000002</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -31996,8 +31994,8 @@
         <v>0.2823500000000001</v>
       </c>
       <c r="J135">
-        <f xml:space="preserve"> Sheet1!I135 - Sheet1!J135</f>
-        <v>-3.6827399999999999</v>
+        <f xml:space="preserve"> Sheet1!I135 - Sheet1!J134</f>
+        <v>1.5194599999999996</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -32038,8 +32036,8 @@
         <v>1.2924000000000007</v>
       </c>
       <c r="J136">
-        <f xml:space="preserve"> Sheet1!I136 - Sheet1!J136</f>
-        <v>-7.3308999999999997</v>
+        <f xml:space="preserve"> Sheet1!I136 - Sheet1!J135</f>
+        <v>7.9178499999999996</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -32080,8 +32078,8 @@
         <v>0.58509999999999884</v>
       </c>
       <c r="J137">
-        <f xml:space="preserve"> Sheet1!I137 - Sheet1!J137</f>
-        <v>-5.2889999999999997</v>
+        <f xml:space="preserve"> Sheet1!I137 - Sheet1!J136</f>
+        <v>-1.7996999999999996</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -32122,8 +32120,8 @@
         <v>0.31247999999999987</v>
       </c>
       <c r="J138">
-        <f xml:space="preserve"> Sheet1!I138 - Sheet1!J138</f>
-        <v>-3.3939199999999996</v>
+        <f xml:space="preserve"> Sheet1!I138 - Sheet1!J137</f>
+        <v>-3.7521699999999996</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -32164,8 +32162,8 @@
         <v>2.0406000000000049</v>
       </c>
       <c r="J139">
-        <f xml:space="preserve"> Sheet1!I139 - Sheet1!J139</f>
-        <v>-14.197499999999998</v>
+        <f xml:space="preserve"> Sheet1!I139 - Sheet1!J138</f>
+        <v>27.896719999999998</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -32206,8 +32204,8 @@
         <v>1.7360999999999969</v>
       </c>
       <c r="J140">
-        <f xml:space="preserve"> Sheet1!I140 - Sheet1!J140</f>
-        <v>-13.486900000000002</v>
+        <f xml:space="preserve"> Sheet1!I140 - Sheet1!J139</f>
+        <v>2.0074000000000005</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -32248,8 +32246,8 @@
         <v>0.1539299999999999</v>
       </c>
       <c r="J141">
-        <f xml:space="preserve"> Sheet1!I141 - Sheet1!J141</f>
-        <v>-2.37188</v>
+        <f xml:space="preserve"> Sheet1!I141 - Sheet1!J140</f>
+        <v>-23.88862</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -32290,8 +32288,8 @@
         <v>0.33481000000000005</v>
       </c>
       <c r="J142">
-        <f xml:space="preserve"> Sheet1!I142 - Sheet1!J142</f>
-        <v>-3.6246300000000007</v>
+        <f xml:space="preserve"> Sheet1!I142 - Sheet1!J141</f>
+        <v>2.5423799999999996</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -32332,8 +32330,8 @@
         <v>0.30977000000000032</v>
       </c>
       <c r="J143">
-        <f xml:space="preserve"> Sheet1!I143 - Sheet1!J143</f>
-        <v>-3.53721</v>
+        <f xml:space="preserve"> Sheet1!I143 - Sheet1!J142</f>
+        <v>8.4220000000000184E-2</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -32374,8 +32372,8 @@
         <v>4.3449999999999989E-2</v>
       </c>
       <c r="J144">
-        <f xml:space="preserve"> Sheet1!I144 - Sheet1!J144</f>
-        <v>-1.7505799999999998</v>
+        <f xml:space="preserve"> Sheet1!I144 - Sheet1!J143</f>
+        <v>-3.3523399999999994</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -32416,8 +32414,8 @@
         <v>0.19443000000000055</v>
       </c>
       <c r="J145">
-        <f xml:space="preserve"> Sheet1!I145 - Sheet1!J145</f>
-        <v>-1.6791600000000004</v>
+        <f xml:space="preserve"> Sheet1!I145 - Sheet1!J144</f>
+        <v>4.5434999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -32458,8 +32456,8 @@
         <v>7.8389999999999738E-2</v>
       </c>
       <c r="J146">
-        <f xml:space="preserve"> Sheet1!I146 - Sheet1!J146</f>
-        <v>-2.0146599999999997</v>
+        <f xml:space="preserve"> Sheet1!I146 - Sheet1!J145</f>
+        <v>-1.96963</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -32500,8 +32498,8 @@
         <v>2.1849000000000025</v>
       </c>
       <c r="J147">
-        <f xml:space="preserve"> Sheet1!I147 - Sheet1!J147</f>
-        <v>-12.628200000000003</v>
+        <f xml:space="preserve"> Sheet1!I147 - Sheet1!J146</f>
+        <v>22.314549999999997</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -32542,8 +32540,8 @@
         <v>0.44233000000000011</v>
       </c>
       <c r="J148">
-        <f xml:space="preserve"> Sheet1!I148 - Sheet1!J148</f>
-        <v>-4.2955299999999994</v>
+        <f xml:space="preserve"> Sheet1!I148 - Sheet1!J147</f>
+        <v>-14.303729999999998</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -32584,8 +32582,8 @@
         <v>0.38391999999999982</v>
       </c>
       <c r="J149">
-        <f xml:space="preserve"> Sheet1!I149 - Sheet1!J149</f>
-        <v>-3.7813400000000001</v>
+        <f xml:space="preserve"> Sheet1!I149 - Sheet1!J148</f>
+        <v>-0.35388999999999982</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -32626,8 +32624,8 @@
         <v>0.69880000000000031</v>
       </c>
       <c r="J150">
-        <f xml:space="preserve"> Sheet1!I150 - Sheet1!J150</f>
-        <v>-5.7569000000000017</v>
+        <f xml:space="preserve"> Sheet1!I150 - Sheet1!J149</f>
+        <v>5.1505599999999996</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -32668,8 +32666,8 @@
         <v>1.1027999999999984</v>
       </c>
       <c r="J151">
-        <f xml:space="preserve"> Sheet1!I151 - Sheet1!J151</f>
-        <v>-8.4513999999999996</v>
+        <f xml:space="preserve"> Sheet1!I151 - Sheet1!J150</f>
+        <v>7.2654000000000014</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -32710,8 +32708,8 @@
         <v>5.7350000000000012E-2</v>
       </c>
       <c r="J152">
-        <f xml:space="preserve"> Sheet1!I152 - Sheet1!J152</f>
-        <v>-1.8677400000000004</v>
+        <f xml:space="preserve"> Sheet1!I152 - Sheet1!J151</f>
+        <v>-13.323910000000001</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -32752,8 +32750,8 @@
         <v>0.17776000000000014</v>
       </c>
       <c r="J153">
-        <f xml:space="preserve"> Sheet1!I153 - Sheet1!J153</f>
-        <v>-1.6239599999999994</v>
+        <f xml:space="preserve"> Sheet1!I153 - Sheet1!J152</f>
+        <v>3.2379600000000002</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -32794,8 +32792,8 @@
         <v>0.22704000000000057</v>
       </c>
       <c r="J154">
-        <f xml:space="preserve"> Sheet1!I154 - Sheet1!J154</f>
-        <v>-2.8736200000000007</v>
+        <f xml:space="preserve"> Sheet1!I154 - Sheet1!J153</f>
+        <v>0.92713000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -32836,8 +32834,8 @@
         <v>0.28936000000000028</v>
       </c>
       <c r="J155">
-        <f xml:space="preserve"> Sheet1!I155 - Sheet1!J155</f>
-        <v>-3.6228000000000007</v>
+        <f xml:space="preserve"> Sheet1!I155 - Sheet1!J154</f>
+        <v>1.4932600000000003</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -32878,8 +32876,8 @@
         <v>0.4462299999999999</v>
       </c>
       <c r="J156">
-        <f xml:space="preserve"> Sheet1!I156 - Sheet1!J156</f>
-        <v>-4.3186900000000001</v>
+        <f xml:space="preserve"> Sheet1!I156 - Sheet1!J155</f>
+        <v>2.3582900000000002</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -32920,8 +32918,8 @@
         <v>1.0793999999999997</v>
       </c>
       <c r="J157">
-        <f xml:space="preserve"> Sheet1!I157 - Sheet1!J157</f>
-        <v>-8.7636000000000003</v>
+        <f xml:space="preserve"> Sheet1!I157 - Sheet1!J156</f>
+        <v>11.39518</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -32962,8 +32960,8 @@
         <v>2.2002999999999986</v>
       </c>
       <c r="J158">
-        <f xml:space="preserve"> Sheet1!I158 - Sheet1!J158</f>
-        <v>-12.691399999999998</v>
+        <f xml:space="preserve"> Sheet1!I158 - Sheet1!J157</f>
+        <v>8.2218000000000018</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -33004,8 +33002,8 @@
         <v>0.26637999999999984</v>
       </c>
       <c r="J159">
-        <f xml:space="preserve"> Sheet1!I159 - Sheet1!J159</f>
-        <v>-3.1696399999999993</v>
+        <f xml:space="preserve"> Sheet1!I159 - Sheet1!J158</f>
+        <v>-17.183480000000003</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -33046,8 +33044,8 @@
         <v>8.5710000000000175E-2</v>
       </c>
       <c r="J160">
-        <f xml:space="preserve"> Sheet1!I160 - Sheet1!J160</f>
-        <v>-2.0992899999999999</v>
+        <f xml:space="preserve"> Sheet1!I160 - Sheet1!J159</f>
+        <v>-2.4704100000000002</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -33088,8 +33086,8 @@
         <v>0.14250999999999969</v>
       </c>
       <c r="J161">
-        <f xml:space="preserve"> Sheet1!I161 - Sheet1!J161</f>
-        <v>-2.5875300000000001</v>
+        <f xml:space="preserve"> Sheet1!I161 - Sheet1!J160</f>
+        <v>1.0742800000000003</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -33130,8 +33128,8 @@
         <v>0.41765000000000008</v>
       </c>
       <c r="J162">
-        <f xml:space="preserve"> Sheet1!I162 - Sheet1!J162</f>
-        <v>-4.4473200000000013</v>
+        <f xml:space="preserve"> Sheet1!I162 - Sheet1!J161</f>
+        <v>4.8384699999999992</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -33172,8 +33170,8 @@
         <v>0.40413999999999994</v>
       </c>
       <c r="J163">
-        <f xml:space="preserve"> Sheet1!I163 - Sheet1!J163</f>
-        <v>-4.1579400000000009</v>
+        <f xml:space="preserve"> Sheet1!I163 - Sheet1!J162</f>
+        <v>-0.28446000000000016</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -33214,8 +33212,8 @@
         <v>5.4019999999999957E-2</v>
       </c>
       <c r="J164">
-        <f xml:space="preserve"> Sheet1!I164 - Sheet1!J164</f>
-        <v>-1.94692</v>
+        <f xml:space="preserve"> Sheet1!I164 - Sheet1!J163</f>
+        <v>-4.3615999999999993</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -33256,8 +33254,8 @@
         <v>0.22267999999999954</v>
       </c>
       <c r="J165">
-        <f xml:space="preserve"> Sheet1!I165 - Sheet1!J165</f>
-        <v>-3.1571399999999992</v>
+        <f xml:space="preserve"> Sheet1!I165 - Sheet1!J164</f>
+        <v>2.7065100000000002</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -33298,8 +33296,8 @@
         <v>0.23455000000000048</v>
       </c>
       <c r="J166">
-        <f xml:space="preserve"> Sheet1!I166 - Sheet1!J166</f>
-        <v>-3.4906999999999995</v>
+        <f xml:space="preserve"> Sheet1!I166 - Sheet1!J165</f>
+        <v>0.82882000000000033</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -33340,8 +33338,8 @@
         <v>0.30485000000000007</v>
       </c>
       <c r="J167">
-        <f xml:space="preserve"> Sheet1!I167 - Sheet1!J167</f>
-        <v>-3.7393900000000002</v>
+        <f xml:space="preserve"> Sheet1!I167 - Sheet1!J166</f>
+        <v>1.1992500000000001</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -33382,8 +33380,8 @@
         <v>0.26199000000000083</v>
       </c>
       <c r="J168">
-        <f xml:space="preserve"> Sheet1!I168 - Sheet1!J168</f>
-        <v>-3.054380000000001</v>
+        <f xml:space="preserve"> Sheet1!I168 - Sheet1!J167</f>
+        <v>-0.55003000000000046</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -33424,8 +33422,8 @@
         <v>3.6390000000000029</v>
       </c>
       <c r="J169">
-        <f xml:space="preserve"> Sheet1!I169 - Sheet1!J169</f>
-        <v>-19.634100000000004</v>
+        <f xml:space="preserve"> Sheet1!I169 - Sheet1!J168</f>
+        <v>33.404429999999998</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -33466,8 +33464,8 @@
         <v>0.35566000000000031</v>
       </c>
       <c r="J170">
-        <f xml:space="preserve"> Sheet1!I170 - Sheet1!J170</f>
-        <v>-3.7064599999999999</v>
+        <f xml:space="preserve"> Sheet1!I170 - Sheet1!J169</f>
+        <v>-26.737960000000001</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -33508,8 +33506,8 @@
         <v>6.4840000000000231E-2</v>
       </c>
       <c r="J171">
-        <f xml:space="preserve"> Sheet1!I171 - Sheet1!J171</f>
-        <v>-3.5003000000000002</v>
+        <f xml:space="preserve"> Sheet1!I171 - Sheet1!J170</f>
+        <v>-2.9020400000000004</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -33550,8 +33548,8 @@
         <v>3.666999999999998E-2</v>
       </c>
       <c r="J172">
-        <f xml:space="preserve"> Sheet1!I172 - Sheet1!J172</f>
-        <v>-1.8795200000000003</v>
+        <f xml:space="preserve"> Sheet1!I172 - Sheet1!J171</f>
+        <v>-1.6309900000000002</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -33592,8 +33590,8 @@
         <v>8.1479999999999997E-2</v>
       </c>
       <c r="J173">
-        <f xml:space="preserve"> Sheet1!I173 - Sheet1!J173</f>
-        <v>-2.0923200000000004</v>
+        <f xml:space="preserve"> Sheet1!I173 - Sheet1!J172</f>
+        <v>0.60826000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -33634,8 +33632,8 @@
         <v>0.11425999999999981</v>
       </c>
       <c r="J174">
-        <f xml:space="preserve"> Sheet1!I174 - Sheet1!J174</f>
-        <v>-1.4677599999999993</v>
+        <f xml:space="preserve"> Sheet1!I174 - Sheet1!J173</f>
+        <v>1.6965600000000003</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -33676,8 +33674,8 @@
         <v>3.5769999999999857E-2</v>
       </c>
       <c r="J175">
-        <f xml:space="preserve"> Sheet1!I175 - Sheet1!J175</f>
-        <v>-1.8454200000000003</v>
+        <f xml:space="preserve"> Sheet1!I175 - Sheet1!J174</f>
+        <v>-0.84797000000000011</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -33718,8 +33716,8 @@
         <v>0.21762000000000015</v>
       </c>
       <c r="J176">
-        <f xml:space="preserve"> Sheet1!I176 - Sheet1!J176</f>
-        <v>-3.0745399999999998</v>
+        <f xml:space="preserve"> Sheet1!I176 - Sheet1!J175</f>
+        <v>2.6539800000000002</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -33760,8 +33758,8 @@
         <v>0.23963999999999963</v>
       </c>
       <c r="J177">
-        <f xml:space="preserve"> Sheet1!I177 - Sheet1!J177</f>
-        <v>-2.8217699999999999</v>
+        <f xml:space="preserve"> Sheet1!I177 - Sheet1!J176</f>
+        <v>0.3361200000000002</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -33802,8 +33800,8 @@
         <v>0.16042999999999985</v>
       </c>
       <c r="J178">
-        <f xml:space="preserve"> Sheet1!I178 - Sheet1!J178</f>
-        <v>-2.5914299999999999</v>
+        <f xml:space="preserve"> Sheet1!I178 - Sheet1!J177</f>
+        <v>-0.4156500000000003</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -33844,8 +33842,8 @@
         <v>0.3207399999999998</v>
       </c>
       <c r="J179">
-        <f xml:space="preserve"> Sheet1!I179 - Sheet1!J179</f>
-        <v>-3.4071200000000008</v>
+        <f xml:space="preserve"> Sheet1!I179 - Sheet1!J178</f>
+        <v>2.1017000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -33886,8 +33884,8 @@
         <v>2.1902000000000008</v>
       </c>
       <c r="J180">
-        <f xml:space="preserve"> Sheet1!I180 - Sheet1!J180</f>
-        <v>-12.785799999999998</v>
+        <f xml:space="preserve"> Sheet1!I180 - Sheet1!J179</f>
+        <v>19.716619999999999</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -33928,8 +33926,8 @@
         <v>0.11713999999999958</v>
       </c>
       <c r="J181">
-        <f xml:space="preserve"> Sheet1!I181 - Sheet1!J181</f>
-        <v>-2.2716799999999995</v>
+        <f xml:space="preserve"> Sheet1!I181 - Sheet1!J180</f>
+        <v>-19.206600000000002</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -33970,8 +33968,8 @@
         <v>0.42600000000000016</v>
       </c>
       <c r="J182">
-        <f xml:space="preserve"> Sheet1!I182 - Sheet1!J182</f>
-        <v>-4.6192899999999995</v>
+        <f xml:space="preserve"> Sheet1!I182 - Sheet1!J181</f>
+        <v>4.9640699999999995</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -34012,8 +34010,8 @@
         <v>8.9560000000000084E-2</v>
       </c>
       <c r="J183">
-        <f xml:space="preserve"> Sheet1!I183 - Sheet1!J183</f>
-        <v>-2.1411899999999995</v>
+        <f xml:space="preserve"> Sheet1!I183 - Sheet1!J182</f>
+        <v>-4.7736199999999993</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -34054,8 +34052,8 @@
         <v>1.4339999999999797E-2</v>
       </c>
       <c r="J184">
-        <f xml:space="preserve"> Sheet1!I184 - Sheet1!J184</f>
-        <v>-3.2172399999999999</v>
+        <f xml:space="preserve"> Sheet1!I184 - Sheet1!J183</f>
+        <v>0.67405000000000026</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -34096,8 +34094,8 @@
         <v>6.1450000000000227E-2</v>
       </c>
       <c r="J185">
-        <f xml:space="preserve"> Sheet1!I185 - Sheet1!J185</f>
-        <v>-1.9872899999999998</v>
+        <f xml:space="preserve"> Sheet1!I185 - Sheet1!J184</f>
+        <v>-0.80123000000000033</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -34138,8 +34136,8 @@
         <v>0.19154000000000071</v>
       </c>
       <c r="J186">
-        <f xml:space="preserve"> Sheet1!I186 - Sheet1!J186</f>
-        <v>-2.8455700000000004</v>
+        <f xml:space="preserve"> Sheet1!I186 - Sheet1!J185</f>
+        <v>2.5590999999999995</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -34180,8 +34178,8 @@
         <v>2.8900000000000148E-2</v>
       </c>
       <c r="J187">
-        <f xml:space="preserve"> Sheet1!I187 - Sheet1!J187</f>
-        <v>-1.7582399999999998</v>
+        <f xml:space="preserve"> Sheet1!I187 - Sheet1!J186</f>
+        <v>-2.3729800000000001</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -34222,8 +34220,8 @@
         <v>0.25910999999999973</v>
       </c>
       <c r="J188">
-        <f xml:space="preserve"> Sheet1!I188 - Sheet1!J188</f>
-        <v>-3.404869999999999</v>
+        <f xml:space="preserve"> Sheet1!I188 - Sheet1!J187</f>
+        <v>3.8765500000000004</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -34264,8 +34262,8 @@
         <v>-2.1000000000004349E-4</v>
       </c>
       <c r="J189">
-        <f xml:space="preserve"> Sheet1!I189 - Sheet1!J189</f>
-        <v>-1.5750499999999998</v>
+        <f xml:space="preserve"> Sheet1!I189 - Sheet1!J188</f>
+        <v>-3.7830500000000002</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -34306,8 +34304,8 @@
         <v>2.6310000000000056E-2</v>
       </c>
       <c r="J190">
-        <f xml:space="preserve"> Sheet1!I190 - Sheet1!J190</f>
-        <v>-1.7139400000000002</v>
+        <f xml:space="preserve"> Sheet1!I190 - Sheet1!J189</f>
+        <v>0.3948799999999999</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -34348,8 +34346,8 @@
         <v>2.1957999999999984</v>
       </c>
       <c r="J191">
-        <f xml:space="preserve"> Sheet1!I191 - Sheet1!J191</f>
-        <v>-12.663499999999999</v>
+        <f xml:space="preserve"> Sheet1!I191 - Sheet1!J190</f>
+        <v>23.000520000000002</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -34390,8 +34388,8 @@
         <v>0.32411000000000012</v>
       </c>
       <c r="J192">
-        <f xml:space="preserve"> Sheet1!I192 - Sheet1!J192</f>
-        <v>-3.5686600000000004</v>
+        <f xml:space="preserve"> Sheet1!I192 - Sheet1!J191</f>
+        <v>-16.039060000000003</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -34432,8 +34430,8 @@
         <v>0.13863000000000003</v>
       </c>
       <c r="J193">
-        <f xml:space="preserve"> Sheet1!I193 - Sheet1!J193</f>
-        <v>-2.2976299999999998</v>
+        <f xml:space="preserve"> Sheet1!I193 - Sheet1!J192</f>
+        <v>-2.5852000000000004</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -34474,8 +34472,8 @@
         <v>6.0810000000000031E-2</v>
       </c>
       <c r="J194">
-        <f xml:space="preserve"> Sheet1!I194 - Sheet1!J194</f>
-        <v>-1.8878099999999995</v>
+        <f xml:space="preserve"> Sheet1!I194 - Sheet1!J193</f>
+        <v>-0.6535599999999997</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -34516,8 +34514,8 @@
         <v>5.0959999999999894E-2</v>
       </c>
       <c r="J195">
-        <f xml:space="preserve"> Sheet1!I195 - Sheet1!J195</f>
-        <v>-1.5463099999999996</v>
+        <f xml:space="preserve"> Sheet1!I195 - Sheet1!J194</f>
+        <v>0.61341000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -34558,8 +34556,8 @@
         <v>0.11707000000000001</v>
       </c>
       <c r="J196">
-        <f xml:space="preserve"> Sheet1!I196 - Sheet1!J196</f>
-        <v>-2.5771900000000003</v>
+        <f xml:space="preserve"> Sheet1!I196 - Sheet1!J195</f>
+        <v>1.19285</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -34600,8 +34598,8 @@
         <v>0.10831999999999997</v>
       </c>
       <c r="J197">
-        <f xml:space="preserve"> Sheet1!I197 - Sheet1!J197</f>
-        <v>-2.1293999999999995</v>
+        <f xml:space="preserve"> Sheet1!I197 - Sheet1!J196</f>
+        <v>-0.15843000000000007</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -34642,8 +34640,8 @@
         <v>4.3120000000000047E-2</v>
       </c>
       <c r="J198">
-        <f xml:space="preserve"> Sheet1!I198 - Sheet1!J198</f>
-        <v>-1.7371300000000001</v>
+        <f xml:space="preserve"> Sheet1!I198 - Sheet1!J197</f>
+        <v>-0.80732000000000026</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -34684,8 +34682,8 @@
         <v>0.39689999999999959</v>
       </c>
       <c r="J199">
-        <f xml:space="preserve"> Sheet1!I199 - Sheet1!J199</f>
-        <v>-4.1503599999999992</v>
+        <f xml:space="preserve"> Sheet1!I199 - Sheet1!J198</f>
+        <v>5.0069599999999994</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -34726,8 +34724,8 @@
         <v>0.11521999999999988</v>
       </c>
       <c r="J200">
-        <f xml:space="preserve"> Sheet1!I200 - Sheet1!J200</f>
-        <v>-2.1781699999999997</v>
+        <f xml:space="preserve"> Sheet1!I200 - Sheet1!J199</f>
+        <v>-3.3855300000000002</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -34768,8 +34766,8 @@
         <v>9.5349999999999824E-2</v>
       </c>
       <c r="J201">
-        <f xml:space="preserve"> Sheet1!I201 - Sheet1!J201</f>
-        <v>-2.0395699999999994</v>
+        <f xml:space="preserve"> Sheet1!I201 - Sheet1!J200</f>
+        <v>-0.25681999999999983</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -34810,8 +34808,8 @@
         <v>2.046400000000002</v>
       </c>
       <c r="J202">
-        <f xml:space="preserve"> Sheet1!I202 - Sheet1!J202</f>
-        <v>-11.4923</v>
+        <f xml:space="preserve"> Sheet1!I202 - Sheet1!J201</f>
+        <v>19.927479999999999</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -34852,8 +34850,8 @@
         <v>4.1300000000000114E-2</v>
       </c>
       <c r="J203">
-        <f xml:space="preserve"> Sheet1!I203 - Sheet1!J203</f>
-        <v>-1.71584</v>
+        <f xml:space="preserve"> Sheet1!I203 - Sheet1!J202</f>
+        <v>-17.98096</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -34894,8 +34892,8 @@
         <v>0.15678999999999998</v>
       </c>
       <c r="J204">
-        <f xml:space="preserve"> Sheet1!I204 - Sheet1!J204</f>
-        <v>-2.4519599999999997</v>
+        <f xml:space="preserve"> Sheet1!I204 - Sheet1!J203</f>
+        <v>1.3630800000000001</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -34936,8 +34934,8 @@
         <v>1.2999999999999901E-2</v>
       </c>
       <c r="J205">
-        <f xml:space="preserve"> Sheet1!I205 - Sheet1!J205</f>
-        <v>-1.6651699999999998</v>
+        <f xml:space="preserve"> Sheet1!I205 - Sheet1!J204</f>
+        <v>-1.4218600000000001</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -34978,8 +34976,8 @@
         <v>0.11816000000000004</v>
       </c>
       <c r="J206">
-        <f xml:space="preserve"> Sheet1!I206 - Sheet1!J206</f>
-        <v>-2.58934</v>
+        <f xml:space="preserve"> Sheet1!I206 - Sheet1!J205</f>
+        <v>1.6507999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -35020,8 +35018,8 @@
         <v>2.8469999999999995E-2</v>
       </c>
       <c r="J207">
-        <f xml:space="preserve"> Sheet1!I207 - Sheet1!J207</f>
-        <v>-1.71617</v>
+        <f xml:space="preserve"> Sheet1!I207 - Sheet1!J206</f>
+        <v>-1.3201100000000001</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -35062,8 +35060,8 @@
         <v>2.4189999999999934E-2</v>
       </c>
       <c r="J208">
-        <f xml:space="preserve"> Sheet1!I208 - Sheet1!J208</f>
-        <v>-1.7538900000000002</v>
+        <f xml:space="preserve"> Sheet1!I208 - Sheet1!J207</f>
+        <v>5.031999999999992E-2</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -35104,8 +35102,8 @@
         <v>0.10175000000000001</v>
       </c>
       <c r="J209">
-        <f xml:space="preserve"> Sheet1!I209 - Sheet1!J209</f>
-        <v>-2.2628700000000004</v>
+        <f xml:space="preserve"> Sheet1!I209 - Sheet1!J208</f>
+        <v>1.1325099999999999</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -35146,8 +35144,8 @@
         <v>1.2499999999999734E-3</v>
       </c>
       <c r="J210">
-        <f xml:space="preserve"> Sheet1!I210 - Sheet1!J210</f>
-        <v>-1.5559099999999999</v>
+        <f xml:space="preserve"> Sheet1!I210 - Sheet1!J209</f>
+        <v>-1.2932100000000002</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -35188,8 +35186,8 @@
         <v>0.32528000000000024</v>
       </c>
       <c r="J211">
-        <f xml:space="preserve"> Sheet1!I211 - Sheet1!J211</f>
-        <v>-3.7153799999999997</v>
+        <f xml:space="preserve"> Sheet1!I211 - Sheet1!J210</f>
+        <v>5.4058399999999995</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -35230,8 +35228,8 @@
         <v>1.0360000000000147E-2</v>
       </c>
       <c r="J212">
-        <f xml:space="preserve"> Sheet1!I212 - Sheet1!J212</f>
-        <v>-1.60745</v>
+        <f xml:space="preserve"> Sheet1!I212 - Sheet1!J211</f>
+        <v>-4.5746500000000001</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -35272,8 +35270,8 @@
         <v>2.1296999999999997</v>
       </c>
       <c r="J213">
-        <f xml:space="preserve"> Sheet1!I213 - Sheet1!J213</f>
-        <v>-11.712999999999997</v>
+        <f xml:space="preserve"> Sheet1!I213 - Sheet1!J212</f>
+        <v>21.358440000000002</v>
       </c>
     </row>
     <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -35298,8 +35296,8 @@
         <v>36.519999999999982</v>
       </c>
       <c r="J214">
-        <f xml:space="preserve"> Sheet1!I214 - Sheet1!J214</f>
-        <v>-95.61099999999999</v>
+        <f xml:space="preserve"> Sheet1!I214 - Sheet1!J213</f>
+        <v>901.51130000000001</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -35340,8 +35338,8 @@
         <v>2.3810000000000002</v>
       </c>
       <c r="J215">
-        <f xml:space="preserve"> Sheet1!I215 - Sheet1!J215</f>
-        <v>8.7862000000000009</v>
+        <f xml:space="preserve"> Sheet1!I215 - Sheet1!J214</f>
+        <v>-613.02289999999994</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -35382,8 +35380,8 @@
         <v>2.1805999999999983</v>
       </c>
       <c r="J216">
-        <f xml:space="preserve"> Sheet1!I216 - Sheet1!J216</f>
-        <v>-11.755499999999998</v>
+        <f xml:space="preserve"> Sheet1!I216 - Sheet1!J215</f>
+        <v>-15.675800000000002</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -35424,8 +35422,8 @@
         <v>2.1909999999999989</v>
       </c>
       <c r="J217">
-        <f xml:space="preserve"> Sheet1!I217 - Sheet1!J217</f>
-        <v>-11.866300000000003</v>
+        <f xml:space="preserve"> Sheet1!I217 - Sheet1!J216</f>
+        <v>2.1876999999999995</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -35466,8 +35464,8 @@
         <v>3.7055000000000007</v>
       </c>
       <c r="J218">
-        <f xml:space="preserve"> Sheet1!I218 - Sheet1!J218</f>
-        <v>-21.205799999999996</v>
+        <f xml:space="preserve"> Sheet1!I218 - Sheet1!J217</f>
+        <v>21.0593</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -35508,8 +35506,8 @@
         <v>1.0558999999999994</v>
       </c>
       <c r="J219">
-        <f xml:space="preserve"> Sheet1!I219 - Sheet1!J219</f>
-        <v>-5.8208000000000002</v>
+        <f xml:space="preserve"> Sheet1!I219 - Sheet1!J218</f>
+        <v>-28.351800000000004</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -35550,8 +35548,8 @@
         <v>2.0553999999999988</v>
       </c>
       <c r="J220">
-        <f xml:space="preserve"> Sheet1!I220 - Sheet1!J220</f>
-        <v>-11.418300000000002</v>
+        <f xml:space="preserve"> Sheet1!I220 - Sheet1!J219</f>
+        <v>11.6005</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -35592,8 +35590,8 @@
         <v>1.8522999999999996</v>
       </c>
       <c r="J221">
-        <f xml:space="preserve"> Sheet1!I221 - Sheet1!J221</f>
-        <v>-10.200399999999998</v>
+        <f xml:space="preserve"> Sheet1!I221 - Sheet1!J220</f>
+        <v>0.56759999999999877</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -35634,8 +35632,8 @@
         <v>1.8454999999999977</v>
       </c>
       <c r="J222">
-        <f xml:space="preserve"> Sheet1!I222 - Sheet1!J222</f>
-        <v>-10.151</v>
+        <f xml:space="preserve"> Sheet1!I222 - Sheet1!J221</f>
+        <v>2.1952999999999996</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -35676,8 +35674,8 @@
         <v>2.2905000000000015</v>
       </c>
       <c r="J223">
-        <f xml:space="preserve"> Sheet1!I223 - Sheet1!J223</f>
-        <v>-12.6709</v>
+        <f xml:space="preserve"> Sheet1!I223 - Sheet1!J222</f>
+        <v>6.7188000000000017</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -35718,8 +35716,8 @@
         <v>2.0822000000000003</v>
       </c>
       <c r="J224">
-        <f xml:space="preserve"> Sheet1!I224 - Sheet1!J224</f>
-        <v>-11.366399999999999</v>
+        <f xml:space="preserve"> Sheet1!I224 - Sheet1!J223</f>
+        <v>-0.10709999999999908</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -35760,8 +35758,8 @@
         <v>2.9244000000000057</v>
       </c>
       <c r="J225">
-        <f xml:space="preserve"> Sheet1!I225 - Sheet1!J225</f>
-        <v>-17.293200000000006</v>
+        <f xml:space="preserve"> Sheet1!I225 - Sheet1!J224</f>
+        <v>14.871699999999997</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -35802,8 +35800,8 @@
         <v>2.0965000000000025</v>
       </c>
       <c r="J226">
-        <f xml:space="preserve"> Sheet1!I226 - Sheet1!J226</f>
-        <v>-12.186</v>
+        <f xml:space="preserve"> Sheet1!I226 - Sheet1!J225</f>
+        <v>-9.205600000000004</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -35844,8 +35842,8 @@
         <v>2.6194000000000024</v>
       </c>
       <c r="J227">
-        <f xml:space="preserve"> Sheet1!I227 - Sheet1!J227</f>
-        <v>-11.917400000000001</v>
+        <f xml:space="preserve"> Sheet1!I227 - Sheet1!J226</f>
+        <v>2.0852000000000004</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -35886,8 +35884,8 @@
         <v>3.3492999999999995</v>
       </c>
       <c r="J228">
-        <f xml:space="preserve"> Sheet1!I228 - Sheet1!J228</f>
-        <v>-11.967700000000001</v>
+        <f xml:space="preserve"> Sheet1!I228 - Sheet1!J227</f>
+        <v>3.1442000000000014</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -35928,8 +35926,8 @@
         <v>0.32659999999999911</v>
       </c>
       <c r="J229">
-        <f xml:space="preserve"> Sheet1!I229 - Sheet1!J229</f>
-        <v>-5.5031000000000017</v>
+        <f xml:space="preserve"> Sheet1!I229 - Sheet1!J228</f>
+        <v>-8.1397999999999993</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -35970,8 +35968,8 @@
         <v>4.2501000000000033</v>
       </c>
       <c r="J230">
-        <f xml:space="preserve"> Sheet1!I230 - Sheet1!J230</f>
-        <v>-24.168000000000006</v>
+        <f xml:space="preserve"> Sheet1!I230 - Sheet1!J229</f>
+        <v>40.2194</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -36012,8 +36010,8 @@
         <v>4.9606999999999957</v>
       </c>
       <c r="J231">
-        <f xml:space="preserve"> Sheet1!I231 - Sheet1!J231</f>
-        <v>-24.357199999999992</v>
+        <f xml:space="preserve"> Sheet1!I231 - Sheet1!J230</f>
+        <v>4.6662000000000035</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -36054,8 +36052,8 @@
         <v>1.4446000000000012</v>
       </c>
       <c r="J232">
-        <f xml:space="preserve"> Sheet1!I232 - Sheet1!J232</f>
-        <v>-11.427</v>
+        <f xml:space="preserve"> Sheet1!I232 - Sheet1!J231</f>
+        <v>-22.377299999999998</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -36096,8 +36094,8 @@
         <v>0.13700000000000045</v>
       </c>
       <c r="J233">
-        <f xml:space="preserve"> Sheet1!I233 - Sheet1!J233</f>
-        <v>-3.7117699999999996</v>
+        <f xml:space="preserve"> Sheet1!I233 - Sheet1!J232</f>
+        <v>-15.105070000000001</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -36138,8 +36136,8 @@
         <v>-7.303000000000015E-2</v>
       </c>
       <c r="J234">
-        <f xml:space="preserve"> Sheet1!I234 - Sheet1!J234</f>
-        <v>-1.6912200000000002</v>
+        <f xml:space="preserve"> Sheet1!I234 - Sheet1!J233</f>
+        <v>-3.8953100000000003</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -36180,8 +36178,8 @@
         <v>-1.0909999999999975E-2</v>
       </c>
       <c r="J235">
-        <f xml:space="preserve"> Sheet1!I235 - Sheet1!J235</f>
-        <v>-1.5723600000000002</v>
+        <f xml:space="preserve"> Sheet1!I235 - Sheet1!J234</f>
+        <v>-0.16729000000000016</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -36222,8 +36220,8 @@
         <v>0.13726000000000038</v>
       </c>
       <c r="J236">
-        <f xml:space="preserve"> Sheet1!I236 - Sheet1!J236</f>
-        <v>-2.9824400000000004</v>
+        <f xml:space="preserve"> Sheet1!I236 - Sheet1!J235</f>
+        <v>3.4210500000000001</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -36264,8 +36262,8 @@
         <v>1.9451999999999998</v>
       </c>
       <c r="J237">
-        <f xml:space="preserve"> Sheet1!I237 - Sheet1!J237</f>
-        <v>-11.4879</v>
+        <f xml:space="preserve"> Sheet1!I237 - Sheet1!J236</f>
+        <v>17.9312</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -36306,8 +36304,8 @@
         <v>6.4979999999999816E-2</v>
       </c>
       <c r="J238">
-        <f xml:space="preserve"> Sheet1!I238 - Sheet1!J238</f>
-        <v>-2.1677300000000002</v>
+        <f xml:space="preserve"> Sheet1!I238 - Sheet1!J237</f>
+        <v>-17.419240000000002</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -36348,8 +36346,8 @@
         <v>7.2089999999999765E-2</v>
       </c>
       <c r="J239">
-        <f xml:space="preserve"> Sheet1!I239 - Sheet1!J239</f>
-        <v>-2.4069599999999998</v>
+        <f xml:space="preserve"> Sheet1!I239 - Sheet1!J238</f>
+        <v>0.80331000000000019</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -36390,8 +36388,8 @@
         <v>9.5720000000000027E-2</v>
       </c>
       <c r="J240">
-        <f xml:space="preserve"> Sheet1!I240 - Sheet1!J240</f>
-        <v>-2.1915800000000001</v>
+        <f xml:space="preserve"> Sheet1!I240 - Sheet1!J239</f>
+        <v>3.1379999999999963E-2</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -36432,8 +36430,8 @@
         <v>5.8259999999999978E-2</v>
       </c>
       <c r="J241">
-        <f xml:space="preserve"> Sheet1!I241 - Sheet1!J241</f>
-        <v>-1.6288100000000001</v>
+        <f xml:space="preserve"> Sheet1!I241 - Sheet1!J240</f>
+        <v>-1.1745999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -36474,8 +36472,8 @@
         <v>2.1480000000000166E-2</v>
       </c>
       <c r="J242">
-        <f xml:space="preserve"> Sheet1!I242 - Sheet1!J242</f>
-        <v>-1.4907699999999999</v>
+        <f xml:space="preserve"> Sheet1!I242 - Sheet1!J241</f>
+        <v>8.3539999999999948E-2</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -36516,8 +36514,8 @@
         <v>0.12672000000000017</v>
       </c>
       <c r="J243">
-        <f xml:space="preserve"> Sheet1!I243 - Sheet1!J243</f>
-        <v>-3.1726099999999997</v>
+        <f xml:space="preserve"> Sheet1!I243 - Sheet1!J242</f>
+        <v>2.0220400000000001</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -36558,8 +36556,8 @@
         <v>9.7159999999999691E-2</v>
       </c>
       <c r="J244">
-        <f xml:space="preserve"> Sheet1!I244 - Sheet1!J244</f>
-        <v>-2.5785499999999999</v>
+        <f xml:space="preserve"> Sheet1!I244 - Sheet1!J243</f>
+        <v>1.5250900000000001</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -36600,8 +36598,8 @@
         <v>0.3438699999999999</v>
       </c>
       <c r="J245">
-        <f xml:space="preserve"> Sheet1!I245 - Sheet1!J245</f>
-        <v>-3.0664299999999995</v>
+        <f xml:space="preserve"> Sheet1!I245 - Sheet1!J244</f>
+        <v>0.53222000000000058</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -36642,8 +36640,8 @@
         <v>3.2700000000000173E-2</v>
       </c>
       <c r="J246">
-        <f xml:space="preserve"> Sheet1!I246 - Sheet1!J246</f>
-        <v>-3.1712600000000002</v>
+        <f xml:space="preserve"> Sheet1!I246 - Sheet1!J245</f>
+        <v>-1.1220300000000005</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -36684,8 +36682,8 @@
         <v>-2.9430000000000067E-2</v>
       </c>
       <c r="J247">
-        <f xml:space="preserve"> Sheet1!I247 - Sheet1!J247</f>
-        <v>-3.0068299999999999</v>
+        <f xml:space="preserve"> Sheet1!I247 - Sheet1!J246</f>
+        <v>-0.13507000000000025</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -36726,8 +36724,8 @@
         <v>1.9361999999999995</v>
       </c>
       <c r="J248">
-        <f xml:space="preserve"> Sheet1!I248 - Sheet1!J248</f>
-        <v>-11.176899999999996</v>
+        <f xml:space="preserve"> Sheet1!I248 - Sheet1!J247</f>
+        <v>19.59948</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -36768,8 +36766,8 @@
         <v>0.28472999999999971</v>
       </c>
       <c r="J249">
-        <f xml:space="preserve"> Sheet1!I249 - Sheet1!J249</f>
-        <v>-2.7531299999999996</v>
+        <f xml:space="preserve"> Sheet1!I249 - Sheet1!J248</f>
+        <v>-15.005269999999999</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -36810,8 +36808,8 @@
         <v>2.1880000000000122E-2</v>
       </c>
       <c r="J250">
-        <f xml:space="preserve"> Sheet1!I250 - Sheet1!J250</f>
-        <v>-1.7109800000000002</v>
+        <f xml:space="preserve"> Sheet1!I250 - Sheet1!J249</f>
+        <v>-2.7992500000000002</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -36852,8 +36850,8 @@
         <v>0.48116000000000003</v>
       </c>
       <c r="J251">
-        <f xml:space="preserve"> Sheet1!I251 - Sheet1!J251</f>
-        <v>-5.4868800000000002</v>
+        <f xml:space="preserve"> Sheet1!I251 - Sheet1!J250</f>
+        <v>4.8289100000000005</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -36894,8 +36892,8 @@
         <v>6.4899999999999958E-2</v>
       </c>
       <c r="J252">
-        <f xml:space="preserve"> Sheet1!I252 - Sheet1!J252</f>
-        <v>-1.6454599999999997</v>
+        <f xml:space="preserve"> Sheet1!I252 - Sheet1!J251</f>
+        <v>-4.8752999999999993</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -36936,8 +36934,8 @@
         <v>0.34159000000000006</v>
       </c>
       <c r="J253">
-        <f xml:space="preserve"> Sheet1!I253 - Sheet1!J253</f>
-        <v>-2.1607500000000002</v>
+        <f xml:space="preserve"> Sheet1!I253 - Sheet1!J252</f>
+        <v>1.25702</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -36978,8 +36976,8 @@
         <v>4.377600000000001</v>
       </c>
       <c r="J254">
-        <f xml:space="preserve"> Sheet1!I254 - Sheet1!J254</f>
-        <v>-25.177300000000002</v>
+        <f xml:space="preserve"> Sheet1!I254 - Sheet1!J253</f>
+        <v>25.69359</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -37020,8 +37018,8 @@
         <v>2.67937</v>
       </c>
       <c r="J255">
-        <f xml:space="preserve"> Sheet1!I255 - Sheet1!J255</f>
-        <v>-2.4772200000000004</v>
+        <f xml:space="preserve"> Sheet1!I255 - Sheet1!J254</f>
+        <v>-28.972230000000003</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -37062,8 +37060,8 @@
         <v>6.8380000000000329E-2</v>
       </c>
       <c r="J256">
-        <f xml:space="preserve"> Sheet1!I256 - Sheet1!J256</f>
-        <v>-1.9710100000000002</v>
+        <f xml:space="preserve"> Sheet1!I256 - Sheet1!J255</f>
+        <v>-0.80760999999999994</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -37104,8 +37102,8 @@
         <v>7.9229999999999912E-2</v>
       </c>
       <c r="J257">
-        <f xml:space="preserve"> Sheet1!I257 - Sheet1!J257</f>
-        <v>-2.0144199999999999</v>
+        <f xml:space="preserve"> Sheet1!I257 - Sheet1!J256</f>
+        <v>0.25283999999999995</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -37146,8 +37144,8 @@
         <v>0.39641000000000037</v>
       </c>
       <c r="J258">
-        <f xml:space="preserve"> Sheet1!I258 - Sheet1!J258</f>
-        <v>-3.5626300000000004</v>
+        <f xml:space="preserve"> Sheet1!I258 - Sheet1!J257</f>
+        <v>4.1839899999999997</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -37188,8 +37186,8 @@
         <v>2.3085999999999984</v>
       </c>
       <c r="J259">
-        <f xml:space="preserve"> Sheet1!I259 - Sheet1!J259</f>
-        <v>-18.7622</v>
+        <f xml:space="preserve"> Sheet1!I259 - Sheet1!J258</f>
+        <v>41.464820000000003</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -37230,8 +37228,8 @@
         <v>0.3071299999999999</v>
       </c>
       <c r="J260">
-        <f xml:space="preserve"> Sheet1!I260 - Sheet1!J260</f>
-        <v>-2.4424299999999999</v>
+        <f xml:space="preserve"> Sheet1!I260 - Sheet1!J259</f>
+        <v>-35.68891</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -37272,8 +37270,8 @@
         <v>0.17396999999999974</v>
       </c>
       <c r="J261">
-        <f xml:space="preserve"> Sheet1!I261 - Sheet1!J261</f>
-        <v>-2.0821499999999995</v>
+        <f xml:space="preserve"> Sheet1!I261 - Sheet1!J260</f>
+        <v>-1.7237799999999996</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -37314,8 +37312,8 @@
         <v>6.9709999999999717E-2</v>
       </c>
       <c r="J262">
-        <f xml:space="preserve"> Sheet1!I262 - Sheet1!J262</f>
-        <v>-1.9379599999999995</v>
+        <f xml:space="preserve"> Sheet1!I262 - Sheet1!J261</f>
+        <v>-6.5350000000000019E-2</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -37356,8 +37354,8 @@
         <v>1.3550000000000173E-2</v>
       </c>
       <c r="J263">
-        <f xml:space="preserve"> Sheet1!I263 - Sheet1!J263</f>
-        <v>-1.5503199999999999</v>
+        <f xml:space="preserve"> Sheet1!I263 - Sheet1!J262</f>
+        <v>-0.58945000000000003</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -37398,8 +37396,8 @@
         <v>0.22180999999999962</v>
       </c>
       <c r="J264">
-        <f xml:space="preserve"> Sheet1!I264 - Sheet1!J264</f>
-        <v>-2.8686099999999994</v>
+        <f xml:space="preserve"> Sheet1!I264 - Sheet1!J263</f>
+        <v>3.0945100000000001</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -37440,8 +37438,8 @@
         <v>0.19097000000000008</v>
       </c>
       <c r="J265">
-        <f xml:space="preserve"> Sheet1!I265 - Sheet1!J265</f>
-        <v>-2.6705800000000002</v>
+        <f xml:space="preserve"> Sheet1!I265 - Sheet1!J264</f>
+        <v>-1.2746000000000004</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -37482,8 +37480,8 @@
         <v>9.14299999999999E-2</v>
       </c>
       <c r="J266">
-        <f xml:space="preserve"> Sheet1!I266 - Sheet1!J266</f>
-        <v>-2.2230099999999995</v>
+        <f xml:space="preserve"> Sheet1!I266 - Sheet1!J265</f>
+        <v>-0.28600000000000003</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -37524,8 +37522,8 @@
         <v>1.4780000000000015E-2</v>
       </c>
       <c r="J267">
-        <f xml:space="preserve"> Sheet1!I267 - Sheet1!J267</f>
-        <v>-1.6572</v>
+        <f xml:space="preserve"> Sheet1!I267 - Sheet1!J266</f>
+        <v>-0.77214999999999989</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -37566,8 +37564,8 @@
         <v>0.12024999999999997</v>
       </c>
       <c r="J268">
-        <f xml:space="preserve"> Sheet1!I268 - Sheet1!J268</f>
-        <v>-2.2760300000000004</v>
+        <f xml:space="preserve"> Sheet1!I268 - Sheet1!J267</f>
+        <v>1.4432400000000001</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -37608,8 +37606,8 @@
         <v>0.2814299999999994</v>
       </c>
       <c r="J269">
-        <f xml:space="preserve"> Sheet1!I269 - Sheet1!J269</f>
-        <v>-3.1824899999999987</v>
+        <f xml:space="preserve"> Sheet1!I269 - Sheet1!J268</f>
+        <v>2.5365300000000004</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -37650,8 +37648,8 @@
         <v>2.0443000000000033</v>
       </c>
       <c r="J270">
-        <f xml:space="preserve"> Sheet1!I270 - Sheet1!J270</f>
-        <v>-11.376200000000004</v>
+        <f xml:space="preserve"> Sheet1!I270 - Sheet1!J269</f>
+        <v>17.355439999999998</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -37692,8 +37690,8 @@
         <v>0.16072000000000042</v>
       </c>
       <c r="J271">
-        <f xml:space="preserve"> Sheet1!I271 - Sheet1!J271</f>
-        <v>-4.1614400000000007</v>
+        <f xml:space="preserve"> Sheet1!I271 - Sheet1!J270</f>
+        <v>-14.096540000000001</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -37734,8 +37732,8 @@
         <v>6.9679999999999964E-2</v>
       </c>
       <c r="J272">
-        <f xml:space="preserve"> Sheet1!I272 - Sheet1!J272</f>
-        <v>-2.1661300000000003</v>
+        <f xml:space="preserve"> Sheet1!I272 - Sheet1!J271</f>
+        <v>-2.8291800000000005</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -37776,8 +37774,8 @@
         <v>6.7169999999999952E-2</v>
       </c>
       <c r="J273">
-        <f xml:space="preserve"> Sheet1!I273 - Sheet1!J273</f>
-        <v>-2.0526199999999997</v>
+        <f xml:space="preserve"> Sheet1!I273 - Sheet1!J272</f>
+        <v>8.5710000000000175E-2</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -37818,8 +37816,8 @@
         <v>5.4030000000000022E-2</v>
       </c>
       <c r="J274">
-        <f xml:space="preserve"> Sheet1!I274 - Sheet1!J274</f>
-        <v>-1.8865299999999996</v>
+        <f xml:space="preserve"> Sheet1!I274 - Sheet1!J273</f>
+        <v>-0.23107999999999995</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -37860,8 +37858,8 @@
         <v>-1.5909999999999869E-2</v>
       </c>
       <c r="J275">
-        <f xml:space="preserve"> Sheet1!I275 - Sheet1!J275</f>
-        <v>-3.0633399999999997</v>
+        <f xml:space="preserve"> Sheet1!I275 - Sheet1!J274</f>
+        <v>0.78250999999999982</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -37902,8 +37900,8 @@
         <v>5.5939999999999657E-2</v>
       </c>
       <c r="J276">
-        <f xml:space="preserve"> Sheet1!I276 - Sheet1!J276</f>
-        <v>-3.5538299999999996</v>
+        <f xml:space="preserve"> Sheet1!I276 - Sheet1!J275</f>
+        <v>1.0920500000000004</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -37944,8 +37942,8 @@
         <v>0.10844000000000031</v>
       </c>
       <c r="J277">
-        <f xml:space="preserve"> Sheet1!I277 - Sheet1!J277</f>
-        <v>-2.2581500000000005</v>
+        <f xml:space="preserve"> Sheet1!I277 - Sheet1!J276</f>
+        <v>-0.74595000000000011</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -37986,8 +37984,8 @@
         <v>7.4980000000000047E-2</v>
       </c>
       <c r="J278">
-        <f xml:space="preserve"> Sheet1!I278 - Sheet1!J278</f>
-        <v>-2.2189000000000001</v>
+        <f xml:space="preserve"> Sheet1!I278 - Sheet1!J277</f>
+        <v>-0.17717999999999989</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -38028,8 +38026,8 @@
         <v>0.16776000000000035</v>
       </c>
       <c r="J279">
-        <f xml:space="preserve"> Sheet1!I279 - Sheet1!J279</f>
-        <v>-2.5028800000000002</v>
+        <f xml:space="preserve"> Sheet1!I279 - Sheet1!J278</f>
+        <v>1.2109799999999997</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -38070,8 +38068,8 @@
         <v>7.0669999999999789E-2</v>
       </c>
       <c r="J280">
-        <f xml:space="preserve"> Sheet1!I280 - Sheet1!J280</f>
-        <v>-1.9761199999999999</v>
+        <f xml:space="preserve"> Sheet1!I280 - Sheet1!J279</f>
+        <v>-0.86981999999999982</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -38112,8 +38110,8 @@
         <v>2.0448999999999984</v>
       </c>
       <c r="J281">
-        <f xml:space="preserve"> Sheet1!I281 - Sheet1!J281</f>
-        <v>-11.330099999999998</v>
+        <f xml:space="preserve"> Sheet1!I281 - Sheet1!J280</f>
+        <v>19.829910000000002</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -38154,8 +38152,8 @@
         <v>7.3200000000000376E-2</v>
       </c>
       <c r="J282">
-        <f xml:space="preserve"> Sheet1!I282 - Sheet1!J282</f>
-        <v>-1.9424199999999998</v>
+        <f xml:space="preserve"> Sheet1!I282 - Sheet1!J281</f>
+        <v>-17.240099999999998</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -38196,8 +38194,8 @@
         <v>-5.5800000000001404E-3</v>
       </c>
       <c r="J283">
-        <f xml:space="preserve"> Sheet1!I283 - Sheet1!J283</f>
-        <v>-3.1766999999999999</v>
+        <f xml:space="preserve"> Sheet1!I283 - Sheet1!J282</f>
+        <v>0.55832000000000015</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -38238,8 +38236,8 @@
         <v>2.9879999999999907E-2</v>
       </c>
       <c r="J284">
-        <f xml:space="preserve"> Sheet1!I284 - Sheet1!J284</f>
-        <v>-1.8688099999999994</v>
+        <f xml:space="preserve"> Sheet1!I284 - Sheet1!J283</f>
+        <v>-0.70921999999999974</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -38280,8 +38278,8 @@
         <v>4.740999999999973E-2</v>
       </c>
       <c r="J285">
-        <f xml:space="preserve"> Sheet1!I285 - Sheet1!J285</f>
-        <v>-1.8535200000000001</v>
+        <f xml:space="preserve"> Sheet1!I285 - Sheet1!J284</f>
+        <v>7.1070000000000189E-2</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -38322,8 +38320,8 @@
         <v>2.0589999999999886E-2</v>
       </c>
       <c r="J286">
-        <f xml:space="preserve"> Sheet1!I286 - Sheet1!J286</f>
-        <v>-3.17909</v>
+        <f xml:space="preserve"> Sheet1!I286 - Sheet1!J285</f>
+        <v>1.1997299999999997</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -38364,8 +38362,8 @@
         <v>-3.4499999999999531E-3</v>
       </c>
       <c r="J287">
-        <f xml:space="preserve"> Sheet1!I287 - Sheet1!J287</f>
-        <v>-1.7923300000000002</v>
+        <f xml:space="preserve"> Sheet1!I287 - Sheet1!J286</f>
+        <v>-1.1238700000000001</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -38406,8 +38404,8 @@
         <v>-3.1519999999999992E-2</v>
       </c>
       <c r="J288">
-        <f xml:space="preserve"> Sheet1!I288 - Sheet1!J288</f>
-        <v>-3.00867</v>
+        <f xml:space="preserve"> Sheet1!I288 - Sheet1!J287</f>
+        <v>1.0113300000000001</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -38448,8 +38446,8 @@
         <v>-3.232999999999997E-2</v>
       </c>
       <c r="J289">
-        <f xml:space="preserve"> Sheet1!I289 - Sheet1!J289</f>
-        <v>-1.8498099999999997</v>
+        <f xml:space="preserve"> Sheet1!I289 - Sheet1!J288</f>
+        <v>-0.2950999999999997</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -38490,8 +38488,8 @@
         <v>7.4860000000000149E-2</v>
       </c>
       <c r="J290">
-        <f xml:space="preserve"> Sheet1!I290 - Sheet1!J290</f>
-        <v>-3.8564500000000006</v>
+        <f xml:space="preserve"> Sheet1!I290 - Sheet1!J289</f>
+        <v>1.7114099999999994</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -38532,8 +38530,8 @@
         <v>-7.950999999999997E-2</v>
       </c>
       <c r="J291">
-        <f xml:space="preserve"> Sheet1!I291 - Sheet1!J291</f>
-        <v>-1.7724099999999998</v>
+        <f xml:space="preserve"> Sheet1!I291 - Sheet1!J290</f>
+        <v>-1.5468999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -38545,7 +38543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8944EF1F-9DEC-42AB-960A-BDA0A8B406F9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="AY60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="CY80" sqref="CY80"/>
     </sheetView>
   </sheetViews>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QOC_Src\MeshSimplication.Android\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFE42E-A760-4993-96A1-FAACA03E10B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC50B5F-1B2A-4772-8C6F-70137ABF3507}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>mesh0</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>Customized Heap</t>
+  </si>
+  <si>
+    <t>Vector Neighbors</t>
   </si>
 </sst>
 </file>
@@ -16941,10 +16944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J292"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E274" workbookViewId="0">
-      <selection activeCell="J292" sqref="J292"/>
+    <sheetView tabSelected="1" topLeftCell="E271" workbookViewId="0">
+      <selection activeCell="K293" sqref="K293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16957,10 +16960,11 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="34.140625" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16991,8 +16995,11 @@
       <c r="J1">
         <v>22.903099999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>20.648499999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17023,8 +17030,11 @@
       <c r="J2">
         <v>21.5303</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>19.551500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17055,8 +17065,11 @@
       <c r="J3">
         <v>20.774100000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>18.732099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17087,8 +17100,11 @@
       <c r="J4">
         <v>3.9870399999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>3.95764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17119,8 +17135,11 @@
       <c r="J5">
         <v>2.6473300000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>2.4885700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17151,8 +17170,11 @@
       <c r="J6">
         <v>2.15774</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>2.0930900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17183,8 +17205,11 @@
       <c r="J7">
         <v>1.5304</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1.5454699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17215,8 +17240,11 @@
       <c r="J8">
         <v>3.3335499999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>3.2878799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17247,8 +17275,11 @@
       <c r="J9">
         <v>3.4539</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>3.2105199999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17279,8 +17310,11 @@
       <c r="J10">
         <v>1.8912100000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1.88191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17311,8 +17345,11 @@
       <c r="J11">
         <v>3.4938099999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>3.4393500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17343,8 +17380,11 @@
       <c r="J12">
         <v>1.53504</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1.5442499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -17375,8 +17415,11 @@
       <c r="J13">
         <v>4.4552199999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>4.2563399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -17407,8 +17450,11 @@
       <c r="J14">
         <v>34.720300000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>31.3901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -17439,8 +17485,11 @@
       <c r="J15">
         <v>3.7196899999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>3.7507799999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -17471,8 +17520,11 @@
       <c r="J16">
         <v>1.9955799999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1.93794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -17503,8 +17555,11 @@
       <c r="J17">
         <v>1.93055</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1.87924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -17535,8 +17590,11 @@
       <c r="J18">
         <v>1.88592</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>1.83785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -17567,8 +17625,11 @@
       <c r="J19">
         <v>2.0956100000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>2.03843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -17599,8 +17660,11 @@
       <c r="J20">
         <v>3.4390800000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>3.2170299999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -17631,8 +17695,11 @@
       <c r="J21">
         <v>2.9995599999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>2.9918999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -17663,8 +17730,11 @@
       <c r="J22">
         <v>1.48309</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1.4713400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -17695,8 +17765,11 @@
       <c r="J23">
         <v>2.52467</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>2.4145400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -17727,8 +17800,11 @@
       <c r="J24">
         <v>3.12636</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>2.9394100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17759,8 +17835,11 @@
       <c r="J25">
         <v>39.038499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>34.317799999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -17791,8 +17870,11 @@
       <c r="J26">
         <v>2.3164600000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>2.2997700000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -17823,8 +17905,11 @@
       <c r="J27">
         <v>4.0933700000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>3.97153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -17855,8 +17940,11 @@
       <c r="J28">
         <v>1.5865199999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>1.5877600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -17887,8 +17975,11 @@
       <c r="J29">
         <v>2.0625599999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>1.9959899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -17919,8 +18010,11 @@
       <c r="J30">
         <v>2.2044199999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>2.1341000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -17951,8 +18045,11 @@
       <c r="J31">
         <v>3.2708400000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>3.2328100000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -17983,8 +18080,11 @@
       <c r="J32">
         <v>2.8001100000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>2.6283599999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -18015,8 +18115,11 @@
       <c r="J33">
         <v>2.0231400000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>1.97288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -18047,8 +18150,11 @@
       <c r="J34">
         <v>1.7119500000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1.7127699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18079,8 +18185,11 @@
       <c r="J35">
         <v>4.7246100000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>4.57559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -18111,8 +18220,11 @@
       <c r="J36">
         <v>20.629100000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>18.441099999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -18143,8 +18255,11 @@
       <c r="J37">
         <v>3.3704100000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>3.2056200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -18175,8 +18290,11 @@
       <c r="J38">
         <v>3.0716399999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>2.85589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -18207,8 +18325,11 @@
       <c r="J39">
         <v>1.7138899999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>1.69638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -18239,8 +18360,11 @@
       <c r="J40">
         <v>3.0398200000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>2.8561100000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -18271,8 +18395,11 @@
       <c r="J41">
         <v>2.1851500000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>2.12588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -18303,8 +18430,11 @@
       <c r="J42">
         <v>2.4020199999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>2.3138000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -18335,8 +18465,11 @@
       <c r="J43">
         <v>2.3109799999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>2.2128700000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -18367,8 +18500,11 @@
       <c r="J44">
         <v>2.3554300000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>2.2616000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -18399,8 +18535,11 @@
       <c r="J45">
         <v>1.60338</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>1.61554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -18431,8 +18570,11 @@
       <c r="J46">
         <v>2.4525899999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>2.3356499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -18463,8 +18605,11 @@
       <c r="J47">
         <v>22.918399999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>20.505700000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -18495,8 +18640,11 @@
       <c r="J48">
         <v>1.9878100000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>1.9949699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -18527,8 +18675,11 @@
       <c r="J49">
         <v>2.7185199999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>2.5747499999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -18559,8 +18710,11 @@
       <c r="J50">
         <v>1.74899</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>1.7364299999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -18591,8 +18745,11 @@
       <c r="J51">
         <v>3.2837299999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>3.23746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -18623,8 +18780,11 @@
       <c r="J52">
         <v>3.6968200000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>3.4329900000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -18655,8 +18815,11 @@
       <c r="J53">
         <v>2.7743000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>2.6388400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -18687,8 +18850,11 @@
       <c r="J54">
         <v>1.7044299999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>1.6871700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -18719,8 +18885,11 @@
       <c r="J55">
         <v>2.4958200000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>2.37534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -18751,8 +18920,11 @@
       <c r="J56">
         <v>2.8936799999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>2.7225799999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -18783,8 +18955,11 @@
       <c r="J57">
         <v>2.2724899999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>2.1947899999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -18815,8 +18990,11 @@
       <c r="J58">
         <v>20.357600000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>18.266300000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -18847,8 +19025,11 @@
       <c r="J59">
         <v>3.3997899999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>3.3875500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -18879,8 +19060,11 @@
       <c r="J60">
         <v>1.77755</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>1.7456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -18911,8 +19095,11 @@
       <c r="J61">
         <v>1.7129799999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>1.6984300000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -18943,8 +19130,11 @@
       <c r="J62">
         <v>3.52793</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>3.3829899999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -18975,8 +19165,11 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -19007,8 +19200,11 @@
       <c r="J64">
         <v>2.9793500000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>2.7856900000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -19039,8 +19235,11 @@
       <c r="J65">
         <v>5.2951699999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>4.8311599999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -19071,8 +19270,11 @@
       <c r="J66">
         <v>10.4739</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>9.4176400000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -19103,8 +19305,11 @@
       <c r="J67">
         <v>2.2924699999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>2.2109299999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -19135,8 +19340,11 @@
       <c r="J68">
         <v>2.1791399999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>2.07613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -19167,8 +19375,11 @@
       <c r="J69">
         <v>22.848700000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>20.4255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -19199,8 +19410,11 @@
       <c r="J70">
         <v>2.22729</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>2.19184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -19231,8 +19445,11 @@
       <c r="J71">
         <v>1.5916699999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>1.58474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -19263,8 +19480,11 @@
       <c r="J72">
         <v>1.77661</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>1.72722</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -19295,8 +19515,11 @@
       <c r="J73">
         <v>3.1890399999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>3.16248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -19327,8 +19550,11 @@
       <c r="J74">
         <v>1.5869599999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>1.57467</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -19359,8 +19585,11 @@
       <c r="J75">
         <v>3.3017799999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>3.2642500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -19391,8 +19620,11 @@
       <c r="J76">
         <v>2.9981900000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>3.0050400000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -19423,8 +19655,11 @@
       <c r="J77">
         <v>2.86808</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>2.7031900000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -19455,8 +19690,11 @@
       <c r="J78">
         <v>1.9749300000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>1.93353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -19487,8 +19725,11 @@
       <c r="J79">
         <v>3.2141999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>3.1880099999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -19519,8 +19760,11 @@
       <c r="J80">
         <v>20.3337</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>18.215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -19551,8 +19795,11 @@
       <c r="J81">
         <v>1.9876499999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>1.95946</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -19583,8 +19830,11 @@
       <c r="J82">
         <v>1.9545600000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>1.8950499999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -19615,8 +19865,11 @@
       <c r="J83">
         <v>2.60439</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>2.49071</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -19647,8 +19900,11 @@
       <c r="J84">
         <v>5.0983000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>4.6604200000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -19679,8 +19935,11 @@
       <c r="J85">
         <v>3.15333</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>2.9528500000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -19711,8 +19970,11 @@
       <c r="J86">
         <v>2.6836700000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>2.6242899999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -19743,8 +20005,11 @@
       <c r="J87">
         <v>2.9748800000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>2.9789599999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -19775,8 +20040,11 @@
       <c r="J88">
         <v>2.9502100000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>2.93262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -19807,8 +20075,11 @@
       <c r="J89">
         <v>1.6476200000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>1.6194999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -19839,8 +20110,11 @@
       <c r="J90">
         <v>2.9353400000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>2.9325199999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -19871,8 +20145,11 @@
       <c r="J91">
         <v>22.808900000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>20.372499999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -19903,8 +20180,11 @@
       <c r="J92">
         <v>2.1431399999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>2.1103100000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -19935,8 +20215,11 @@
       <c r="J93">
         <v>1.8098700000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>1.7806500000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -19967,8 +20250,11 @@
       <c r="J94">
         <v>1.68923</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>1.66523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -19999,8 +20285,11 @@
       <c r="J95">
         <v>3.5795599999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>3.5535700000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -20031,8 +20320,11 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -20063,8 +20355,11 @@
       <c r="J97">
         <v>3.0306899999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>3.0149499999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -20095,8 +20390,11 @@
       <c r="J98">
         <v>3.1135199999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>3.0840900000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -20127,8 +20425,11 @@
       <c r="J99">
         <v>3.0573700000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>3.0406900000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -20159,8 +20460,11 @@
       <c r="J100">
         <v>4.2721</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>3.9136600000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -20191,8 +20495,11 @@
       <c r="J101">
         <v>1.8195300000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>1.7934300000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -20223,8 +20530,11 @@
       <c r="J102">
         <v>20.6388</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>18.4558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -20255,8 +20565,11 @@
       <c r="J103">
         <v>4.3678299999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>4.0510999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -20287,8 +20600,11 @@
       <c r="J104">
         <v>2.3363299999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>2.2250100000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -20319,8 +20635,11 @@
       <c r="J105">
         <v>2.2722500000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>2.1833100000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -20351,8 +20670,11 @@
       <c r="J106">
         <v>1.64514</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>1.6492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -20383,8 +20705,11 @@
       <c r="J107">
         <v>2.1961400000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>2.1038000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -20415,8 +20740,11 @@
       <c r="J108">
         <v>2.96394</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>2.94895</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -20447,8 +20775,11 @@
       <c r="J109">
         <v>1.5206200000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>1.5008900000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -20479,8 +20810,11 @@
       <c r="J110">
         <v>1.8230900000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>1.7745200000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -20511,8 +20845,11 @@
       <c r="J111">
         <v>3.0301399999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>3.0225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -20543,8 +20880,11 @@
       <c r="J112">
         <v>2.9393500000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>2.92265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -20575,8 +20915,11 @@
       <c r="J113">
         <v>20.400099999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>18.284199999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -20607,8 +20950,11 @@
       <c r="J114">
         <v>20.984200000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>18.802900000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -20639,8 +20985,11 @@
       <c r="J115">
         <v>3.3426900000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>3.3561200000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -20671,8 +21020,11 @@
       <c r="J116">
         <v>2.4991500000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>2.3805000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -20703,8 +21055,11 @@
       <c r="J117">
         <v>3.0764200000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>3.0701999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -20735,8 +21090,11 @@
       <c r="J118">
         <v>2.2170700000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>2.1259899999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -20767,8 +21125,11 @@
       <c r="J119">
         <v>1.7604200000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>1.7485200000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -20799,8 +21160,11 @@
       <c r="J120">
         <v>1.7207300000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>1.68079</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -20831,8 +21195,11 @@
       <c r="J121">
         <v>3.2890899999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>3.07497</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -20863,8 +21230,11 @@
       <c r="J122">
         <v>4.7116699999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>4.32761</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -20895,8 +21265,11 @@
       <c r="J123">
         <v>10.226800000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>9.6759799999999991</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -20927,8 +21300,11 @@
       <c r="J124">
         <v>3.1094599999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>2.9090400000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -20959,8 +21335,11 @@
       <c r="J125">
         <v>22.998899999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>20.5717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -20991,8 +21370,11 @@
       <c r="J126">
         <v>7.20099</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>6.5276300000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -21023,8 +21405,11 @@
       <c r="J127">
         <v>3.20892</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>3.1975500000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -21055,8 +21440,11 @@
       <c r="J128">
         <v>3.4167000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>3.1800700000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -21087,8 +21475,11 @@
       <c r="J129">
         <v>3.2679999999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>3.0634999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -21119,8 +21510,11 @@
       <c r="J130">
         <v>1.79098</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>1.7608200000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -21151,8 +21545,11 @@
       <c r="J131">
         <v>11.1694</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>10.0046</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -21183,8 +21580,11 @@
       <c r="J132">
         <v>2.5257399999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>2.4003999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -21215,8 +21615,11 @@
       <c r="J133">
         <v>3.8764699999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>3.5739200000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -21247,8 +21650,11 @@
       <c r="J134">
         <v>4.8429000000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>4.3984500000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -21279,8 +21685,11 @@
       <c r="J135">
         <v>5.8382500000000004</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>5.3123699999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -21311,8 +21720,11 @@
       <c r="J136">
         <v>12.6981</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>11.341799999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -21343,8 +21755,11 @@
       <c r="J137">
         <v>9.6651799999999994</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>8.6549200000000006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -21375,8 +21790,11 @@
       <c r="J138">
         <v>5.3187800000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>4.85663</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -21407,8 +21825,11 @@
       <c r="J139">
         <v>29.388500000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>25.903099999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -21439,8 +21860,11 @@
       <c r="J140">
         <v>28.281199999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>24.6557</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -21471,8 +21895,11 @@
       <c r="J141">
         <v>3.7696800000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>3.4919799999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -21503,8 +21930,11 @@
       <c r="J142">
         <v>5.8776799999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>5.2617799999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -21535,8 +21965,11 @@
       <c r="J143">
         <v>5.5304399999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>5.0010599999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -21567,8 +22000,11 @@
       <c r="J144">
         <v>2.0321199999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>1.9624200000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -21599,8 +22035,11 @@
       <c r="J145">
         <v>4.6803400000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>4.2207400000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -21631,8 +22070,11 @@
       <c r="J146">
         <v>2.55965</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>2.39628</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -21663,8 +22105,11 @@
       <c r="J147">
         <v>23.140999999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>20.426500000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -21695,8 +22140,11 @@
       <c r="J148">
         <v>7.7584499999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>7.0059800000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -21727,8 +22175,11 @@
       <c r="J149">
         <v>6.6238400000000004</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>5.9464399999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -21759,8 +22210,11 @@
       <c r="J150">
         <v>10.584899999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>9.4525000000000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -21791,8 +22245,11 @@
       <c r="J151">
         <v>16.039400000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>14.2402</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -21823,8 +22280,11 @@
       <c r="J152">
         <v>2.38375</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <v>2.29983</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -21855,8 +22315,11 @@
       <c r="J153">
         <v>4.0537099999999997</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <v>3.6659799999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -21887,8 +22350,11 @@
       <c r="J154">
         <v>4.5722199999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <v>4.12927</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -21919,8 +22385,11 @@
       <c r="J155">
         <v>5.6781199999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <v>5.1364799999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -21951,8 +22420,11 @@
       <c r="J156">
         <v>7.4033199999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <v>6.6255899999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -21983,8 +22455,11 @@
       <c r="J157">
         <v>17.129799999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <v>15.126200000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -22015,8 +22490,11 @@
       <c r="J158">
         <v>23.177700000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <v>20.641200000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -22047,8 +22525,11 @@
       <c r="J159">
         <v>5.2473200000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <v>4.8124599999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -22079,8 +22560,11 @@
       <c r="J160">
         <v>2.6317499999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>2.4790299999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -22111,8 +22595,11 @@
       <c r="J161">
         <v>3.5478100000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <v>3.2710400000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -22143,8 +22630,11 @@
       <c r="J162">
         <v>7.6993200000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <v>6.9188999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -22175,8 +22665,11 @@
       <c r="J163">
         <v>6.8056999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <v>6.1485200000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -22207,8 +22700,11 @@
       <c r="J164">
         <v>2.2846899999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <v>2.20689</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -22239,8 +22735,11 @@
       <c r="J165">
         <v>4.6991699999999996</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <v>4.2887300000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -22271,8 +22770,11 @@
       <c r="J166">
         <v>5.2349600000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <v>4.7427200000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -22303,8 +22805,11 @@
       <c r="J167">
         <v>5.96828</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <v>5.38605</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -22335,8 +22840,11 @@
       <c r="J168">
         <v>4.8857699999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <v>4.43147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -22367,8 +22875,11 @@
       <c r="J169">
         <v>34.916400000000003</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <v>31.4968</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -22399,8 +22910,11 @@
       <c r="J170">
         <v>7.0361700000000003</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <v>6.3552499999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -22431,8 +22945,11 @@
       <c r="J171">
         <v>3.9330500000000002</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <v>3.80002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -22463,8 +22980,11 @@
       <c r="J172">
         <v>2.1946099999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <v>2.09579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -22495,8 +23015,11 @@
       <c r="J173">
         <v>2.6269800000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <v>2.4926300000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -22527,8 +23050,11 @@
       <c r="J174">
         <v>3.1795300000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <v>2.9509599999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -22559,8 +23085,11 @@
       <c r="J175">
         <v>2.20736</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <v>2.1090100000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -22591,8 +23120,11 @@
       <c r="J176">
         <v>4.6085500000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <v>4.1799099999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -22623,8 +23155,11 @@
       <c r="J177">
         <v>4.4226900000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <v>4.0691699999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -22655,8 +23190,11 @@
       <c r="J178">
         <v>3.7037599999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <v>3.4268100000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -22687,8 +23225,11 @@
       <c r="J179">
         <v>5.3288799999999998</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <v>4.8885699999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -22719,8 +23260,11 @@
       <c r="J180">
         <v>23.1004</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <v>20.559899999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -22751,8 +23295,11 @@
       <c r="J181">
         <v>3.3377400000000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <v>3.1474899999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -22783,8 +23330,11 @@
       <c r="J182">
         <v>7.7591299999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <v>6.95085</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -22815,8 +23365,11 @@
       <c r="J183">
         <v>2.77155</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <v>2.6293700000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -22847,8 +23400,11 @@
       <c r="J184">
         <v>3.3117200000000002</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <v>3.2685599999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -22879,8 +23435,11 @@
       <c r="J185">
         <v>2.4035600000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <v>2.2792400000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -22911,8 +23470,11 @@
       <c r="J186">
         <v>4.4783200000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <v>4.1349999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -22943,8 +23505,11 @@
       <c r="J187">
         <v>1.9632000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <v>1.92624</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -22975,8 +23540,11 @@
       <c r="J188">
         <v>5.4181100000000004</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <v>4.9359000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -23007,8 +23575,11 @@
       <c r="J189">
         <v>1.5684</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <v>1.56915</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -23039,8 +23610,11 @@
       <c r="J190">
         <v>1.87748</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <v>1.8284</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -23071,8 +23645,11 @@
       <c r="J191">
         <v>22.936800000000002</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <v>20.4404</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -23103,8 +23680,11 @@
       <c r="J192">
         <v>6.0627500000000003</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <v>5.5254399999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -23135,8 +23715,11 @@
       <c r="J193">
         <v>3.1605599999999998</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <v>2.9416000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -23167,8 +23750,11 @@
       <c r="J194">
         <v>2.32213</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <v>2.22424</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -23199,8 +23785,11 @@
       <c r="J195">
         <v>2.33081</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <v>2.2326999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -23231,8 +23820,11 @@
       <c r="J196">
         <v>3.4249200000000002</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <v>3.17822</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -23263,8 +23855,11 @@
       <c r="J197">
         <v>2.9705400000000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <v>2.7717200000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -23295,8 +23890,11 @@
       <c r="J198">
         <v>2.0312800000000002</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <v>1.9706399999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -23327,8 +23925,11 @@
       <c r="J199">
         <v>6.6601600000000003</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <v>6.0065200000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -23359,8 +23960,11 @@
       <c r="J200">
         <v>2.96726</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <v>2.7808799999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -23391,8 +23995,11 @@
       <c r="J201">
         <v>2.5440200000000002</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <v>2.42875</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -23423,8 +24030,11 @@
       <c r="J202">
         <v>20.6968</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <v>18.447500000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -23455,8 +24065,11 @@
       <c r="J203">
         <v>2.2702499999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <v>2.2171500000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -23487,8 +24100,11 @@
       <c r="J204">
         <v>3.3690600000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <v>3.1257700000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -23519,8 +24135,11 @@
       <c r="J205">
         <v>1.8457300000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <v>1.7990699999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -23551,8 +24170,11 @@
       <c r="J206">
         <v>3.3963700000000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <v>3.1695500000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -23583,8 +24205,11 @@
       <c r="J207">
         <v>1.93971</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <v>1.90907</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -23615,8 +24240,11 @@
       <c r="J208">
         <v>1.92441</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <v>1.8714500000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -23647,8 +24275,11 @@
       <c r="J209">
         <v>2.9342100000000002</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <v>2.7538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -23679,8 +24310,11 @@
       <c r="J210">
         <v>1.5802799999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <v>1.5842799999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -23711,8 +24345,11 @@
       <c r="J211">
         <v>6.3374499999999996</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <v>5.7303600000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -23743,8 +24380,11 @@
       <c r="J212">
         <v>1.65326</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <v>1.6479699999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -23775,8 +24415,11 @@
       <c r="J213">
         <v>21.0777</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <v>18.834099999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -23807,8 +24450,11 @@
       <c r="J214">
         <v>677.529</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <v>550.28599999999994</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -23839,8 +24485,11 @@
       <c r="J215">
         <v>39.480600000000003</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <v>31.529800000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -23871,8 +24520,11 @@
       <c r="J216">
         <v>21.6723</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <v>19.292400000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -23903,8 +24555,11 @@
       <c r="J217">
         <v>21.4863</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <v>19.3095</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -23935,8 +24590,11 @@
       <c r="J218">
         <v>41.289700000000003</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <v>34.986199999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -23967,8 +24625,11 @@
       <c r="J219">
         <v>11.2103</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <v>10.0617</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -23999,8 +24660,11 @@
       <c r="J220">
         <v>20.679400000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <v>18.5077</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -24031,8 +24695,11 @@
       <c r="J221">
         <v>18.987300000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <v>17.036999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -24063,8 +24730,11 @@
       <c r="J222">
         <v>18.897099999999998</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <v>16.970700000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -24095,8 +24765,11 @@
       <c r="J223">
         <v>23.3276</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <v>20.835599999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -24127,8 +24800,11 @@
       <c r="J224">
         <v>20.984999999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <v>18.732399999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -24159,8 +24835,11 @@
       <c r="J225">
         <v>32.545900000000003</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <v>29.024999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -24191,8 +24870,11 @@
       <c r="J226">
         <v>20.994599999999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <v>18.731100000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -24223,8 +24905,11 @@
       <c r="J227">
         <v>20.863499999999998</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <v>18.704799999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -24255,8 +24940,11 @@
       <c r="J228">
         <v>21.443899999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <v>19.232800000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -24287,8 +24975,11 @@
       <c r="J229">
         <v>11.01</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <v>9.9222699999999993</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -24319,8 +25010,11 @@
       <c r="J230">
         <v>46.931899999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <v>41.348100000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -24351,8 +25045,11 @@
       <c r="J231">
         <v>47.316699999999997</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <v>41.652500000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -24383,8 +25080,11 @@
       <c r="J232">
         <v>21.770800000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <v>19.381499999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -24415,8 +25115,11 @@
       <c r="J233">
         <v>5.7976700000000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <v>5.3562599999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -24447,8 +25150,11 @@
       <c r="J234">
         <v>1.7282200000000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>1.7102900000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -24479,8 +25185,11 @@
       <c r="J235">
         <v>1.5587500000000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <v>1.54234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -24511,8 +25220,11 @@
       <c r="J236">
         <v>4.6238999999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <v>4.2169699999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -24543,8 +25255,11 @@
       <c r="J237">
         <v>20.516400000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <v>18.486000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -24575,8 +25290,11 @@
       <c r="J238">
         <v>2.69326</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <v>2.6731699999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -24607,8 +25325,11 @@
       <c r="J239">
         <v>3.2661799999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <v>3.0393599999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -24639,8 +25360,11 @@
       <c r="J240">
         <v>3.0331299999999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <v>2.84693</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -24671,8 +25395,11 @@
       <c r="J241">
         <v>1.74332</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <v>1.7384900000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -24703,8 +25430,11 @@
       <c r="J242">
         <v>1.63557</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <v>1.62496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -24735,8 +25465,11 @@
       <c r="J243">
         <v>3.4525700000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <v>3.3694899999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -24767,8 +25500,11 @@
       <c r="J244">
         <v>4.3432199999999996</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <v>3.9540199999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -24799,8 +25535,11 @@
       <c r="J245">
         <v>4.4784300000000004</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <v>4.1319400000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -24831,8 +25570,11 @@
       <c r="J246">
         <v>3.1629200000000002</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <v>3.1819700000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -24863,8 +25605,11 @@
       <c r="J247">
         <v>2.9553199999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <v>2.95052</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -24895,8 +25640,11 @@
       <c r="J248">
         <v>20.541</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <v>18.311900000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -24927,8 +25675,11 @@
       <c r="J249">
         <v>4.6502400000000002</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <v>4.3520000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -24959,8 +25710,11 @@
       <c r="J250">
         <v>1.7793099999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <v>1.7442599999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -24991,8 +25745,11 @@
       <c r="J251">
         <v>6.6745599999999996</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <v>6.3515800000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -25023,8 +25780,11 @@
       <c r="J252">
         <v>1.7195400000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <v>1.7162999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -25055,8 +25815,11 @@
       <c r="J253">
         <v>2.78261</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <v>2.6359900000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -25087,8 +25850,11 @@
       <c r="J254">
         <v>32.455800000000004</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <v>30.470199999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -25119,8 +25885,11 @@
       <c r="J255">
         <v>3.3360599999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255">
+        <v>3.1374599999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -25151,8 +25920,11 @@
       <c r="J256">
         <v>2.37466</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256">
+        <v>2.3191099999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -25183,8 +25955,11 @@
       <c r="J257">
         <v>2.4772799999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257">
+        <v>2.3997099999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -25215,8 +25990,11 @@
       <c r="J258">
         <v>6.0666799999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258">
+        <v>5.5408200000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -25247,8 +26025,11 @@
       <c r="J259">
         <v>41.096699999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259">
+        <v>36.311999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -25279,8 +26060,11 @@
       <c r="J260">
         <v>4.4063499999999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260">
+        <v>4.2112499999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -25311,8 +26095,11 @@
       <c r="J261">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261">
+        <v>2.42652</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -25343,8 +26130,11 @@
       <c r="J262">
         <v>2.3185899999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262">
+        <v>2.2371400000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -25375,8 +26165,11 @@
       <c r="J263">
         <v>1.6065</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263">
+        <v>1.6211899999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -25407,8 +26200,11 @@
       <c r="J264">
         <v>4.3063900000000004</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264">
+        <v>3.97627</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -25439,8 +26235,11 @@
       <c r="J265">
         <v>3.0709300000000002</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265">
+        <v>3.0190600000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -25471,8 +26270,11 @@
       <c r="J266">
         <v>2.72437</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266">
+        <v>2.5758999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -25503,8 +26305,11 @@
       <c r="J267">
         <v>1.8183499999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267">
+        <v>1.80874</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -25535,8 +26340,11 @@
       <c r="J268">
         <v>3.07389</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268">
+        <v>2.87738</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -25567,8 +26375,11 @@
       <c r="J269">
         <v>5.1132600000000004</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269">
+        <v>4.6992799999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -25599,8 +26410,11 @@
       <c r="J270">
         <v>20.540900000000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270">
+        <v>18.4329</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -25631,8 +26445,11 @@
       <c r="J271">
         <v>5.6938700000000004</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271">
+        <v>5.4314600000000004</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -25663,8 +26480,11 @@
       <c r="J272">
         <v>2.74552</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272">
+        <v>2.6108799999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -25695,8 +26515,11 @@
       <c r="J273">
         <v>2.6255299999999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273">
+        <v>2.51674</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -25727,8 +26550,11 @@
       <c r="J274">
         <v>2.24702</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274">
+        <v>2.19171</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -25759,8 +26585,11 @@
       <c r="J275">
         <v>2.9795699999999998</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275">
+        <v>2.9729999999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -25791,8 +26620,11 @@
       <c r="J276">
         <v>3.9557899999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276">
+        <v>3.8396599999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -25823,8 +26655,11 @@
       <c r="J277">
         <v>3.00271</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277">
+        <v>2.82748</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -25855,8 +26690,11 @@
       <c r="J278">
         <v>2.7281900000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278">
+        <v>2.6181299999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -25887,8 +26725,11 @@
       <c r="J279">
         <v>3.6131099999999998</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279">
+        <v>3.3694000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -25919,8 +26760,11 @@
       <c r="J280">
         <v>2.5308899999999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280">
+        <v>2.4351500000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -25951,8 +26795,11 @@
       <c r="J281">
         <v>20.395099999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281">
+        <v>18.348199999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -25983,8 +26830,11 @@
       <c r="J282">
         <v>2.67238</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282">
+        <v>2.64161</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -26015,8 +26865,11 @@
       <c r="J283">
         <v>3.16092</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283">
+        <v>3.1341600000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -26047,8 +26900,11 @@
       <c r="J284">
         <v>2.2763</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284">
+        <v>2.1963200000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -26079,8 +26935,11 @@
       <c r="J285">
         <v>2.2169500000000002</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285">
+        <v>2.1540699999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -26111,8 +26970,11 @@
       <c r="J286">
         <v>3.28159</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286">
+        <v>3.2767599999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -26143,8 +27005,11 @@
       <c r="J287">
         <v>2.07626</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287">
+        <v>1.9952000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -26175,8 +27040,11 @@
       <c r="J288">
         <v>2.9772699999999999</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K288">
+        <v>2.9887600000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -26207,8 +27075,11 @@
       <c r="J289">
         <v>2.4485100000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289">
+        <v>2.3355600000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -26239,8 +27110,11 @@
       <c r="J290">
         <v>4.1437499999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290">
+        <v>4.0724999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -26271,8 +27145,11 @@
       <c r="J291">
         <v>2.3097400000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291">
+        <v>2.2160799999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -26299,6 +27176,9 @@
       </c>
       <c r="J292" t="s">
         <v>299</v>
+      </c>
+      <c r="K292" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QOC_Src\MeshSimplication.Android\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC50B5F-1B2A-4772-8C6F-70137ABF3507}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BFB764-D1AD-472E-B05B-2DBB5E59266D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1875" windowWidth="28095" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>mesh0</t>
   </si>
@@ -936,6 +938,9 @@
   </si>
   <si>
     <t>Vector Neighbors</t>
+  </si>
+  <si>
+    <t>Remove some useless code</t>
   </si>
 </sst>
 </file>
@@ -16944,10 +16949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E271" workbookViewId="0">
-      <selection activeCell="K293" sqref="K293"/>
+      <selection activeCell="L293" sqref="L293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16962,9 +16967,10 @@
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
     <col min="10" max="10" width="32.140625" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16998,8 +17004,11 @@
       <c r="K1">
         <v>20.648499999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <v>19.431899999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17033,8 +17042,11 @@
       <c r="K2">
         <v>19.551500000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>18.1708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17068,8 +17080,11 @@
       <c r="K3">
         <v>18.732099999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>17.616900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17103,8 +17118,11 @@
       <c r="K4">
         <v>3.95764</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>3.9021300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17138,8 +17156,11 @@
       <c r="K5">
         <v>2.4885700000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>2.4193699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17173,8 +17194,11 @@
       <c r="K6">
         <v>2.0930900000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>2.0263200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17208,8 +17232,11 @@
       <c r="K7">
         <v>1.5454699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1.52044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17243,8 +17270,11 @@
       <c r="K8">
         <v>3.2878799999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3.2593899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17278,8 +17308,11 @@
       <c r="K9">
         <v>3.2105199999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>3.0947200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17313,8 +17346,11 @@
       <c r="K10">
         <v>1.88191</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1.8559000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17348,8 +17384,11 @@
       <c r="K11">
         <v>3.4393500000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>3.3941300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17383,8 +17422,11 @@
       <c r="K12">
         <v>1.5442499999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1.5288900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -17418,8 +17460,11 @@
       <c r="K13">
         <v>4.2563399999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>3.9937100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -17453,8 +17498,11 @@
       <c r="K14">
         <v>31.3901</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>29.472799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -17488,8 +17536,11 @@
       <c r="K15">
         <v>3.7507799999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>3.6471399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -17523,8 +17574,11 @@
       <c r="K16">
         <v>1.93794</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>1.9044000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -17558,8 +17612,11 @@
       <c r="K17">
         <v>1.87924</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1.85118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -17593,8 +17650,11 @@
       <c r="K18">
         <v>1.83785</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>1.8063400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -17628,8 +17688,11 @@
       <c r="K19">
         <v>2.03843</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>1.99444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -17663,8 +17726,11 @@
       <c r="K20">
         <v>3.2170299999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>3.1205699999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -17698,8 +17764,11 @@
       <c r="K21">
         <v>2.9918999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>2.98881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -17733,8 +17802,11 @@
       <c r="K22">
         <v>1.4713400000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>1.4705999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -17768,8 +17840,11 @@
       <c r="K23">
         <v>2.4145400000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>2.3296999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -17803,8 +17878,11 @@
       <c r="K24">
         <v>2.9394100000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>2.8467699999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17838,8 +17916,11 @@
       <c r="K25">
         <v>34.317799999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>32.456699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -17873,8 +17954,11 @@
       <c r="K26">
         <v>2.2997700000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>2.25617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -17908,8 +17992,11 @@
       <c r="K27">
         <v>3.97153</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>3.87995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -17943,8 +18030,11 @@
       <c r="K28">
         <v>1.5877600000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>1.5652999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -17978,8 +18068,11 @@
       <c r="K29">
         <v>1.9959899999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>1.9605699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -18013,8 +18106,11 @@
       <c r="K30">
         <v>2.1341000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>2.07803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -18048,8 +18144,11 @@
       <c r="K31">
         <v>3.2328100000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>3.1968000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -18083,8 +18182,11 @@
       <c r="K32">
         <v>2.6283599999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>2.5554600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -18118,8 +18220,11 @@
       <c r="K33">
         <v>1.97288</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>1.93384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -18153,8 +18258,11 @@
       <c r="K34">
         <v>1.7127699999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>1.68641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18188,8 +18296,11 @@
       <c r="K35">
         <v>4.57559</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>4.4061500000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -18223,8 +18334,11 @@
       <c r="K36">
         <v>18.441099999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>17.3369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -18258,8 +18372,11 @@
       <c r="K37">
         <v>3.2056200000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>3.0843699999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -18293,8 +18410,11 @@
       <c r="K38">
         <v>2.85589</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>2.78186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -18328,8 +18448,11 @@
       <c r="K39">
         <v>1.69638</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>1.67685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -18363,8 +18486,11 @@
       <c r="K40">
         <v>2.8561100000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>2.7570899999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -18398,8 +18524,11 @@
       <c r="K41">
         <v>2.12588</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>2.0746199999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -18433,8 +18562,11 @@
       <c r="K42">
         <v>2.3138000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>2.2567499999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -18468,8 +18600,11 @@
       <c r="K43">
         <v>2.2128700000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>2.16873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -18503,8 +18638,11 @@
       <c r="K44">
         <v>2.2616000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>2.2003499999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -18538,8 +18676,11 @@
       <c r="K45">
         <v>1.61554</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>1.5862700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -18573,8 +18714,11 @@
       <c r="K46">
         <v>2.3356499999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>2.28308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -18608,8 +18752,11 @@
       <c r="K47">
         <v>20.505700000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>19.319299999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -18643,8 +18790,11 @@
       <c r="K48">
         <v>1.9949699999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>1.96776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -18678,8 +18828,11 @@
       <c r="K49">
         <v>2.5747499999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>2.5141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -18713,8 +18866,11 @@
       <c r="K50">
         <v>1.7364299999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>1.70625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -18748,8 +18904,11 @@
       <c r="K51">
         <v>3.23746</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>3.1915900000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -18783,8 +18942,11 @@
       <c r="K52">
         <v>3.4329900000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>3.2984100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -18818,8 +18980,11 @@
       <c r="K53">
         <v>2.6388400000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>2.56941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -18853,8 +19018,11 @@
       <c r="K54">
         <v>1.6871700000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>1.6635899999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -18888,8 +19056,11 @@
       <c r="K55">
         <v>2.37534</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>2.29088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -18923,8 +19094,11 @@
       <c r="K56">
         <v>2.7225799999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>2.6329099999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -18958,8 +19132,11 @@
       <c r="K57">
         <v>2.1947899999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>2.14418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -18993,8 +19170,11 @@
       <c r="K58">
         <v>18.266300000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>17.164400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -19028,8 +19208,11 @@
       <c r="K59">
         <v>3.3875500000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>3.3637800000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -19063,8 +19246,11 @@
       <c r="K60">
         <v>1.7456</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>1.7248000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -19098,8 +19284,11 @@
       <c r="K61">
         <v>1.6984300000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>1.66734</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -19133,8 +19322,11 @@
       <c r="K62">
         <v>3.3829899999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>3.16133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -19168,8 +19360,11 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -19203,8 +19398,11 @@
       <c r="K64">
         <v>2.7856900000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>2.6826599999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -19238,8 +19436,11 @@
       <c r="K65">
         <v>4.8311599999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>4.61937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -19273,8 +19474,11 @@
       <c r="K66">
         <v>9.4176400000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>8.8847500000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -19308,8 +19512,11 @@
       <c r="K67">
         <v>2.2109299999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>2.15815</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -19343,8 +19550,11 @@
       <c r="K68">
         <v>2.07613</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>2.0424600000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -19378,8 +19588,11 @@
       <c r="K69">
         <v>20.4255</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>19.234000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -19413,8 +19626,11 @@
       <c r="K70">
         <v>2.19184</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>2.13279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -19448,8 +19664,11 @@
       <c r="K71">
         <v>1.58474</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>1.5789</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -19483,8 +19702,11 @@
       <c r="K72">
         <v>1.72722</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>1.71574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -19518,8 +19740,11 @@
       <c r="K73">
         <v>3.16248</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>3.12371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -19553,8 +19778,11 @@
       <c r="K74">
         <v>1.57467</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>1.5626100000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -19588,8 +19816,11 @@
       <c r="K75">
         <v>3.2642500000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>3.2479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -19623,8 +19854,11 @@
       <c r="K76">
         <v>3.0050400000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>2.9997600000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -19658,8 +19892,11 @@
       <c r="K77">
         <v>2.7031900000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>2.6389800000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -19693,8 +19930,11 @@
       <c r="K78">
         <v>1.93353</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>1.88052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -19728,8 +19968,11 @@
       <c r="K79">
         <v>3.1880099999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>3.1662300000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -19763,8 +20006,11 @@
       <c r="K80">
         <v>18.215</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>17.1175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -19798,8 +20044,11 @@
       <c r="K81">
         <v>1.95946</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>1.9275599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -19833,8 +20082,11 @@
       <c r="K82">
         <v>1.8950499999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>1.87931</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -19868,8 +20120,11 @@
       <c r="K83">
         <v>2.49071</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>2.3993899999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -19903,8 +20158,11 @@
       <c r="K84">
         <v>4.6604200000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>4.4831399999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -19938,8 +20196,11 @@
       <c r="K85">
         <v>2.9528500000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>2.8646799999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -19973,8 +20234,11 @@
       <c r="K86">
         <v>2.6242899999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>2.4827300000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -20008,8 +20272,11 @@
       <c r="K87">
         <v>2.9789599999999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>2.95078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -20043,8 +20310,11 @@
       <c r="K88">
         <v>2.93262</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>2.9337599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -20078,8 +20348,11 @@
       <c r="K89">
         <v>1.6194999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>1.6059099999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -20113,8 +20386,11 @@
       <c r="K90">
         <v>2.9325199999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>2.92909</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -20148,8 +20424,11 @@
       <c r="K91">
         <v>20.372499999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>19.198799999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -20183,8 +20462,11 @@
       <c r="K92">
         <v>2.1103100000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>2.0503499999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -20218,8 +20500,11 @@
       <c r="K93">
         <v>1.7806500000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>1.7637799999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -20253,8 +20538,11 @@
       <c r="K94">
         <v>1.66523</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>1.6487099999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -20288,8 +20576,11 @@
       <c r="K95">
         <v>3.5535700000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>3.4836200000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -20323,8 +20614,11 @@
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -20358,8 +20652,11 @@
       <c r="K97">
         <v>3.0149499999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>2.9998200000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -20393,8 +20690,11 @@
       <c r="K98">
         <v>3.0840900000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>3.0857299999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -20428,8 +20728,11 @@
       <c r="K99">
         <v>3.0406900000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>3.0373899999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -20463,8 +20766,11 @@
       <c r="K100">
         <v>3.9136600000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>3.7796699999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -20498,8 +20804,11 @@
       <c r="K101">
         <v>1.7934300000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>1.7672300000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -20533,8 +20842,11 @@
       <c r="K102">
         <v>18.4558</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>17.361799999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -20568,8 +20880,11 @@
       <c r="K103">
         <v>4.0510999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>3.8849800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -20603,8 +20918,11 @@
       <c r="K104">
         <v>2.2250100000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>2.1930999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -20638,8 +20956,11 @@
       <c r="K105">
         <v>2.1833100000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>2.12778</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -20673,8 +20994,11 @@
       <c r="K106">
         <v>1.6492</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>1.6262300000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -20708,8 +21032,11 @@
       <c r="K107">
         <v>2.1038000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>2.0605000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -20743,8 +21070,11 @@
       <c r="K108">
         <v>2.94895</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>2.94346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -20778,8 +21108,11 @@
       <c r="K109">
         <v>1.5008900000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>1.50865</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -20813,8 +21146,11 @@
       <c r="K110">
         <v>1.7745200000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>1.75143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -20848,8 +21184,11 @@
       <c r="K111">
         <v>3.0225</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>2.99973</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -20883,8 +21222,11 @@
       <c r="K112">
         <v>2.92265</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>2.9255300000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -20918,8 +21260,11 @@
       <c r="K113">
         <v>18.284199999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>17.204699999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -20953,8 +21298,11 @@
       <c r="K114">
         <v>18.802900000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>17.719000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -20988,8 +21336,11 @@
       <c r="K115">
         <v>3.3561200000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>3.3180499999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -21023,8 +21374,11 @@
       <c r="K116">
         <v>2.3805000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>2.31671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -21058,8 +21412,11 @@
       <c r="K117">
         <v>3.0701999999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>3.0358100000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -21093,8 +21450,11 @@
       <c r="K118">
         <v>2.1259899999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>2.0699700000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -21128,8 +21488,11 @@
       <c r="K119">
         <v>1.7485200000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>1.7095</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -21163,8 +21526,11 @@
       <c r="K120">
         <v>1.68079</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>1.67774</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -21198,8 +21564,11 @@
       <c r="K121">
         <v>3.07497</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>2.9838200000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -21233,8 +21602,11 @@
       <c r="K122">
         <v>4.32761</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>4.1216999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -21268,8 +21640,11 @@
       <c r="K123">
         <v>9.6759799999999991</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>8.8770799999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -21303,8 +21678,11 @@
       <c r="K124">
         <v>2.9090400000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>2.83508</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -21338,8 +21716,11 @@
       <c r="K125">
         <v>20.5717</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>19.343699999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -21373,8 +21754,11 @@
       <c r="K126">
         <v>6.5276300000000003</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>6.1675800000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -21408,8 +21792,11 @@
       <c r="K127">
         <v>3.1975500000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>3.1681499999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -21443,8 +21830,11 @@
       <c r="K128">
         <v>3.1800700000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>3.08772</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -21478,8 +21868,11 @@
       <c r="K129">
         <v>3.0634999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>2.9885299999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -21513,8 +21906,11 @@
       <c r="K130">
         <v>1.7608200000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>1.7380500000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -21548,8 +21944,11 @@
       <c r="K131">
         <v>10.0046</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>9.3874999999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -21583,8 +21982,11 @@
       <c r="K132">
         <v>2.4003999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>2.3379799999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -21618,8 +22020,11 @@
       <c r="K133">
         <v>3.5739200000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>3.44374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -21653,8 +22058,11 @@
       <c r="K134">
         <v>4.3984500000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>4.2175000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -21688,8 +22096,11 @@
       <c r="K135">
         <v>5.3123699999999996</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>5.1078200000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -21723,8 +22134,11 @@
       <c r="K136">
         <v>11.341799999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>10.695600000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -21758,8 +22172,11 @@
       <c r="K137">
         <v>8.6549200000000006</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <v>8.2076600000000006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -21793,8 +22210,11 @@
       <c r="K138">
         <v>4.85663</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>4.6393800000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -21828,8 +22248,11 @@
       <c r="K139">
         <v>25.903099999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>24.298300000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -21863,8 +22286,11 @@
       <c r="K140">
         <v>24.6557</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>23.264500000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -21898,8 +22324,11 @@
       <c r="K141">
         <v>3.4919799999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>3.3595100000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -21933,8 +22362,11 @@
       <c r="K142">
         <v>5.2617799999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>5.0315000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -21968,8 +22400,11 @@
       <c r="K143">
         <v>5.0010599999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>4.7852100000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -22003,8 +22438,11 @@
       <c r="K144">
         <v>1.9624200000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>1.93319</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -22038,8 +22476,11 @@
       <c r="K145">
         <v>4.2207400000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>4.0133099999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -22073,8 +22514,11 @@
       <c r="K146">
         <v>2.39628</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>2.3414299999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -22108,8 +22552,11 @@
       <c r="K147">
         <v>20.426500000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>19.235600000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -22143,8 +22590,11 @@
       <c r="K148">
         <v>7.0059800000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>6.6599399999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -22178,8 +22628,11 @@
       <c r="K149">
         <v>5.9464399999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>5.7073</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -22213,8 +22666,11 @@
       <c r="K150">
         <v>9.4525000000000006</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>8.9768500000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -22248,8 +22704,11 @@
       <c r="K151">
         <v>14.2402</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>13.3606</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -22283,8 +22742,11 @@
       <c r="K152">
         <v>2.29983</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>2.2492000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -22318,8 +22780,11 @@
       <c r="K153">
         <v>3.6659799999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>3.5232299999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -22353,8 +22818,11 @@
       <c r="K154">
         <v>4.12927</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>3.99038</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -22388,8 +22856,11 @@
       <c r="K155">
         <v>5.1364799999999997</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>4.9405900000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -22423,8 +22894,11 @@
       <c r="K156">
         <v>6.6255899999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <v>6.3319299999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -22458,8 +22932,11 @@
       <c r="K157">
         <v>15.126200000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>14.3741</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -22493,8 +22970,11 @@
       <c r="K158">
         <v>20.641200000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <v>19.484500000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -22528,8 +23008,11 @@
       <c r="K159">
         <v>4.8124599999999997</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <v>4.6041400000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -22563,8 +23046,11 @@
       <c r="K160">
         <v>2.4790299999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>2.4238499999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -22598,8 +23084,11 @@
       <c r="K161">
         <v>3.2710400000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>3.1610100000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -22633,8 +23122,11 @@
       <c r="K162">
         <v>6.9188999999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>6.6148199999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -22668,8 +23160,11 @@
       <c r="K163">
         <v>6.1485200000000004</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <v>5.85487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -22703,8 +23198,11 @@
       <c r="K164">
         <v>2.20689</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>2.16147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -22738,8 +23236,11 @@
       <c r="K165">
         <v>4.2887300000000002</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>4.1164399999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -22773,8 +23274,11 @@
       <c r="K166">
         <v>4.7427200000000003</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>4.56576</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -22808,8 +23312,11 @@
       <c r="K167">
         <v>5.38605</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <v>5.1493399999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -22843,8 +23350,11 @@
       <c r="K168">
         <v>4.43147</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>4.25943</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -22878,8 +23388,11 @@
       <c r="K169">
         <v>31.4968</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <v>29.587399999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -22913,8 +23426,11 @@
       <c r="K170">
         <v>6.3552499999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <v>6.0519800000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -22948,8 +23464,11 @@
       <c r="K171">
         <v>3.80002</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <v>3.7387600000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -22983,8 +23502,11 @@
       <c r="K172">
         <v>2.09579</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <v>2.0560900000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -23018,8 +23540,11 @@
       <c r="K173">
         <v>2.4926300000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <v>2.4132199999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -23053,8 +23578,11 @@
       <c r="K174">
         <v>2.9509599999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <v>2.8227000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -23088,8 +23616,11 @@
       <c r="K175">
         <v>2.1090100000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <v>2.06657</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -23123,8 +23654,11 @@
       <c r="K176">
         <v>4.1799099999999996</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <v>4.0359299999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -23158,8 +23692,11 @@
       <c r="K177">
         <v>4.0691699999999997</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <v>3.88619</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -23193,8 +23730,11 @@
       <c r="K178">
         <v>3.4268100000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>3.3156500000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -23228,8 +23768,11 @@
       <c r="K179">
         <v>4.8885699999999996</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <v>4.6794700000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -23263,8 +23806,11 @@
       <c r="K180">
         <v>20.559899999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>19.3706</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -23298,8 +23844,11 @@
       <c r="K181">
         <v>3.1474899999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <v>3.0338099999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -23333,8 +23882,11 @@
       <c r="K182">
         <v>6.95085</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>6.6486099999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -23368,8 +23920,11 @@
       <c r="K183">
         <v>2.6293700000000002</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <v>2.57016</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -23403,8 +23958,11 @@
       <c r="K184">
         <v>3.2685599999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <v>3.23624</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -23438,8 +23996,11 @@
       <c r="K185">
         <v>2.2792400000000002</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <v>2.2289099999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -23473,8 +24034,11 @@
       <c r="K186">
         <v>4.1349999999999998</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186">
+        <v>3.9518900000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -23508,8 +24072,11 @@
       <c r="K187">
         <v>1.92624</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <v>1.8925000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -23543,8 +24110,11 @@
       <c r="K188">
         <v>4.9359000000000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188">
+        <v>4.75197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -23578,8 +24148,11 @@
       <c r="K189">
         <v>1.56915</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <v>1.5580700000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -23613,8 +24186,11 @@
       <c r="K190">
         <v>1.8284</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190">
+        <v>1.7926299999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -23648,8 +24224,11 @@
       <c r="K191">
         <v>20.4404</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191">
+        <v>19.244599999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -23683,8 +24262,11 @@
       <c r="K192">
         <v>5.5254399999999997</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>5.2834099999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -23718,8 +24300,11 @@
       <c r="K193">
         <v>2.9416000000000002</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193">
+        <v>2.8450600000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -23753,8 +24338,11 @@
       <c r="K194">
         <v>2.22424</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194">
+        <v>2.1722999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -23788,8 +24376,11 @@
       <c r="K195">
         <v>2.2326999999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195">
+        <v>2.16845</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -23823,8 +24414,11 @@
       <c r="K196">
         <v>3.17822</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <v>3.0969699999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -23858,8 +24452,11 @@
       <c r="K197">
         <v>2.7717200000000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197">
+        <v>2.6851600000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -23893,8 +24490,11 @@
       <c r="K198">
         <v>1.9706399999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198">
+        <v>1.92852</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -23928,8 +24528,11 @@
       <c r="K199">
         <v>6.0065200000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199">
+        <v>5.7403599999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -23963,8 +24566,11 @@
       <c r="K200">
         <v>2.7808799999999998</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>2.6906500000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -23998,8 +24604,11 @@
       <c r="K201">
         <v>2.42875</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201">
+        <v>2.3557199999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -24033,8 +24642,11 @@
       <c r="K202">
         <v>18.447500000000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202">
+        <v>17.353100000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -24068,8 +24680,11 @@
       <c r="K203">
         <v>2.2171500000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203">
+        <v>2.15788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -24103,8 +24718,11 @@
       <c r="K204">
         <v>3.1257700000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204">
+        <v>3.0249299999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -24138,8 +24756,11 @@
       <c r="K205">
         <v>1.7990699999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205">
+        <v>1.7763599999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -24173,8 +24794,11 @@
       <c r="K206">
         <v>3.1695500000000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206">
+        <v>3.0802399999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -24208,8 +24832,11 @@
       <c r="K207">
         <v>1.90907</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207">
+        <v>1.8756200000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -24243,8 +24870,11 @@
       <c r="K208">
         <v>1.8714500000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208">
+        <v>1.8431500000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -24278,8 +24908,11 @@
       <c r="K209">
         <v>2.7538</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209">
+        <v>2.6946500000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -24313,8 +24946,11 @@
       <c r="K210">
         <v>1.5842799999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210">
+        <v>1.56517</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -24348,8 +24984,11 @@
       <c r="K211">
         <v>5.7303600000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211">
+        <v>5.4619299999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -24383,8 +25022,11 @@
       <c r="K212">
         <v>1.6479699999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212">
+        <v>1.63771</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -24418,8 +25060,11 @@
       <c r="K213">
         <v>18.834099999999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213">
+        <v>17.693899999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -24453,8 +25098,11 @@
       <c r="K214">
         <v>550.28599999999994</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214">
+        <v>507.85899999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -24488,8 +25136,11 @@
       <c r="K215">
         <v>31.529800000000002</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215">
+        <v>28.508500000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -24523,8 +25174,11 @@
       <c r="K216">
         <v>19.292400000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <v>18.141100000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -24558,8 +25212,11 @@
       <c r="K217">
         <v>19.3095</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>18.160499999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -24593,8 +25250,11 @@
       <c r="K218">
         <v>34.986199999999997</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218">
+        <v>33.0398</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -24628,8 +25288,11 @@
       <c r="K219">
         <v>10.0617</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219">
+        <v>9.4524600000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -24663,8 +25326,11 @@
       <c r="K220">
         <v>18.5077</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>17.4316</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -24698,8 +25364,11 @@
       <c r="K221">
         <v>17.036999999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221">
+        <v>16.0259</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -24733,8 +25402,11 @@
       <c r="K222">
         <v>16.970700000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222">
+        <v>15.9756</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -24768,8 +25440,11 @@
       <c r="K223">
         <v>20.835599999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223">
+        <v>19.6388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -24803,8 +25478,11 @@
       <c r="K224">
         <v>18.732399999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224">
+        <v>17.626899999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -24838,8 +25516,11 @@
       <c r="K225">
         <v>29.024999999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225">
+        <v>27.377300000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -24873,8 +25554,11 @@
       <c r="K226">
         <v>18.731100000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226">
+        <v>17.6342</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -24908,8 +25592,11 @@
       <c r="K227">
         <v>18.704799999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227">
+        <v>17.616199999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -24943,8 +25630,11 @@
       <c r="K228">
         <v>19.232800000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228">
+        <v>18.113600000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -24978,8 +25668,11 @@
       <c r="K229">
         <v>9.9222699999999993</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229">
+        <v>9.3394200000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -25013,8 +25706,11 @@
       <c r="K230">
         <v>41.348100000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230">
+        <v>39.2239</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -25048,8 +25744,11 @@
       <c r="K231">
         <v>41.652500000000003</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231">
+        <v>39.485900000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -25083,8 +25782,11 @@
       <c r="K232">
         <v>19.381499999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232">
+        <v>18.227499999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -25118,8 +25820,11 @@
       <c r="K233">
         <v>5.3562599999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233">
+        <v>5.0555700000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -25153,8 +25858,11 @@
       <c r="K234">
         <v>1.7102900000000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234">
+        <v>1.69112</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -25188,8 +25896,11 @@
       <c r="K235">
         <v>1.54234</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235">
+        <v>1.51637</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -25223,8 +25934,11 @@
       <c r="K236">
         <v>4.2169699999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236">
+        <v>4.0604500000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -25258,8 +25972,11 @@
       <c r="K237">
         <v>18.486000000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237">
+        <v>17.210999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -25293,8 +26010,11 @@
       <c r="K238">
         <v>2.6731699999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238">
+        <v>2.5416699999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -25328,8 +26048,11 @@
       <c r="K239">
         <v>3.0393599999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239">
+        <v>2.9818699999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -25363,8 +26086,11 @@
       <c r="K240">
         <v>2.84693</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <v>2.7887300000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -25398,8 +26124,11 @@
       <c r="K241">
         <v>1.7384900000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241">
+        <v>1.70244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -25433,8 +26162,11 @@
       <c r="K242">
         <v>1.62496</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242">
+        <v>1.60355</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -25468,8 +26200,11 @@
       <c r="K243">
         <v>3.3694899999999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243">
+        <v>3.3519100000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -25503,8 +26238,11 @@
       <c r="K244">
         <v>3.9540199999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244">
+        <v>3.8437999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -25538,8 +26276,11 @@
       <c r="K245">
         <v>4.1319400000000002</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245">
+        <v>4.0588899999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -25573,8 +26314,11 @@
       <c r="K246">
         <v>3.1819700000000002</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246">
+        <v>3.1902499999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -25608,8 +26352,11 @@
       <c r="K247">
         <v>2.95052</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247">
+        <v>2.9484400000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -25643,8 +26390,11 @@
       <c r="K248">
         <v>18.311900000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248">
+        <v>17.216000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -25678,8 +26428,11 @@
       <c r="K249">
         <v>4.3520000000000003</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249">
+        <v>4.1710599999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -25713,8 +26466,11 @@
       <c r="K250">
         <v>1.7442599999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250">
+        <v>1.7353400000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -25748,8 +26504,11 @@
       <c r="K251">
         <v>6.3515800000000002</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251">
+        <v>6.01546</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -25783,8 +26542,11 @@
       <c r="K252">
         <v>1.7162999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252">
+        <v>1.68086</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -25818,8 +26580,11 @@
       <c r="K253">
         <v>2.6359900000000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253">
+        <v>2.5482399999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -25853,8 +26618,11 @@
       <c r="K254">
         <v>30.470199999999998</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254">
+        <v>27.367699999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -25888,8 +26656,11 @@
       <c r="K255">
         <v>3.1374599999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255">
+        <v>3.0417999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -25923,8 +26694,11 @@
       <c r="K256">
         <v>2.3191099999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256">
+        <v>2.2839999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -25958,8 +26732,11 @@
       <c r="K257">
         <v>2.3997099999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257">
+        <v>2.3414799999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -25993,8 +26770,11 @@
       <c r="K258">
         <v>5.5408200000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258">
+        <v>5.2843200000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -26028,8 +26808,11 @@
       <c r="K259">
         <v>36.311999999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259">
+        <v>34.027900000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -26063,8 +26846,11 @@
       <c r="K260">
         <v>4.2112499999999997</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260">
+        <v>3.9891999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -26098,8 +26884,11 @@
       <c r="K261">
         <v>2.42652</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261">
+        <v>2.3677899999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -26133,8 +26922,11 @@
       <c r="K262">
         <v>2.2371400000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262">
+        <v>2.1875300000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -26168,8 +26960,11 @@
       <c r="K263">
         <v>1.6211899999999999</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263">
+        <v>1.59413</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -26203,8 +26998,11 @@
       <c r="K264">
         <v>3.97627</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264">
+        <v>3.8048000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -26238,8 +27036,11 @@
       <c r="K265">
         <v>3.0190600000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265">
+        <v>2.8298399999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -26273,8 +27074,11 @@
       <c r="K266">
         <v>2.5758999999999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266">
+        <v>2.50379</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -26308,8 +27112,11 @@
       <c r="K267">
         <v>1.80874</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267">
+        <v>1.78525</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -26343,8 +27150,11 @@
       <c r="K268">
         <v>2.87738</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268">
+        <v>2.78321</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -26378,8 +27188,11 @@
       <c r="K269">
         <v>4.6992799999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269">
+        <v>4.5118200000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -26413,8 +27226,11 @@
       <c r="K270">
         <v>18.4329</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270">
+        <v>17.334399999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -26448,8 +27264,11 @@
       <c r="K271">
         <v>5.4314600000000004</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271">
+        <v>5.2878600000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -26483,8 +27302,11 @@
       <c r="K272">
         <v>2.6108799999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272">
+        <v>2.5507499999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -26518,8 +27340,11 @@
       <c r="K273">
         <v>2.51674</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273">
+        <v>2.45262</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -26553,8 +27378,11 @@
       <c r="K274">
         <v>2.19171</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274">
+        <v>2.1431</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -26588,8 +27416,11 @@
       <c r="K275">
         <v>2.9729999999999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275">
+        <v>2.9616099999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -26623,8 +27454,11 @@
       <c r="K276">
         <v>3.8396599999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L276">
+        <v>3.7606799999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -26658,8 +27492,11 @@
       <c r="K277">
         <v>2.82748</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277">
+        <v>2.71766</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -26693,8 +27530,11 @@
       <c r="K278">
         <v>2.6181299999999998</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278">
+        <v>2.56427</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -26728,8 +27568,11 @@
       <c r="K279">
         <v>3.3694000000000002</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279">
+        <v>3.2507999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -26763,8 +27606,11 @@
       <c r="K280">
         <v>2.4351500000000001</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280">
+        <v>2.3616799999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -26798,8 +27644,11 @@
       <c r="K281">
         <v>18.348199999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L281">
+        <v>17.246099999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -26833,8 +27682,11 @@
       <c r="K282">
         <v>2.64161</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282">
+        <v>2.5647199999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -26868,8 +27720,11 @@
       <c r="K283">
         <v>3.1341600000000001</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283">
+        <v>3.10873</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -26903,8 +27758,11 @@
       <c r="K284">
         <v>2.1963200000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L284">
+        <v>2.1371000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -26938,8 +27796,11 @@
       <c r="K285">
         <v>2.1540699999999999</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285">
+        <v>2.0860500000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -26973,8 +27834,11 @@
       <c r="K286">
         <v>3.2767599999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286">
+        <v>3.2239499999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -27008,8 +27872,11 @@
       <c r="K287">
         <v>1.9952000000000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287">
+        <v>1.9704699999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -27043,8 +27910,11 @@
       <c r="K288">
         <v>2.9887600000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L288">
+        <v>2.9801899999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -27078,8 +27948,11 @@
       <c r="K289">
         <v>2.3355600000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L289">
+        <v>2.2856200000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -27113,8 +27986,11 @@
       <c r="K290">
         <v>4.0724999999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290">
+        <v>3.9656500000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -27148,8 +28024,11 @@
       <c r="K291">
         <v>2.2160799999999998</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291">
+        <v>2.18018</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -27179,6 +28058,9 @@
       </c>
       <c r="K292" t="s">
         <v>300</v>
+      </c>
+      <c r="L292" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BFB764-D1AD-472E-B05B-2DBB5E59266D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A8B6C5-0607-4380-B6CC-C931C2492D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1875" windowWidth="28095" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>mesh0</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>Remove some useless code</t>
+  </si>
+  <si>
+    <t>Remove unordered_map</t>
   </si>
 </sst>
 </file>
@@ -16949,10 +16952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E271" workbookViewId="0">
-      <selection activeCell="L293" sqref="L293"/>
+    <sheetView tabSelected="1" topLeftCell="D277" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16968,9 +16971,10 @@
     <col min="10" max="10" width="32.140625" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17007,8 +17011,11 @@
       <c r="L1">
         <v>19.431899999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1">
+        <v>16.7623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17045,8 +17052,11 @@
       <c r="L2">
         <v>18.1708</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>15.395099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17083,8 +17093,11 @@
       <c r="L3">
         <v>17.616900000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>14.8675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17121,8 +17134,11 @@
       <c r="L4">
         <v>3.9021300000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0.58121599999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17159,8 +17175,11 @@
       <c r="L5">
         <v>2.4193699999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0.89592700000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17197,8 +17216,11 @@
       <c r="L6">
         <v>2.0263200000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0.51736000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17235,8 +17257,11 @@
       <c r="L7">
         <v>1.52044</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>5.3316000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17273,8 +17298,11 @@
       <c r="L8">
         <v>3.2593899999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0.35067599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17311,8 +17339,11 @@
       <c r="L9">
         <v>3.0947200000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1.49756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17349,8 +17380,11 @@
       <c r="L10">
         <v>1.8559000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0.31103799999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17387,8 +17421,11 @@
       <c r="L11">
         <v>3.3941300000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0.44407999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17425,8 +17462,11 @@
       <c r="L12">
         <v>1.5288900000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>8.2788200000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -17463,8 +17503,11 @@
       <c r="L13">
         <v>3.9937100000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>2.5545800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -17501,8 +17544,11 @@
       <c r="L14">
         <v>29.472799999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>26.122399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -17539,8 +17585,11 @@
       <c r="L15">
         <v>3.6471399999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -17577,8 +17626,11 @@
       <c r="L16">
         <v>1.9044000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0.41600399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -17615,8 +17667,11 @@
       <c r="L17">
         <v>1.85118</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0.37234800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -17653,8 +17708,11 @@
       <c r="L18">
         <v>1.8063400000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0.334478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -17691,8 +17749,11 @@
       <c r="L19">
         <v>1.99444</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0.52236400000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -17729,8 +17790,11 @@
       <c r="L20">
         <v>3.1205699999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>1.5762400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -17767,8 +17831,11 @@
       <c r="L21">
         <v>2.98881</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>6.9283999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -17805,8 +17872,11 @@
       <c r="L22">
         <v>1.4705999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>3.3914100000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -17843,8 +17913,11 @@
       <c r="L23">
         <v>2.3296999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0.84756799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -17881,8 +17954,11 @@
       <c r="L24">
         <v>2.8467699999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>1.2710900000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17919,8 +17995,11 @@
       <c r="L25">
         <v>32.456699999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>29.471599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -17957,8 +18036,11 @@
       <c r="L26">
         <v>2.25617</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0.378112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -17995,8 +18077,11 @@
       <c r="L27">
         <v>3.87995</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>0.86824699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -18033,8 +18118,11 @@
       <c r="L28">
         <v>1.5652999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0.103798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -18071,8 +18159,11 @@
       <c r="L29">
         <v>1.9605699999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>0.48754399999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -18109,8 +18200,11 @@
       <c r="L30">
         <v>2.07803</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>0.58204199999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -18147,8 +18241,11 @@
       <c r="L31">
         <v>3.1968000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>0.29371599999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -18185,8 +18282,11 @@
       <c r="L32">
         <v>2.5554600000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>1.02491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -18223,8 +18323,11 @@
       <c r="L33">
         <v>1.93384</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>0.42348400000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -18261,8 +18364,11 @@
       <c r="L34">
         <v>1.68641</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0.218802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -18299,8 +18405,11 @@
       <c r="L35">
         <v>4.4061500000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>1.4734499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -18337,8 +18446,11 @@
       <c r="L36">
         <v>17.3369</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>14.9787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -18375,8 +18487,11 @@
       <c r="L37">
         <v>3.0843699999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>1.2412300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -18413,8 +18528,11 @@
       <c r="L38">
         <v>2.78186</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>1.16428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -18451,8 +18569,11 @@
       <c r="L39">
         <v>1.67685</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>0.16347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -18489,8 +18610,11 @@
       <c r="L40">
         <v>2.7570899999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>1.1988099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -18527,8 +18651,11 @@
       <c r="L41">
         <v>2.0746199999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0.53971400000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -18565,8 +18692,11 @@
       <c r="L42">
         <v>2.2567499999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0.74633899999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -18603,8 +18733,11 @@
       <c r="L43">
         <v>2.16873</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>0.65916600000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -18641,8 +18774,11 @@
       <c r="L44">
         <v>2.2003499999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>0.68484199999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -18679,8 +18815,11 @@
       <c r="L45">
         <v>1.5862700000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>0.128548</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -18717,8 +18856,11 @@
       <c r="L46">
         <v>2.28308</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>0.78897700000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -18755,8 +18897,11 @@
       <c r="L47">
         <v>19.319299999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>16.819199999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -18793,8 +18938,11 @@
       <c r="L48">
         <v>1.96776</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0.193166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -18831,8 +18979,11 @@
       <c r="L49">
         <v>2.5141</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>0.96244300000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -18869,8 +19020,11 @@
       <c r="L50">
         <v>1.70625</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0.22572400000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -18907,8 +19061,11 @@
       <c r="L51">
         <v>3.1915900000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>0.29544199999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -18945,8 +19102,11 @@
       <c r="L52">
         <v>3.2984100000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>1.7262500000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -18983,8 +19143,11 @@
       <c r="L53">
         <v>2.56941</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1.0075099999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -19021,8 +19184,11 @@
       <c r="L54">
         <v>1.6635899999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>0.18205399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -19059,8 +19225,11 @@
       <c r="L55">
         <v>2.29088</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>0.78494799999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -19097,8 +19266,11 @@
       <c r="L56">
         <v>2.6329099999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>1.07656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -19135,8 +19307,11 @@
       <c r="L57">
         <v>2.14418</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>0.62113399999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -19173,8 +19348,11 @@
       <c r="L58">
         <v>17.164400000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>14.794600000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -19211,8 +19389,11 @@
       <c r="L59">
         <v>3.3637800000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>0.14540800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -19249,8 +19430,11 @@
       <c r="L60">
         <v>1.7248000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0.24541099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -19287,8 +19471,11 @@
       <c r="L61">
         <v>1.66734</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0.21121400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -19325,8 +19512,11 @@
       <c r="L62">
         <v>3.16133</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>1.7094</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -19363,8 +19553,11 @@
       <c r="L63" s="1">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -19401,8 +19594,11 @@
       <c r="L64">
         <v>2.6826599999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>1.1424000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -19439,8 +19635,11 @@
       <c r="L65">
         <v>4.61937</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>2.9170600000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -19477,8 +19676,11 @@
       <c r="L66">
         <v>8.8847500000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>6.79739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -19515,8 +19717,11 @@
       <c r="L67">
         <v>2.15815</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>0.50725600000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -19553,8 +19758,11 @@
       <c r="L68">
         <v>2.0424600000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>0.517424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -19591,8 +19799,11 @@
       <c r="L69">
         <v>19.234000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>16.814499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -19629,8 +19840,11 @@
       <c r="L70">
         <v>2.13279</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>0.37990200000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -19667,8 +19881,11 @@
       <c r="L71">
         <v>1.5789</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>8.7540000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -19705,8 +19922,11 @@
       <c r="L72">
         <v>1.71574</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>0.24721499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -19743,8 +19963,11 @@
       <c r="L73">
         <v>3.12371</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>0.22195699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -19781,8 +20004,11 @@
       <c r="L74">
         <v>1.5626100000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>0.121222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -19819,8 +20045,11 @@
       <c r="L75">
         <v>3.2479</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>0.351192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -19857,8 +20086,11 @@
       <c r="L76">
         <v>2.9997600000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>0.12884399999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -19895,8 +20127,11 @@
       <c r="L77">
         <v>2.6389800000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>1.14636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -19933,8 +20168,11 @@
       <c r="L78">
         <v>1.88052</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>0.400306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -19971,8 +20209,11 @@
       <c r="L79">
         <v>3.1662300000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>0.26170399999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -20009,8 +20250,11 @@
       <c r="L80">
         <v>17.1175</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>14.741099999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -20047,8 +20291,11 @@
       <c r="L81">
         <v>1.9275599999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>0.19229599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -20085,8 +20332,11 @@
       <c r="L82">
         <v>1.87931</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>0.36957400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -20123,8 +20373,11 @@
       <c r="L83">
         <v>2.3993899999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>0.89343799999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -20161,8 +20414,11 @@
       <c r="L84">
         <v>4.4831399999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>2.8732199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -20199,8 +20455,11 @@
       <c r="L85">
         <v>2.8646799999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>1.2571600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -20237,8 +20496,11 @@
       <c r="L86">
         <v>2.4827300000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>1.00987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -20275,8 +20537,11 @@
       <c r="L87">
         <v>2.95078</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>6.4327899999999993E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -20313,8 +20578,11 @@
       <c r="L88">
         <v>2.9337599999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>5.9159999999999997E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -20351,8 +20619,11 @@
       <c r="L89">
         <v>1.6059099999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>0.15208199999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -20389,8 +20660,11 @@
       <c r="L90">
         <v>2.92909</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>6.2088200000000003E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -20427,8 +20701,11 @@
       <c r="L91">
         <v>19.198799999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>16.7103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -20465,8 +20742,11 @@
       <c r="L92">
         <v>2.0503499999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>0.31123600000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -20503,8 +20783,11 @@
       <c r="L93">
         <v>1.7637799999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>0.26070399999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -20541,8 +20824,11 @@
       <c r="L94">
         <v>1.6487099999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>0.18634300000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -20579,8 +20865,11 @@
       <c r="L95">
         <v>3.4836200000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>0.57511599999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -20617,8 +20906,11 @@
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -20655,8 +20947,11 @@
       <c r="L97">
         <v>2.9998200000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>0.119946</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -20693,8 +20988,11 @@
       <c r="L98">
         <v>3.0857299999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>0.192829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -20731,8 +21029,11 @@
       <c r="L99">
         <v>3.0373899999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>0.14816399999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -20769,8 +21070,11 @@
       <c r="L100">
         <v>3.7796699999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>2.22187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -20807,8 +21111,11 @@
       <c r="L101">
         <v>1.7672300000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>0.26955600000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -20845,8 +21152,11 @@
       <c r="L102">
         <v>17.361799999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>14.966200000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -20883,8 +21193,11 @@
       <c r="L103">
         <v>3.8849800000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>2.0362100000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -20921,8 +21234,11 @@
       <c r="L104">
         <v>2.1930999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>0.62670999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -20959,8 +21275,11 @@
       <c r="L105">
         <v>2.12778</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>0.60259799999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -20997,8 +21316,11 @@
       <c r="L106">
         <v>1.6262300000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>0.15316399999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -21035,8 +21357,11 @@
       <c r="L107">
         <v>2.0605000000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>0.57639799999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -21073,8 +21398,11 @@
       <c r="L108">
         <v>2.94346</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>6.2692100000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -21111,8 +21439,11 @@
       <c r="L109">
         <v>1.50865</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>6.6271999999999998E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -21149,8 +21480,11 @@
       <c r="L110">
         <v>1.75143</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>0.29237800000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -21187,8 +21521,11 @@
       <c r="L111">
         <v>2.99973</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>0.125892</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -21225,8 +21562,11 @@
       <c r="L112">
         <v>2.9255300000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>5.8027799999999997E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -21263,8 +21603,11 @@
       <c r="L113">
         <v>17.204699999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>14.820399999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -21301,8 +21644,11 @@
       <c r="L114">
         <v>17.719000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>15.0466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -21339,8 +21685,11 @@
       <c r="L115">
         <v>3.3180499999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>0.115712</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -21377,8 +21726,11 @@
       <c r="L116">
         <v>2.31671</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>0.82062999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -21415,8 +21767,11 @@
       <c r="L117">
         <v>3.0358100000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>0.122742</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -21453,8 +21808,11 @@
       <c r="L118">
         <v>2.0699700000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>0.60310399999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -21491,8 +21849,11 @@
       <c r="L119">
         <v>1.7095</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>0.231268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -21529,8 +21890,11 @@
       <c r="L120">
         <v>1.67774</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>0.20433599999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -21567,8 +21931,11 @@
       <c r="L121">
         <v>2.9838200000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>1.4610399999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -21605,8 +21972,11 @@
       <c r="L122">
         <v>4.1216999999999997</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>2.47736</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -21643,8 +22013,11 @@
       <c r="L123">
         <v>8.8770799999999994</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>7.3449900000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -21681,8 +22054,11 @@
       <c r="L124">
         <v>2.83508</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>1.2709699999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -21719,8 +22095,11 @@
       <c r="L125">
         <v>19.343699999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>16.8431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -21757,8 +22136,11 @@
       <c r="L126">
         <v>6.1675800000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>4.0094700000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -21795,8 +22177,11 @@
       <c r="L127">
         <v>3.1681499999999998</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>0.10528800000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -21833,8 +22218,11 @@
       <c r="L128">
         <v>3.08772</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>1.55003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -21871,8 +22259,11 @@
       <c r="L129">
         <v>2.9885299999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>1.44407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -21909,8 +22300,11 @@
       <c r="L130">
         <v>1.7380500000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>0.25370599999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -21947,8 +22341,11 @@
       <c r="L131">
         <v>9.3874999999999993</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>7.3212099999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -21985,8 +22382,11 @@
       <c r="L132">
         <v>2.3379799999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <v>0.64007999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -22023,8 +22423,11 @@
       <c r="L133">
         <v>3.44374</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>1.8214399999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -22061,8 +22464,11 @@
       <c r="L134">
         <v>4.2175000000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>2.48183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -22099,8 +22505,11 @@
       <c r="L135">
         <v>5.1078200000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>3.3733900000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -22137,8 +22546,11 @@
       <c r="L136">
         <v>10.695600000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <v>8.6112900000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -22175,8 +22587,11 @@
       <c r="L137">
         <v>8.2076600000000006</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>6.0207899999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -22213,8 +22628,11 @@
       <c r="L138">
         <v>4.6393800000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>2.8200599999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -22251,8 +22669,11 @@
       <c r="L139">
         <v>24.298300000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>21.078700000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -22289,8 +22710,11 @@
       <c r="L140">
         <v>23.264500000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <v>20.108899999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -22327,8 +22751,11 @@
       <c r="L141">
         <v>3.3595100000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <v>1.4960899999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -22365,8 +22792,11 @@
       <c r="L142">
         <v>5.0315000000000003</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <v>3.2958500000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -22403,8 +22833,11 @@
       <c r="L143">
         <v>4.7852100000000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <v>3.0221900000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -22441,8 +22874,11 @@
       <c r="L144">
         <v>1.93319</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <v>0.36158400000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -22479,8 +22915,11 @@
       <c r="L145">
         <v>4.0133099999999997</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <v>2.2577199999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -22517,8 +22956,11 @@
       <c r="L146">
         <v>2.3414299999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <v>0.73754799999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -22555,8 +22997,11 @@
       <c r="L147">
         <v>19.235600000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <v>16.879300000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -22593,8 +23038,11 @@
       <c r="L148">
         <v>6.6599399999999997</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <v>4.6122899999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -22631,8 +23079,11 @@
       <c r="L149">
         <v>5.7073</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <v>3.8597899999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -22669,8 +23120,11 @@
       <c r="L150">
         <v>8.9768500000000007</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <v>6.8994200000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -22707,8 +23161,11 @@
       <c r="L151">
         <v>13.3606</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <v>10.867800000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -22745,8 +23202,11 @@
       <c r="L152">
         <v>2.2492000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <v>0.53034999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -22783,8 +23243,11 @@
       <c r="L153">
         <v>3.5232299999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <v>1.77644</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -22821,8 +23284,11 @@
       <c r="L154">
         <v>3.99038</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <v>2.2896200000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -22859,8 +23325,11 @@
       <c r="L155">
         <v>4.9405900000000003</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <v>3.21496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -22897,8 +23366,11 @@
       <c r="L156">
         <v>6.3319299999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <v>4.4958400000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -22935,8 +23407,11 @@
       <c r="L157">
         <v>14.3741</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>12.0222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -22973,8 +23448,11 @@
       <c r="L158">
         <v>19.484500000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <v>16.920400000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -23011,8 +23489,11 @@
       <c r="L159">
         <v>4.6041400000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <v>2.6985800000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -23049,8 +23530,11 @@
       <c r="L160">
         <v>2.4238499999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <v>0.84722600000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -23087,8 +23571,11 @@
       <c r="L161">
         <v>3.1610100000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <v>1.59205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -23125,8 +23612,11 @@
       <c r="L162">
         <v>6.6148199999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <v>4.8137499999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -23163,8 +23653,11 @@
       <c r="L163">
         <v>5.85487</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <v>4.0010199999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -23201,8 +23694,11 @@
       <c r="L164">
         <v>2.16147</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <v>0.56001400000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -23239,8 +23735,11 @@
       <c r="L165">
         <v>4.1164399999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <v>2.4762300000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -23277,8 +23776,11 @@
       <c r="L166">
         <v>4.56576</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <v>2.8021699999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -23315,8 +23817,11 @@
       <c r="L167">
         <v>5.1493399999999996</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <v>3.34206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -23353,8 +23858,11 @@
       <c r="L168">
         <v>4.25943</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <v>2.4946999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -23391,8 +23899,11 @@
       <c r="L169">
         <v>29.587399999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <v>26.157599999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -23429,8 +23940,11 @@
       <c r="L170">
         <v>6.0519800000000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <v>3.95356</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -23467,8 +23981,11 @@
       <c r="L171">
         <v>3.7387600000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <v>0.67781400000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -23505,8 +24022,11 @@
       <c r="L172">
         <v>2.0560900000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <v>0.56453799999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -23543,8 +24063,11 @@
       <c r="L173">
         <v>2.4132199999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <v>0.91166000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -23581,8 +24104,11 @@
       <c r="L174">
         <v>2.8227000000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <v>1.20767</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -23619,8 +24145,11 @@
       <c r="L175">
         <v>2.06657</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -23657,8 +24186,11 @@
       <c r="L176">
         <v>4.0359299999999996</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <v>2.4272900000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -23695,8 +24227,11 @@
       <c r="L177">
         <v>3.88619</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <v>2.2177600000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -23733,8 +24268,11 @@
       <c r="L178">
         <v>3.3156500000000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <v>1.67126</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -23771,8 +24309,11 @@
       <c r="L179">
         <v>4.6794700000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <v>2.9813800000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -23809,8 +24350,11 @@
       <c r="L180">
         <v>19.3706</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <v>16.8794</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -23847,8 +24391,11 @@
       <c r="L181">
         <v>3.0338099999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <v>1.21279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -23885,8 +24432,11 @@
       <c r="L182">
         <v>6.6486099999999997</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <v>4.8013300000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -23923,8 +24473,11 @@
       <c r="L183">
         <v>2.57016</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <v>0.96507500000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -23961,8 +24514,11 @@
       <c r="L184">
         <v>3.23624</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <v>0.29670400000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -23999,8 +24555,11 @@
       <c r="L185">
         <v>2.2289099999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <v>0.73495500000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -24037,8 +24596,11 @@
       <c r="L186">
         <v>3.9518900000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <v>2.3404600000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -24075,8 +24637,11 @@
       <c r="L187">
         <v>1.8925000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <v>0.360348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -24113,8 +24678,11 @@
       <c r="L188">
         <v>4.75197</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <v>3.1216699999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -24151,8 +24719,11 @@
       <c r="L189">
         <v>1.5580700000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <v>5.9001900000000003E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -24189,8 +24760,11 @@
       <c r="L190">
         <v>1.7926299999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <v>0.33071200000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -24227,8 +24801,11 @@
       <c r="L191">
         <v>19.244599999999998</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <v>16.794799999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -24265,8 +24842,11 @@
       <c r="L192">
         <v>5.2834099999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <v>3.3247800000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -24303,8 +24883,11 @@
       <c r="L193">
         <v>2.8450600000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <v>1.21529</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -24341,8 +24924,11 @@
       <c r="L194">
         <v>2.1722999999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <v>0.62919199999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -24379,8 +24965,11 @@
       <c r="L195">
         <v>2.16845</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <v>0.62401399999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -24417,8 +25006,11 @@
       <c r="L196">
         <v>3.0969699999999998</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <v>1.55338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -24455,8 +25047,11 @@
       <c r="L197">
         <v>2.6851600000000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <v>1.12985</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -24493,8 +25088,11 @@
       <c r="L198">
         <v>1.92852</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <v>0.43134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -24531,8 +25129,11 @@
       <c r="L199">
         <v>5.7403599999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <v>4.0098399999999996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -24569,8 +25170,11 @@
       <c r="L200">
         <v>2.6906500000000002</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <v>1.0740700000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -24607,8 +25211,11 @@
       <c r="L201">
         <v>2.3557199999999998</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <v>0.81956799999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -24645,8 +25252,11 @@
       <c r="L202">
         <v>17.353100000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <v>14.928800000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -24683,8 +25293,11 @@
       <c r="L203">
         <v>2.15788</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <v>0.41071000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -24721,8 +25334,11 @@
       <c r="L204">
         <v>3.0249299999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <v>1.43133</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -24759,8 +25375,11 @@
       <c r="L205">
         <v>1.7763599999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <v>0.25967600000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -24797,8 +25416,11 @@
       <c r="L206">
         <v>3.0802399999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <v>1.5364599999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -24835,8 +25457,11 @@
       <c r="L207">
         <v>1.8756200000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <v>0.38247799999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -24873,8 +25498,11 @@
       <c r="L208">
         <v>1.8431500000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <v>0.36925400000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -24911,8 +25539,11 @@
       <c r="L209">
         <v>2.6946500000000002</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <v>1.1849799999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -24949,8 +25580,11 @@
       <c r="L210">
         <v>1.56517</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <v>0.110166</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -24987,8 +25621,11 @@
       <c r="L211">
         <v>5.4619299999999997</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <v>3.7545199999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -25025,8 +25662,11 @@
       <c r="L212">
         <v>1.63771</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <v>9.6307699999999996E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -25063,8 +25703,11 @@
       <c r="L213">
         <v>17.693899999999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <v>15.3071</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -25101,8 +25744,11 @@
       <c r="L214">
         <v>507.85899999999998</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <v>438.23399999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -25139,8 +25785,11 @@
       <c r="L215">
         <v>28.508500000000002</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <v>18.809000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -25177,8 +25826,11 @@
       <c r="L216">
         <v>18.141100000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <v>15.572800000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -25215,8 +25867,11 @@
       <c r="L217">
         <v>18.160499999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <v>15.479100000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -25253,8 +25908,11 @@
       <c r="L218">
         <v>33.0398</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <v>30.8764</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -25291,8 +25949,11 @@
       <c r="L219">
         <v>9.4524600000000003</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <v>7.2401299999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -25329,8 +25990,11 @@
       <c r="L220">
         <v>17.4316</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <v>14.8025</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -25367,8 +26031,11 @@
       <c r="L221">
         <v>16.0259</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <v>13.467499999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -25405,8 +26072,11 @@
       <c r="L222">
         <v>15.9756</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <v>13.398300000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -25443,8 +26113,11 @@
       <c r="L223">
         <v>19.6388</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <v>16.921800000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -25481,8 +26154,11 @@
       <c r="L224">
         <v>17.626899999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <v>15.006600000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -25519,8 +26195,11 @@
       <c r="L225">
         <v>27.377300000000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <v>24.279599999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -25557,8 +26236,11 @@
       <c r="L226">
         <v>17.6342</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <v>15.0192</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -25595,8 +26277,11 @@
       <c r="L227">
         <v>17.616199999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <v>14.977600000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -25633,8 +26318,11 @@
       <c r="L228">
         <v>18.113600000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <v>15.434200000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -25671,8 +26359,11 @@
       <c r="L229">
         <v>9.3394200000000005</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <v>7.1168300000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -25709,8 +26400,11 @@
       <c r="L230">
         <v>39.2239</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <v>35.7483</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -25747,8 +26441,11 @@
       <c r="L231">
         <v>39.485900000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <v>35.981699999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -25785,8 +26482,11 @@
       <c r="L232">
         <v>18.227499999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <v>15.668900000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -25823,8 +26523,11 @@
       <c r="L233">
         <v>5.0555700000000003</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <v>3.08697</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -25861,8 +26564,11 @@
       <c r="L234">
         <v>1.69112</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <v>0.128416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -25899,8 +26605,11 @@
       <c r="L235">
         <v>1.51637</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <v>5.3638100000000001E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -25937,8 +26646,11 @@
       <c r="L236">
         <v>4.0604500000000003</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <v>2.4688300000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -25975,8 +26687,11 @@
       <c r="L237">
         <v>17.210999999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <v>14.875500000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -26013,8 +26728,11 @@
       <c r="L238">
         <v>2.5416699999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <v>0.73980000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -26051,8 +26769,11 @@
       <c r="L239">
         <v>2.9818699999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <v>1.3915900000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -26089,8 +26810,11 @@
       <c r="L240">
         <v>2.7887300000000002</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <v>1.20625</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -26127,8 +26851,11 @@
       <c r="L241">
         <v>1.70244</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <v>0.21110000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -26165,8 +26892,11 @@
       <c r="L242">
         <v>1.60355</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <v>0.142814</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -26203,8 +26933,11 @@
       <c r="L243">
         <v>3.3519100000000002</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <v>0.42304399999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -26241,8 +26974,11 @@
       <c r="L244">
         <v>3.8437999999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <v>2.1903899999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -26279,8 +27015,11 @@
       <c r="L245">
         <v>4.0588899999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <v>2.2017799999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -26317,8 +27056,11 @@
       <c r="L246">
         <v>3.1902499999999998</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <v>0.135186</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -26355,8 +27097,11 @@
       <c r="L247">
         <v>2.9484400000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <v>6.3286200000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -26393,8 +27138,11 @@
       <c r="L248">
         <v>17.216000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <v>14.791</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -26431,8 +27179,11 @@
       <c r="L249">
         <v>4.1710599999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <v>2.26749</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -26469,8 +27220,11 @@
       <c r="L250">
         <v>1.7353400000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <v>0.193158</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -26507,8 +27261,11 @@
       <c r="L251">
         <v>6.01546</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251">
+        <v>2.9839699999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -26545,8 +27302,11 @@
       <c r="L252">
         <v>1.68086</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252">
+        <v>0.19619700000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -26583,8 +27343,11 @@
       <c r="L253">
         <v>2.5482399999999998</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253">
+        <v>1.01877</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -26621,8 +27384,11 @@
       <c r="L254">
         <v>27.367699999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <v>26.0761</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -26659,8 +27425,11 @@
       <c r="L255">
         <v>3.0417999999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255">
+        <v>1.3483000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -26697,8 +27466,11 @@
       <c r="L256">
         <v>2.2839999999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256">
+        <v>0.65908599999999995</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -26735,8 +27507,11 @@
       <c r="L257">
         <v>2.3414799999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257">
+        <v>0.77438399999999996</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -26773,8 +27548,11 @@
       <c r="L258">
         <v>5.2843200000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258">
+        <v>3.5181200000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -26811,8 +27589,11 @@
       <c r="L259">
         <v>34.027900000000002</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259">
+        <v>31.168399999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -26849,8 +27630,11 @@
       <c r="L260">
         <v>3.9891999999999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260">
+        <v>1.8448599999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -26887,8 +27671,11 @@
       <c r="L261">
         <v>2.3677899999999998</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261">
+        <v>0.792404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -26925,8 +27712,11 @@
       <c r="L262">
         <v>2.1875300000000002</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262">
+        <v>0.64784799999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -26963,8 +27753,11 @@
       <c r="L263">
         <v>1.59413</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263">
+        <v>0.112752</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -27001,8 +27794,11 @@
       <c r="L264">
         <v>3.8048000000000002</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264">
+        <v>2.1696900000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -27039,8 +27835,11 @@
       <c r="L265">
         <v>2.8298399999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265">
+        <v>1.2924500000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -27077,8 +27876,11 @@
       <c r="L266">
         <v>2.50379</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266">
+        <v>0.97836800000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -27115,8 +27917,11 @@
       <c r="L267">
         <v>1.78525</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267">
+        <v>0.29018699999999997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -27153,8 +27958,11 @@
       <c r="L268">
         <v>2.78321</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268">
+        <v>1.22393</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -27191,8 +27999,11 @@
       <c r="L269">
         <v>4.5118200000000002</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269">
+        <v>2.8169599999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -27229,8 +28040,11 @@
       <c r="L270">
         <v>17.334399999999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270">
+        <v>14.873900000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -27267,8 +28081,11 @@
       <c r="L271">
         <v>5.2878600000000002</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271">
+        <v>1.75146</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -27305,8 +28122,11 @@
       <c r="L272">
         <v>2.5507499999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272">
+        <v>0.98299499999999995</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -27343,8 +28163,11 @@
       <c r="L273">
         <v>2.45262</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273">
+        <v>0.91062399999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -27381,8 +28204,11 @@
       <c r="L274">
         <v>2.1431</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274">
+        <v>0.63293299999999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -27419,8 +28245,11 @@
       <c r="L275">
         <v>2.9616099999999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275">
+        <v>6.8994E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -27457,8 +28286,11 @@
       <c r="L276">
         <v>3.7606799999999998</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276">
+        <v>0.80420000000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -27495,8 +28327,11 @@
       <c r="L277">
         <v>2.71766</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277">
+        <v>1.1654800000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -27533,8 +28368,11 @@
       <c r="L278">
         <v>2.56427</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278">
+        <v>0.99358500000000005</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -27571,8 +28409,11 @@
       <c r="L279">
         <v>3.2507999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279">
+        <v>1.64968</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -27609,8 +28450,11 @@
       <c r="L280">
         <v>2.3616799999999998</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280">
+        <v>0.77430200000000005</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -27647,8 +28491,11 @@
       <c r="L281">
         <v>17.246099999999998</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281">
+        <v>14.8088</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -27685,8 +28532,11 @@
       <c r="L282">
         <v>2.5647199999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282">
+        <v>0.72443199999999996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -27723,8 +28573,11 @@
       <c r="L283">
         <v>3.10873</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283">
+        <v>0.15452199999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -27761,8 +28614,11 @@
       <c r="L284">
         <v>2.1371000000000002</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284">
+        <v>0.63142600000000004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -27799,8 +28655,11 @@
       <c r="L285">
         <v>2.0860500000000002</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285">
+        <v>0.57103999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -27837,8 +28696,11 @@
       <c r="L286">
         <v>3.2239499999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286">
+        <v>0.299516</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -27875,8 +28737,11 @@
       <c r="L287">
         <v>1.9704699999999999</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287">
+        <v>0.49137900000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -27913,8 +28778,11 @@
       <c r="L288">
         <v>2.9801899999999999</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288">
+        <v>9.1259999999999994E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -27951,8 +28819,11 @@
       <c r="L289">
         <v>2.2856200000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289">
+        <v>0.78923299999999996</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -27989,8 +28860,11 @@
       <c r="L290">
         <v>3.9656500000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290">
+        <v>1.03884</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -28027,8 +28901,11 @@
       <c r="L291">
         <v>2.18018</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291">
+        <v>0.67424399999999995</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -28061,6 +28938,9 @@
       </c>
       <c r="L292" t="s">
         <v>301</v>
+      </c>
+      <c r="M292" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C50EA-972B-4C38-BD31-E4734E7DB1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFA0097-A5DA-45D4-9C47-929ACC49E5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>mesh0</t>
   </si>
@@ -948,6 +948,9 @@
   </si>
   <si>
     <t>Optimize buildEdge data structure</t>
+  </si>
+  <si>
+    <t>Avoid Store when invalid</t>
   </si>
 </sst>
 </file>
@@ -29497,10 +29500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N292"/>
+  <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N291"/>
+    <sheetView tabSelected="1" topLeftCell="J273" workbookViewId="0">
+      <selection activeCell="O293" sqref="O293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29518,9 +29521,10 @@
     <col min="12" max="12" width="28.85546875" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
     <col min="14" max="14" width="32.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29563,8 +29567,11 @@
       <c r="N1">
         <v>15.4398</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1">
+        <v>15.5718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -29607,8 +29614,11 @@
       <c r="N2">
         <v>14.2712</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>14.289300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -29651,8 +29661,11 @@
       <c r="N3">
         <v>13.6333</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>13.775600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -29695,8 +29708,11 @@
       <c r="N4">
         <v>0.53498400000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0.53251599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -29739,8 +29755,11 @@
       <c r="N5">
         <v>0.79560399999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0.78981800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -29783,8 +29802,11 @@
       <c r="N6">
         <v>0.45347799999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0.44909399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -29827,8 +29849,11 @@
       <c r="N7">
         <v>4.5268000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>4.6575999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29871,8 +29896,11 @@
       <c r="N8">
         <v>0.31730999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0.31963999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -29915,8 +29943,11 @@
       <c r="N9">
         <v>1.34212</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>1.3433299999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -29959,8 +29990,11 @@
       <c r="N10">
         <v>0.285078</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0.28066000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -30003,8 +30037,11 @@
       <c r="N11">
         <v>0.401756</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0.39807399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -30047,8 +30084,11 @@
       <c r="N12">
         <v>7.6546100000000006E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>7.2031899999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -30091,8 +30131,11 @@
       <c r="N13">
         <v>2.5206</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>2.4946899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -30135,8 +30178,11 @@
       <c r="N14">
         <v>24.055</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>24.2685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -30179,8 +30225,11 @@
       <c r="N15">
         <v>0.242344</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0.238348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -30223,8 +30272,11 @@
       <c r="N16">
         <v>0.37320199999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0.371778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -30267,8 +30319,11 @@
       <c r="N17">
         <v>0.34009</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0.33909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -30311,8 +30366,11 @@
       <c r="N18">
         <v>0.30277399999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0.29827799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -30355,8 +30413,11 @@
       <c r="N19">
         <v>0.47844399999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0.479159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -30399,8 +30460,11 @@
       <c r="N20">
         <v>1.49959</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>1.4821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -30443,8 +30507,11 @@
       <c r="N21">
         <v>6.1955999999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>6.0201999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -30487,8 +30554,11 @@
       <c r="N22">
         <v>3.0853999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>3.0764E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -30531,8 +30601,11 @@
       <c r="N23">
         <v>0.77614099999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0.77199700000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -30575,8 +30648,11 @@
       <c r="N24">
         <v>1.1556200000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>1.1542600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -30619,8 +30695,11 @@
       <c r="N25">
         <v>27.4834</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>27.743600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -30663,8 +30742,11 @@
       <c r="N26">
         <v>0.350134</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0.34861199999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -30707,8 +30789,11 @@
       <c r="N27">
         <v>0.77408200000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>0.77349699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -30751,8 +30836,11 @@
       <c r="N28">
         <v>8.85962E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>8.9976200000000006E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -30795,8 +30883,11 @@
       <c r="N29">
         <v>0.44570199999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0.4501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -30839,8 +30930,11 @@
       <c r="N30">
         <v>0.53459000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0.53727199999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -30883,8 +30977,11 @@
       <c r="N31">
         <v>0.26716699999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0.267708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -30927,8 +31024,11 @@
       <c r="N32">
         <v>0.94357599999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>0.94439200000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -30971,8 +31071,11 @@
       <c r="N33">
         <v>0.37707600000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>0.37641200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -31015,8 +31118,11 @@
       <c r="N34">
         <v>0.203287</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>0.20701600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -31059,8 +31165,11 @@
       <c r="N35">
         <v>1.43655</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>1.4430400000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -31103,8 +31212,11 @@
       <c r="N36">
         <v>13.665900000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>13.7668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -31147,8 +31259,11 @@
       <c r="N37">
         <v>1.11643</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>1.1157699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -31191,8 +31306,11 @@
       <c r="N38">
         <v>1.04915</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>1.04956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -31235,8 +31353,11 @@
       <c r="N39">
         <v>0.14677799999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>0.14945600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -31279,8 +31400,11 @@
       <c r="N40">
         <v>1.08186</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>1.0871299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -31323,8 +31447,11 @@
       <c r="N41">
         <v>0.48868200000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>0.48546400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -31367,8 +31494,11 @@
       <c r="N42">
         <v>0.69207300000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>0.69368700000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -31411,8 +31541,11 @@
       <c r="N43">
         <v>0.59553599999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>0.59923800000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -31455,8 +31588,11 @@
       <c r="N44">
         <v>0.61663999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>0.61909599999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -31499,8 +31635,11 @@
       <c r="N45">
         <v>0.11766</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>0.11777600000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -31543,8 +31682,11 @@
       <c r="N46">
         <v>0.73192000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>0.735232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -31587,8 +31729,11 @@
       <c r="N47">
         <v>15.4833</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>15.6175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -31631,8 +31776,11 @@
       <c r="N48">
         <v>0.17369399999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>0.17546400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -31675,8 +31823,11 @@
       <c r="N49">
         <v>0.88602700000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>0.89066800000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -31719,8 +31870,11 @@
       <c r="N50">
         <v>0.20765700000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>0.20811499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -31763,8 +31917,11 @@
       <c r="N51">
         <v>0.26594899999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>0.266517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -31807,8 +31964,11 @@
       <c r="N52">
         <v>1.5911999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>1.61456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -31851,8 +32011,11 @@
       <c r="N53">
         <v>0.90637800000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>0.91453600000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -31895,8 +32058,11 @@
       <c r="N54">
         <v>0.16189200000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>0.158662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -31939,8 +32105,11 @@
       <c r="N55">
         <v>0.71643800000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>0.71836299999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -31983,8 +32152,11 @@
       <c r="N56">
         <v>0.98343499999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>0.97289199999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -32027,8 +32199,11 @@
       <c r="N57">
         <v>0.56564000000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>0.561222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -32071,8 +32246,11 @@
       <c r="N58">
         <v>13.5465</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>13.637499999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -32115,8 +32293,11 @@
       <c r="N59">
         <v>0.132606</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>0.134488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -32159,8 +32340,11 @@
       <c r="N60">
         <v>0.215892</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>0.21736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -32203,8 +32387,11 @@
       <c r="N61">
         <v>0.19169800000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>0.18912499999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -32247,8 +32434,11 @@
       <c r="N62">
         <v>1.7056800000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>1.6971700000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -32291,8 +32481,11 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -32335,8 +32528,11 @@
       <c r="N64">
         <v>1.0432399999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>1.0523100000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -32379,8 +32575,11 @@
       <c r="N65">
         <v>2.6859700000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>2.7039599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -32423,8 +32622,11 @@
       <c r="N66">
         <v>6.2319100000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>6.2651599999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -32467,8 +32669,11 @@
       <c r="N67">
         <v>0.46028999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>0.46511000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -32511,8 +32716,11 @@
       <c r="N68">
         <v>0.47641600000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>0.47834199999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -32555,8 +32763,11 @@
       <c r="N69">
         <v>15.4335</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>15.5776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -32599,8 +32810,11 @@
       <c r="N70">
         <v>0.34015200000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>0.34203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -32643,8 +32857,11 @@
       <c r="N71">
         <v>8.1379999999999994E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>7.7473799999999995E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -32687,8 +32904,11 @@
       <c r="N72">
         <v>0.22048200000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>0.21732499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -32731,8 +32951,11 @@
       <c r="N73">
         <v>0.19276199999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>0.18890399999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -32775,8 +32998,11 @@
       <c r="N74">
         <v>0.107714</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>0.106978</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -32819,8 +33045,11 @@
       <c r="N75">
         <v>0.30678</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>0.30958400000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -32863,8 +33092,11 @@
       <c r="N76">
         <v>0.11107599999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>0.111066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -32907,8 +33139,11 @@
       <c r="N77">
         <v>1.07731</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>1.08277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -32951,8 +33186,11 @@
       <c r="N78">
         <v>0.34548200000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>0.35063800000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -32995,8 +33233,11 @@
       <c r="N79">
         <v>0.233178</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>0.23528199999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -33039,8 +33280,11 @@
       <c r="N80">
         <v>13.4986</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>13.6317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -33083,8 +33327,11 @@
       <c r="N81">
         <v>0.17819199999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>0.179174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -33127,8 +33374,11 @@
       <c r="N82">
         <v>0.33156999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>0.32923999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -33171,8 +33421,11 @@
       <c r="N83">
         <v>0.80304600000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>0.80803599999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -33215,8 +33468,11 @@
       <c r="N84">
         <v>2.7194799999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>2.7249599999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -33259,8 +33515,11 @@
       <c r="N85">
         <v>1.1167199999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>1.1208499999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -33303,8 +33562,11 @@
       <c r="N86">
         <v>1.00414</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>0.99102900000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -33347,8 +33609,11 @@
       <c r="N87">
         <v>5.8077900000000002E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>5.74799E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -33391,8 +33656,11 @@
       <c r="N88">
         <v>5.2443999999999998E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>5.1903999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -33435,8 +33703,11 @@
       <c r="N89">
         <v>0.134212</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>0.13561599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -33479,8 +33750,11 @@
       <c r="N90">
         <v>5.5590199999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>5.5176200000000002E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -33523,8 +33797,11 @@
       <c r="N91">
         <v>15.376099999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>15.527200000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -33567,8 +33844,11 @@
       <c r="N92">
         <v>0.28340900000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>0.290184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -33611,8 +33891,11 @@
       <c r="N93">
         <v>0.23896200000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>0.23418700000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -33655,8 +33938,11 @@
       <c r="N94">
         <v>0.16789299999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>0.16434599999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -33699,8 +33985,11 @@
       <c r="N95">
         <v>0.56601400000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>0.55445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -33743,8 +34032,11 @@
       <c r="N96" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -33787,8 +34079,11 @@
       <c r="N97">
         <v>0.105418</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>0.10248400000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -33831,8 +34126,11 @@
       <c r="N98">
         <v>0.17005600000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>0.16943</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -33875,8 +34173,11 @@
       <c r="N99">
         <v>0.135798</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>0.13259000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -33919,8 +34220,11 @@
       <c r="N100">
         <v>2.0916299999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>2.1073400000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -33963,8 +34267,11 @@
       <c r="N101">
         <v>0.24310399999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>0.244004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -34007,8 +34314,11 @@
       <c r="N102">
         <v>13.7073</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>13.834</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -34051,8 +34361,11 @@
       <c r="N103">
         <v>1.85389</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>1.8689800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -34095,8 +34408,11 @@
       <c r="N104">
         <v>0.58099500000000004</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>0.57970699999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -34139,8 +34455,11 @@
       <c r="N105">
         <v>0.54578400000000005</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>0.54503199999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -34183,8 +34502,11 @@
       <c r="N106">
         <v>0.130632</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>0.131354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -34227,8 +34549,11 @@
       <c r="N107">
         <v>0.53447199999999995</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>0.52868199999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -34271,8 +34596,11 @@
       <c r="N108">
         <v>5.4570199999999999E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>5.4944199999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -34315,8 +34643,11 @@
       <c r="N109">
         <v>6.1626E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>5.7702000000000003E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -34359,8 +34690,11 @@
       <c r="N110">
         <v>0.26800800000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>0.261957</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -34403,8 +34737,11 @@
       <c r="N111">
         <v>0.11409</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>0.110744</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -34447,8 +34784,11 @@
       <c r="N112">
         <v>5.0649800000000002E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>5.0781800000000002E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -34491,8 +34831,11 @@
       <c r="N113">
         <v>13.574400000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>13.6944</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -34535,8 +34878,11 @@
       <c r="N114">
         <v>13.777799999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>13.884399999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -34579,8 +34925,11 @@
       <c r="N115">
         <v>0.107332</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>0.108464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -34623,8 +34972,11 @@
       <c r="N116">
         <v>0.73741599999999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>0.73848400000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -34667,8 +35019,11 @@
       <c r="N117">
         <v>0.107408</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>0.10574799999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -34711,8 +35066,11 @@
       <c r="N118">
         <v>0.51155099999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>0.50424999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -34755,8 +35113,11 @@
       <c r="N119">
         <v>0.20968100000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>0.209284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -34799,8 +35160,11 @@
       <c r="N120">
         <v>0.181252</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>0.17826400000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -34843,8 +35207,11 @@
       <c r="N121">
         <v>1.3821300000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>1.3856599999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -34887,8 +35254,11 @@
       <c r="N122">
         <v>2.2656100000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <v>2.30036</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -34931,8 +35301,11 @@
       <c r="N123">
         <v>7.3017700000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <v>7.2673800000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -34975,8 +35348,11 @@
       <c r="N124">
         <v>1.19299</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <v>1.2098800000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -35019,8 +35395,11 @@
       <c r="N125">
         <v>15.5739</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>15.731299999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -35063,8 +35442,11 @@
       <c r="N126">
         <v>3.4939300000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <v>3.48102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -35107,8 +35489,11 @@
       <c r="N127">
         <v>9.3607999999999997E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <v>9.1044100000000003E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -35151,8 +35536,11 @@
       <c r="N128">
         <v>1.4521900000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>1.4577500000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -35195,8 +35583,11 @@
       <c r="N129">
         <v>1.37507</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <v>1.3904000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -35239,8 +35630,11 @@
       <c r="N130">
         <v>0.21403700000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <v>0.21692900000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -35283,8 +35677,11 @@
       <c r="N131">
         <v>6.6673099999999996</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <v>6.6919399999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -35327,8 +35724,11 @@
       <c r="N132">
         <v>0.55538399999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <v>0.56934399999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -35371,8 +35771,11 @@
       <c r="N133">
         <v>1.67597</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <v>1.6949000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -35415,8 +35818,11 @@
       <c r="N134">
         <v>2.2272699999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <v>2.2261099999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -35459,8 +35865,11 @@
       <c r="N135">
         <v>3.1464300000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <v>3.1496200000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -35503,8 +35912,11 @@
       <c r="N136">
         <v>7.7956099999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <v>7.8534600000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -35547,8 +35959,11 @@
       <c r="N137">
         <v>5.4433400000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <v>5.4809599999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -35591,8 +36006,11 @@
       <c r="N138">
         <v>2.5473699999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <v>2.5630999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -35635,8 +36053,11 @@
       <c r="N139">
         <v>19.287199999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <v>19.432200000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -35679,8 +36100,11 @@
       <c r="N140">
         <v>18.508500000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>18.566600000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -35723,8 +36147,11 @@
       <c r="N141">
         <v>1.36283</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <v>1.3770800000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -35767,8 +36194,11 @@
       <c r="N142">
         <v>2.9706999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>2.99064</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -35811,8 +36241,11 @@
       <c r="N143">
         <v>2.6986400000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <v>2.69001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -35855,8 +36288,11 @@
       <c r="N144">
         <v>0.32741999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <v>0.32470199999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -35899,8 +36335,11 @@
       <c r="N145">
         <v>1.93492</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <v>1.9606300000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -35943,8 +36382,11 @@
       <c r="N146">
         <v>0.64917499999999995</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <v>0.65442100000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -35987,8 +36429,11 @@
       <c r="N147">
         <v>15.4414</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <v>15.5815</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -36031,8 +36476,11 @@
       <c r="N148">
         <v>4.2475899999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <v>4.25366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -36075,8 +36523,11 @@
       <c r="N149">
         <v>3.5513400000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <v>3.5617299999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -36119,8 +36570,11 @@
       <c r="N150">
         <v>6.3324199999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <v>6.3349799999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -36163,8 +36617,11 @@
       <c r="N151">
         <v>9.9021699999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <v>9.9680700000000009</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -36207,8 +36664,11 @@
       <c r="N152">
         <v>0.495226</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <v>0.50619800000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -36251,8 +36711,11 @@
       <c r="N153">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <v>1.4712499999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -36295,8 +36758,11 @@
       <c r="N154">
         <v>2.1316799999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <v>2.1365500000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -36339,8 +36805,11 @@
       <c r="N155">
         <v>2.9822899999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <v>2.99932</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -36383,8 +36852,11 @@
       <c r="N156">
         <v>4.1834699999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>4.2275499999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -36427,8 +36899,11 @@
       <c r="N157">
         <v>11.237500000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <v>11.338900000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -36471,8 +36946,11 @@
       <c r="N158">
         <v>15.4819</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <v>15.619</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -36515,8 +36993,11 @@
       <c r="N159">
         <v>2.4914999999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <v>2.5288499999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -36559,8 +37040,11 @@
       <c r="N160">
         <v>0.77954000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <v>0.78138399999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -36603,8 +37087,11 @@
       <c r="N161">
         <v>1.46519</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161">
+        <v>1.4528099999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -36647,8 +37134,11 @@
       <c r="N162">
         <v>4.4945899999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162">
+        <v>4.5239000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -36691,8 +37181,11 @@
       <c r="N163">
         <v>3.61836</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163">
+        <v>3.67082</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -36735,8 +37228,11 @@
       <c r="N164">
         <v>0.51579799999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164">
+        <v>0.51858199999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -36779,8 +37275,11 @@
       <c r="N165">
         <v>2.2900299999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <v>2.2839100000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -36823,8 +37322,11 @@
       <c r="N166">
         <v>2.5358800000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <v>2.5479699999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -36867,8 +37369,11 @@
       <c r="N167">
         <v>3.0310299999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <v>3.02556</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -36911,8 +37416,11 @@
       <c r="N168">
         <v>2.22499</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168">
+        <v>2.2591800000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -36955,8 +37463,11 @@
       <c r="N169">
         <v>24.210100000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169">
+        <v>24.4178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -36999,8 +37510,11 @@
       <c r="N170">
         <v>3.7332299999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <v>3.7647400000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -37043,8 +37557,11 @@
       <c r="N171">
         <v>0.59284400000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <v>0.60429200000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -37087,8 +37604,11 @@
       <c r="N172">
         <v>0.50270000000000004</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172">
+        <v>0.51489200000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -37131,8 +37651,11 @@
       <c r="N173">
         <v>0.81100799999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173">
+        <v>0.81729399999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -37175,8 +37698,11 @@
       <c r="N174">
         <v>1.0552900000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174">
+        <v>1.0565199999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -37219,8 +37745,11 @@
       <c r="N175">
         <v>0.487516</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175">
+        <v>0.48621799999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -37263,8 +37792,11 @@
       <c r="N176">
         <v>2.2563900000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176">
+        <v>2.2756799999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -37307,8 +37839,11 @@
       <c r="N177">
         <v>2.0083500000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177">
+        <v>2.00156</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -37351,8 +37886,11 @@
       <c r="N178">
         <v>1.53376</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178">
+        <v>1.5299100000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -37395,8 +37933,11 @@
       <c r="N179">
         <v>2.78721</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179">
+        <v>2.8279100000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -37439,8 +37980,11 @@
       <c r="N180">
         <v>15.6662</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180">
+        <v>15.8886</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -37483,8 +38027,11 @@
       <c r="N181">
         <v>1.09789</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181">
+        <v>1.0918699999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -37527,8 +38074,11 @@
       <c r="N182">
         <v>4.4585100000000004</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182">
+        <v>4.49444</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -37571,8 +38121,11 @@
       <c r="N183">
         <v>0.89832400000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183">
+        <v>0.89994399999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -37615,8 +38168,11 @@
       <c r="N184">
         <v>0.26524399999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184">
+        <v>0.26260099999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -37659,8 +38215,11 @@
       <c r="N185">
         <v>0.66358799999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185">
+        <v>0.67093199999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -37703,8 +38262,11 @@
       <c r="N186">
         <v>2.15137</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186">
+        <v>2.1594000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -37747,8 +38309,11 @@
       <c r="N187">
         <v>0.310004</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187">
+        <v>0.31454799999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -37791,8 +38356,11 @@
       <c r="N188">
         <v>2.9549799999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188">
+        <v>2.98305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -37835,8 +38403,11 @@
       <c r="N189">
         <v>5.3386000000000003E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189">
+        <v>5.2528100000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -37879,8 +38450,11 @@
       <c r="N190">
         <v>0.28720000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190">
+        <v>0.28782999999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -37923,8 +38497,11 @@
       <c r="N191">
         <v>15.544</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191">
+        <v>15.724600000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -37967,8 +38544,11 @@
       <c r="N192">
         <v>3.11599</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192">
+        <v>3.1482999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -38011,8 +38591,11 @@
       <c r="N193">
         <v>1.0710500000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193">
+        <v>1.0888199999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -38055,8 +38638,11 @@
       <c r="N194">
         <v>0.54073599999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194">
+        <v>0.53598599999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -38099,8 +38685,11 @@
       <c r="N195">
         <v>0.54820000000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195">
+        <v>0.54852800000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -38143,8 +38732,11 @@
       <c r="N196">
         <v>1.4617</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196">
+        <v>1.4539500000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -38187,8 +38779,11 @@
       <c r="N197">
         <v>1.0346599999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197">
+        <v>1.0381899999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -38231,8 +38826,11 @@
       <c r="N198">
         <v>0.38901799999999997</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198">
+        <v>0.38761800000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -38275,8 +38873,11 @@
       <c r="N199">
         <v>3.7327900000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199">
+        <v>3.7329400000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -38319,8 +38920,11 @@
       <c r="N200">
         <v>0.98132399999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200">
+        <v>0.98834999999999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -38363,8 +38967,11 @@
       <c r="N201">
         <v>0.74457399999999996</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201">
+        <v>0.75776600000000005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -38407,8 +39014,11 @@
       <c r="N202">
         <v>13.847300000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202">
+        <v>13.987</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -38451,8 +39061,11 @@
       <c r="N203">
         <v>0.36372599999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203">
+        <v>0.36553400000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -38495,8 +39108,11 @@
       <c r="N204">
         <v>1.30853</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204">
+        <v>1.3205100000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -38539,8 +39155,11 @@
       <c r="N205">
         <v>0.22275300000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <v>0.21998000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -38583,8 +39202,11 @@
       <c r="N206">
         <v>1.4560999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <v>1.45943</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -38627,8 +39249,11 @@
       <c r="N207">
         <v>0.35073199999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <v>0.348806</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -38671,8 +39296,11 @@
       <c r="N208">
         <v>0.33435199999999998</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208">
+        <v>0.33061800000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -38715,8 +39343,11 @@
       <c r="N209">
         <v>1.1307499999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <v>1.1460999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -38759,8 +39390,11 @@
       <c r="N210">
         <v>9.9461900000000006E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <v>0.10091600000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -38803,8 +39437,11 @@
       <c r="N211">
         <v>3.47071</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211">
+        <v>3.4727399999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -38847,8 +39484,11 @@
       <c r="N212">
         <v>8.7629799999999994E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212">
+        <v>8.8483800000000001E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -38891,8 +39531,11 @@
       <c r="N213">
         <v>14.013400000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O213">
+        <v>14.1181</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -38935,8 +39578,11 @@
       <c r="N214">
         <v>383.65499999999997</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214">
+        <v>388.68599999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -38979,8 +39625,11 @@
       <c r="N215">
         <v>15.315899999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215">
+        <v>15.478</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -39023,8 +39672,11 @@
       <c r="N216">
         <v>14.122400000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216">
+        <v>14.207800000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -39067,8 +39719,11 @@
       <c r="N217">
         <v>14.139799999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217">
+        <v>14.2821</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -39111,8 +39766,11 @@
       <c r="N218">
         <v>27.884699999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218">
+        <v>28.094899999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -39155,8 +39813,11 @@
       <c r="N219">
         <v>6.5077199999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219">
+        <v>6.5498399999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -39199,8 +39860,11 @@
       <c r="N220">
         <v>13.615600000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220">
+        <v>13.7476</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -39243,8 +39907,11 @@
       <c r="N221">
         <v>12.257400000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221">
+        <v>12.385400000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -39287,8 +39954,11 @@
       <c r="N222">
         <v>12.23</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222">
+        <v>12.3264</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -39331,8 +40001,11 @@
       <c r="N223">
         <v>15.571300000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223">
+        <v>15.7356</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -39375,8 +40048,11 @@
       <c r="N224">
         <v>13.7196</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224">
+        <v>13.815899999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -39419,8 +40095,11 @@
       <c r="N225">
         <v>22.584</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225">
+        <v>22.739599999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -39463,8 +40142,11 @@
       <c r="N226">
         <v>13.6645</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226">
+        <v>13.8286</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -39507,8 +40189,11 @@
       <c r="N227">
         <v>13.694900000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227">
+        <v>13.8047</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -39551,8 +40236,11 @@
       <c r="N228">
         <v>14.1084</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228">
+        <v>14.2234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -39595,8 +40283,11 @@
       <c r="N229">
         <v>6.4279999999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229">
+        <v>6.4939299999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -39639,8 +40330,11 @@
       <c r="N230">
         <v>33.764099999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230">
+        <v>33.987900000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -39683,8 +40377,11 @@
       <c r="N231">
         <v>33.826300000000003</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231">
+        <v>34.060299999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -39727,8 +40424,11 @@
       <c r="N232">
         <v>14.162000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232">
+        <v>14.260300000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -39771,8 +40471,11 @@
       <c r="N233">
         <v>2.79054</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233">
+        <v>2.85467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -39815,8 +40518,11 @@
       <c r="N234">
         <v>0.114178</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234">
+        <v>0.11863600000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -39859,8 +40565,11 @@
       <c r="N235">
         <v>4.7688099999999997E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235">
+        <v>4.6517999999999997E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -39903,8 +40612,11 @@
       <c r="N236">
         <v>2.3112300000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236">
+        <v>2.3269099999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -39947,8 +40659,11 @@
       <c r="N237">
         <v>13.5632</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237">
+        <v>13.679600000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -39991,8 +40706,11 @@
       <c r="N238">
         <v>0.69702399999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238">
+        <v>0.69996599999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -40035,8 +40753,11 @@
       <c r="N239">
         <v>1.3035600000000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239">
+        <v>1.3097000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -40079,8 +40800,11 @@
       <c r="N240">
         <v>1.1269499999999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240">
+        <v>1.1489799999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -40123,8 +40847,11 @@
       <c r="N241">
         <v>0.18735099999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241">
+        <v>0.189609</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -40167,8 +40894,11 @@
       <c r="N242">
         <v>0.124128</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242">
+        <v>0.128084</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -40211,8 +40941,11 @@
       <c r="N243">
         <v>0.38757000000000003</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243">
+        <v>0.39388200000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -40255,8 +40988,11 @@
       <c r="N244">
         <v>1.98539</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244">
+        <v>1.9755199999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -40299,8 +41035,11 @@
       <c r="N245">
         <v>1.9716400000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245">
+        <v>1.9789600000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -40343,8 +41082,11 @@
       <c r="N246">
         <v>0.122312</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246">
+        <v>0.11978</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -40387,8 +41129,11 @@
       <c r="N247">
         <v>5.5296199999999997E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247">
+        <v>5.5226200000000003E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -40431,8 +41176,11 @@
       <c r="N248">
         <v>13.541399999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248">
+        <v>13.6579</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -40475,8 +41223,11 @@
       <c r="N249">
         <v>2.1157599999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249">
+        <v>2.1518999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -40519,8 +41270,11 @@
       <c r="N250">
         <v>0.16520199999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250">
+        <v>0.164524</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -40563,8 +41317,11 @@
       <c r="N251">
         <v>2.8762799999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251">
+        <v>2.84328</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -40607,8 +41364,11 @@
       <c r="N252">
         <v>0.173347</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252">
+        <v>0.16994600000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -40651,8 +41411,11 @@
       <c r="N253">
         <v>0.92344199999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253">
+        <v>0.92674400000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -40695,8 +41458,11 @@
       <c r="N254">
         <v>25.971499999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254">
+        <v>25.715800000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -40739,8 +41505,11 @@
       <c r="N255">
         <v>1.2084699999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255">
+        <v>1.2203900000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -40783,8 +41552,11 @@
       <c r="N256">
         <v>0.59828800000000004</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256">
+        <v>0.59589999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -40827,8 +41599,11 @@
       <c r="N257">
         <v>0.69210700000000003</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257">
+        <v>0.69149499999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -40871,8 +41646,11 @@
       <c r="N258">
         <v>3.2702</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258">
+        <v>3.24823</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -40915,8 +41693,11 @@
       <c r="N259">
         <v>28.4343</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259">
+        <v>28.765899999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -40959,8 +41740,11 @@
       <c r="N260">
         <v>1.67621</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260">
+        <v>1.67157</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -41003,8 +41787,11 @@
       <c r="N261">
         <v>0.71545199999999998</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261">
+        <v>0.71263799999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -41047,8 +41834,11 @@
       <c r="N262">
         <v>0.58153600000000005</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262">
+        <v>0.57955599999999996</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -41091,8 +41881,11 @@
       <c r="N263">
         <v>0.101842</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263">
+        <v>0.102756</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -41135,8 +41928,11 @@
       <c r="N264">
         <v>1.9836499999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264">
+        <v>2.0087700000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -41179,8 +41975,11 @@
       <c r="N265">
         <v>1.2707900000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265">
+        <v>1.28555</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -41223,8 +42022,11 @@
       <c r="N266">
         <v>0.91881900000000005</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266">
+        <v>0.914381</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -41267,8 +42069,11 @@
       <c r="N267">
         <v>0.25574799999999998</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267">
+        <v>0.253106</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -41311,8 +42116,11 @@
       <c r="N268">
         <v>1.1357900000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268">
+        <v>1.13585</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -41355,8 +42163,11 @@
       <c r="N269">
         <v>2.6115400000000002</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269">
+        <v>2.6193200000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -41399,8 +42210,11 @@
       <c r="N270">
         <v>13.6675</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270">
+        <v>13.762700000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -41443,8 +42257,11 @@
       <c r="N271">
         <v>1.5402</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271">
+        <v>1.55148</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -41487,8 +42304,11 @@
       <c r="N272">
         <v>0.92239000000000004</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272">
+        <v>0.91697600000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -41531,8 +42351,11 @@
       <c r="N273">
         <v>0.83800600000000003</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273">
+        <v>0.83366300000000004</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -41575,8 +42398,11 @@
       <c r="N274">
         <v>0.58828499999999995</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274">
+        <v>0.59801599999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -41619,8 +42445,11 @@
       <c r="N275">
         <v>5.7671899999999998E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275">
+        <v>5.9339999999999997E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -41663,8 +42492,11 @@
       <c r="N276">
         <v>0.72911899999999996</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276">
+        <v>0.72207900000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -41707,8 +42539,11 @@
       <c r="N277">
         <v>1.0476399999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277">
+        <v>1.0327999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -41751,8 +42586,11 @@
       <c r="N278">
         <v>0.93048399999999998</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278">
+        <v>0.94028400000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -41795,8 +42633,11 @@
       <c r="N279">
         <v>1.5328999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279">
+        <v>1.5239799999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -41839,8 +42680,11 @@
       <c r="N280">
         <v>0.69780200000000003</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280">
+        <v>0.69358500000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -41883,8 +42727,11 @@
       <c r="N281">
         <v>13.5503</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281">
+        <v>13.686999999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -41927,8 +42774,11 @@
       <c r="N282">
         <v>0.64571400000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282">
+        <v>0.64471199999999995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -41971,8 +42821,11 @@
       <c r="N283">
         <v>0.13867399999999999</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283">
+        <v>0.13492000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -42015,8 +42868,11 @@
       <c r="N284">
         <v>0.56059599999999998</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284">
+        <v>0.56060699999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -42059,8 +42915,11 @@
       <c r="N285">
         <v>0.52081599999999995</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285">
+        <v>0.52249699999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -42103,8 +42962,11 @@
       <c r="N286">
         <v>0.27347300000000002</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286">
+        <v>0.272623</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -42147,8 +43009,11 @@
       <c r="N287">
         <v>0.464032</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287">
+        <v>0.460094</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -42191,8 +43056,11 @@
       <c r="N288">
         <v>8.2464200000000001E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288">
+        <v>8.0376100000000006E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -42235,8 +43103,11 @@
       <c r="N289">
         <v>0.73545000000000005</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289">
+        <v>0.73850300000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -42279,8 +43150,11 @@
       <c r="N290">
         <v>1.0185599999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290">
+        <v>1.0066200000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -42323,8 +43197,11 @@
       <c r="N291">
         <v>0.62238499999999997</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291">
+        <v>0.62310399999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -42363,6 +43240,9 @@
       </c>
       <c r="N292" t="s">
         <v>303</v>
+      </c>
+      <c r="O292" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -54622,7 +55502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EE2C5E-70FF-4F3A-85CC-4A11B0D0C8F6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFA0097-A5DA-45D4-9C47-929ACC49E5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED413622-98BA-4A21-9D1B-ED87939ED674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-2505" yWindow="840" windowWidth="28095" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29502,8 +29502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J273" workbookViewId="0">
-      <selection activeCell="O293" sqref="O293"/>
+    <sheetView tabSelected="1" topLeftCell="J267" workbookViewId="0">
+      <selection activeCell="O291" sqref="O291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C50EA-972B-4C38-BD31-E4734E7DB1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58659D2-B3B3-45DB-A77C-9CA9BC490F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>mesh0</t>
   </si>
@@ -948,6 +948,9 @@
   </si>
   <si>
     <t>Optimize buildEdge data structure</t>
+  </si>
+  <si>
+    <t>Customized Face List</t>
   </si>
 </sst>
 </file>
@@ -29497,10 +29500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N292"/>
+  <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N291"/>
+    <sheetView tabSelected="1" topLeftCell="G283" workbookViewId="0">
+      <selection activeCell="O293" sqref="O293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29517,10 +29520,11 @@
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="28.85546875" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29563,8 +29567,11 @@
       <c r="N1">
         <v>15.4398</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1">
+        <v>13.876099999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -29607,8 +29614,11 @@
       <c r="N2">
         <v>14.2712</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>12.868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -29651,8 +29661,11 @@
       <c r="N3">
         <v>13.6333</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>12.3248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -29695,8 +29708,11 @@
       <c r="N4">
         <v>0.53498400000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0.52122800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -29739,8 +29755,11 @@
       <c r="N5">
         <v>0.79560399999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0.74739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -29783,8 +29802,11 @@
       <c r="N6">
         <v>0.45347799999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0.41814000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -29827,8 +29849,11 @@
       <c r="N7">
         <v>4.5268000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>4.6056E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29871,8 +29896,11 @@
       <c r="N8">
         <v>0.31730999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0.29919000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -29915,8 +29943,11 @@
       <c r="N9">
         <v>1.34212</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>1.22804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -29959,8 +29990,11 @@
       <c r="N10">
         <v>0.285078</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0.26332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -30003,8 +30037,11 @@
       <c r="N11">
         <v>0.401756</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0.37726999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -30047,8 +30084,11 @@
       <c r="N12">
         <v>7.6546100000000006E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>6.9442100000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -30091,8 +30131,11 @@
       <c r="N13">
         <v>2.5206</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>3.0199799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -30135,8 +30178,11 @@
       <c r="N14">
         <v>24.055</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>21.510999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -30179,8 +30225,11 @@
       <c r="N15">
         <v>0.242344</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0.23832400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -30223,8 +30272,11 @@
       <c r="N16">
         <v>0.37320199999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0.35272199999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -30267,8 +30319,11 @@
       <c r="N17">
         <v>0.34009</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0.31260599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -30311,8 +30366,11 @@
       <c r="N18">
         <v>0.30277399999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0.27892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -30355,8 +30413,11 @@
       <c r="N19">
         <v>0.47844399999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0.44085200000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -30399,8 +30460,11 @@
       <c r="N20">
         <v>1.49959</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>1.36486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -30443,8 +30507,11 @@
       <c r="N21">
         <v>6.1955999999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>5.8852000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -30487,8 +30554,11 @@
       <c r="N22">
         <v>3.0853999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>2.9420000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -30531,8 +30601,11 @@
       <c r="N23">
         <v>0.77614099999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0.723912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -30575,8 +30648,11 @@
       <c r="N24">
         <v>1.1556200000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>1.0598700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -30619,8 +30695,11 @@
       <c r="N25">
         <v>27.4834</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>24.981400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -30663,8 +30742,11 @@
       <c r="N26">
         <v>0.350134</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0.33716400000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -30707,8 +30789,11 @@
       <c r="N27">
         <v>0.77408200000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>0.75381600000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -30751,8 +30836,11 @@
       <c r="N28">
         <v>8.85962E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>9.0819999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -30795,8 +30883,11 @@
       <c r="N29">
         <v>0.44570199999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0.410132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -30839,8 +30930,11 @@
       <c r="N30">
         <v>0.53459000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0.49485600000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -30883,8 +30977,11 @@
       <c r="N31">
         <v>0.26716699999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0.33566000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -30927,8 +31024,11 @@
       <c r="N32">
         <v>0.94357599999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>0.86531499999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -30971,8 +31071,11 @@
       <c r="N33">
         <v>0.37707600000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>0.35054600000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -31015,8 +31118,11 @@
       <c r="N34">
         <v>0.203287</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>0.18883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -31059,8 +31165,11 @@
       <c r="N35">
         <v>1.43655</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>1.2817799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -31103,8 +31212,11 @@
       <c r="N36">
         <v>13.665900000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>12.419600000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -31147,8 +31259,11 @@
       <c r="N37">
         <v>1.11643</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>1.0431900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -31191,8 +31306,11 @@
       <c r="N38">
         <v>1.04915</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>0.97958000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -31235,8 +31353,11 @@
       <c r="N39">
         <v>0.14677799999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>0.13858599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -31279,8 +31400,11 @@
       <c r="N40">
         <v>1.08186</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>1.0052099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -31323,8 +31447,11 @@
       <c r="N41">
         <v>0.48868200000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>0.44911800000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -31367,8 +31494,11 @@
       <c r="N42">
         <v>0.69207300000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>0.63450399999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -31411,8 +31541,11 @@
       <c r="N43">
         <v>0.59553599999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>0.55200800000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -31455,8 +31588,11 @@
       <c r="N44">
         <v>0.61663999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>0.58008800000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -31499,8 +31635,11 @@
       <c r="N45">
         <v>0.11766</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>0.109916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -31543,8 +31682,11 @@
       <c r="N46">
         <v>0.73192000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>0.67754999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -31587,8 +31729,11 @@
       <c r="N47">
         <v>15.4833</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>14.024699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -31631,8 +31776,11 @@
       <c r="N48">
         <v>0.17369399999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>0.18007000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -31675,8 +31823,11 @@
       <c r="N49">
         <v>0.88602700000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>0.82930999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -31719,8 +31870,11 @@
       <c r="N50">
         <v>0.20765700000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>0.19154399999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -31763,8 +31917,11 @@
       <c r="N51">
         <v>0.26594899999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>0.25369999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -31807,8 +31964,11 @@
       <c r="N52">
         <v>1.5911999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>1.4693400000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -31851,8 +32011,11 @@
       <c r="N53">
         <v>0.90637800000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>0.83572000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -31895,8 +32058,11 @@
       <c r="N54">
         <v>0.16189200000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>0.149868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -31939,8 +32105,11 @@
       <c r="N55">
         <v>0.71643800000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>0.69219200000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -31983,8 +32152,11 @@
       <c r="N56">
         <v>0.98343499999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>0.90687499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -32027,8 +32199,11 @@
       <c r="N57">
         <v>0.56564000000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>0.52852600000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -32071,8 +32246,11 @@
       <c r="N58">
         <v>13.5465</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>12.2249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -32115,8 +32293,11 @@
       <c r="N59">
         <v>0.132606</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>0.13419400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -32159,8 +32340,11 @@
       <c r="N60">
         <v>0.215892</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>0.21416399999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -32203,8 +32387,11 @@
       <c r="N61">
         <v>0.19169800000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>0.17844199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -32247,8 +32434,11 @@
       <c r="N62">
         <v>1.7056800000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>1.5982700000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -32291,8 +32481,11 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -32335,8 +32528,11 @@
       <c r="N64">
         <v>1.0432399999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>0.97238400000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -32379,8 +32575,11 @@
       <c r="N65">
         <v>2.6859700000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>2.4820199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -32423,8 +32622,11 @@
       <c r="N66">
         <v>6.2319100000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>5.6948600000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -32467,8 +32669,11 @@
       <c r="N67">
         <v>0.46028999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>0.43070399999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -32511,8 +32716,11 @@
       <c r="N68">
         <v>0.47641600000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>0.44252000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -32555,8 +32763,11 @@
       <c r="N69">
         <v>15.4335</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>14.063000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -32599,8 +32810,11 @@
       <c r="N70">
         <v>0.34015200000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>0.32473400000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -32643,8 +32857,11 @@
       <c r="N71">
         <v>8.1379999999999994E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>7.5651899999999994E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -32687,8 +32904,11 @@
       <c r="N72">
         <v>0.22048200000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>0.21074999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -32731,8 +32951,11 @@
       <c r="N73">
         <v>0.19276199999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>0.18499599999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -32775,8 +32998,11 @@
       <c r="N74">
         <v>0.107714</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>0.10051400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -32819,8 +33045,11 @@
       <c r="N75">
         <v>0.30678</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>0.29346800000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -32863,8 +33092,11 @@
       <c r="N76">
         <v>0.11107599999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>0.10758</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -32907,8 +33139,11 @@
       <c r="N77">
         <v>1.07731</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>0.99120799999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -32951,8 +33186,11 @@
       <c r="N78">
         <v>0.34548200000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>0.32199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -32995,8 +33233,11 @@
       <c r="N79">
         <v>0.233178</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>0.2185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -33039,8 +33280,11 @@
       <c r="N80">
         <v>13.4986</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>12.404199999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -33083,8 +33327,11 @@
       <c r="N81">
         <v>0.17819199999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>0.173594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -33127,8 +33374,11 @@
       <c r="N82">
         <v>0.33156999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>0.31773800000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -33171,8 +33421,11 @@
       <c r="N83">
         <v>0.80304600000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>0.746286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -33215,8 +33468,11 @@
       <c r="N84">
         <v>2.7194799999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>2.5012500000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -33259,8 +33515,11 @@
       <c r="N85">
         <v>1.1167199999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>1.04558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -33303,8 +33562,11 @@
       <c r="N86">
         <v>1.00414</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>0.88053400000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -33347,8 +33609,11 @@
       <c r="N87">
         <v>5.8077900000000002E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>5.3029899999999998E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -33391,8 +33656,11 @@
       <c r="N88">
         <v>5.2443999999999998E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>4.9032100000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -33435,8 +33703,11 @@
       <c r="N89">
         <v>0.134212</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>0.127166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -33479,8 +33750,11 @@
       <c r="N90">
         <v>5.5590199999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>5.2711899999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -33523,8 +33797,11 @@
       <c r="N91">
         <v>15.376099999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>13.9694</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -33567,8 +33844,11 @@
       <c r="N92">
         <v>0.28340900000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>0.27334599999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -33611,8 +33891,11 @@
       <c r="N93">
         <v>0.23896200000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>0.22880600000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -33655,8 +33938,11 @@
       <c r="N94">
         <v>0.16789299999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>0.16092600000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -33699,8 +33985,11 @@
       <c r="N95">
         <v>0.56601400000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>0.43972600000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -33743,8 +34032,11 @@
       <c r="N96" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -33787,8 +34079,11 @@
       <c r="N97">
         <v>0.105418</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>0.101344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -33831,8 +34126,11 @@
       <c r="N98">
         <v>0.17005600000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>0.16320799999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -33875,8 +34173,11 @@
       <c r="N99">
         <v>0.135798</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>0.12817999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -33919,8 +34220,11 @@
       <c r="N100">
         <v>2.0916299999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>1.92184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -33963,8 +34267,11 @@
       <c r="N101">
         <v>0.24310399999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>0.22658600000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -34007,8 +34314,11 @@
       <c r="N102">
         <v>13.7073</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>12.426500000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -34051,8 +34361,11 @@
       <c r="N103">
         <v>1.85389</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>1.7175800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -34095,8 +34408,11 @@
       <c r="N104">
         <v>0.58099500000000004</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>0.53626799999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -34139,8 +34455,11 @@
       <c r="N105">
         <v>0.54578400000000005</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>0.50555799999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -34183,8 +34502,11 @@
       <c r="N106">
         <v>0.130632</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>0.13137199999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -34227,8 +34549,11 @@
       <c r="N107">
         <v>0.53447199999999995</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>0.48840800000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -34271,8 +34596,11 @@
       <c r="N108">
         <v>5.4570199999999999E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>5.2901900000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -34315,8 +34643,11 @@
       <c r="N109">
         <v>6.1626E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>5.7050099999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -34359,8 +34690,11 @@
       <c r="N110">
         <v>0.26800800000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>0.24846799999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -34403,8 +34737,11 @@
       <c r="N111">
         <v>0.11409</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>0.106946</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -34447,8 +34784,11 @@
       <c r="N112">
         <v>5.0649800000000002E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>4.9195999999999997E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -34491,8 +34831,11 @@
       <c r="N113">
         <v>13.574400000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>12.247999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -34535,8 +34878,11 @@
       <c r="N114">
         <v>13.777799999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>12.4908</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -34579,8 +34925,11 @@
       <c r="N115">
         <v>0.107332</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>0.108552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -34623,8 +34972,11 @@
       <c r="N116">
         <v>0.73741599999999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>0.69500200000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -34667,8 +35019,11 @@
       <c r="N117">
         <v>0.107408</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>0.106282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -34711,8 +35066,11 @@
       <c r="N118">
         <v>0.51155099999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>0.46706999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -34755,8 +35113,11 @@
       <c r="N119">
         <v>0.20968100000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>0.223582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -34799,8 +35160,11 @@
       <c r="N120">
         <v>0.181252</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>0.167106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -34843,8 +35207,11 @@
       <c r="N121">
         <v>1.3821300000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>1.2547299999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -34887,8 +35254,11 @@
       <c r="N122">
         <v>2.2656100000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <v>2.07931</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -34931,8 +35301,11 @@
       <c r="N123">
         <v>7.3017700000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <v>6.7823700000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -34975,8 +35348,11 @@
       <c r="N124">
         <v>1.19299</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <v>1.0939300000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -35019,8 +35395,11 @@
       <c r="N125">
         <v>15.5739</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>14.102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -35063,8 +35442,11 @@
       <c r="N126">
         <v>3.4939300000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <v>3.2933400000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -35107,8 +35489,11 @@
       <c r="N127">
         <v>9.3607999999999997E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <v>9.2964000000000005E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -35151,8 +35536,11 @@
       <c r="N128">
         <v>1.4521900000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>1.33087</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -35195,8 +35583,11 @@
       <c r="N129">
         <v>1.37507</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <v>1.2424999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -35239,8 +35630,11 @@
       <c r="N130">
         <v>0.21403700000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <v>0.19984199999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -35283,8 +35677,11 @@
       <c r="N131">
         <v>6.6673099999999996</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <v>6.0960400000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -35327,8 +35724,11 @@
       <c r="N132">
         <v>0.55538399999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <v>0.53234199999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -35371,8 +35771,11 @@
       <c r="N133">
         <v>1.67597</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <v>1.5354399999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -35415,8 +35818,11 @@
       <c r="N134">
         <v>2.2272699999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <v>2.0549300000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -35459,8 +35865,11 @@
       <c r="N135">
         <v>3.1464300000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <v>2.9029099999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -35503,8 +35912,11 @@
       <c r="N136">
         <v>7.7956099999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <v>7.0724600000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -35547,8 +35959,11 @@
       <c r="N137">
         <v>5.4433400000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <v>5.0257199999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -35591,8 +36006,11 @@
       <c r="N138">
         <v>2.5473699999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <v>2.3527499999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -35635,8 +36053,11 @@
       <c r="N139">
         <v>19.287199999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <v>17.605499999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -35679,8 +36100,11 @@
       <c r="N140">
         <v>18.508500000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>17.006499999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -35723,8 +36147,11 @@
       <c r="N141">
         <v>1.36283</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <v>1.2553700000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -35767,8 +36194,11 @@
       <c r="N142">
         <v>2.9706999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>2.7590699999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -35811,8 +36241,11 @@
       <c r="N143">
         <v>2.6986400000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <v>2.4819300000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -35855,8 +36288,11 @@
       <c r="N144">
         <v>0.32741999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <v>0.30197200000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -35899,8 +36335,11 @@
       <c r="N145">
         <v>1.93492</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <v>2.2483499999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -35943,8 +36382,11 @@
       <c r="N146">
         <v>0.64917499999999995</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <v>0.59743199999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -35987,8 +36429,11 @@
       <c r="N147">
         <v>15.4414</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <v>14.049799999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -36031,8 +36476,11 @@
       <c r="N148">
         <v>4.2475899999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <v>3.9306000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -36075,8 +36523,11 @@
       <c r="N149">
         <v>3.5513400000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <v>3.2639300000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -36119,8 +36570,11 @@
       <c r="N150">
         <v>6.3324199999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <v>5.8413899999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -36163,8 +36617,11 @@
       <c r="N151">
         <v>9.9021699999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <v>9.04786</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -36207,8 +36664,11 @@
       <c r="N152">
         <v>0.495226</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <v>0.45798</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -36251,8 +36711,11 @@
       <c r="N153">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <v>1.4278900000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -36295,8 +36758,11 @@
       <c r="N154">
         <v>2.1316799999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <v>1.95828</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -36339,8 +36805,11 @@
       <c r="N155">
         <v>2.9822899999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <v>2.7687400000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -36383,8 +36852,11 @@
       <c r="N156">
         <v>4.1834699999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>3.84477</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -36427,8 +36899,11 @@
       <c r="N157">
         <v>11.237500000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <v>10.3461</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -36471,8 +36946,11 @@
       <c r="N158">
         <v>15.4819</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <v>14.115600000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -36515,8 +36993,11 @@
       <c r="N159">
         <v>2.4914999999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <v>2.3236300000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -36559,8 +37040,11 @@
       <c r="N160">
         <v>0.77954000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <v>0.71516400000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -36603,8 +37087,11 @@
       <c r="N161">
         <v>1.46519</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161">
+        <v>1.3506199999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -36647,8 +37134,11 @@
       <c r="N162">
         <v>4.4945899999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162">
+        <v>4.1378500000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -36691,8 +37181,11 @@
       <c r="N163">
         <v>3.61836</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163">
+        <v>3.3396499999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -36735,8 +37228,11 @@
       <c r="N164">
         <v>0.51579799999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164">
+        <v>0.47976400000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -36779,8 +37275,11 @@
       <c r="N165">
         <v>2.2900299999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <v>2.1157499999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -36823,8 +37322,11 @@
       <c r="N166">
         <v>2.5358800000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <v>2.3347799999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -36867,8 +37369,11 @@
       <c r="N167">
         <v>3.0310299999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <v>2.79691</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -36911,8 +37416,11 @@
       <c r="N168">
         <v>2.22499</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168">
+        <v>2.0634600000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -36955,8 +37463,11 @@
       <c r="N169">
         <v>24.210100000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169">
+        <v>21.6585</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -36999,8 +37510,11 @@
       <c r="N170">
         <v>3.7332299999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <v>3.4471500000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -37043,8 +37557,11 @@
       <c r="N171">
         <v>0.59284400000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <v>0.56589999999999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -37087,8 +37604,11 @@
       <c r="N172">
         <v>0.50270000000000004</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172">
+        <v>0.47023399999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -37131,8 +37651,11 @@
       <c r="N173">
         <v>0.81100799999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173">
+        <v>0.74380800000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -37175,8 +37698,11 @@
       <c r="N174">
         <v>1.0552900000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174">
+        <v>1.04765</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -37219,8 +37745,11 @@
       <c r="N175">
         <v>0.487516</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175">
+        <v>0.454538</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -37263,8 +37792,11 @@
       <c r="N176">
         <v>2.2563900000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176">
+        <v>2.0946899999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -37307,8 +37839,11 @@
       <c r="N177">
         <v>2.0083500000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177">
+        <v>1.84354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -37351,8 +37886,11 @@
       <c r="N178">
         <v>1.53376</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178">
+        <v>1.4044399999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -37395,8 +37933,11 @@
       <c r="N179">
         <v>2.78721</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179">
+        <v>2.5284900000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -37439,8 +37980,11 @@
       <c r="N180">
         <v>15.6662</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180">
+        <v>14.122400000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -37483,8 +38027,11 @@
       <c r="N181">
         <v>1.09789</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181">
+        <v>1.0304</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -37527,8 +38074,11 @@
       <c r="N182">
         <v>4.4585100000000004</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182">
+        <v>4.09354</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -37571,8 +38121,11 @@
       <c r="N183">
         <v>0.89832400000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183">
+        <v>0.82743999999999995</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -37615,8 +38168,11 @@
       <c r="N184">
         <v>0.26524399999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184">
+        <v>0.25467800000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -37659,8 +38215,11 @@
       <c r="N185">
         <v>0.66358799999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185">
+        <v>0.617448</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -37703,8 +38262,11 @@
       <c r="N186">
         <v>2.15137</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186">
+        <v>1.9932399999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -37747,8 +38309,11 @@
       <c r="N187">
         <v>0.310004</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187">
+        <v>0.293072</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -37791,8 +38356,11 @@
       <c r="N188">
         <v>2.9549799999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188">
+        <v>2.71793</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -37835,8 +38403,11 @@
       <c r="N189">
         <v>5.3386000000000003E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189">
+        <v>4.9336100000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -37879,8 +38450,11 @@
       <c r="N190">
         <v>0.28720000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190">
+        <v>0.26786599999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -37923,8 +38497,11 @@
       <c r="N191">
         <v>15.544</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191">
+        <v>14.0105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -37967,8 +38544,11 @@
       <c r="N192">
         <v>3.11599</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192">
+        <v>2.8814700000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -38011,8 +38591,11 @@
       <c r="N193">
         <v>1.0710500000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193">
+        <v>1.0015700000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -38055,8 +38638,11 @@
       <c r="N194">
         <v>0.54073599999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194">
+        <v>0.49092799999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -38099,8 +38685,11 @@
       <c r="N195">
         <v>0.54820000000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195">
+        <v>0.54190400000000005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -38143,8 +38732,11 @@
       <c r="N196">
         <v>1.4617</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196">
+        <v>1.3410899999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -38187,8 +38779,11 @@
       <c r="N197">
         <v>1.0346599999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197">
+        <v>0.95962099999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -38231,8 +38826,11 @@
       <c r="N198">
         <v>0.38901799999999997</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198">
+        <v>0.35820000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -38275,8 +38873,11 @@
       <c r="N199">
         <v>3.7327900000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199">
+        <v>3.42971</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -38319,8 +38920,11 @@
       <c r="N200">
         <v>0.98132399999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200">
+        <v>0.89960899999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -38363,8 +38967,11 @@
       <c r="N201">
         <v>0.74457399999999996</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201">
+        <v>0.68192600000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -38407,8 +39014,11 @@
       <c r="N202">
         <v>13.847300000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202">
+        <v>12.479100000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -38451,8 +39061,11 @@
       <c r="N203">
         <v>0.36372599999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203">
+        <v>0.35122399999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -38495,8 +39108,11 @@
       <c r="N204">
         <v>1.30853</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204">
+        <v>1.20577</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -38539,8 +39155,11 @@
       <c r="N205">
         <v>0.22275300000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <v>0.20741200000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -38583,8 +39202,11 @@
       <c r="N206">
         <v>1.4560999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <v>1.3281799999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -38627,8 +39249,11 @@
       <c r="N207">
         <v>0.35073199999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <v>0.32007600000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -38671,8 +39296,11 @@
       <c r="N208">
         <v>0.33435199999999998</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208">
+        <v>0.302458</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -38715,8 +39343,11 @@
       <c r="N209">
         <v>1.1307499999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <v>1.02668</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -38759,8 +39390,11 @@
       <c r="N210">
         <v>9.9461900000000006E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <v>9.1976199999999994E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -38803,8 +39437,11 @@
       <c r="N211">
         <v>3.47071</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211">
+        <v>3.2234099999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -38847,8 +39484,11 @@
       <c r="N212">
         <v>8.7629799999999994E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212">
+        <v>8.0932000000000004E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -38891,8 +39531,11 @@
       <c r="N213">
         <v>14.013400000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O213">
+        <v>12.6615</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -38935,8 +39578,11 @@
       <c r="N214">
         <v>383.65499999999997</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214">
+        <v>397.553</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -38979,8 +39625,11 @@
       <c r="N215">
         <v>15.315899999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215">
+        <v>13.9443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -39023,8 +39672,11 @@
       <c r="N216">
         <v>14.122400000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216">
+        <v>12.649800000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -39067,8 +39719,11 @@
       <c r="N217">
         <v>14.139799999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217">
+        <v>12.700699999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -39111,8 +39766,11 @@
       <c r="N218">
         <v>27.884699999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218">
+        <v>24.9907</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -39155,8 +39813,11 @@
       <c r="N219">
         <v>6.5077199999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219">
+        <v>5.9088500000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -39199,8 +39860,11 @@
       <c r="N220">
         <v>13.615600000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220">
+        <v>12.377599999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -39243,8 +39907,11 @@
       <c r="N221">
         <v>12.257400000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221">
+        <v>11.1173</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -39287,8 +39954,11 @@
       <c r="N222">
         <v>12.23</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222">
+        <v>11.068899999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -39331,8 +40001,11 @@
       <c r="N223">
         <v>15.571300000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223">
+        <v>14.453200000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -39375,8 +40048,11 @@
       <c r="N224">
         <v>13.7196</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224">
+        <v>12.451599999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -39419,8 +40095,11 @@
       <c r="N225">
         <v>22.584</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225">
+        <v>20.4084</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -39463,8 +40142,11 @@
       <c r="N226">
         <v>13.6645</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226">
+        <v>12.3626</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -39507,8 +40189,11 @@
       <c r="N227">
         <v>13.694900000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227">
+        <v>12.358700000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -39551,8 +40236,11 @@
       <c r="N228">
         <v>14.1084</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228">
+        <v>12.779199999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -39595,8 +40283,11 @@
       <c r="N229">
         <v>6.4279999999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229">
+        <v>5.8380999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -39639,8 +40330,11 @@
       <c r="N230">
         <v>33.764099999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230">
+        <v>30.5307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -39683,8 +40377,11 @@
       <c r="N231">
         <v>33.826300000000003</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231">
+        <v>30.527000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -39727,8 +40424,11 @@
       <c r="N232">
         <v>14.162000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232">
+        <v>12.824999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -39771,8 +40471,11 @@
       <c r="N233">
         <v>2.79054</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233">
+        <v>2.5759300000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -39815,8 +40518,11 @@
       <c r="N234">
         <v>0.114178</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234">
+        <v>0.107084</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -39859,8 +40565,11 @@
       <c r="N235">
         <v>4.7688099999999997E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235">
+        <v>4.4727900000000001E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -39903,8 +40612,11 @@
       <c r="N236">
         <v>2.3112300000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236">
+        <v>2.12818</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -39947,8 +40659,11 @@
       <c r="N237">
         <v>13.5632</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237">
+        <v>12.269600000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -39991,8 +40706,11 @@
       <c r="N238">
         <v>0.69702399999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238">
+        <v>0.65026399999999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -40035,8 +40753,11 @@
       <c r="N239">
         <v>1.3035600000000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239">
+        <v>1.1966399999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -40079,8 +40800,11 @@
       <c r="N240">
         <v>1.1269499999999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240">
+        <v>1.0465199999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -40123,8 +40847,11 @@
       <c r="N241">
         <v>0.18735099999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241">
+        <v>0.17752799999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -40167,8 +40894,11 @@
       <c r="N242">
         <v>0.124128</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242">
+        <v>0.12515999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -40211,8 +40941,11 @@
       <c r="N243">
         <v>0.38757000000000003</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243">
+        <v>0.36576199999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -40255,8 +40988,11 @@
       <c r="N244">
         <v>1.98539</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244">
+        <v>1.82497</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -40299,8 +41035,11 @@
       <c r="N245">
         <v>1.9716400000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245">
+        <v>1.8306199999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -40343,8 +41082,11 @@
       <c r="N246">
         <v>0.122312</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246">
+        <v>0.115298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -40387,8 +41129,11 @@
       <c r="N247">
         <v>5.5296199999999997E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247">
+        <v>5.2069900000000002E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -40431,8 +41176,11 @@
       <c r="N248">
         <v>13.541399999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248">
+        <v>12.2264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -40475,8 +41223,11 @@
       <c r="N249">
         <v>2.1157599999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249">
+        <v>1.9612400000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -40519,8 +41270,11 @@
       <c r="N250">
         <v>0.16520199999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250">
+        <v>0.16031400000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -40563,8 +41317,11 @@
       <c r="N251">
         <v>2.8762799999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251">
+        <v>2.5624699999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -40607,8 +41364,11 @@
       <c r="N252">
         <v>0.173347</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252">
+        <v>0.16498199999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -40651,8 +41411,11 @@
       <c r="N253">
         <v>0.92344199999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253">
+        <v>0.84474199999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -40695,8 +41458,11 @@
       <c r="N254">
         <v>25.971499999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254">
+        <v>23.4407</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -40739,8 +41505,11 @@
       <c r="N255">
         <v>1.2084699999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255">
+        <v>1.13181</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -40783,8 +41552,11 @@
       <c r="N256">
         <v>0.59828800000000004</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256">
+        <v>0.56054000000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -40827,8 +41599,11 @@
       <c r="N257">
         <v>0.69210700000000003</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257">
+        <v>0.64557799999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -40871,8 +41646,11 @@
       <c r="N258">
         <v>3.2702</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258">
+        <v>3.0100500000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -40915,8 +41693,11 @@
       <c r="N259">
         <v>28.4343</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259">
+        <v>25.2437</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -40959,8 +41740,11 @@
       <c r="N260">
         <v>1.67621</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260">
+        <v>1.58134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -41003,8 +41787,11 @@
       <c r="N261">
         <v>0.71545199999999998</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261">
+        <v>0.64690800000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -41047,8 +41834,11 @@
       <c r="N262">
         <v>0.58153600000000005</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262">
+        <v>0.53674999999999995</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -41091,8 +41881,11 @@
       <c r="N263">
         <v>0.101842</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263">
+        <v>0.101826</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -41135,8 +41928,11 @@
       <c r="N264">
         <v>1.9836499999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264">
+        <v>1.8466800000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -41179,8 +41975,11 @@
       <c r="N265">
         <v>1.2707900000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265">
+        <v>1.0201199999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -41223,8 +42022,11 @@
       <c r="N266">
         <v>0.91881900000000005</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266">
+        <v>0.84428000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -41267,8 +42069,11 @@
       <c r="N267">
         <v>0.25574799999999998</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267">
+        <v>0.23902799999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -41311,8 +42116,11 @@
       <c r="N268">
         <v>1.1357900000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268">
+        <v>1.04199</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -41355,8 +42163,11 @@
       <c r="N269">
         <v>2.6115400000000002</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269">
+        <v>7.8033700000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -41399,8 +42210,11 @@
       <c r="N270">
         <v>13.6675</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270">
+        <v>12.3081</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -41443,8 +42257,11 @@
       <c r="N271">
         <v>1.5402</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271">
+        <v>1.4857100000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -41487,8 +42304,11 @@
       <c r="N272">
         <v>0.92239000000000004</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272">
+        <v>0.85361200000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -41531,8 +42351,11 @@
       <c r="N273">
         <v>0.83800600000000003</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273">
+        <v>0.77298800000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -41575,8 +42398,11 @@
       <c r="N274">
         <v>0.58828499999999995</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274">
+        <v>0.54424799999999995</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -41619,8 +42445,11 @@
       <c r="N275">
         <v>5.7671899999999998E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275">
+        <v>5.6062099999999997E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -41663,8 +42492,11 @@
       <c r="N276">
         <v>0.72911899999999996</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276">
+        <v>0.64577399999999996</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -41707,8 +42539,11 @@
       <c r="N277">
         <v>1.0476399999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277">
+        <v>3.6642000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -41751,8 +42586,11 @@
       <c r="N278">
         <v>0.93048399999999998</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278">
+        <v>0.86591399999999996</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -41795,8 +42633,11 @@
       <c r="N279">
         <v>1.5328999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279">
+        <v>1.3997999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -41839,8 +42680,11 @@
       <c r="N280">
         <v>0.69780200000000003</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280">
+        <v>0.63684200000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -41883,8 +42727,11 @@
       <c r="N281">
         <v>13.5503</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281">
+        <v>13.6343</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -41927,8 +42774,11 @@
       <c r="N282">
         <v>0.64571400000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282">
+        <v>0.62165199999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -41971,8 +42821,11 @@
       <c r="N283">
         <v>0.13867399999999999</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283">
+        <v>0.135438</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -42015,8 +42868,11 @@
       <c r="N284">
         <v>0.56059599999999998</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284">
+        <v>0.53527000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -42059,8 +42915,11 @@
       <c r="N285">
         <v>0.52081599999999995</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285">
+        <v>0.48510399999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -42103,8 +42962,11 @@
       <c r="N286">
         <v>0.27347300000000002</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286">
+        <v>0.25875599999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -42147,8 +43009,11 @@
       <c r="N287">
         <v>0.464032</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287">
+        <v>0.425508</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -42191,8 +43056,11 @@
       <c r="N288">
         <v>8.2464200000000001E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288">
+        <v>7.8096100000000002E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -42235,8 +43103,11 @@
       <c r="N289">
         <v>0.73545000000000005</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289">
+        <v>0.67880399999999996</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -42279,8 +43150,11 @@
       <c r="N290">
         <v>1.0185599999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290">
+        <v>0.94694800000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -42323,8 +43197,11 @@
       <c r="N291">
         <v>0.62238499999999997</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291">
+        <v>0.56803000000000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -42363,6 +43240,9 @@
       </c>
       <c r="N292" t="s">
         <v>303</v>
+      </c>
+      <c r="O292" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -54622,7 +55502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EE2C5E-70FF-4F3A-85CC-4A11B0D0C8F6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58659D2-B3B3-45DB-A77C-9CA9BC490F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA1CFF-7FEF-463F-9FC0-E76656D5EAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>mesh0</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>Customized Face List</t>
+  </si>
+  <si>
+    <t>Memory Pool</t>
   </si>
 </sst>
 </file>
@@ -29500,10 +29503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O292"/>
+  <dimension ref="A1:P292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G283" workbookViewId="0">
-      <selection activeCell="O293" sqref="O293"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29519,12 +29522,13 @@
     <col min="10" max="10" width="32.140625" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" customWidth="1"/>
     <col min="14" max="14" width="39.140625" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29570,8 +29574,11 @@
       <c r="O1">
         <v>13.876099999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1">
+        <v>13.1738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -29617,8 +29624,11 @@
       <c r="O2">
         <v>12.868</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>12.1592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -29664,8 +29674,11 @@
       <c r="O3">
         <v>12.3248</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>11.6814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -29711,8 +29724,11 @@
       <c r="O4">
         <v>0.52122800000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0.45567000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -29758,8 +29774,11 @@
       <c r="O5">
         <v>0.74739</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0.69071899999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -29805,8 +29824,11 @@
       <c r="O6">
         <v>0.41814000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0.38788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -29852,8 +29874,11 @@
       <c r="O7">
         <v>4.6056E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>4.1422100000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29899,8 +29924,11 @@
       <c r="O8">
         <v>0.29919000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0.28518399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -29946,8 +29974,11 @@
       <c r="O9">
         <v>1.22804</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>1.1440699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -29993,8 +30024,11 @@
       <c r="O10">
         <v>0.26332</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0.246891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -30040,8 +30074,11 @@
       <c r="O11">
         <v>0.37726999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0.34879199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -30087,8 +30124,11 @@
       <c r="O12">
         <v>6.9442100000000007E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>6.5063899999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -30134,8 +30174,11 @@
       <c r="O13">
         <v>3.0199799999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>2.9430499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -30181,8 +30224,11 @@
       <c r="O14">
         <v>21.510999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>20.2501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -30228,8 +30274,11 @@
       <c r="O15">
         <v>0.23832400000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0.17635799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -30275,8 +30324,11 @@
       <c r="O16">
         <v>0.35272199999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0.32276199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -30322,8 +30374,11 @@
       <c r="O17">
         <v>0.31260599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0.29437799999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -30369,8 +30424,11 @@
       <c r="O18">
         <v>0.27892</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0.25875700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -30416,8 +30474,11 @@
       <c r="O19">
         <v>0.44085200000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0.41721999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -30463,8 +30524,11 @@
       <c r="O20">
         <v>1.36486</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>1.31189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -30510,8 +30574,11 @@
       <c r="O21">
         <v>5.8852000000000002E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>5.1952100000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -30557,8 +30624,11 @@
       <c r="O22">
         <v>2.9420000000000002E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>2.6418000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -30604,8 +30674,11 @@
       <c r="O23">
         <v>0.723912</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>0.69078200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -30651,8 +30724,11 @@
       <c r="O24">
         <v>1.0598700000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>1.00607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -30698,8 +30774,11 @@
       <c r="O25">
         <v>24.981400000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>24.029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -30745,8 +30824,11 @@
       <c r="O26">
         <v>0.33716400000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>0.27210600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -30792,8 +30874,11 @@
       <c r="O27">
         <v>0.75381600000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0.68814699999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -30839,8 +30924,11 @@
       <c r="O28">
         <v>9.0819999999999998E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>8.3376099999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -30886,8 +30974,11 @@
       <c r="O29">
         <v>0.410132</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0.39501999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -30933,8 +31024,11 @@
       <c r="O30">
         <v>0.49485600000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>0.46028400000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -30980,8 +31074,11 @@
       <c r="O31">
         <v>0.33566000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0.23472499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -31027,8 +31124,11 @@
       <c r="O32">
         <v>0.86531499999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0.80441600000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -31074,8 +31174,11 @@
       <c r="O33">
         <v>0.35054600000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>0.31701000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -31121,8 +31224,11 @@
       <c r="O34">
         <v>0.18883</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>0.17967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -31168,8 +31274,11 @@
       <c r="O35">
         <v>1.2817799999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>1.2669900000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -31215,8 +31324,11 @@
       <c r="O36">
         <v>12.419600000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>11.759499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -31262,8 +31374,11 @@
       <c r="O37">
         <v>1.0431900000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>0.94291899999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -31309,8 +31424,11 @@
       <c r="O38">
         <v>0.97958000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>0.89451999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -31356,8 +31474,11 @@
       <c r="O39">
         <v>0.13858599999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>0.124884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -31403,8 +31524,11 @@
       <c r="O40">
         <v>1.0052099999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>0.93083000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -31450,8 +31574,11 @@
       <c r="O41">
         <v>0.44911800000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>0.41416999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -31497,8 +31624,11 @@
       <c r="O42">
         <v>0.63450399999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>0.60315099999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -31544,8 +31674,11 @@
       <c r="O43">
         <v>0.55200800000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>0.51580599999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -31591,8 +31724,11 @@
       <c r="O44">
         <v>0.58008800000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>0.54137599999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -31638,8 +31774,11 @@
       <c r="O45">
         <v>0.109916</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>0.10281800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -31685,8 +31824,11 @@
       <c r="O46">
         <v>0.67754999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>0.64704200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -31732,8 +31874,11 @@
       <c r="O47">
         <v>14.024699999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>13.376899999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -31779,8 +31924,11 @@
       <c r="O48">
         <v>0.18007000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>0.134132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -31826,8 +31974,11 @@
       <c r="O49">
         <v>0.82930999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>0.78462900000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -31873,8 +32024,11 @@
       <c r="O50">
         <v>0.19154399999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>0.18040800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -31920,8 +32074,11 @@
       <c r="O51">
         <v>0.25369999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>0.23596700000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -31967,8 +32124,11 @@
       <c r="O52">
         <v>1.4693400000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>1.3813299999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -32014,8 +32174,11 @@
       <c r="O53">
         <v>0.83572000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>0.77788800000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -32061,8 +32224,11 @@
       <c r="O54">
         <v>0.149868</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>0.137936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -32108,8 +32274,11 @@
       <c r="O55">
         <v>0.69219200000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>0.64852799999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -32155,8 +32324,11 @@
       <c r="O56">
         <v>0.90687499999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>0.84526100000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -32202,8 +32374,11 @@
       <c r="O57">
         <v>0.52852600000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>0.499498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -32249,8 +32424,11 @@
       <c r="O58">
         <v>12.2249</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>11.581099999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -32296,8 +32474,11 @@
       <c r="O59">
         <v>0.13419400000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>9.5578099999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -32343,8 +32524,11 @@
       <c r="O60">
         <v>0.21416399999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>0.18684999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -32390,8 +32574,11 @@
       <c r="O61">
         <v>0.17844199999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>0.165074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -32437,8 +32624,11 @@
       <c r="O62">
         <v>1.5982700000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>1.5762499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -32484,8 +32674,11 @@
       <c r="O63" s="1">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -32531,8 +32724,11 @@
       <c r="O64">
         <v>0.97238400000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>0.90926799999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -32578,8 +32774,11 @@
       <c r="O65">
         <v>2.4820199999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>2.35473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -32625,8 +32824,11 @@
       <c r="O66">
         <v>5.6948600000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>5.3651</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -32672,8 +32874,11 @@
       <c r="O67">
         <v>0.43070399999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>0.39073000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -32719,8 +32924,11 @@
       <c r="O68">
         <v>0.44252000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>0.41625400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -32766,8 +32974,11 @@
       <c r="O69">
         <v>14.063000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>13.3872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -32813,8 +33024,11 @@
       <c r="O70">
         <v>0.32473400000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>0.26865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -32860,8 +33074,11 @@
       <c r="O71">
         <v>7.5651899999999994E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>6.9148200000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -32907,8 +33124,11 @@
       <c r="O72">
         <v>0.21074999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>0.188114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -32954,8 +33174,11 @@
       <c r="O73">
         <v>0.18499599999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>0.16289999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -33001,8 +33224,11 @@
       <c r="O74">
         <v>0.10051400000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>9.2757599999999996E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -33048,8 +33274,11 @@
       <c r="O75">
         <v>0.29346800000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>0.27301900000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -33095,8 +33324,11 @@
       <c r="O76">
         <v>0.10758</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>9.8034099999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -33142,8 +33374,11 @@
       <c r="O77">
         <v>0.99120799999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>0.95942899999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -33189,8 +33424,11 @@
       <c r="O78">
         <v>0.32199</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>0.28667100000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -33236,8 +33474,11 @@
       <c r="O79">
         <v>0.2185</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>0.20432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -33283,8 +33524,11 @@
       <c r="O80">
         <v>12.404199999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>11.5848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -33330,8 +33574,11 @@
       <c r="O81">
         <v>0.173594</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>0.13492799999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -33377,8 +33624,11 @@
       <c r="O82">
         <v>0.31773800000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>0.28865099999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -33424,8 +33674,11 @@
       <c r="O83">
         <v>0.746286</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>0.69088799999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -33471,8 +33724,11 @@
       <c r="O84">
         <v>2.5012500000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>2.4295100000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -33518,8 +33774,11 @@
       <c r="O85">
         <v>1.04558</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>0.97570599999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -33565,8 +33824,11 @@
       <c r="O86">
         <v>0.88053400000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>0.852352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -33612,8 +33874,11 @@
       <c r="O87">
         <v>5.3029899999999998E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>5.0818000000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -33659,8 +33924,11 @@
       <c r="O88">
         <v>4.9032100000000002E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>4.3954E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -33706,8 +33974,11 @@
       <c r="O89">
         <v>0.127166</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>0.114366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -33753,8 +34024,11 @@
       <c r="O90">
         <v>5.2711899999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>4.75381E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -33800,8 +34074,11 @@
       <c r="O91">
         <v>13.9694</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>13.3073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -33847,8 +34124,11 @@
       <c r="O92">
         <v>0.27334599999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>0.22639999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -33894,8 +34174,11 @@
       <c r="O93">
         <v>0.22880600000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>0.206515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -33941,8 +34224,11 @@
       <c r="O94">
         <v>0.16092600000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>0.14372199999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -33988,8 +34274,11 @@
       <c r="O95">
         <v>0.43972600000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>0.41400399999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -34035,8 +34324,11 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -34082,8 +34374,11 @@
       <c r="O97">
         <v>0.101344</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>8.8974300000000006E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -34129,8 +34424,11 @@
       <c r="O98">
         <v>0.16320799999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>0.14840600000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -34176,8 +34474,11 @@
       <c r="O99">
         <v>0.12817999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>0.11794399999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -34223,8 +34524,11 @@
       <c r="O100">
         <v>1.92184</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>1.85189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -34270,8 +34574,11 @@
       <c r="O101">
         <v>0.22658600000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>0.20927699999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -34317,8 +34624,11 @@
       <c r="O102">
         <v>12.426500000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>11.7965</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -34364,8 +34674,11 @@
       <c r="O103">
         <v>1.7175800000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>1.5983499999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -34411,8 +34724,11 @@
       <c r="O104">
         <v>0.53626799999999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>0.51038799999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -34458,8 +34774,11 @@
       <c r="O105">
         <v>0.50555799999999995</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>0.46440199999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -34505,8 +34824,11 @@
       <c r="O106">
         <v>0.13137199999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>0.11382399999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -34552,8 +34874,11 @@
       <c r="O107">
         <v>0.48840800000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>0.462895</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -34599,8 +34924,11 @@
       <c r="O108">
         <v>5.2901900000000002E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>4.8026100000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -34646,8 +34974,11 @@
       <c r="O109">
         <v>5.7050099999999999E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>5.3631999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -34693,8 +35024,11 @@
       <c r="O110">
         <v>0.24846799999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>0.232846</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -34740,8 +35074,11 @@
       <c r="O111">
         <v>0.106946</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>9.8008100000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -34787,8 +35124,11 @@
       <c r="O112">
         <v>4.9195999999999997E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112">
+        <v>4.3411900000000003E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -34834,8 +35174,11 @@
       <c r="O113">
         <v>12.247999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113">
+        <v>11.625299999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -34881,8 +35224,11 @@
       <c r="O114">
         <v>12.4908</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114">
+        <v>11.8294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -34928,8 +35274,11 @@
       <c r="O115">
         <v>0.108552</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115">
+        <v>7.2385900000000003E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -34975,8 +35324,11 @@
       <c r="O116">
         <v>0.69500200000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116">
+        <v>0.64048799999999995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -35022,8 +35374,11 @@
       <c r="O117">
         <v>0.106282</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>9.20261E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -35069,8 +35424,11 @@
       <c r="O118">
         <v>0.46706999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118">
+        <v>0.42239599999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -35116,8 +35474,11 @@
       <c r="O119">
         <v>0.223582</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119">
+        <v>0.203073</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -35163,8 +35524,11 @@
       <c r="O120">
         <v>0.167106</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120">
+        <v>0.15390400000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -35210,8 +35574,11 @@
       <c r="O121">
         <v>1.2547299999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121">
+        <v>1.2261500000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -35257,8 +35624,11 @@
       <c r="O122">
         <v>2.07931</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122">
+        <v>1.96811</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -35304,8 +35674,11 @@
       <c r="O123">
         <v>6.7823700000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <v>6.6862899999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -35351,8 +35724,11 @@
       <c r="O124">
         <v>1.0939300000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124">
+        <v>1.06823</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -35398,8 +35774,11 @@
       <c r="O125">
         <v>14.102</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125">
+        <v>13.5341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -35445,8 +35824,11 @@
       <c r="O126">
         <v>3.2933400000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126">
+        <v>2.90768</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -35492,8 +35874,11 @@
       <c r="O127">
         <v>9.2964000000000005E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127">
+        <v>7.13699E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -35539,8 +35924,11 @@
       <c r="O128">
         <v>1.33087</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128">
+        <v>1.2822100000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -35586,8 +35974,11 @@
       <c r="O129">
         <v>1.2424999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129">
+        <v>1.2229099999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -35633,8 +36024,11 @@
       <c r="O130">
         <v>0.19984199999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130">
+        <v>0.183114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -35680,8 +36074,11 @@
       <c r="O131">
         <v>6.0960400000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131">
+        <v>5.7372699999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -35727,8 +36124,11 @@
       <c r="O132">
         <v>0.53234199999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132">
+        <v>0.46667799999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -35774,8 +36174,11 @@
       <c r="O133">
         <v>1.5354399999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P133">
+        <v>1.4505399999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -35821,8 +36224,11 @@
       <c r="O134">
         <v>2.0549300000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134">
+        <v>1.91496</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -35868,8 +36274,11 @@
       <c r="O135">
         <v>2.9029099999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135">
+        <v>2.7846299999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -35915,8 +36324,11 @@
       <c r="O136">
         <v>7.0724600000000004</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P136">
+        <v>6.6668700000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -35962,8 +36374,11 @@
       <c r="O137">
         <v>5.0257199999999997</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137">
+        <v>4.6639299999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -36009,8 +36424,11 @@
       <c r="O138">
         <v>2.3527499999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P138">
+        <v>2.1791900000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -36056,8 +36474,11 @@
       <c r="O139">
         <v>17.605499999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139">
+        <v>16.6386</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -36103,8 +36524,11 @@
       <c r="O140">
         <v>17.006499999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P140">
+        <v>16.248899999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -36150,8 +36574,11 @@
       <c r="O141">
         <v>1.2553700000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P141">
+        <v>1.1652100000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -36197,8 +36624,11 @@
       <c r="O142">
         <v>2.7590699999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142">
+        <v>2.5901399999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -36244,8 +36674,11 @@
       <c r="O143">
         <v>2.4819300000000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P143">
+        <v>2.2972700000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -36291,8 +36724,11 @@
       <c r="O144">
         <v>0.30197200000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P144">
+        <v>0.28061799999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -36338,8 +36774,11 @@
       <c r="O145">
         <v>2.2483499999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P145">
+        <v>1.74129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -36385,8 +36824,11 @@
       <c r="O146">
         <v>0.59743199999999996</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P146">
+        <v>0.54872399999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -36432,8 +36874,11 @@
       <c r="O147">
         <v>14.049799999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P147">
+        <v>13.3552</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -36479,8 +36924,11 @@
       <c r="O148">
         <v>3.9306000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148">
+        <v>3.6804600000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -36526,8 +36974,11 @@
       <c r="O149">
         <v>3.2639300000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149">
+        <v>3.09646</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -36573,8 +37024,11 @@
       <c r="O150">
         <v>5.8413899999999996</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P150">
+        <v>5.5302100000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -36620,8 +37074,11 @@
       <c r="O151">
         <v>9.04786</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151">
+        <v>8.5159500000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -36667,8 +37124,11 @@
       <c r="O152">
         <v>0.45798</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P152">
+        <v>0.42727399999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -36714,8 +37174,11 @@
       <c r="O153">
         <v>1.4278900000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P153">
+        <v>1.2522899999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -36761,8 +37224,11 @@
       <c r="O154">
         <v>1.95828</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P154">
+        <v>1.8662300000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -36808,8 +37274,11 @@
       <c r="O155">
         <v>2.7687400000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P155">
+        <v>2.63096</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -36855,8 +37324,11 @@
       <c r="O156">
         <v>3.84477</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156">
+        <v>3.6806000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -36902,8 +37374,11 @@
       <c r="O157">
         <v>10.3461</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P157">
+        <v>9.9804999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -36949,8 +37424,11 @@
       <c r="O158">
         <v>14.115600000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P158">
+        <v>13.4018</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -36996,8 +37474,11 @@
       <c r="O159">
         <v>2.3236300000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P159">
+        <v>2.1741299999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -37043,8 +37524,11 @@
       <c r="O160">
         <v>0.71516400000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P160">
+        <v>0.67256700000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -37090,8 +37574,11 @@
       <c r="O161">
         <v>1.3506199999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P161">
+        <v>1.2821400000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -37137,8 +37624,11 @@
       <c r="O162">
         <v>4.1378500000000003</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P162">
+        <v>4.0551700000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -37184,8 +37674,11 @@
       <c r="O163">
         <v>3.3396499999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P163">
+        <v>3.12317</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -37231,8 +37724,11 @@
       <c r="O164">
         <v>0.47976400000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P164">
+        <v>0.45011400000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -37278,8 +37774,11 @@
       <c r="O165">
         <v>2.1157499999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P165">
+        <v>2.0154700000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -37325,8 +37824,11 @@
       <c r="O166">
         <v>2.3347799999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P166">
+        <v>2.19475</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -37372,8 +37874,11 @@
       <c r="O167">
         <v>2.79691</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P167">
+        <v>2.63117</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -37419,8 +37924,11 @@
       <c r="O168">
         <v>2.0634600000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P168">
+        <v>1.9184099999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -37466,8 +37974,11 @@
       <c r="O169">
         <v>21.6585</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P169">
+        <v>20.616</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -37513,8 +38024,11 @@
       <c r="O170">
         <v>3.4471500000000002</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P170">
+        <v>3.2854899999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -37560,8 +38074,11 @@
       <c r="O171">
         <v>0.56589999999999996</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P171">
+        <v>0.52333399999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -37607,8 +38124,11 @@
       <c r="O172">
         <v>0.47023399999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P172">
+        <v>0.441222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -37654,8 +38174,11 @@
       <c r="O173">
         <v>0.74380800000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P173">
+        <v>0.69116999999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -37701,8 +38224,11 @@
       <c r="O174">
         <v>1.04765</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P174">
+        <v>0.95137000000000005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -37748,8 +38274,11 @@
       <c r="O175">
         <v>0.454538</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P175">
+        <v>0.42348599999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -37795,8 +38324,11 @@
       <c r="O176">
         <v>2.0946899999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P176">
+        <v>1.99892</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -37842,8 +38374,11 @@
       <c r="O177">
         <v>1.84354</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P177">
+        <v>1.71641</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -37889,8 +38424,11 @@
       <c r="O178">
         <v>1.4044399999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P178">
+        <v>1.3193999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -37936,8 +38474,11 @@
       <c r="O179">
         <v>2.5284900000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P179">
+        <v>2.44943</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -37983,8 +38524,11 @@
       <c r="O180">
         <v>14.122400000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P180">
+        <v>13.637700000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -38030,8 +38574,11 @@
       <c r="O181">
         <v>1.0304</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P181">
+        <v>0.91562699999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -38077,8 +38624,11 @@
       <c r="O182">
         <v>4.09354</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P182">
+        <v>3.9246400000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -38124,8 +38674,11 @@
       <c r="O183">
         <v>0.82743999999999995</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P183">
+        <v>0.80297799999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -38171,8 +38724,11 @@
       <c r="O184">
         <v>0.25467800000000002</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P184">
+        <v>0.237039</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -38218,8 +38774,11 @@
       <c r="O185">
         <v>0.617448</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P185">
+        <v>0.57811800000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -38265,8 +38824,11 @@
       <c r="O186">
         <v>1.9932399999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P186">
+        <v>1.88121</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -38312,8 +38874,11 @@
       <c r="O187">
         <v>0.293072</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P187">
+        <v>0.26215699999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -38359,8 +38924,11 @@
       <c r="O188">
         <v>2.71793</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P188">
+        <v>2.62418</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -38406,8 +38974,11 @@
       <c r="O189">
         <v>4.9336100000000001E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P189">
+        <v>4.4381999999999998E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -38453,8 +39024,11 @@
       <c r="O190">
         <v>0.26786599999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P190">
+        <v>0.242615</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -38500,8 +39074,11 @@
       <c r="O191">
         <v>14.0105</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P191">
+        <v>13.4382</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -38547,8 +39124,11 @@
       <c r="O192">
         <v>2.8814700000000002</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P192">
+        <v>2.7034500000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -38594,8 +39174,11 @@
       <c r="O193">
         <v>1.0015700000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P193">
+        <v>0.91702600000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -38641,8 +39224,11 @@
       <c r="O194">
         <v>0.49092799999999998</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P194">
+        <v>0.44708399999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -38688,8 +39274,11 @@
       <c r="O195">
         <v>0.54190400000000005</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P195">
+        <v>0.49080299999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -38735,8 +39324,11 @@
       <c r="O196">
         <v>1.3410899999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P196">
+        <v>1.2904</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -38782,8 +39374,11 @@
       <c r="O197">
         <v>0.95962099999999995</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P197">
+        <v>0.89770099999999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -38829,8 +39424,11 @@
       <c r="O198">
         <v>0.35820000000000002</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P198">
+        <v>0.33737</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -38876,8 +39474,11 @@
       <c r="O199">
         <v>3.42971</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P199">
+        <v>3.2964000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -38923,8 +39524,11 @@
       <c r="O200">
         <v>0.89960899999999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P200">
+        <v>0.84659399999999996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -38970,8 +39574,11 @@
       <c r="O201">
         <v>0.68192600000000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P201">
+        <v>0.637656</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -39017,8 +39624,11 @@
       <c r="O202">
         <v>12.479100000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P202">
+        <v>11.9476</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -39064,8 +39674,11 @@
       <c r="O203">
         <v>0.35122399999999998</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P203">
+        <v>0.29530800000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -39111,8 +39724,11 @@
       <c r="O204">
         <v>1.20577</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P204">
+        <v>1.1337900000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -39158,8 +39774,11 @@
       <c r="O205">
         <v>0.20741200000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P205">
+        <v>0.18531</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -39205,8 +39824,11 @@
       <c r="O206">
         <v>1.3281799999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P206">
+        <v>1.2824199999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -39252,8 +39874,11 @@
       <c r="O207">
         <v>0.32007600000000003</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P207">
+        <v>0.30072399999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -39299,8 +39924,11 @@
       <c r="O208">
         <v>0.302458</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P208">
+        <v>0.283636</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -39346,8 +39974,11 @@
       <c r="O209">
         <v>1.02668</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P209">
+        <v>1.0114799999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -39393,8 +40024,11 @@
       <c r="O210">
         <v>9.1976199999999994E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P210">
+        <v>8.7239800000000006E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -39440,8 +40074,11 @@
       <c r="O211">
         <v>3.2234099999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P211">
+        <v>3.0654300000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -39487,8 +40124,11 @@
       <c r="O212">
         <v>8.0932000000000004E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P212">
+        <v>7.0996000000000004E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -39534,8 +40174,11 @@
       <c r="O213">
         <v>12.6615</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P213">
+        <v>11.991</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -39581,8 +40224,11 @@
       <c r="O214">
         <v>397.553</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P214">
+        <v>381.77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -39628,8 +40274,11 @@
       <c r="O215">
         <v>13.9443</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P215">
+        <v>12.646000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -39675,8 +40324,11 @@
       <c r="O216">
         <v>12.649800000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P216">
+        <v>12.077199999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -39722,8 +40374,11 @@
       <c r="O217">
         <v>12.700699999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P217">
+        <v>12.086</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -39769,8 +40424,11 @@
       <c r="O218">
         <v>24.9907</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P218">
+        <v>24.127300000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -39816,8 +40474,11 @@
       <c r="O219">
         <v>5.9088500000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P219">
+        <v>5.5248600000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -39863,8 +40524,11 @@
       <c r="O220">
         <v>12.377599999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P220">
+        <v>11.716200000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -39910,8 +40574,11 @@
       <c r="O221">
         <v>11.1173</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P221">
+        <v>10.506600000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -39957,8 +40624,11 @@
       <c r="O222">
         <v>11.068899999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P222">
+        <v>10.4978</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -40004,8 +40674,11 @@
       <c r="O223">
         <v>14.453200000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P223">
+        <v>13.4495</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -40051,8 +40724,11 @@
       <c r="O224">
         <v>12.451599999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P224">
+        <v>11.7804</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -40098,8 +40774,11 @@
       <c r="O225">
         <v>20.4084</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P225">
+        <v>19.5625</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -40145,8 +40824,11 @@
       <c r="O226">
         <v>12.3626</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P226">
+        <v>11.706300000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -40192,8 +40874,11 @@
       <c r="O227">
         <v>12.358700000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P227">
+        <v>11.7233</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -40239,8 +40924,11 @@
       <c r="O228">
         <v>12.779199999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P228">
+        <v>12.0884</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -40286,8 +40974,11 @@
       <c r="O229">
         <v>5.8380999999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P229">
+        <v>5.4812000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -40333,8 +41024,11 @@
       <c r="O230">
         <v>30.5307</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P230">
+        <v>29.653300000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -40380,8 +41074,11 @@
       <c r="O231">
         <v>30.527000000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P231">
+        <v>29.674700000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -40427,8 +41124,11 @@
       <c r="O232">
         <v>12.824999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P232">
+        <v>12.097300000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -40474,8 +41174,11 @@
       <c r="O233">
         <v>2.5759300000000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P233">
+        <v>2.3789099999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -40521,8 +41224,11 @@
       <c r="O234">
         <v>0.107084</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P234">
+        <v>9.5452200000000001E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -40568,8 +41274,11 @@
       <c r="O235">
         <v>4.4727900000000001E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P235">
+        <v>4.11621E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -40615,8 +41324,11 @@
       <c r="O236">
         <v>2.12818</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P236">
+        <v>2.04881</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -40662,8 +41374,11 @@
       <c r="O237">
         <v>12.269600000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P237">
+        <v>11.6371</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -40709,8 +41424,11 @@
       <c r="O238">
         <v>0.65026399999999995</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P238">
+        <v>0.59802999999999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -40756,8 +41474,11 @@
       <c r="O239">
         <v>1.1966399999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P239">
+        <v>1.1597599999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -40803,8 +41524,11 @@
       <c r="O240">
         <v>1.0465199999999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P240">
+        <v>1.00013</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -40850,8 +41574,11 @@
       <c r="O241">
         <v>0.17752799999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P241">
+        <v>0.16212199999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -40897,8 +41624,11 @@
       <c r="O242">
         <v>0.12515999999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P242">
+        <v>0.112286</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -40944,8 +41674,11 @@
       <c r="O243">
         <v>0.36576199999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P243">
+        <v>0.34408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -40991,8 +41724,11 @@
       <c r="O244">
         <v>1.82497</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P244">
+        <v>1.718</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -41038,8 +41774,11 @@
       <c r="O245">
         <v>1.8306199999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P245">
+        <v>1.69346</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -41085,8 +41824,11 @@
       <c r="O246">
         <v>0.115298</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P246">
+        <v>0.1021</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -41132,8 +41874,11 @@
       <c r="O247">
         <v>5.2069900000000002E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P247">
+        <v>4.8268100000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -41179,8 +41924,11 @@
       <c r="O248">
         <v>12.2264</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P248">
+        <v>11.6091</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -41226,8 +41974,11 @@
       <c r="O249">
         <v>1.9612400000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P249">
+        <v>1.87137</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -41273,8 +42024,11 @@
       <c r="O250">
         <v>0.16031400000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P250">
+        <v>0.14211199999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -41320,8 +42074,11 @@
       <c r="O251">
         <v>2.5624699999999998</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P251">
+        <v>2.44333</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -41367,8 +42124,11 @@
       <c r="O252">
         <v>0.16498199999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P252">
+        <v>0.14690400000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -41414,8 +42174,11 @@
       <c r="O253">
         <v>0.84474199999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P253">
+        <v>0.78676599999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -41461,8 +42224,11 @@
       <c r="O254">
         <v>23.4407</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P254">
+        <v>23.2226</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -41508,8 +42274,11 @@
       <c r="O255">
         <v>1.13181</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P255">
+        <v>1.04427</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -41555,8 +42324,11 @@
       <c r="O256">
         <v>0.56054000000000004</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P256">
+        <v>0.52674699999999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -41602,8 +42374,11 @@
       <c r="O257">
         <v>0.64557799999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P257">
+        <v>0.60113499999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -41649,8 +42424,11 @@
       <c r="O258">
         <v>3.0100500000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P258">
+        <v>2.8507099999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -41696,8 +42474,11 @@
       <c r="O259">
         <v>25.2437</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P259">
+        <v>24.0609</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -41743,8 +42524,11 @@
       <c r="O260">
         <v>1.58134</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P260">
+        <v>1.4066000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -41790,8 +42574,11 @@
       <c r="O261">
         <v>0.64690800000000004</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P261">
+        <v>0.59896199999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -41837,8 +42624,11 @@
       <c r="O262">
         <v>0.53674999999999995</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P262">
+        <v>0.49450300000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -41884,8 +42674,11 @@
       <c r="O263">
         <v>0.101826</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P263">
+        <v>9.0744099999999994E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -41931,8 +42724,11 @@
       <c r="O264">
         <v>1.8466800000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P264">
+        <v>1.7423599999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -41978,8 +42774,11 @@
       <c r="O265">
         <v>1.0201199999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P265">
+        <v>0.99044500000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -42025,8 +42824,11 @@
       <c r="O266">
         <v>0.84428000000000003</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P266">
+        <v>0.81148399999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -42072,8 +42874,11 @@
       <c r="O267">
         <v>0.23902799999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P267">
+        <v>0.219387</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -42119,8 +42924,11 @@
       <c r="O268">
         <v>1.04199</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P268">
+        <v>0.98089099999999996</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -42166,8 +42974,11 @@
       <c r="O269">
         <v>7.8033700000000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P269">
+        <v>2.2877299999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -42213,8 +43024,11 @@
       <c r="O270">
         <v>12.3081</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P270">
+        <v>11.6554</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -42260,8 +43074,11 @@
       <c r="O271">
         <v>1.4857100000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P271">
+        <v>1.31725</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -42307,8 +43124,11 @@
       <c r="O272">
         <v>0.85361200000000004</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P272">
+        <v>0.82156099999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -42354,8 +43174,11 @@
       <c r="O273">
         <v>0.77298800000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P273">
+        <v>0.74213399999999996</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -42401,8 +43224,11 @@
       <c r="O274">
         <v>0.54424799999999995</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P274">
+        <v>0.52672300000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -42448,8 +43274,11 @@
       <c r="O275">
         <v>5.6062099999999997E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P275">
+        <v>5.0525899999999999E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -42495,8 +43324,11 @@
       <c r="O276">
         <v>0.64577399999999996</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P276">
+        <v>0.60120200000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -42542,8 +43374,11 @@
       <c r="O277">
         <v>3.6642000000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P277">
+        <v>0.88503500000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -42589,8 +43424,11 @@
       <c r="O278">
         <v>0.86591399999999996</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P278">
+        <v>0.82533299999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -42636,8 +43474,11 @@
       <c r="O279">
         <v>1.3997999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P279">
+        <v>1.3292600000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -42683,8 +43524,11 @@
       <c r="O280">
         <v>0.63684200000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P280">
+        <v>0.59168600000000005</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -42730,8 +43574,11 @@
       <c r="O281">
         <v>13.6343</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P281">
+        <v>11.6213</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -42777,8 +43624,11 @@
       <c r="O282">
         <v>0.62165199999999998</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P282">
+        <v>0.54128200000000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -42824,8 +43674,11 @@
       <c r="O283">
         <v>0.135438</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P283">
+        <v>0.121258</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -42871,8 +43724,11 @@
       <c r="O284">
         <v>0.53527000000000002</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P284">
+        <v>0.48349599999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -42918,8 +43774,11 @@
       <c r="O285">
         <v>0.48510399999999998</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P285">
+        <v>0.44883000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -42965,8 +43824,11 @@
       <c r="O286">
         <v>0.25875599999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P286">
+        <v>0.24008199999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -43012,8 +43874,11 @@
       <c r="O287">
         <v>0.425508</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P287">
+        <v>0.411134</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -43059,8 +43924,11 @@
       <c r="O288">
         <v>7.8096100000000002E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P288">
+        <v>7.1131899999999998E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -43106,8 +43974,11 @@
       <c r="O289">
         <v>0.67880399999999996</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P289">
+        <v>0.655976</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -43153,8 +44024,11 @@
       <c r="O290">
         <v>0.94694800000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P290">
+        <v>0.94132899999999997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -43200,8 +44074,11 @@
       <c r="O291">
         <v>0.56803000000000003</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P291">
+        <v>0.53643600000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -43243,6 +44120,9 @@
       </c>
       <c r="O292" t="s">
         <v>304</v>
+      </c>
+      <c r="P292" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA1CFF-7FEF-463F-9FC0-E76656D5EAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD632A-CBD3-4A3A-B5FE-37973DC633A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>mesh0</t>
   </si>
@@ -954,6 +954,9 @@
   </si>
   <si>
     <t>Memory Pool</t>
+  </si>
+  <si>
+    <t>Clear some memory pool</t>
   </si>
 </sst>
 </file>
@@ -29503,10 +29506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P292"/>
+  <dimension ref="A1:Q292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="L277" workbookViewId="0">
+      <selection activeCell="Q293" sqref="Q293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29526,9 +29529,10 @@
     <col min="14" max="14" width="39.140625" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="34.5703125" customWidth="1"/>
+    <col min="17" max="17" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29577,8 +29581,11 @@
       <c r="P1">
         <v>13.1738</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1">
+        <v>12.991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -29627,8 +29634,11 @@
       <c r="P2">
         <v>12.1592</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>12.043100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -29677,8 +29687,11 @@
       <c r="P3">
         <v>11.6814</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>11.5776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -29727,8 +29740,11 @@
       <c r="P4">
         <v>0.45567000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0.45149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -29777,8 +29793,11 @@
       <c r="P5">
         <v>0.69071899999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0.67437000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -29827,8 +29846,11 @@
       <c r="P6">
         <v>0.38788</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0.37579000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -29877,8 +29899,11 @@
       <c r="P7">
         <v>4.1422100000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>3.9742E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29927,8 +29952,11 @@
       <c r="P8">
         <v>0.28518399999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0.276561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -29977,8 +30005,11 @@
       <c r="P9">
         <v>1.1440699999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>1.12358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -30027,8 +30058,11 @@
       <c r="P10">
         <v>0.246891</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0.241893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -30077,8 +30111,11 @@
       <c r="P11">
         <v>0.34879199999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>0.34666799999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -30127,8 +30164,11 @@
       <c r="P12">
         <v>6.5063899999999994E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>6.3725900000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -30177,8 +30217,11 @@
       <c r="P13">
         <v>2.9430499999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>2.9515600000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -30227,8 +30270,11 @@
       <c r="P14">
         <v>20.2501</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>20.064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -30277,8 +30323,11 @@
       <c r="P15">
         <v>0.17635799999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>0.17711399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -30327,8 +30376,11 @@
       <c r="P16">
         <v>0.32276199999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>0.32405499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -30377,8 +30429,11 @@
       <c r="P17">
         <v>0.29437799999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0.291659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -30427,8 +30482,11 @@
       <c r="P18">
         <v>0.25875700000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>0.25703900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -30477,8 +30535,11 @@
       <c r="P19">
         <v>0.41721999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>0.41562199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -30527,8 +30588,11 @@
       <c r="P20">
         <v>1.31189</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>1.3009599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -30577,8 +30641,11 @@
       <c r="P21">
         <v>5.1952100000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>5.1692000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -30627,8 +30694,11 @@
       <c r="P22">
         <v>2.6418000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>2.5647900000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -30677,8 +30747,11 @@
       <c r="P23">
         <v>0.69078200000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>0.67386199999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -30727,8 +30800,11 @@
       <c r="P24">
         <v>1.00607</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0.97484000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -30777,8 +30853,11 @@
       <c r="P25">
         <v>24.029</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>23.8687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -30827,8 +30906,11 @@
       <c r="P26">
         <v>0.27210600000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>0.269374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -30877,8 +30959,11 @@
       <c r="P27">
         <v>0.68814699999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>0.678894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -30927,8 +31012,11 @@
       <c r="P28">
         <v>8.3376099999999995E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>7.9133800000000004E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -30977,8 +31065,11 @@
       <c r="P29">
         <v>0.39501999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>0.38658599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -31027,8 +31118,11 @@
       <c r="P30">
         <v>0.46028400000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0.45898600000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -31077,8 +31171,11 @@
       <c r="P31">
         <v>0.23472499999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>0.23285500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -31127,8 +31224,11 @@
       <c r="P32">
         <v>0.80441600000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>0.799126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -31177,8 +31277,11 @@
       <c r="P33">
         <v>0.31701000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>0.31581599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -31227,8 +31330,11 @@
       <c r="P34">
         <v>0.17967</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>0.17680799999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -31277,8 +31383,11 @@
       <c r="P35">
         <v>1.2669900000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1.26109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -31327,8 +31436,11 @@
       <c r="P36">
         <v>11.759499999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>11.587999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -31377,8 +31489,11 @@
       <c r="P37">
         <v>0.94291899999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>0.92493199999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -31427,8 +31542,11 @@
       <c r="P38">
         <v>0.89451999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>0.88268199999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -31477,8 +31595,11 @@
       <c r="P39">
         <v>0.124884</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>0.124574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -31527,8 +31648,11 @@
       <c r="P40">
         <v>0.93083000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>0.92179299999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -31577,8 +31701,11 @@
       <c r="P41">
         <v>0.41416999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>0.40573399999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -31627,8 +31754,11 @@
       <c r="P42">
         <v>0.60315099999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>0.590754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -31677,8 +31807,11 @@
       <c r="P43">
         <v>0.51580599999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>0.50421000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -31727,8 +31860,11 @@
       <c r="P44">
         <v>0.54137599999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0.52833600000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -31777,8 +31913,11 @@
       <c r="P45">
         <v>0.10281800000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0.101504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -31827,8 +31966,11 @@
       <c r="P46">
         <v>0.64704200000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>0.64320999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -31877,8 +32019,11 @@
       <c r="P47">
         <v>13.376899999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>13.1928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -31927,8 +32072,11 @@
       <c r="P48">
         <v>0.134132</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>0.13262199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -31977,8 +32125,11 @@
       <c r="P49">
         <v>0.78462900000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>0.76101700000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -32027,8 +32178,11 @@
       <c r="P50">
         <v>0.18040800000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>0.176314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -32077,8 +32231,11 @@
       <c r="P51">
         <v>0.23596700000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>0.23158300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -32127,8 +32284,11 @@
       <c r="P52">
         <v>1.3813299999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>1.36114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -32177,8 +32337,11 @@
       <c r="P53">
         <v>0.77788800000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>0.77435399999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -32227,8 +32390,11 @@
       <c r="P54">
         <v>0.137936</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>0.13639399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -32277,8 +32443,11 @@
       <c r="P55">
         <v>0.64852799999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>0.64227599999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -32327,8 +32496,11 @@
       <c r="P56">
         <v>0.84526100000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>0.83016000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -32377,8 +32549,11 @@
       <c r="P57">
         <v>0.499498</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0.48516399999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -32427,8 +32602,11 @@
       <c r="P58">
         <v>11.581099999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>11.4472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -32477,8 +32655,11 @@
       <c r="P59">
         <v>9.5578099999999999E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>9.4498100000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -32527,8 +32708,11 @@
       <c r="P60">
         <v>0.18684999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>0.184472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -32577,8 +32761,11 @@
       <c r="P61">
         <v>0.165074</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0.163216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -32627,8 +32814,11 @@
       <c r="P62">
         <v>1.5762499999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>1.5758799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -32677,8 +32867,11 @@
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -32727,8 +32920,11 @@
       <c r="P64">
         <v>0.90926799999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>0.89285400000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -32777,8 +32973,11 @@
       <c r="P65">
         <v>2.35473</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>2.3089499999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -32827,8 +33026,11 @@
       <c r="P66">
         <v>5.3651</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>5.3223599999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -32877,8 +33079,11 @@
       <c r="P67">
         <v>0.39073000000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>0.38648199999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -32927,8 +33132,11 @@
       <c r="P68">
         <v>0.41625400000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>0.41326800000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -32977,8 +33185,11 @@
       <c r="P69">
         <v>13.3872</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>13.201700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -33027,8 +33238,11 @@
       <c r="P70">
         <v>0.26865</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>0.26575599999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -33077,8 +33291,11 @@
       <c r="P71">
         <v>6.9148200000000007E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>6.8784200000000004E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -33127,8 +33344,11 @@
       <c r="P72">
         <v>0.188114</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>0.18684700000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -33177,8 +33397,11 @@
       <c r="P73">
         <v>0.16289999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>0.15906200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -33227,8 +33450,11 @@
       <c r="P74">
         <v>9.2757599999999996E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>9.36197E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -33277,8 +33503,11 @@
       <c r="P75">
         <v>0.27301900000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>0.27275100000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -33327,8 +33556,11 @@
       <c r="P76">
         <v>9.8034099999999999E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>9.7720299999999996E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -33377,8 +33609,11 @@
       <c r="P77">
         <v>0.95942899999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>0.950654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -33427,8 +33662,11 @@
       <c r="P78">
         <v>0.28667100000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>0.28261799999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -33477,8 +33715,11 @@
       <c r="P79">
         <v>0.20432</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>0.20089499999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -33527,8 +33768,11 @@
       <c r="P80">
         <v>11.5848</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>11.432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -33577,8 +33821,11 @@
       <c r="P81">
         <v>0.13492799999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>0.13450200000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -33627,8 +33874,11 @@
       <c r="P82">
         <v>0.28865099999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>0.28722599999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -33677,8 +33927,11 @@
       <c r="P83">
         <v>0.69088799999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>0.68208599999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -33727,8 +33980,11 @@
       <c r="P84">
         <v>2.4295100000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>2.3887999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -33777,8 +34033,11 @@
       <c r="P85">
         <v>0.97570599999999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>0.94633199999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -33827,8 +34086,11 @@
       <c r="P86">
         <v>0.852352</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>0.84641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -33877,8 +34139,11 @@
       <c r="P87">
         <v>5.0818000000000002E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>4.8652000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -33927,8 +34192,11 @@
       <c r="P88">
         <v>4.3954E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>4.3093899999999997E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -33977,8 +34245,11 @@
       <c r="P89">
         <v>0.114366</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>0.113612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -34027,8 +34298,11 @@
       <c r="P90">
         <v>4.75381E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>4.57539E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -34077,8 +34351,11 @@
       <c r="P91">
         <v>13.3073</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>13.1442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -34127,8 +34404,11 @@
       <c r="P92">
         <v>0.22639999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>0.221197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -34177,8 +34457,11 @@
       <c r="P93">
         <v>0.206515</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>0.20414599999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -34227,8 +34510,11 @@
       <c r="P94">
         <v>0.14372199999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>0.13974200000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -34277,8 +34563,11 @@
       <c r="P95">
         <v>0.41400399999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>0.40577600000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -34327,8 +34616,11 @@
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -34377,8 +34669,11 @@
       <c r="P97">
         <v>8.8974300000000006E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>8.8170200000000004E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -34427,8 +34722,11 @@
       <c r="P98">
         <v>0.14840600000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>5.6627900000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -34477,8 +34775,11 @@
       <c r="P99">
         <v>0.11794399999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>0.117372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -34527,8 +34828,11 @@
       <c r="P100">
         <v>1.85189</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>1.82657</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -34577,8 +34881,11 @@
       <c r="P101">
         <v>0.20927699999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>0.206039</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -34627,8 +34934,11 @@
       <c r="P102">
         <v>11.7965</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>11.6318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -34677,8 +34987,11 @@
       <c r="P103">
         <v>1.5983499999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>1.57165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -34727,8 +35040,11 @@
       <c r="P104">
         <v>0.51038799999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>0.50063800000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -34777,8 +35093,11 @@
       <c r="P105">
         <v>0.46440199999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>0.460316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -34827,8 +35146,11 @@
       <c r="P106">
         <v>0.11382399999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>0.11208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -34877,8 +35199,11 @@
       <c r="P107">
         <v>0.462895</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>0.45902799999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -34927,8 +35252,11 @@
       <c r="P108">
         <v>4.8026100000000002E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>4.6713900000000003E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -34977,8 +35305,11 @@
       <c r="P109">
         <v>5.3631999999999999E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>5.2526000000000003E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -35027,8 +35358,11 @@
       <c r="P110">
         <v>0.232846</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>0.229407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -35077,8 +35411,11 @@
       <c r="P111">
         <v>9.8008100000000001E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>9.6452300000000005E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -35127,8 +35464,11 @@
       <c r="P112">
         <v>4.3411900000000003E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>4.2659900000000001E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -35177,8 +35517,11 @@
       <c r="P113">
         <v>11.625299999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>11.4803</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -35227,8 +35570,11 @@
       <c r="P114">
         <v>11.8294</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>11.708399999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -35277,8 +35623,11 @@
       <c r="P115">
         <v>7.2385900000000003E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>7.3251899999999995E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -35327,8 +35676,11 @@
       <c r="P116">
         <v>0.64048799999999995</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>0.62956400000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -35377,8 +35729,11 @@
       <c r="P117">
         <v>9.20261E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>4.2737999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -35427,8 +35782,11 @@
       <c r="P118">
         <v>0.42239599999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>0.41533599999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -35477,8 +35835,11 @@
       <c r="P119">
         <v>0.203073</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0.20008400000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -35527,8 +35888,11 @@
       <c r="P120">
         <v>0.15390400000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>0.14943400000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -35577,8 +35941,11 @@
       <c r="P121">
         <v>1.2261500000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>1.2044900000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -35627,8 +35994,11 @@
       <c r="P122">
         <v>1.96811</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>1.9329400000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -35677,8 +36047,11 @@
       <c r="P123">
         <v>6.6862899999999996</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>6.6836799999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -35727,8 +36100,11 @@
       <c r="P124">
         <v>1.06823</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>1.0465500000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -35777,8 +36153,11 @@
       <c r="P125">
         <v>13.5341</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>13.3161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -35827,8 +36206,11 @@
       <c r="P126">
         <v>2.90768</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>2.9067599999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -35877,8 +36259,11 @@
       <c r="P127">
         <v>7.13699E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>6.9774000000000003E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -35927,8 +36312,11 @@
       <c r="P128">
         <v>1.2822100000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>1.2682100000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -35977,8 +36365,11 @@
       <c r="P129">
         <v>1.2229099999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>1.2010700000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -36027,8 +36418,11 @@
       <c r="P130">
         <v>0.183114</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>0.180006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -36077,8 +36471,11 @@
       <c r="P131">
         <v>5.7372699999999996</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>5.6708800000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -36127,8 +36524,11 @@
       <c r="P132">
         <v>0.46667799999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0.45869799999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -36177,8 +36577,11 @@
       <c r="P133">
         <v>1.4505399999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>1.4349099999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -36227,8 +36630,11 @@
       <c r="P134">
         <v>1.91496</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>1.89134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -36277,8 +36683,11 @@
       <c r="P135">
         <v>2.7846299999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>2.7390699999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -36327,8 +36736,11 @@
       <c r="P136">
         <v>6.6668700000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>6.5696399999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -36377,8 +36789,11 @@
       <c r="P137">
         <v>4.6639299999999997</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>4.6216799999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -36427,8 +36842,11 @@
       <c r="P138">
         <v>2.1791900000000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>2.1525099999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -36477,8 +36895,11 @@
       <c r="P139">
         <v>16.6386</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>16.450399999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -36527,8 +36948,11 @@
       <c r="P140">
         <v>16.248899999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>16.088200000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -36577,8 +37001,11 @@
       <c r="P141">
         <v>1.1652100000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>1.14802</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -36627,8 +37054,11 @@
       <c r="P142">
         <v>2.5901399999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>2.5539399999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -36677,8 +37107,11 @@
       <c r="P143">
         <v>2.2972700000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>2.2701899999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -36727,8 +37160,11 @@
       <c r="P144">
         <v>0.28061799999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>0.27491700000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -36777,8 +37213,11 @@
       <c r="P145">
         <v>1.74129</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>1.7227600000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -36827,8 +37266,11 @@
       <c r="P146">
         <v>0.54872399999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>0.54251000000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -36877,8 +37319,11 @@
       <c r="P147">
         <v>13.3552</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>13.1845</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -36927,8 +37372,11 @@
       <c r="P148">
         <v>3.6804600000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>3.6446900000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -36977,8 +37425,11 @@
       <c r="P149">
         <v>3.09646</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>3.0525000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -37027,8 +37478,11 @@
       <c r="P150">
         <v>5.5302100000000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>5.4561099999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -37077,8 +37531,11 @@
       <c r="P151">
         <v>8.5159500000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>8.4282599999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -37127,8 +37584,11 @@
       <c r="P152">
         <v>0.42727399999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>0.42016799999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -37177,8 +37637,11 @@
       <c r="P153">
         <v>1.2522899999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>1.2355499999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -37227,8 +37690,11 @@
       <c r="P154">
         <v>1.8662300000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>1.8382700000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -37277,8 +37743,11 @@
       <c r="P155">
         <v>2.63096</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>2.5957400000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -37327,8 +37796,11 @@
       <c r="P156">
         <v>3.6806000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>3.62324</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -37377,8 +37849,11 @@
       <c r="P157">
         <v>9.9804999999999993</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <v>9.8506900000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -37427,8 +37902,11 @@
       <c r="P158">
         <v>13.4018</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>13.2311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -37477,8 +37955,11 @@
       <c r="P159">
         <v>2.1741299999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>2.1416400000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -37527,8 +38008,11 @@
       <c r="P160">
         <v>0.67256700000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>0.66254000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -37577,8 +38061,11 @@
       <c r="P161">
         <v>1.2821400000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>1.25407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -37627,8 +38114,11 @@
       <c r="P162">
         <v>4.0551700000000004</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>3.9969000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -37677,8 +38167,11 @@
       <c r="P163">
         <v>3.12317</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>3.0829499999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -37727,8 +38220,11 @@
       <c r="P164">
         <v>0.45011400000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>0.44385999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -37777,8 +38273,11 @@
       <c r="P165">
         <v>2.0154700000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>1.98434</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -37827,8 +38326,11 @@
       <c r="P166">
         <v>2.19475</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>2.16181</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -37877,8 +38379,11 @@
       <c r="P167">
         <v>2.63117</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>2.5915400000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -37927,8 +38432,11 @@
       <c r="P168">
         <v>1.9184099999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>1.88673</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -37977,8 +38485,11 @@
       <c r="P169">
         <v>20.616</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>20.2896</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -38027,8 +38538,11 @@
       <c r="P170">
         <v>3.2854899999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>3.2384900000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -38077,8 +38591,11 @@
       <c r="P171">
         <v>0.52333399999999997</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>0.50769600000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -38127,8 +38644,11 @@
       <c r="P172">
         <v>0.441222</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>0.43549599999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -38177,8 +38697,11 @@
       <c r="P173">
         <v>0.69116999999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>0.68117399999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -38227,8 +38750,11 @@
       <c r="P174">
         <v>0.95137000000000005</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>0.939473</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -38277,8 +38803,11 @@
       <c r="P175">
         <v>0.42348599999999997</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>0.42079</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -38327,8 +38856,11 @@
       <c r="P176">
         <v>1.99892</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>1.97394</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -38377,8 +38909,11 @@
       <c r="P177">
         <v>1.71641</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>1.6904999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -38427,8 +38962,11 @@
       <c r="P178">
         <v>1.3193999999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>1.2969599999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -38477,8 +39015,11 @@
       <c r="P179">
         <v>2.44943</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>2.3956900000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -38527,8 +39068,11 @@
       <c r="P180">
         <v>13.637700000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>13.400700000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -38577,8 +39121,11 @@
       <c r="P181">
         <v>0.91562699999999997</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>0.90356199999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -38627,8 +39174,11 @@
       <c r="P182">
         <v>3.9246400000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>3.8763999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -38677,8 +39227,11 @@
       <c r="P183">
         <v>0.80297799999999997</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>0.78013999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -38727,8 +39280,11 @@
       <c r="P184">
         <v>0.237039</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>0.23110600000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -38777,8 +39333,11 @@
       <c r="P185">
         <v>0.57811800000000002</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>0.56785600000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -38827,8 +39386,11 @@
       <c r="P186">
         <v>1.88121</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>1.8576900000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -38877,8 +39439,11 @@
       <c r="P187">
         <v>0.26215699999999997</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>0.256359</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -38927,8 +39492,11 @@
       <c r="P188">
         <v>2.62418</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>2.5891000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -38977,8 +39545,11 @@
       <c r="P189">
         <v>4.4381999999999998E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>4.5184000000000002E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -39027,8 +39598,11 @@
       <c r="P190">
         <v>0.242615</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>0.240208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -39077,8 +39651,11 @@
       <c r="P191">
         <v>13.4382</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>13.2537</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -39127,8 +39704,11 @@
       <c r="P192">
         <v>2.7034500000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>2.66818</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -39177,8 +39757,11 @@
       <c r="P193">
         <v>0.91702600000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>0.89954800000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -39227,8 +39810,11 @@
       <c r="P194">
         <v>0.44708399999999998</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>0.437282</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -39277,8 +39863,11 @@
       <c r="P195">
         <v>0.49080299999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>0.487896</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -39327,8 +39916,11 @@
       <c r="P196">
         <v>1.2904</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <v>1.2703</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -39377,8 +39969,11 @@
       <c r="P197">
         <v>0.89770099999999997</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>0.88801699999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -39427,8 +40022,11 @@
       <c r="P198">
         <v>0.33737</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>0.33088400000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -39477,8 +40075,11 @@
       <c r="P199">
         <v>3.2964000000000002</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>3.2407400000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -39527,8 +40128,11 @@
       <c r="P200">
         <v>0.84659399999999996</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0.82510799999999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -39577,8 +40181,11 @@
       <c r="P201">
         <v>0.637656</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>0.62561800000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -39627,8 +40234,11 @@
       <c r="P202">
         <v>11.9476</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>11.733700000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -39677,8 +40287,11 @@
       <c r="P203">
         <v>0.29530800000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>0.29167999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -39727,8 +40340,11 @@
       <c r="P204">
         <v>1.1337900000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>1.1261699999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -39777,8 +40393,11 @@
       <c r="P205">
         <v>0.18531</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>0.179978</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -39827,8 +40446,11 @@
       <c r="P206">
         <v>1.2824199999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>1.2643</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -39877,8 +40499,11 @@
       <c r="P207">
         <v>0.30072399999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>0.29575400000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -39927,8 +40552,11 @@
       <c r="P208">
         <v>0.283636</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>0.276445</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -39977,8 +40605,11 @@
       <c r="P209">
         <v>1.0114799999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>0.98754399999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -40027,8 +40658,11 @@
       <c r="P210">
         <v>8.7239800000000006E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <v>8.4957699999999997E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -40077,8 +40711,11 @@
       <c r="P211">
         <v>3.0654300000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <v>3.0280800000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -40127,8 +40764,11 @@
       <c r="P212">
         <v>7.0996000000000004E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <v>7.0072099999999998E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -40177,8 +40817,11 @@
       <c r="P213">
         <v>11.991</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <v>11.8407</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -40227,8 +40870,11 @@
       <c r="P214">
         <v>381.77</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <v>379.79199999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -40277,8 +40923,11 @@
       <c r="P215">
         <v>12.646000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <v>12.5501</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -40327,8 +40976,11 @@
       <c r="P216">
         <v>12.077199999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>11.9444</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -40377,8 +41029,11 @@
       <c r="P217">
         <v>12.086</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <v>11.979200000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -40427,8 +41082,11 @@
       <c r="P218">
         <v>24.127300000000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>23.9434</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -40477,8 +41135,11 @@
       <c r="P219">
         <v>5.5248600000000003</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <v>5.47126</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -40527,8 +41188,11 @@
       <c r="P220">
         <v>11.716200000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>11.580299999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -40577,8 +41241,11 @@
       <c r="P221">
         <v>10.506600000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <v>10.3963</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -40627,8 +41294,11 @@
       <c r="P222">
         <v>10.4978</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>10.3843</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -40677,8 +41347,11 @@
       <c r="P223">
         <v>13.4495</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>13.306100000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -40727,8 +41400,11 @@
       <c r="P224">
         <v>11.7804</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>11.646699999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -40777,8 +41453,11 @@
       <c r="P225">
         <v>19.5625</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>19.384399999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -40827,8 +41506,11 @@
       <c r="P226">
         <v>11.706300000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>11.591200000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -40877,8 +41559,11 @@
       <c r="P227">
         <v>11.7233</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <v>11.6182</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -40927,8 +41612,11 @@
       <c r="P228">
         <v>12.0884</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>11.961399999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -40977,8 +41665,11 @@
       <c r="P229">
         <v>5.4812000000000003</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <v>5.41601</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -41027,8 +41718,11 @@
       <c r="P230">
         <v>29.653300000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <v>29.3355</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -41077,8 +41771,11 @@
       <c r="P231">
         <v>29.674700000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q231">
+        <v>29.3735</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -41127,8 +41824,11 @@
       <c r="P232">
         <v>12.097300000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <v>11.9764</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -41177,8 +41877,11 @@
       <c r="P233">
         <v>2.3789099999999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q233">
+        <v>2.3778899999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -41227,8 +41930,11 @@
       <c r="P234">
         <v>9.5452200000000001E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <v>9.5023999999999997E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -41277,8 +41983,11 @@
       <c r="P235">
         <v>4.11621E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q235">
+        <v>4.13281E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -41327,8 +42036,11 @@
       <c r="P236">
         <v>2.04881</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <v>2.0118200000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -41377,8 +42089,11 @@
       <c r="P237">
         <v>11.6371</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <v>11.4786</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -41427,8 +42142,11 @@
       <c r="P238">
         <v>0.59802999999999995</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <v>0.58557199999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -41477,8 +42195,11 @@
       <c r="P239">
         <v>1.1597599999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q239">
+        <v>1.1395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -41527,8 +42248,11 @@
       <c r="P240">
         <v>1.00013</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <v>0.98344399999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -41577,8 +42301,11 @@
       <c r="P241">
         <v>0.16212199999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q241">
+        <v>0.160798</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -41627,8 +42354,11 @@
       <c r="P242">
         <v>0.112286</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q242">
+        <v>0.112014</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -41677,8 +42407,11 @@
       <c r="P243">
         <v>0.34408</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q243">
+        <v>0.34176600000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -41727,8 +42460,11 @@
       <c r="P244">
         <v>1.718</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q244">
+        <v>1.7000599999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -41777,8 +42513,11 @@
       <c r="P245">
         <v>1.69346</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q245">
+        <v>1.68249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -41827,8 +42566,11 @@
       <c r="P246">
         <v>0.1021</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q246">
+        <v>0.100754</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -41877,8 +42619,11 @@
       <c r="P247">
         <v>4.8268100000000001E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q247">
+        <v>4.7796100000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -41927,8 +42672,11 @@
       <c r="P248">
         <v>11.6091</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q248">
+        <v>11.4617</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -41977,8 +42725,11 @@
       <c r="P249">
         <v>1.87137</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q249">
+        <v>1.8368800000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -42027,8 +42778,11 @@
       <c r="P250">
         <v>0.14211199999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <v>0.13805799999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -42077,8 +42831,11 @@
       <c r="P251">
         <v>2.44333</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <v>2.4426100000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -42127,8 +42884,11 @@
       <c r="P252">
         <v>0.14690400000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>0.14488999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -42177,8 +42937,11 @@
       <c r="P253">
         <v>0.78676599999999997</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <v>0.77322800000000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -42227,8 +42990,11 @@
       <c r="P254">
         <v>23.2226</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>23.3262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -42277,8 +43043,11 @@
       <c r="P255">
         <v>1.04427</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>1.02806</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -42327,8 +43096,11 @@
       <c r="P256">
         <v>0.52674699999999997</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>0.51623600000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -42377,8 +43149,11 @@
       <c r="P257">
         <v>0.60113499999999997</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>0.58590200000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -42427,8 +43202,11 @@
       <c r="P258">
         <v>2.8507099999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>2.81908</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -42477,8 +43255,11 @@
       <c r="P259">
         <v>24.0609</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>23.8294</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -42527,8 +43308,11 @@
       <c r="P260">
         <v>1.4066000000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q260">
+        <v>1.40239</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -42577,8 +43361,11 @@
       <c r="P261">
         <v>0.59896199999999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>0.58762000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -42627,8 +43414,11 @@
       <c r="P262">
         <v>0.49450300000000003</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>0.48191600000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -42677,8 +43467,11 @@
       <c r="P263">
         <v>9.0744099999999994E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>9.0735899999999994E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -42727,8 +43520,11 @@
       <c r="P264">
         <v>1.7423599999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q264">
+        <v>1.6984699999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -42777,8 +43573,11 @@
       <c r="P265">
         <v>0.99044500000000002</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>0.98872199999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -42827,8 +43626,11 @@
       <c r="P266">
         <v>0.81148399999999998</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>0.80042199999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -42877,8 +43679,11 @@
       <c r="P267">
         <v>0.219387</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>0.21682000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -42927,8 +43732,11 @@
       <c r="P268">
         <v>0.98089099999999996</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>0.97240000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -42977,8 +43785,11 @@
       <c r="P269">
         <v>2.2877299999999998</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>2.2619099999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -43027,8 +43838,11 @@
       <c r="P270">
         <v>11.6554</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>11.4907</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -43077,8 +43891,11 @@
       <c r="P271">
         <v>1.31725</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>1.2920199999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -43127,8 +43944,11 @@
       <c r="P272">
         <v>0.82156099999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>0.79962900000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -43177,8 +43997,11 @@
       <c r="P273">
         <v>0.74213399999999996</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>0.72397800000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -43227,8 +44050,11 @@
       <c r="P274">
         <v>0.52672300000000005</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>0.51543399999999995</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -43277,8 +44103,11 @@
       <c r="P275">
         <v>5.0525899999999999E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>4.9584000000000003E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -43327,8 +44156,11 @@
       <c r="P276">
         <v>0.60120200000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>0.59478600000000004</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -43377,8 +44209,11 @@
       <c r="P277">
         <v>0.88503500000000002</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>0.87702800000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -43427,8 +44262,11 @@
       <c r="P278">
         <v>0.82533299999999998</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>0.81823599999999996</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -43477,8 +44315,11 @@
       <c r="P279">
         <v>1.3292600000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>1.30768</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -43527,8 +44368,11 @@
       <c r="P280">
         <v>0.59168600000000005</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>0.58217799999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -43577,8 +44421,11 @@
       <c r="P281">
         <v>11.6213</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>11.4756</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -43627,8 +44474,11 @@
       <c r="P282">
         <v>0.54128200000000004</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>0.53304399999999996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -43677,8 +44527,11 @@
       <c r="P283">
         <v>0.121258</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>0.120492</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -43727,8 +44580,11 @@
       <c r="P284">
         <v>0.48349599999999998</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>0.47855399999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -43777,8 +44633,11 @@
       <c r="P285">
         <v>0.44883000000000001</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>0.43792599999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -43827,8 +44686,11 @@
       <c r="P286">
         <v>0.24008199999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q286">
+        <v>0.236147</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -43877,8 +44739,11 @@
       <c r="P287">
         <v>0.411134</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>0.40125</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -43927,8 +44792,11 @@
       <c r="P288">
         <v>7.1131899999999998E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>6.8596199999999996E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -43977,8 +44845,11 @@
       <c r="P289">
         <v>0.655976</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>0.63990800000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -44027,8 +44898,11 @@
       <c r="P290">
         <v>0.94132899999999997</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>0.92511600000000005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -44077,8 +44951,11 @@
       <c r="P291">
         <v>0.53643600000000002</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>0.52854800000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -44123,6 +45000,9 @@
       </c>
       <c r="P292" t="s">
         <v>305</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/app/result.xlsx
+++ b/app/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QOC\MeshSimplification-Mobile\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD632A-CBD3-4A3A-B5FE-37973DC633A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A2453D-098A-436F-A59E-5DB0DCDABA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>mesh0</t>
   </si>
@@ -957,6 +957,9 @@
   </si>
   <si>
     <t>Clear some memory pool</t>
+  </si>
+  <si>
+    <t>Remove face node pool</t>
   </si>
 </sst>
 </file>
@@ -29506,10 +29509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q292"/>
+  <dimension ref="A1:R292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L277" workbookViewId="0">
-      <selection activeCell="Q293" sqref="Q293"/>
+    <sheetView tabSelected="1" topLeftCell="L255" workbookViewId="0">
+      <selection activeCell="R292" sqref="R292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29530,9 +29533,10 @@
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="34.5703125" customWidth="1"/>
     <col min="17" max="17" width="28.28515625" customWidth="1"/>
+    <col min="18" max="18" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29584,8 +29588,11 @@
       <c r="Q1">
         <v>12.991</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>12.9941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -29637,8 +29644,11 @@
       <c r="Q2">
         <v>12.043100000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>12.010199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -29690,8 +29700,11 @@
       <c r="Q3">
         <v>11.5776</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>11.5533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -29743,8 +29756,11 @@
       <c r="Q4">
         <v>0.45149</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0.45411600000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -29796,8 +29812,11 @@
       <c r="Q5">
         <v>0.67437000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0.68189599999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -29849,8 +29868,11 @@
       <c r="Q6">
         <v>0.37579000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0.380886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -29902,8 +29924,11 @@
       <c r="Q7">
         <v>3.9742E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>3.9732000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29955,8 +29980,11 @@
       <c r="Q8">
         <v>0.276561</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0.27764299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -30008,8 +30036,11 @@
       <c r="Q9">
         <v>1.12358</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>1.1208100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -30061,8 +30092,11 @@
       <c r="Q10">
         <v>0.241893</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0.241593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -30114,8 +30148,11 @@
       <c r="Q11">
         <v>0.34666799999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0.34359000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -30167,8 +30204,11 @@
       <c r="Q12">
         <v>6.3725900000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>6.3477800000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -30220,8 +30260,11 @@
       <c r="Q13">
         <v>2.9515600000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>2.9862899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -30273,8 +30316,11 @@
       <c r="Q14">
         <v>20.064</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>20.0305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -30326,8 +30372,11 @@
       <c r="Q15">
         <v>0.17711399999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0.178344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -30379,8 +30428,11 @@
       <c r="Q16">
         <v>0.32405499999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0.32240600000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -30432,8 +30484,11 @@
       <c r="Q17">
         <v>0.291659</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0.292215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -30485,8 +30540,11 @@
       <c r="Q18">
         <v>0.25703900000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0.25391799999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -30538,8 +30596,11 @@
       <c r="Q19">
         <v>0.41562199999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0.41084799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -30591,8 +30652,11 @@
       <c r="Q20">
         <v>1.3009599999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>1.3025800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -30644,8 +30708,11 @@
       <c r="Q21">
         <v>5.1692000000000002E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>5.1381900000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -30697,8 +30764,11 @@
       <c r="Q22">
         <v>2.5647900000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>2.6450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -30750,8 +30820,11 @@
       <c r="Q23">
         <v>0.67386199999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0.68499600000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -30803,8 +30876,11 @@
       <c r="Q24">
         <v>0.97484000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0.98772700000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -30856,8 +30932,11 @@
       <c r="Q25">
         <v>23.8687</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>23.716899999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -30909,8 +30988,11 @@
       <c r="Q26">
         <v>0.269374</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0.269924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -30962,8 +31044,11 @@
       <c r="Q27">
         <v>0.678894</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>0.680786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -31015,8 +31100,11 @@
       <c r="Q28">
         <v>7.9133800000000004E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>7.9507999999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -31068,8 +31156,11 @@
       <c r="Q29">
         <v>0.38658599999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0.388152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -31121,8 +31212,11 @@
       <c r="Q30">
         <v>0.45898600000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>0.456036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -31174,8 +31268,11 @@
       <c r="Q31">
         <v>0.23285500000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>0.23325499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -31227,8 +31324,11 @@
       <c r="Q32">
         <v>0.799126</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>0.79718299999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -31280,8 +31380,11 @@
       <c r="Q33">
         <v>0.31581599999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>0.31515599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -31333,8 +31436,11 @@
       <c r="Q34">
         <v>0.17680799999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>0.17623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -31386,8 +31492,11 @@
       <c r="Q35">
         <v>1.26109</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>1.2645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -31439,8 +31548,11 @@
       <c r="Q36">
         <v>11.587999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>11.5829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -31492,8 +31604,11 @@
       <c r="Q37">
         <v>0.92493199999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>0.92711399999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -31545,8 +31660,11 @@
       <c r="Q38">
         <v>0.88268199999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>0.88602999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -31598,8 +31716,11 @@
       <c r="Q39">
         <v>0.124574</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0.123918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -31651,8 +31772,11 @@
       <c r="Q40">
         <v>0.92179299999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0.91572600000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -31704,8 +31828,11 @@
       <c r="Q41">
         <v>0.40573399999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0.40534799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -31757,8 +31884,11 @@
       <c r="Q42">
         <v>0.590754</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0.59093799999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -31810,8 +31940,11 @@
       <c r="Q43">
         <v>0.50421000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0.50740399999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -31863,8 +31996,11 @@
       <c r="Q44">
         <v>0.52833600000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0.52785199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -31916,8 +32052,11 @@
       <c r="Q45">
         <v>0.101504</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0.101646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -31969,8 +32108,11 @@
       <c r="Q46">
         <v>0.64320999999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0.64636199999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -32022,8 +32164,11 @@
       <c r="Q47">
         <v>13.1928</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>13.2013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -32075,8 +32220,11 @@
       <c r="Q48">
         <v>0.13262199999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>0.135294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -32128,8 +32276,11 @@
       <c r="Q49">
         <v>0.76101700000000005</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>0.77225600000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -32181,8 +32332,11 @@
       <c r="Q50">
         <v>0.176314</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>0.177236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -32234,8 +32388,11 @@
       <c r="Q51">
         <v>0.23158300000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>0.23278599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -32287,8 +32444,11 @@
       <c r="Q52">
         <v>1.36114</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>1.3652200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -32340,8 +32500,11 @@
       <c r="Q53">
         <v>0.77435399999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>0.76982799999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -32393,8 +32556,11 @@
       <c r="Q54">
         <v>0.13639399999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>0.13621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -32446,8 +32612,11 @@
       <c r="Q55">
         <v>0.64227599999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>0.64403900000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -32499,8 +32668,11 @@
       <c r="Q56">
         <v>0.83016000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>0.82688499999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -32552,8 +32724,11 @@
       <c r="Q57">
         <v>0.48516399999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>0.48764400000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -32605,8 +32780,11 @@
       <c r="Q58">
         <v>11.4472</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>11.422599999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -32658,8 +32836,11 @@
       <c r="Q59">
         <v>9.4498100000000002E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>9.4198000000000004E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -32711,8 +32892,11 @@
       <c r="Q60">
         <v>0.184472</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>0.18548300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -32764,8 +32948,11 @@
       <c r="Q61">
         <v>0.163216</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>0.16131000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -32817,8 +33004,11 @@
       <c r="Q62">
         <v>1.5758799999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>1.5861799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -32870,8 +33060,11 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -32923,8 +33116,11 @@
       <c r="Q64">
         <v>0.89285400000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>0.89640699999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -32976,8 +33172,11 @@
       <c r="Q65">
         <v>2.3089499999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>2.32043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -33029,8 +33228,11 @@
       <c r="Q66">
         <v>5.3223599999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>5.3035100000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -33082,8 +33284,11 @@
       <c r="Q67">
         <v>0.38648199999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>0.38508199999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -33135,8 +33340,11 @@
       <c r="Q68">
         <v>0.41326800000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>0.40946399999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -33188,8 +33396,11 @@
       <c r="Q69">
         <v>13.201700000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>13.2385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -33241,8 +33452,11 @@
       <c r="Q70">
         <v>0.26575599999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>0.26602199999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -33294,8 +33508,11 @@
       <c r="Q71">
         <v>6.8784200000000004E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>6.6982E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -33347,8 +33564,11 @@
       <c r="Q72">
         <v>0.18684700000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>0.18645100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -33400,8 +33620,11 @@
       <c r="Q73">
         <v>0.15906200000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>0.16010199999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -33453,8 +33676,11 @@
       <c r="Q74">
         <v>9.36197E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>9.3203800000000003E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -33506,8 +33732,11 @@
       <c r="Q75">
         <v>0.27275100000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>0.27148699999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -33559,8 +33788,11 @@
       <c r="Q76">
         <v>9.7720299999999996E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>9.74603E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -33612,8 +33844,11 @@
       <c r="Q77">
         <v>0.950654</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>0.94944200000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -33665,8 +33900,11 @@
       <c r="Q78">
         <v>0.28261799999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>0.28083999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -33718,8 +33956,11 @@
       <c r="Q79">
         <v>0.20089499999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>0.20032800000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -33771,8 +34012,11 @@
       <c r="Q80">
         <v>11.432</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>11.4152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -33824,8 +34068,11 @@
       <c r="Q81">
         <v>0.13450200000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>0.133658</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -33877,8 +34124,11 @@
       <c r="Q82">
         <v>0.28722599999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>0.28906599999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -33930,8 +34180,11 @@
       <c r="Q83">
         <v>0.68208599999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>0.68398599999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -33983,8 +34236,11 @@
       <c r="Q84">
         <v>2.3887999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>2.3893399999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -34036,8 +34292,11 @@
       <c r="Q85">
         <v>0.94633199999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>0.95316400000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -34089,8 +34348,11 @@
       <c r="Q86">
         <v>0.84641</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>0.86970800000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -34142,8 +34404,11 @@
       <c r="Q87">
         <v>4.8652000000000001E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>4.9189999999999998E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -34195,8 +34460,11 @@
       <c r="Q88">
         <v>4.3093899999999997E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>4.3121899999999998E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -34248,8 +34516,11 @@
       <c r="Q89">
         <v>0.113612</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>0.112788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -34301,8 +34572,11 @@
       <c r="Q90">
         <v>4.57539E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>4.5969999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -34354,8 +34628,11 @@
       <c r="Q91">
         <v>13.1442</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>13.141299999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -34407,8 +34684,11 @@
       <c r="Q92">
         <v>0.221197</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>0.220026</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -34460,8 +34740,11 @@
       <c r="Q93">
         <v>0.20414599999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>0.20307600000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -34513,8 +34796,11 @@
       <c r="Q94">
         <v>0.13974200000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>0.14095199999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -34566,8 +34852,11 @@
       <c r="Q95">
         <v>0.40577600000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>0.412636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -34619,8 +34908,11 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -34672,8 +34964,11 @@
       <c r="Q97">
         <v>8.8170200000000004E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>8.75441E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -34725,8 +35020,11 @@
       <c r="Q98">
         <v>5.6627900000000002E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>5.5432200000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -34778,8 +35076,11 @@
       <c r="Q99">
         <v>0.117372</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>0.115924</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -34831,8 +35132,11 @@
       <c r="Q100">
         <v>1.82657</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>1.8333299999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -34884,8 +35188,11 @@
       <c r="Q101">
         <v>0.206039</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>0.206155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -34937,8 +35244,11 @@
       <c r="Q102">
         <v>11.6318</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>11.6158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -34990,8 +35300,11 @@
       <c r="Q103">
         <v>1.57165</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>1.58195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -35043,8 +35356,11 @@
       <c r="Q104">
         <v>0.50063800000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>0.50361400000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -35096,8 +35412,11 @@
       <c r="Q105">
         <v>0.460316</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>0.460758</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -35149,8 +35468,11 @@
       <c r="Q106">
         <v>0.11208</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <v>0.11357200000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -35202,8 +35524,11 @@
       <c r="Q107">
         <v>0.45902799999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>0.45751999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -35255,8 +35580,11 @@
       <c r="Q108">
         <v>4.6713900000000003E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>4.6761900000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -35308,8 +35636,11 @@
       <c r="Q109">
         <v>5.2526000000000003E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>5.2044100000000003E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -35361,8 +35692,11 @@
       <c r="Q110">
         <v>0.229407</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <v>0.22736899999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -35414,8 +35748,11 @@
       <c r="Q111">
         <v>9.6452300000000005E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>9.5490400000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -35467,8 +35804,11 @@
       <c r="Q112">
         <v>4.2659900000000001E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <v>4.22219E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -35520,8 +35860,11 @@
       <c r="Q113">
         <v>11.4803</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <v>11.451000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -35573,8 +35916,11 @@
       <c r="Q114">
         <v>11.708399999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <v>11.6873</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -35626,8 +35972,11 @@
       <c r="Q115">
         <v>7.3251899999999995E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <v>7.2655899999999995E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -35679,8 +36028,11 @@
       <c r="Q116">
         <v>0.62956400000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <v>0.63197400000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -35732,8 +36084,11 @@
       <c r="Q117">
         <v>4.2737999999999998E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <v>4.2313999999999997E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -35785,8 +36140,11 @@
       <c r="Q118">
         <v>0.41533599999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <v>0.41536600000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -35838,8 +36196,11 @@
       <c r="Q119">
         <v>0.20008400000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <v>0.20150699999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -35891,8 +36252,11 @@
       <c r="Q120">
         <v>0.14943400000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <v>0.147532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -35944,8 +36308,11 @@
       <c r="Q121">
         <v>1.2044900000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <v>1.20408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -35997,8 +36364,11 @@
       <c r="Q122">
         <v>1.9329400000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <v>1.9432100000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -36050,8 +36420,11 @@
       <c r="Q123">
         <v>6.6836799999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <v>6.8239599999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -36103,8 +36476,11 @@
       <c r="Q124">
         <v>1.0465500000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <v>1.0466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -36156,8 +36532,11 @@
       <c r="Q125">
         <v>13.3161</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <v>13.3178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -36209,8 +36588,11 @@
       <c r="Q126">
         <v>2.9067599999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <v>2.8738999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -36262,8 +36644,11 @@
       <c r="Q127">
         <v>6.9774000000000003E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <v>7.3053900000000005E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -36315,8 +36700,11 @@
       <c r="Q128">
         <v>1.2682100000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <v>1.27965</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -36368,8 +36756,11 @@
       <c r="Q129">
         <v>1.2010700000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <v>1.20136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -36421,8 +36812,11 @@
       <c r="Q130">
         <v>0.180006</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <v>0.17737600000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -36474,8 +36868,11 @@
       <c r="Q131">
         <v>5.6708800000000004</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <v>5.6639099999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -36527,8 +36924,11 @@
       <c r="Q132">
         <v>0.45869799999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <v>0.45982600000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -36580,8 +36980,11 @@
       <c r="Q133">
         <v>1.4349099999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <v>1.4303699999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -36633,8 +37036,11 @@
       <c r="Q134">
         <v>1.89134</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <v>1.8933</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -36686,8 +37092,11 @@
       <c r="Q135">
         <v>2.7390699999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <v>2.7494000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -36739,8 +37148,11 @@
       <c r="Q136">
         <v>6.5696399999999997</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <v>6.6059900000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -36792,8 +37204,11 @@
       <c r="Q137">
         <v>4.6216799999999996</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <v>4.6240600000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -36845,8 +37260,11 @@
       <c r="Q138">
         <v>2.1525099999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <v>2.1492200000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -36898,8 +37316,11 @@
       <c r="Q139">
         <v>16.450399999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <v>16.434200000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -36951,8 +37372,11 @@
       <c r="Q140">
         <v>16.088200000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <v>16.0777</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -37004,8 +37428,11 @@
       <c r="Q141">
         <v>1.14802</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <v>1.13845</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -37057,8 +37484,11 @@
       <c r="Q142">
         <v>2.5539399999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <v>2.55071</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -37110,8 +37540,11 @@
       <c r="Q143">
         <v>2.2701899999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <v>2.2884600000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -37163,8 +37596,11 @@
       <c r="Q144">
         <v>0.27491700000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <v>0.27660699999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -37216,8 +37652,11 @@
       <c r="Q145">
         <v>1.7227600000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <v>1.7174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -37269,8 +37708,11 @@
       <c r="Q146">
         <v>0.54251000000000005</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146">
+        <v>0.53888800000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -37322,8 +37764,11 @@
       <c r="Q147">
         <v>13.1845</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <v>13.191000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -37375,8 +37820,11 @@
       <c r="Q148">
         <v>3.6446900000000002</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <v>3.6489099999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -37428,8 +37876,11 @@
       <c r="Q149">
         <v>3.0525000000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <v>3.0533800000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -37481,8 +37932,11 @@
       <c r="Q150">
         <v>5.4561099999999998</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <v>5.4567100000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -37534,8 +37988,11 @@
       <c r="Q151">
         <v>8.4282599999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <v>8.4269999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -37587,8 +38044,11 @@
       <c r="Q152">
         <v>0.42016799999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <v>0.41899399999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -37640,8 +38100,11 @@
       <c r="Q153">
         <v>1.2355499999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <v>1.2273799999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -37693,8 +38156,11 @@
       <c r="Q154">
         <v>1.8382700000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <v>1.8501099999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -37746,8 +38212,11 @@
       <c r="Q155">
         <v>2.5957400000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <v>2.5954600000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -37799,8 +38268,11 @@
       <c r="Q156">
         <v>3.62324</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <v>3.6220599999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -37852,8 +38324,11 @@
       <c r="Q157">
         <v>9.8506900000000002</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <v>9.8822399999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -37905,8 +38380,11 @@
       <c r="Q158">
         <v>13.2311</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <v>13.2578</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -37958,8 +38436,11 @@
       <c r="Q159">
         <v>2.1416400000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <v>2.1438799999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -38011,8 +38492,11 @@
       <c r="Q160">
         <v>0.66254000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>0.66437100000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -38064,8 +38548,11 @@
       <c r="Q161">
         <v>1.25407</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <v>1.2537400000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -38117,8 +38604,11 @@
       <c r="Q162">
         <v>3.9969000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <v>3.9949300000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -38170,8 +38660,11 @@
       <c r="Q163">
         <v>3.0829499999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <v>3.10378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -38223,8 +38716,11 @@
       <c r="Q164">
         <v>0.44385999999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>0.44406200000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -38276,8 +38772,11 @@
       <c r="Q165">
         <v>1.98434</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <v>1.98508</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -38329,8 +38828,11 @@
       <c r="Q166">
         <v>2.16181</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <v>2.1694300000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -38382,8 +38884,11 @@
       <c r="Q167">
         <v>2.5915400000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <v>2.6019000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -38435,8 +38940,11 @@
       <c r="Q168">
         <v>1.88673</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <v>1.9155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -38488,8 +38996,11 @@
       <c r="Q169">
         <v>20.2896</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <v>20.462900000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -38541,8 +39052,11 @@
       <c r="Q170">
         <v>3.2384900000000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <v>3.2399499999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -38594,8 +39108,11 @@
       <c r="Q171">
         <v>0.50769600000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>0.51458999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -38647,8 +39164,11 @@
       <c r="Q172">
         <v>0.43549599999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>0.43702600000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -38700,8 +39220,11 @@
       <c r="Q173">
         <v>0.68117399999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>0.67847199999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -38753,8 +39276,11 @@
       <c r="Q174">
         <v>0.939473</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <v>0.936554</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -38806,8 +39332,11 @@
       <c r="Q175">
         <v>0.42079</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175">
+        <v>0.41694199999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -38859,8 +39388,11 @@
       <c r="Q176">
         <v>1.97394</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R176">
+        <v>1.9768699999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -38912,8 +39444,11 @@
       <c r="Q177">
         <v>1.6904999999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R177">
+        <v>1.6933499999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -38965,8 +39500,11 @@
       <c r="Q178">
         <v>1.2969599999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R178">
+        <v>1.2989299999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -39018,8 +39556,11 @@
       <c r="Q179">
         <v>2.3956900000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R179">
+        <v>2.4015499999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -39071,8 +39612,11 @@
       <c r="Q180">
         <v>13.400700000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R180">
+        <v>13.403499999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -39124,8 +39668,11 @@
       <c r="Q181">
         <v>0.90356199999999998</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R181">
+        <v>0.90639400000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -39177,8 +39724,11 @@
       <c r="Q182">
         <v>3.8763999999999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R182">
+        <v>3.8848199999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -39230,8 +39780,11 @@
       <c r="Q183">
         <v>0.78013999999999994</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R183">
+        <v>0.786026</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -39283,8 +39836,11 @@
       <c r="Q184">
         <v>0.23110600000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R184">
+        <v>0.233546</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -39336,8 +39892,11 @@
       <c r="Q185">
         <v>0.56785600000000003</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R185">
+        <v>0.57002600000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -39389,8 +39948,11 @@
       <c r="Q186">
         <v>1.8576900000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R186">
+        <v>1.8571299999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -39442,8 +40004,11 @@
       <c r="Q187">
         <v>0.256359</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R187">
+        <v>0.25857799999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -39495,8 +40060,11 @@
       <c r="Q188">
         <v>2.5891000000000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R188">
+        <v>2.5956100000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -39548,8 +40116,11 @@
       <c r="Q189">
         <v>4.5184000000000002E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R189">
+        <v>4.5650000000000003E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -39601,8 +40172,11 @@
       <c r="Q190">
         <v>0.240208</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R190">
+        <v>0.24129400000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -39654,8 +40228,11 @@
       <c r="Q191">
         <v>13.2537</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R191">
+        <v>13.260899999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -39707,8 +40284,11 @@
       <c r="Q192">
         <v>2.66818</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R192">
+        <v>2.6691400000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -39760,8 +40340,11 @@
       <c r="Q193">
         <v>0.89954800000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R193">
+        <v>0.89840200000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -39813,8 +40396,11 @@
       <c r="Q194">
         <v>0.437282</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R194">
+        <v>0.43784800000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -39866,8 +40452,11 @@
       <c r="Q195">
         <v>0.487896</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R195">
+        <v>0.48777599999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -39919,8 +40508,11 @@
       <c r="Q196">
         <v>1.2703</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R196">
+        <v>1.27742</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -39972,8 +40564,11 @@
       <c r="Q197">
         <v>0.88801699999999995</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R197">
+        <v>0.89072899999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -40025,8 +40620,11 @@
       <c r="Q198">
         <v>0.33088400000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R198">
+        <v>0.33306999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -40078,8 +40676,11 @@
       <c r="Q199">
         <v>3.2407400000000002</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R199">
+        <v>3.24525</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -40131,8 +40732,11 @@
       <c r="Q200">
         <v>0.82510799999999995</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R200">
+        <v>0.82926200000000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -40184,8 +40788,11 @@
       <c r="Q201">
         <v>0.62561800000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R201">
+        <v>0.62899400000000005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -40237,8 +40844,11 @@
       <c r="Q202">
         <v>11.733700000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R202">
+        <v>11.700699999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -40290,8 +40900,11 @@
       <c r="Q203">
         <v>0.29167999999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R203">
+        <v>0.29216399999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -40343,8 +40956,11 @@
       <c r="Q204">
         <v>1.1261699999999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R204">
+        <v>1.1194200000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -40396,8 +41012,11 @@
       <c r="Q205">
         <v>0.179978</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R205">
+        <v>0.182116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -40449,8 +41068,11 @@
       <c r="Q206">
         <v>1.2643</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R206">
+        <v>1.2724899999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -40502,8 +41124,11 @@
       <c r="Q207">
         <v>0.29575400000000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R207">
+        <v>0.29537200000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -40555,8 +41180,11 @@
       <c r="Q208">
         <v>0.276445</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R208">
+        <v>0.280499</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -40608,8 +41236,11 @@
       <c r="Q209">
         <v>0.98754399999999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R209">
+        <v>1.0015499999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -40661,8 +41292,11 @@
       <c r="Q210">
         <v>8.4957699999999997E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R210">
+        <v>8.6455799999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -40714,8 +41348,11 @@
       <c r="Q211">
         <v>3.0280800000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R211">
+        <v>3.02366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -40767,8 +41404,11 @@
       <c r="Q212">
         <v>7.0072099999999998E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R212">
+        <v>6.9876099999999997E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -40820,8 +41460,11 @@
       <c r="Q213">
         <v>11.8407</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R213">
+        <v>11.8286</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -40873,8 +41516,11 @@
       <c r="Q214">
         <v>379.79199999999997</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R214">
+        <v>367.10399999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -40926,8 +41572,11 @@
       <c r="Q215">
         <v>12.5501</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R215">
+        <v>12.5261</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -40979,8 +41628,11 @@
       <c r="Q216">
         <v>11.9444</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R216">
+        <v>11.9147</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -41032,8 +41684,11 @@
       <c r="Q217">
         <v>11.979200000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R217">
+        <v>11.945399999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -41085,8 +41740,11 @@
       <c r="Q218">
         <v>23.9434</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R218">
+        <v>23.844999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -41138,8 +41796,11 @@
       <c r="Q219">
         <v>5.47126</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R219">
+        <v>5.4339599999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -41191,8 +41852,11 @@
       <c r="Q220">
         <v>11.580299999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R220">
+        <v>11.5801</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -41244,8 +41908,11 @@
       <c r="Q221">
         <v>10.3963</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R221">
+        <v>10.3941</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -41297,8 +41964,11 @@
       <c r="Q222">
         <v>10.3843</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R222">
+        <v>10.3863</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -41350,8 +42020,11 @@
       <c r="Q223">
         <v>13.306100000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R223">
+        <v>13.290699999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -41403,8 +42076,11 @@
       <c r="Q224">
         <v>11.646699999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R224">
+        <v>11.6302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -41456,8 +42132,11 @@
       <c r="Q225">
         <v>19.384399999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R225">
+        <v>19.328499999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -41509,8 +42188,11 @@
       <c r="Q226">
         <v>11.591200000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R226">
+        <v>11.558999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -41562,8 +42244,11 @@
       <c r="Q227">
         <v>11.6182</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R227">
+        <v>11.582700000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -41615,8 +42300,11 @@
       <c r="Q228">
         <v>11.961399999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R228">
+        <v>11.936299999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -41668,8 +42356,11 @@
       <c r="Q229">
         <v>5.41601</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R229">
+        <v>5.3997900000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -41721,8 +42412,11 @@
       <c r="Q230">
         <v>29.3355</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R230">
+        <v>29.2681</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -41774,8 +42468,11 @@
       <c r="Q231">
         <v>29.3735</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R231">
+        <v>29.317900000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -41827,8 +42524,11 @@
       <c r="Q232">
         <v>11.9764</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R232">
+        <v>11.948700000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -41880,8 +42580,11 @@
       <c r="Q233">
         <v>2.3778899999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R233">
+        <v>2.3511000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -41933,8 +42636,11 @@
       <c r="Q234">
         <v>9.5023999999999997E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R234">
+        <v>9.5002000000000003E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -41986,8 +42692,11 @@
       <c r="Q235">
         <v>4.13281E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R235">
+        <v>4.09541E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -42039,8 +42748,11 @@
       <c r="Q236">
         <v>2.0118200000000002</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R236">
+        <v>2.04061</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -42092,8 +42804,11 @@
       <c r="Q237">
         <v>11.4786</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R237">
+        <v>11.472200000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -42145,8 +42860,11 @@
       <c r="Q238">
         <v>0.58557199999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R238">
+        <v>0.58426999999999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -42198,8 +42916,11 @@
       <c r="Q239">
         <v>1.1395</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R239">
+        <v>1.1386099999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -42251,8 +42972,11 @@
       <c r="Q240">
         <v>0.98344399999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R240">
+        <v>0.98684300000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -42304,8 +43028,11 @@
       <c r="Q241">
         <v>0.160798</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R241">
+        <v>0.159526</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -42357,8 +43084,11 @@
       <c r="Q242">
         <v>0.112014</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R242">
+        <v>0.113916</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -42410,8 +43140,11 @@
       <c r="Q243">
         <v>0.34176600000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R243">
+        <v>0.344032</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -42463,8 +43196,11 @@
       <c r="Q244">
         <v>1.7000599999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R244">
+        <v>1.6989300000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -42516,8 +43252,11 @@
       <c r="Q245">
         <v>1.68249</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R245">
+        <v>1.67533</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -42569,8 +43308,11 @@
       <c r="Q246">
         <v>0.100754</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R246">
+        <v>0.100754</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -42622,8 +43364,11 @@
       <c r="Q247">
         <v>4.7796100000000001E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R247">
+        <v>4.8150100000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -42675,8 +43420,11 @@
       <c r="Q248">
         <v>11.4617</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R248">
+        <v>11.4633</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -42728,8 +43476,11 @@
       <c r="Q249">
         <v>1.8368800000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R249">
+        <v>1.84276</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -42781,8 +43532,11 @@
       <c r="Q250">
         <v>0.13805799999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R250">
+        <v>0.13778599999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -42834,8 +43588,11 @@
       <c r="Q251">
         <v>2.4426100000000002</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R251">
+        <v>2.4402599999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -42887,8 +43644,11 @@
       <c r="Q252">
         <v>0.14488999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R252">
+        <v>0.14357800000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -42940,8 +43700,11 @@
       <c r="Q253">
         <v>0.77322800000000003</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R253">
+        <v>0.77815100000000004</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -42993,8 +43756,11 @@
       <c r="Q254">
         <v>23.3262</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R254">
+        <v>23.604399999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -43046,8 +43812,11 @@
       <c r="Q255">
         <v>1.02806</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R255">
+        <v>1.03538</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -43099,8 +43868,11 @@
       <c r="Q256">
         <v>0.51623600000000003</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R256">
+        <v>0.52118200000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -43152,8 +43924,11 @@
       <c r="Q257">
         <v>0.58590200000000003</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R257">
+        <v>0.58775599999999995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -43205,8 +43980,11 @@
       <c r="Q258">
         <v>2.81908</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R258">
+        <v>2.8013300000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -43258,8 +44036,11 @@
       <c r="Q259">
         <v>23.8294</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R259">
+        <v>23.782499999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -43311,8 +44092,11 @@
       <c r="Q260">
         <v>1.40239</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R260">
+        <v>1.4032100000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -43364,8 +44148,11 @@
       <c r="Q261">
         <v>0.58762000000000003</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R261">
+        <v>0.59955800000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -43417,8 +44204,11 @@
       <c r="Q262">
         <v>0.48191600000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R262">
+        <v>0.48670600000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -43470,8 +44260,11 @@
       <c r="Q263">
         <v>9.0735899999999994E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R263">
+        <v>9.2851900000000001E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -43523,8 +44316,11 @@
       <c r="Q264">
         <v>1.6984699999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R264">
+        <v>1.7012499999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -43576,8 +44372,11 @@
       <c r="Q265">
         <v>0.98872199999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R265">
+        <v>0.99105299999999996</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -43629,8 +44428,11 @@
       <c r="Q266">
         <v>0.80042199999999997</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R266">
+        <v>0.79873499999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -43682,8 +44484,11 @@
       <c r="Q267">
         <v>0.21682000000000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R267">
+        <v>0.21754100000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -43735,8 +44540,11 @@
       <c r="Q268">
         <v>0.97240000000000004</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R268">
+        <v>0.973302</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -43788,8 +44596,11 @@
       <c r="Q269">
         <v>2.2619099999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R269">
+        <v>2.2640899999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -43841,8 +44652,11 @@
       <c r="Q270">
         <v>11.4907</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R270">
+        <v>11.489599999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -43894,8 +44708,11 @@
       <c r="Q271">
         <v>1.2920199999999999</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R271">
+        <v>1.3035600000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -43947,8 +44764,11 @@
       <c r="Q272">
         <v>0.79962900000000003</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R272">
+        <v>0.80619300000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -44000,8 +44820,11 @@
       <c r="Q273">
         <v>0.72397800000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R273">
+        <v>0.72691499999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -44053,8 +44876,11 @@
       <c r="Q274">
         <v>0.51543399999999995</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R274">
+        <v>0.51663199999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -44106,8 +44932,11 @@
       <c r="Q275">
         <v>4.9584000000000003E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R275">
+        <v>5.0051999999999999E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -44159,8 +44988,11 @@
       <c r="Q276">
         <v>0.59478600000000004</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R276">
+        <v>0.58909599999999995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -44212,8 +45044,11 @@
       <c r="Q277">
         <v>0.87702800000000003</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R277">
+        <v>0.872587</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -44265,8 +45100,11 @@
       <c r="Q278">
         <v>0.81823599999999996</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R278">
+        <v>0.82293099999999997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -44318,8 +45156,11 @@
       <c r="Q279">
         <v>1.30768</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R279">
+        <v>1.3119099999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -44371,8 +45212,11 @@
       <c r="Q280">
         <v>0.58217799999999997</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R280">
+        <v>0.57799599999999995</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -44424,8 +45268,11 @@
       <c r="Q281">
         <v>11.4756</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R281">
+        <v>11.458399999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -44477,8 +45324,11 @@
       <c r="Q282">
         <v>0.53304399999999996</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R282">
+        <v>0.53263400000000005</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -44530,8 +45380,11 @@
       <c r="Q283">
         <v>0.120492</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R283">
+        <v>0.120586</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -44583,8 +45436,11 @@
       <c r="Q284">
         <v>0.47855399999999998</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R284">
+        <v>0.47897000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -44636,8 +45492,11 @@
       <c r="Q285">
         <v>0.43792599999999998</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R285">
+        <v>0.443276</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -44689,8 +45548,11 @@
       <c r="Q286">
         <v>0.236147</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R286">
+        <v>0.238149</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -44742,8 +45604,11 @@
       <c r="Q287">
         <v>0.40125</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R287">
+        <v>0.40516400000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -44795,8 +45660,11 @@
       <c r="Q288">
         <v>6.8596199999999996E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R288">
+        <v>6.9326200000000004E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -44848,8 +45716,11 @@
       <c r="Q289">
         <v>0.63990800000000003</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R289">
+        <v>0.64416300000000004</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -44901,8 +45772,11 @@
       <c r="Q290">
         <v>0.92511600000000005</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R290">
+        <v>0.93669000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -44954,8 +45828,11 @@
       <c r="Q291">
         <v>0.52854800000000002</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R291">
+        <v>0.52806200000000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
@@ -45003,6 +45880,9 @@
       </c>
       <c r="Q292" t="s">
         <v>306</v>
+      </c>
+      <c r="R292" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
